--- a/Relatório_Gerencial_Denver.xlsx
+++ b/Relatório_Gerencial_Denver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Denver Asset\Clube Kairos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C42E116-2ACC-41B7-B974-B397A2C91C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603008FB-C6F8-4078-9354-20E3C0132710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="1590" windowWidth="29020" windowHeight="15700" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico_Cota" sheetId="7" r:id="rId1"/>
@@ -2192,7 +2192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -4152,9 +4152,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7BB3D-AA6F-4398-826D-91557AA445E2}">
-  <dimension ref="A1:S272"/>
+  <dimension ref="A1:S279"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K278" sqref="K278"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -17763,6 +17766,356 @@
       <c r="M272" s="85">
         <f t="shared" si="62"/>
         <v>96.242370986168609</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A273" s="63">
+        <v>45721</v>
+      </c>
+      <c r="B273" s="28">
+        <v>123047</v>
+      </c>
+      <c r="C273" s="28">
+        <v>128603.03</v>
+      </c>
+      <c r="D273" s="71">
+        <v>1.731482</v>
+      </c>
+      <c r="E273" s="82">
+        <f t="shared" ref="E273:E275" si="63">D273/D272-1</f>
+        <v>-5.4269844278633794E-3</v>
+      </c>
+      <c r="F273" s="82">
+        <f t="shared" ref="F273:F275" si="64">B273/B272-1</f>
+        <v>2.0195604198731676E-3</v>
+      </c>
+      <c r="G273" s="82">
+        <f t="shared" ref="G273:G275" si="65">D273/$D$2-1</f>
+        <v>-3.0572592609861893E-2</v>
+      </c>
+      <c r="H273" s="82">
+        <f t="shared" ref="H273:H275" si="66">B273/$B$2-1</f>
+        <v>-3.5632617306729397E-2</v>
+      </c>
+      <c r="I273" s="83" t="str">
+        <f t="shared" ref="I273:I275" si="67">TEXT(A273,"mmaaaa")</f>
+        <v>032025</v>
+      </c>
+      <c r="J273" s="82">
+        <f t="shared" ref="J273:J275" si="68">IF(I273=I272,(1+E273)*(1+J272)-1,E273)</f>
+        <v>-5.4269844278633794E-3</v>
+      </c>
+      <c r="K273" s="82">
+        <f t="shared" ref="K273:K275" si="69">IF(I273=I272,(1+F273)*(1+K272)-1,F273)</f>
+        <v>2.0195604198731676E-3</v>
+      </c>
+      <c r="L273" s="84">
+        <f t="shared" ref="L273:L275" si="70">L272*(1+E273)</f>
+        <v>96.942740739013729</v>
+      </c>
+      <c r="M273" s="85">
+        <f t="shared" ref="M273:M275" si="71">M272*(1+F273)</f>
+        <v>96.436738269327023</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A274" s="63">
+        <v>45722</v>
+      </c>
+      <c r="B274" s="28">
+        <v>123358</v>
+      </c>
+      <c r="C274" s="28">
+        <v>128445.93</v>
+      </c>
+      <c r="D274" s="71">
+        <v>1.7293670000000001</v>
+      </c>
+      <c r="E274" s="82">
+        <f t="shared" si="63"/>
+        <v>-1.2214969604072978E-3</v>
+      </c>
+      <c r="F274" s="82">
+        <f t="shared" si="64"/>
+        <v>2.5274894958837724E-3</v>
+      </c>
+      <c r="G274" s="82">
+        <f t="shared" si="65"/>
+        <v>-3.1756745241324436E-2</v>
+      </c>
+      <c r="H274" s="82">
+        <f t="shared" si="66"/>
+        <v>-3.3195188876799286E-2</v>
+      </c>
+      <c r="I274" s="83" t="str">
+        <f t="shared" si="67"/>
+        <v>032025</v>
+      </c>
+      <c r="J274" s="82">
+        <f t="shared" si="68"/>
+        <v>-6.6418523432878462E-3</v>
+      </c>
+      <c r="K274" s="82">
+        <f t="shared" si="69"/>
+        <v>4.5521543335045322E-3</v>
+      </c>
+      <c r="L274" s="84">
+        <f t="shared" si="70"/>
+        <v>96.824325475867468</v>
+      </c>
+      <c r="M274" s="85">
+        <f t="shared" si="71"/>
+        <v>96.680481112320038</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A275" s="63">
+        <v>45723</v>
+      </c>
+      <c r="B275" s="28">
+        <v>125035</v>
+      </c>
+      <c r="C275" s="28">
+        <v>129926.89</v>
+      </c>
+      <c r="D275" s="71">
+        <v>1.749306</v>
+      </c>
+      <c r="E275" s="82">
+        <f t="shared" si="63"/>
+        <v>1.1529652179092187E-2</v>
+      </c>
+      <c r="F275" s="82">
+        <f t="shared" si="64"/>
+        <v>1.3594578381620925E-2</v>
+      </c>
+      <c r="G275" s="82">
+        <f t="shared" si="65"/>
+        <v>-2.0593237289204924E-2</v>
+      </c>
+      <c r="H275" s="82">
+        <f t="shared" si="66"/>
+        <v>-2.0051885092256749E-2</v>
+      </c>
+      <c r="I275" s="83" t="str">
+        <f t="shared" si="67"/>
+        <v>032025</v>
+      </c>
+      <c r="J275" s="82">
+        <f t="shared" si="68"/>
+        <v>4.8112215884612564E-3</v>
+      </c>
+      <c r="K275" s="82">
+        <f t="shared" si="69"/>
+        <v>1.8208617334017463E-2</v>
+      </c>
+      <c r="L275" s="84">
+        <f t="shared" si="70"/>
+        <v>97.94067627107944</v>
+      </c>
+      <c r="M275" s="85">
+        <f t="shared" si="71"/>
+        <v>97.994811490774296</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A276" s="63">
+        <v>45726</v>
+      </c>
+      <c r="B276" s="28">
+        <v>124519</v>
+      </c>
+      <c r="C276" s="28">
+        <v>128931.94</v>
+      </c>
+      <c r="D276" s="71">
+        <v>1.7359100000000001</v>
+      </c>
+      <c r="E276" s="82">
+        <f t="shared" ref="E276:E279" si="72">D276/D275-1</f>
+        <v>-7.6578940448382982E-3</v>
+      </c>
+      <c r="F276" s="82">
+        <f t="shared" ref="F276:F279" si="73">B276/B275-1</f>
+        <v>-4.1268444835446116E-3</v>
+      </c>
+      <c r="G276" s="82">
+        <f t="shared" ref="G276:G279" si="74">D276/$D$2-1</f>
+        <v>-2.8093430504842254E-2</v>
+      </c>
+      <c r="H276" s="82">
+        <f t="shared" ref="H276:H279" si="75">B276/$B$2-1</f>
+        <v>-2.4095978564423692E-2</v>
+      </c>
+      <c r="I276" s="83" t="str">
+        <f t="shared" ref="I276:I279" si="76">TEXT(A276,"mmaaaa")</f>
+        <v>032025</v>
+      </c>
+      <c r="J276" s="82">
+        <f t="shared" ref="J276:J279" si="77">IF(I276=I275,(1+E276)*(1+J275)-1,E276)</f>
+        <v>-2.8835162815277204E-3</v>
+      </c>
+      <c r="K276" s="82">
+        <f t="shared" ref="K276:K279" si="78">IF(I276=I275,(1+F276)*(1+K275)-1,F276)</f>
+        <v>1.4006628718475023E-2</v>
+      </c>
+      <c r="L276" s="84">
+        <f t="shared" ref="L276:L279" si="79">L275*(1+E276)</f>
+        <v>97.190656949515699</v>
+      </c>
+      <c r="M276" s="85">
+        <f t="shared" ref="M276:M279" si="80">M275*(1+F276)</f>
+        <v>97.590402143557597</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A277" s="63">
+        <v>45727</v>
+      </c>
+      <c r="B277" s="28">
+        <v>123507</v>
+      </c>
+      <c r="C277" s="28">
+        <v>128230.53</v>
+      </c>
+      <c r="D277" s="71">
+        <v>1.726467</v>
+      </c>
+      <c r="E277" s="82">
+        <f t="shared" si="72"/>
+        <v>-5.4397981462173117E-3</v>
+      </c>
+      <c r="F277" s="82">
+        <f t="shared" si="73"/>
+        <v>-8.1272737493875979E-3</v>
+      </c>
+      <c r="G277" s="82">
+        <f t="shared" si="74"/>
+        <v>-3.3380406059878465E-2</v>
+      </c>
+      <c r="H277" s="82">
+        <f t="shared" si="75"/>
+        <v>-3.2027417699758809E-2</v>
+      </c>
+      <c r="I277" s="83" t="str">
+        <f t="shared" si="76"/>
+        <v>032025</v>
+      </c>
+      <c r="J277" s="82">
+        <f t="shared" si="77"/>
+        <v>-8.3076286812221456E-3</v>
+      </c>
+      <c r="K277" s="82">
+        <f t="shared" si="78"/>
+        <v>5.7655192631862473E-3</v>
+      </c>
+      <c r="L277" s="84">
+        <f t="shared" si="79"/>
+        <v>96.661959394012086</v>
+      </c>
+      <c r="M277" s="85">
+        <f t="shared" si="80"/>
+        <v>96.797258230024084</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A278" s="63">
+        <v>45728</v>
+      </c>
+      <c r="B278" s="28">
+        <v>123864</v>
+      </c>
+      <c r="C278" s="28">
+        <v>128295.61</v>
+      </c>
+      <c r="D278" s="71">
+        <v>1.7273430000000001</v>
+      </c>
+      <c r="E278" s="82">
+        <f t="shared" si="72"/>
+        <v>5.0739458095638845E-4</v>
+      </c>
+      <c r="F278" s="82">
+        <f t="shared" si="73"/>
+        <v>2.8905244237169558E-3</v>
+      </c>
+      <c r="G278" s="82">
+        <f t="shared" si="74"/>
+        <v>-3.2889948516066969E-2</v>
+      </c>
+      <c r="H278" s="82">
+        <f t="shared" si="75"/>
+        <v>-2.9229469309131728E-2</v>
+      </c>
+      <c r="I278" s="83" t="str">
+        <f t="shared" si="76"/>
+        <v>032025</v>
+      </c>
+      <c r="J278" s="82">
+        <f t="shared" si="77"/>
+        <v>-7.8044493460391884E-3</v>
+      </c>
+      <c r="K278" s="82">
+        <f t="shared" si="78"/>
+        <v>8.6727090611489199E-3</v>
+      </c>
+      <c r="L278" s="84">
+        <f t="shared" si="79"/>
+        <v>96.711005148393241</v>
+      </c>
+      <c r="M278" s="85">
+        <f t="shared" si="80"/>
+        <v>97.077053069086801</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A279" s="63">
+        <v>45729</v>
+      </c>
+      <c r="B279" s="28">
+        <v>125637</v>
+      </c>
+      <c r="C279" s="28">
+        <v>129192.7</v>
+      </c>
+      <c r="D279" s="71">
+        <v>1.7394210000000001</v>
+      </c>
+      <c r="E279" s="82">
+        <f t="shared" si="72"/>
+        <v>6.9922418419503529E-3</v>
+      </c>
+      <c r="F279" s="82">
+        <f t="shared" si="73"/>
+        <v>1.4314086417360983E-2</v>
+      </c>
+      <c r="G279" s="82">
+        <f t="shared" si="74"/>
+        <v>-2.6127681148310211E-2</v>
+      </c>
+      <c r="H279" s="82">
+        <f t="shared" si="75"/>
+        <v>-1.5333776041395297E-2</v>
+      </c>
+      <c r="I279" s="83" t="str">
+        <f t="shared" si="76"/>
+        <v>032025</v>
+      </c>
+      <c r="J279" s="82">
+        <f t="shared" si="77"/>
+        <v>-8.6677810135959987E-4</v>
+      </c>
+      <c r="K279" s="82">
+        <f t="shared" si="78"/>
+        <v>2.3110937385483865E-2</v>
+      </c>
+      <c r="L279" s="84">
+        <f t="shared" si="79"/>
+        <v>97.387231885168916</v>
+      </c>
+      <c r="M279" s="85">
+        <f t="shared" si="80"/>
+        <v>98.466622395860455</v>
       </c>
     </row>
   </sheetData>
@@ -19847,10 +20200,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A891FF2B-1847-4160-BE18-64A7C8438401}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19862,7 +20215,7 @@
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
@@ -19879,7 +20232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="39">
         <v>45688</v>
       </c>
@@ -19897,7 +20250,7 @@
         <v>066.368.579-60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="39">
         <v>45688</v>
       </c>
@@ -19915,7 +20268,7 @@
         <v>360.228.188-42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="39">
         <v>45688</v>
       </c>
@@ -19933,7 +20286,7 @@
         <v>892.996.550-49</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="39">
         <v>45688</v>
       </c>
@@ -19951,7 +20304,7 @@
         <v>252.436.798-36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="39">
         <v>45688</v>
       </c>
@@ -19969,7 +20322,7 @@
         <v>098.578.909-38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="39">
         <v>45688</v>
       </c>
@@ -19987,7 +20340,7 @@
         <v>044.624.719-70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="39">
         <v>45688</v>
       </c>
@@ -20005,7 +20358,7 @@
         <v>872.566.739-49</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="39">
         <v>45688</v>
       </c>
@@ -20023,7 +20376,7 @@
         <v>145.548.979-40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="55">
         <v>45688</v>
       </c>
@@ -20041,7 +20394,7 @@
         <v>091.360.339-28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="39">
         <v>45714</v>
       </c>
@@ -20058,8 +20411,10 @@
         <f t="shared" si="0"/>
         <v>066.368.579-60</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="3"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="39">
         <v>45714</v>
       </c>
@@ -20077,7 +20432,7 @@
         <v>360.228.188-42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="39">
         <v>45714</v>
       </c>
@@ -20095,7 +20450,7 @@
         <v>892.996.550-49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="39">
         <v>45714</v>
       </c>
@@ -20113,7 +20468,7 @@
         <v>252.436.798-36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="39">
         <v>45714</v>
       </c>
@@ -20131,7 +20486,7 @@
         <v>081.265.669-57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="39">
         <v>45714</v>
       </c>
@@ -20264,9 +20619,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -20277,9 +20634,11 @@
     <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.81640625" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -20302,7 +20661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>45688</v>
       </c>
@@ -20326,8 +20685,10 @@
       <c r="G2" s="13">
         <v>116861.75999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J2" s="50"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>45688</v>
       </c>
@@ -20351,8 +20712,10 @@
       <c r="G3" s="13">
         <v>116861.75999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J3" s="50"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>45688</v>
       </c>
@@ -20376,8 +20739,10 @@
       <c r="G4" s="13">
         <v>116861.75999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J4" s="50"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>45688</v>
       </c>
@@ -20401,8 +20766,10 @@
       <c r="G5" s="13">
         <v>116861.75999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J5" s="50"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>45688</v>
       </c>
@@ -20426,8 +20793,10 @@
       <c r="G6" s="13">
         <v>116861.75999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J6" s="50"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>45688</v>
       </c>
@@ -20451,8 +20820,10 @@
       <c r="G7" s="13">
         <v>116861.75999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J7" s="50"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>45688</v>
       </c>
@@ -20476,8 +20847,10 @@
       <c r="G8" s="13">
         <v>116861.75999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J8" s="50"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>45688</v>
       </c>
@@ -20501,8 +20874,10 @@
       <c r="G9" s="13">
         <v>116861.75999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J9" s="50"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>45688</v>
       </c>
@@ -20526,8 +20901,10 @@
       <c r="G10" s="13">
         <v>116861.75999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J10" s="50"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>45688</v>
       </c>
@@ -20551,8 +20928,10 @@
       <c r="G11" s="13">
         <v>116861.75999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J11" s="50"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>45688</v>
       </c>
@@ -20576,8 +20955,10 @@
       <c r="G12" s="16">
         <v>116861.75999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J12" s="50"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>45716</v>
       </c>
@@ -20601,8 +20982,12 @@
       <c r="G13" s="13">
         <v>129304.79</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I13" s="3"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>45716</v>
       </c>
@@ -20626,8 +21011,11 @@
       <c r="G14" s="13">
         <v>129304.79</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J14" s="50"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>45716</v>
       </c>
@@ -20651,8 +21039,11 @@
       <c r="G15" s="13">
         <v>129304.79</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J15" s="50"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>45716</v>
       </c>
@@ -20676,8 +21067,11 @@
       <c r="G16" s="13">
         <v>129304.79</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J16" s="50"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>45716</v>
       </c>
@@ -20701,8 +21095,11 @@
       <c r="G17" s="13">
         <v>129304.79</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J17" s="50"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>45716</v>
       </c>
@@ -20726,8 +21123,11 @@
       <c r="G18" s="13">
         <v>129304.79</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J18" s="50"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>45716</v>
       </c>
@@ -20751,8 +21151,11 @@
       <c r="G19" s="13">
         <v>129304.79</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J19" s="50"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>45716</v>
       </c>
@@ -20776,8 +21179,11 @@
       <c r="G20" s="13">
         <v>129304.79</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J20" s="50"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>45716</v>
       </c>
@@ -20801,8 +21207,11 @@
       <c r="G21" s="13">
         <v>129304.79</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J21" s="50"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>45716</v>
       </c>
@@ -20826,8 +21235,11 @@
       <c r="G22" s="13">
         <v>129304.79</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J22" s="50"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>45716</v>
       </c>
@@ -20850,6 +21262,582 @@
       </c>
       <c r="G23" s="16">
         <v>129304.79</v>
+      </c>
+      <c r="J23" s="50"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="11">
+        <v>45723</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="13">
+        <v>16162.2</v>
+      </c>
+      <c r="D24" s="44">
+        <f>C24/G24</f>
+        <v>0.12439457297869595</v>
+      </c>
+      <c r="E24" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B24,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Títulos Públicos</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="13">
+        <v>129926.89</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="11">
+        <v>45723</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="13">
+        <v>14282.54</v>
+      </c>
+      <c r="D25" s="44">
+        <f t="shared" ref="D25:D34" si="1">C25/G25</f>
+        <v>0.10992751385028919</v>
+      </c>
+      <c r="E25" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B25,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="13">
+        <v>129926.89</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="11">
+        <v>45723</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="13">
+        <v>6945.56</v>
+      </c>
+      <c r="D26" s="44">
+        <f t="shared" si="1"/>
+        <v>5.3457448261864812E-2</v>
+      </c>
+      <c r="E26" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B26,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="13">
+        <v>129926.89</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="11">
+        <v>45723</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="13">
+        <v>13730.24</v>
+      </c>
+      <c r="D27" s="44">
+        <f t="shared" si="1"/>
+        <v>0.10567666169797492</v>
+      </c>
+      <c r="E27" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B27,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="13">
+        <v>129926.89</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="11">
+        <v>45723</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="13">
+        <v>10877.76</v>
+      </c>
+      <c r="D28" s="44">
+        <f t="shared" si="1"/>
+        <v>8.3722160978377924E-2</v>
+      </c>
+      <c r="E28" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B28,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="13">
+        <v>129926.89</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="11">
+        <v>45723</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="13">
+        <v>14639.24</v>
+      </c>
+      <c r="D29" s="44">
+        <f t="shared" si="1"/>
+        <v>0.1126729039693015</v>
+      </c>
+      <c r="E29" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B29,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="13">
+        <v>129926.89</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="11">
+        <v>45723</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="13">
+        <v>9721.4</v>
+      </c>
+      <c r="D30" s="44">
+        <f t="shared" si="1"/>
+        <v>7.4822078786000334E-2</v>
+      </c>
+      <c r="E30" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B30,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="13">
+        <v>129926.89</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="11">
+        <v>45723</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="13">
+        <v>12339.04</v>
+      </c>
+      <c r="D31" s="44">
+        <f t="shared" si="1"/>
+        <v>9.4969101469295547E-2</v>
+      </c>
+      <c r="E31" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B31,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="13">
+        <v>129926.89</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="11">
+        <v>45723</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="13">
+        <v>10493</v>
+      </c>
+      <c r="D32" s="44">
+        <f t="shared" si="1"/>
+        <v>8.0760803248657767E-2</v>
+      </c>
+      <c r="E32" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B32,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="13">
+        <v>129926.89</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="11">
+        <v>45723</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="13">
+        <v>14540.1</v>
+      </c>
+      <c r="D33" s="44">
+        <f t="shared" si="1"/>
+        <v>0.11190985946019334</v>
+      </c>
+      <c r="E33" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B33,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="13">
+        <v>129926.89</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="14">
+        <v>45723</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="16">
+        <v>5320.45</v>
+      </c>
+      <c r="D34" s="45">
+        <f t="shared" si="1"/>
+        <v>4.0949567868514364E-2</v>
+      </c>
+      <c r="E34" s="15" t="str">
+        <f>_xlfn.XLOOKUP(B34,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="16">
+        <v>129926.89</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="11">
+        <v>45729</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="13">
+        <v>16193.79</v>
+      </c>
+      <c r="D35" s="44">
+        <f>C35/G35</f>
+        <v>0.12534601413237745</v>
+      </c>
+      <c r="E35" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B35,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Títulos Públicos</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="13">
+        <f>_xlfn.XLOOKUP(A35,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>129192.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="11">
+        <v>45729</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="13">
+        <v>13992.41</v>
+      </c>
+      <c r="D36" s="44">
+        <f t="shared" ref="D36:D45" si="2">C36/G36</f>
+        <v>0.10830650648217741</v>
+      </c>
+      <c r="E36" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B36,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="13">
+        <f>_xlfn.XLOOKUP(A36,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>129192.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="11">
+        <v>45729</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="13">
+        <v>6970.48</v>
+      </c>
+      <c r="D37" s="44">
+        <f t="shared" si="2"/>
+        <v>5.3954132083314302E-2</v>
+      </c>
+      <c r="E37" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B37,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="13">
+        <f>_xlfn.XLOOKUP(A37,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>129192.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>45729</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="13">
+        <v>14286.64</v>
+      </c>
+      <c r="D38" s="44">
+        <f t="shared" si="2"/>
+        <v>0.11058395714308936</v>
+      </c>
+      <c r="E38" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B38,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="13">
+        <f>_xlfn.XLOOKUP(A38,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>129192.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="11">
+        <v>45729</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="13">
+        <v>10751.04</v>
+      </c>
+      <c r="D39" s="44">
+        <f t="shared" si="2"/>
+        <v>8.3217085795095236E-2</v>
+      </c>
+      <c r="E39" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B39,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="13">
+        <f>_xlfn.XLOOKUP(A39,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>129192.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="11">
+        <v>45729</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="13">
+        <v>15019.97</v>
+      </c>
+      <c r="D40" s="44">
+        <f t="shared" si="2"/>
+        <v>0.11626020665254307</v>
+      </c>
+      <c r="E40" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B40,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="13">
+        <f>_xlfn.XLOOKUP(A40,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>129192.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="11">
+        <v>45729</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="13">
+        <v>9328.7999999999993</v>
+      </c>
+      <c r="D41" s="44">
+        <f t="shared" si="2"/>
+        <v>7.2208414252508069E-2</v>
+      </c>
+      <c r="E41" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B41,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="13">
+        <f>_xlfn.XLOOKUP(A41,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>129192.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <v>45729</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="13">
+        <v>11753</v>
+      </c>
+      <c r="D42" s="44">
+        <f>C42/G42</f>
+        <v>9.0972632354614461E-2</v>
+      </c>
+      <c r="E42" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B42,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="13">
+        <f>_xlfn.XLOOKUP(A42,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>129192.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>45729</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="13">
+        <v>9975</v>
+      </c>
+      <c r="D43" s="44">
+        <f t="shared" si="2"/>
+        <v>7.7210244851295781E-2</v>
+      </c>
+      <c r="E43" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B43,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="13">
+        <f>_xlfn.XLOOKUP(A43,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>129192.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <v>45729</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="13">
+        <v>13897.5</v>
+      </c>
+      <c r="D44" s="44">
+        <f t="shared" si="2"/>
+        <v>0.10757186745071509</v>
+      </c>
+      <c r="E44" s="12" t="str">
+        <f>_xlfn.XLOOKUP(B44,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G44" s="13">
+        <f>_xlfn.XLOOKUP(A44,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>129192.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="14">
+        <v>45729</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="16">
+        <v>5320.45</v>
+      </c>
+      <c r="D45" s="45">
+        <f t="shared" si="2"/>
+        <v>4.1182280422965074E-2</v>
+      </c>
+      <c r="E45" s="15" t="str">
+        <f>_xlfn.XLOOKUP(B45,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="16">
+        <f>_xlfn.XLOOKUP(A45,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>129192.7</v>
       </c>
     </row>
   </sheetData>
@@ -20859,10 +21847,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5410629D-6DE0-46FD-B578-14B10353174E}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21164,9 +22152,9 @@
         <f>_xlfn.XLOOKUP(C6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
         <v>-2.978585226422914E-3</v>
       </c>
-      <c r="D8" s="52" t="str">
+      <c r="D8" s="52">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
-        <v>-</v>
+        <v>-8.6677810135959987E-4</v>
       </c>
       <c r="E8" s="52" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
@@ -21206,7 +22194,7 @@
       </c>
       <c r="N8" s="52" cm="1">
         <f t="array" ref="N8">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B8:M8,B8:M8&lt;&gt;"-"))))-1</f>
-        <v>3.2056697226495734E-2</v>
+        <v>3.1162133081978238E-2</v>
       </c>
       <c r="O8" s="1"/>
     </row>
@@ -21222,9 +22210,9 @@
         <f>_xlfn.XLOOKUP(C6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
         <v>-2.6447853490308093E-2</v>
       </c>
-      <c r="D9" s="52" t="str">
+      <c r="D9" s="52">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
-        <v>-</v>
+        <v>2.3110937385483865E-2</v>
       </c>
       <c r="E9" s="52" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
@@ -21264,7 +22252,7 @@
       </c>
       <c r="N9" s="52" cm="1">
         <f t="array" ref="N9">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B9:M9,B9:M9&lt;&gt;"-"))))-1</f>
-        <v>2.0917336614483917E-2</v>
+        <v>4.4511693256736207E-2</v>
       </c>
       <c r="O9" s="1"/>
     </row>
@@ -21280,9 +22268,9 @@
         <f t="shared" si="14"/>
         <v>1.0241068425025053</v>
       </c>
-      <c r="D10" s="52" t="str">
+      <c r="D10" s="52">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0.9765639144195668</v>
       </c>
       <c r="E10" s="52" t="str">
         <f t="shared" si="14"/>
@@ -21322,7 +22310,7 @@
       </c>
       <c r="N10" s="52">
         <f t="shared" si="14"/>
-        <v>1.0109111288568686</v>
+        <v>0.98721932912676669</v>
       </c>
       <c r="O10" s="1"/>
     </row>
@@ -21499,6 +22487,10 @@
         <v>1.0018422218384024</v>
       </c>
       <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Relatório_Gerencial_Denver.xlsx
+++ b/Relatório_Gerencial_Denver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Denver Asset\Clube Kairos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603008FB-C6F8-4078-9354-20E3C0132710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13D7C1C-31A2-4691-936B-04ACB5065455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico_Cota" sheetId="7" r:id="rId1"/>
@@ -4152,37 +4152,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7BB3D-AA6F-4398-826D-91557AA445E2}">
-  <dimension ref="A1:S279"/>
+  <dimension ref="A1:S280"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K278" sqref="K278"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K266" sqref="K266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="67" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="73" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" style="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="52" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="86" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="52" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="73" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="52" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="52" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="52" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" style="67" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="50" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="50" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="60">
         <v>45327</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="60">
         <v>45328</v>
       </c>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="60">
         <v>45329</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>101.84681052301336</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="60">
         <v>45330</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>100.48860643282036</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="60">
         <v>45331</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>100.33873985263669</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="60">
         <v>45336</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>99.54919330131969</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="60">
         <v>45337</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>100.16508679243748</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="60">
         <v>45338</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>100.88749825716032</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="60">
         <v>45341</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>101.13034763764202</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>45342</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>101.82032798068303</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="60">
         <v>45343</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>101.91082632820843</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="60">
         <v>45344</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>102.07460427644075</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="60">
         <v>45345</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>101.43051185448411</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="60">
         <v>45348</v>
       </c>
@@ -4916,7 +4916,7 @@
         <v>101.57967306952729</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="60">
         <v>45349</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>103.21010107960835</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="60">
         <v>45350</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>102.00789240893087</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="60">
         <v>45351</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>101.1180272598547</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="60">
         <v>45352</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>101.24369981571942</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="60">
         <v>45355</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>100.58549225356245</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="60">
         <v>45356</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>100.39549039688467</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="60">
         <v>45357</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>101.01630576920499</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="60">
         <v>45358</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>100.58488093710737</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="60">
         <v>45359</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>99.590339601181839</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="60">
         <v>45362</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>98.847958465592555</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="60">
         <v>45363</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>100.05827099799527</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="60">
         <v>45364</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>100.32333938040254</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="60">
         <v>45365</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>100.07561514306097</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="60">
         <v>45366</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>99.332505130159831</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="60">
         <v>45369</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>99.498947791145113</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="60">
         <v>45370</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>99.949339108131596</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="60">
         <v>45371</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>101.20017094916048</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="60">
         <v>45372</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>100.44287525954498</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="60">
         <v>45373</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>99.556098042306061</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="60">
         <v>45376</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>99.481149077433315</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="60">
         <v>45377</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>99.427502139803508</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="60">
         <v>45378</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>100.07612457344021</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="60">
         <v>45379</v>
       </c>
@@ -6066,7 +6066,7 @@
         <v>100.40175247185415</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="60">
         <v>45383</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>99.527374006307042</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="60">
         <v>45384</v>
       </c>
@@ -6168,7 +6168,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="60">
         <v>45385</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>99.784393388722251</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="60">
         <v>45386</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>99.869930668092849</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="60">
         <v>45387</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>99.374513542971499</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="60">
         <v>45390</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>100.99038751898706</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="63">
         <v>45391</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>101.80015453766489</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="63">
         <v>45392</v>
       </c>
@@ -6468,7 +6468,7 @@
         <v>100.36071589545831</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="63">
         <v>45393</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>99.845493684669975</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="63">
         <v>45394</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>98.708868297277547</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="63">
         <v>45397</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>98.229063253932466</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="63">
         <v>45398</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>97.488218246871369</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="63">
         <v>45399</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>97.317778516756604</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="63">
         <v>45400</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>97.337395505052797</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="63">
         <v>45401</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>98.064799387492258</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="63">
         <v>45404</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>98.416588495228083</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="63">
         <v>45405</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>98.083428864591752</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="63">
         <v>45406</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>97.764149252442252</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="63">
         <v>45407</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>97.689607831872905</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="63">
         <v>45408</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>99.163578016401914</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="63">
         <v>45411</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>99.810570272825018</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="63">
         <v>45412</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>98.691704412192166</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="63">
         <v>45414</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>99.630670812437188</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="63">
         <v>45415</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>100.7172622991972</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="63">
         <v>45418</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>100.68357719504338</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="63">
         <v>45419</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>101.26729819836414</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="63">
         <v>45420</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>101.47922907352087</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="63">
         <v>45421</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>100.4662071709144</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="63">
         <v>45422</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>100.00476513339353</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="63">
         <v>45425</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>100.43991272595487</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="63">
         <v>45426</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>100.72260739948406</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="63">
         <v>45427</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>100.34022111943167</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="63">
         <v>45428</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>100.5408818271214</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="63">
         <v>45429</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>100.4367150706513</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="63">
         <v>45432</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>100.12338403785331</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="63">
         <v>45433</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>99.857406518153837</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="63">
         <v>45434</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>98.476834515616716</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="63">
         <v>45435</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>97.755300838624251</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="63">
         <v>45436</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>97.423128719184618</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="63">
         <v>45439</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>97.57212534902834</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="63">
         <v>45440</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>97.010858469346616</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="63">
         <v>45441</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>96.170486440961781</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="63">
         <v>45443</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>95.693040452142128</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="63">
         <v>45446</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>95.640913968259611</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="63">
         <v>45447</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>95.461030182652678</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="63">
         <v>45448</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>95.151664869422362</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="63">
         <v>45449</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>96.320588142858952</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="63">
         <v>45450</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>94.649962157160147</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="63">
         <v>45453</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>94.643943041294591</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="63">
         <v>45454</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>95.330145762138741</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="63">
         <v>45455</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>93.998541775132836</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="63">
         <v>45456</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>93.709741774443145</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="63">
         <v>45457</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>93.784079422860799</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="63">
         <v>45460</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>93.37299261898076</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="63">
         <v>45461</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>93.759046797763702</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="63">
         <v>45462</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>94.253507761250162</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="63">
         <v>45463</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>94.398162476784634</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="63">
         <v>45464</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>95.099781344643816</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="63">
         <v>45467</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>96.115373911317874</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="63">
         <v>45468</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>95.875886771339168</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="63">
         <v>45469</v>
       </c>
@@ -9118,7 +9118,7 @@
         <v>96.118775338773133</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="63">
         <v>45470</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>97.424899969426306</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="63">
         <v>45471</v>
       </c>
@@ -9218,7 +9218,7 @@
         <v>97.110401165451279</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="63">
         <v>45474</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>97.746421075244484</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="63">
         <v>45475</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>97.800506906739486</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="63">
         <v>45476</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>98.486129660690324</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="63">
         <v>45477</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>98.879637197791155</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="63">
         <v>45478</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>98.960417181158661</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="63">
         <v>45481</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>99.1808751371249</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="63">
         <v>45482</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>99.619674953635922</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="63">
         <v>45483</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>99.705901923366113</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="63">
         <v>45484</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>100.54871138018088</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="63">
         <v>45485</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>101.02159600775867</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="63">
         <v>45488</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>101.35388568805507</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="63">
         <v>45489</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>101.18884591996031</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="63">
         <v>45490</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>101.45527017091543</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="63">
         <v>45491</v>
       </c>
@@ -9918,7 +9918,7 @@
         <v>100.04590359586524</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="63">
         <v>45492</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>100.01800248586348</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="63">
         <v>45495</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>100.20858430943457</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="63">
         <v>45496</v>
       </c>
@@ -10068,7 +10068,7 @@
         <v>99.213400307492151</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="63">
         <v>45497</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>99.082429675683272</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="63">
         <v>45498</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>98.715138209637473</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="63">
         <v>45499</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>99.920842356455637</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="63">
         <v>45502</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>99.498696994650729</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="63">
         <v>45503</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>98.860223981646698</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="63">
         <v>45504</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>100.045707661104</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="63">
         <v>45505</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>99.844514010863705</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="63">
         <v>45506</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>98.636764305138115</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="63">
         <v>45509</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>98.178629646387108</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="63">
         <v>45510</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>98.960142872492938</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="63">
         <v>45511</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>99.937606534628046</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="63">
         <v>45512</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>100.83655521923571</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="63">
         <v>45513</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>102.36775402883015</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="63">
         <v>45516</v>
       </c>
@@ -10768,7 +10768,7 @@
         <v>102.76065024947589</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="63">
         <v>45517</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>103.76545856689083</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="63">
         <v>45518</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>104.48625552918098</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="63">
         <v>45519</v>
       </c>
@@ -10918,7 +10918,7 @@
         <v>105.14127327342483</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="63">
         <v>45520</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>104.98439222878845</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="63">
         <v>45523</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>106.41450437635962</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="63">
         <v>45524</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>106.65701674905198</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="63">
         <v>45525</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>106.95189072734034</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="63">
         <v>45526</v>
       </c>
@@ -11168,7 +11168,7 @@
         <v>105.94066358714691</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="63">
         <v>45527</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>106.28165277084273</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="63">
         <v>45530</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>107.28502684580532</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="63">
         <v>45531</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>107.19662108153004</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="63">
         <v>45532</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>107.64182404603864</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="63">
         <v>45533</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>106.62091772863954</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="63">
         <v>45534</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>106.59165291269949</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="63">
         <v>45537</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>105.73115446563922</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="63">
         <v>45538</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>105.29806810676621</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="63">
         <v>45539</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>106.6752935435812</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="63">
         <v>45540</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v>106.98233115184789</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="63">
         <v>45541</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>105.46968344544847</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="63">
         <v>45544</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>105.59881229050158</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="63">
         <v>45545</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>105.2714993531409</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="63">
         <v>45546</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>105.55142742784128</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="63">
         <v>45547</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>105.04409746923602</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="63">
         <v>45548</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>105.71225067987397</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="63">
         <v>45551</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>105.89742470403461</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="63">
         <v>45552</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>105.77357042275428</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="63">
         <v>45553</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>104.82328683069954</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="63">
         <v>45554</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>104.33343425279766</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="63">
         <v>45555</v>
       </c>
@@ -12218,7 +12218,7 @@
         <v>102.72110277726549</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="63">
         <v>45558</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>102.33152961017052</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="63">
         <v>45559</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>103.57562913280292</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="63">
         <v>45560</v>
       </c>
@@ -12368,7 +12368,7 @@
         <v>103.12943865709761</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="63">
         <v>45561</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>104.24495795200833</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="63">
         <v>45562</v>
       </c>
@@ -12468,7 +12468,7 @@
         <v>104.02596558805621</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="63">
         <v>45565</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>103.30969080005568</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="63">
         <v>45566</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>103.84163016467373</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="63">
         <v>45567</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>104.6408715679773</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="63">
         <v>45568</v>
       </c>
@@ -12668,7 +12668,7 @@
         <v>103.19610350026477</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="63">
         <v>45569</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>103.29018353522579</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="63">
         <v>45572</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>103.4675358437174</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="63">
         <v>45573</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>103.07087767565569</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="63">
         <v>45574</v>
       </c>
@@ -12868,7 +12868,7 @@
         <v>101.85634078980046</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="63">
         <v>45575</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>102.16262600858396</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="63">
         <v>45576</v>
       </c>
@@ -12968,7 +12968,7 @@
         <v>101.8800332211306</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="63">
         <v>45579</v>
       </c>
@@ -13018,7 +13018,7 @@
         <v>102.67392952414731</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="63">
         <v>45580</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>102.70372728263797</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="63">
         <v>45581</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>103.25739973097369</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="63">
         <v>45582</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>102.50790224485587</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="63">
         <v>45583</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>102.277365404771</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="63">
         <v>45586</v>
       </c>
@@ -13268,7 +13268,7 @@
         <v>102.16944453827539</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="63">
         <v>45587</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>101.84796261940946</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="63">
         <v>45588</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>101.28503421295237</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="63">
         <v>45589</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>101.93854717822983</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="63">
         <v>45590</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>101.80246656784759</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="63">
         <v>45593</v>
       </c>
@@ -13518,7 +13518,7 @@
         <v>102.83642214034582</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="63">
         <v>45594</v>
       </c>
@@ -13568,7 +13568,7 @@
         <v>102.45815049027966</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="63">
         <v>45595</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>102.38714373280325</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="63">
         <v>45596</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>101.66140137713919</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="63">
         <v>45597</v>
       </c>
@@ -13718,7 +13718,7 @@
         <v>100.41323424886329</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="63">
         <v>45600</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>102.28953687213976</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="63">
         <v>45601</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>102.40393142314703</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="63">
         <v>45602</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>102.15326816438673</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="63">
         <v>45603</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>101.63661171114605</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="63">
         <v>45604</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>100.18520537372241</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="63">
         <v>45607</v>
       </c>
@@ -14018,7 +14018,7 @@
         <v>100.21961151779763</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="63">
         <v>45608</v>
       </c>
@@ -14068,7 +14068,7 @@
         <v>100.08215936408666</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="63">
         <v>45609</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>100.11002912452663</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="63">
         <v>45610</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>100.15526654220365</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="63">
         <v>45614</v>
       </c>
@@ -14218,7 +14218,7 @@
         <v>100.13691921116035</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="63">
         <v>45615</v>
       </c>
@@ -14268,7 +14268,7 @@
         <v>100.4731902858053</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="63">
         <v>45617</v>
       </c>
@@ -14318,7 +14318,7 @@
         <v>99.473813279972163</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="63">
         <v>45618</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>101.20070389171104</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="63">
         <v>45621</v>
       </c>
@@ -14418,7 +14418,7 @@
         <v>101.13062978369817</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="63">
         <v>45622</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>101.82524202449508</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="63">
         <v>45623</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>100.05887447705986</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="63">
         <v>45624</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>97.662043729660454</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="63">
         <v>45625</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>98.490785070617591</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="63">
         <v>45628</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>98.151982518857309</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="63">
         <v>45629</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>98.860216144256228</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="63">
         <v>45630</v>
       </c>
@@ -14768,7 +14768,7 @@
         <v>98.819320640888463</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="63">
         <v>45631</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>100.20697764439234</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="63">
         <v>45632</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>98.708797760763474</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="63">
         <v>45635</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>99.699443913635378</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="63">
         <v>45636</v>
       </c>
@@ -14968,7 +14968,7 @@
         <v>100.49729026143886</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="63">
         <v>45637</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>101.56709405785513</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="63">
         <v>45638</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>98.784036709082869</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="63">
         <v>45639</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>97.66328987474202</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="63">
         <v>45642</v>
       </c>
@@ -15168,7 +15168,7 @@
         <v>96.838796399408764</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="63">
         <v>45643</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>97.730691432611479</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="63">
         <v>45644</v>
       </c>
@@ -15268,7 +15268,7 @@
         <v>94.652948202921621</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="63">
         <v>45645</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>94.979767384683953</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="63">
         <v>45646</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>95.696104871808103</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="63">
         <v>45649</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>94.649813246741658</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="63">
         <v>45650</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>94.649813246741658</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="63">
         <v>45652</v>
       </c>
@@ -15518,7 +15518,7 @@
         <v>94.893556089734673</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="63">
         <v>45653</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>94.259511202334849</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="63">
         <v>45656</v>
       </c>
@@ -15618,7 +15618,7 @@
         <v>94.270483548964748</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="63">
         <v>45657</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>94.270483548964748</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="63">
         <v>45659</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>94.146652779855756</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="63">
         <v>45660</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>92.898940220225953</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="63">
         <v>45663</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>94.065927658221412</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="63">
         <v>45664</v>
       </c>
@@ -15868,7 +15868,7 @@
         <v>94.960173908559099</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="63">
         <v>45665</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>93.754783257358952</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="63">
         <v>45666</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>93.877046548377947</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="63">
         <v>45667</v>
       </c>
@@ -16018,7 +16018,7 @@
         <v>93.152087931758871</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="63">
         <v>45670</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>93.270432527552913</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="63">
         <v>45671</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>93.499284328691047</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="63">
         <v>45672</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>96.125593868464591</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="63">
         <v>45673</v>
       </c>
@@ -16218,7 +16218,7 @@
         <v>95.015819380753669</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="63">
         <v>45674</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>95.890472154966517</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="63">
         <v>45677</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>96.286260372688275</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="63">
         <v>45678</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>96.664806331420181</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="63">
         <v>45679</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>96.377957840952519</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="63">
         <v>45680</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>95.994709447950655</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="63">
         <v>45681</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>95.966494842330889</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="63">
         <v>45684</v>
       </c>
@@ -16568,7 +16568,7 @@
         <v>97.859224635990415</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="63">
         <v>45685</v>
       </c>
@@ -16618,7 +16618,7 @@
         <v>97.227530965725578</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="63">
         <v>45686</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>96.738477801649566</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="63">
         <v>45687</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>99.465889678227285</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="63">
         <v>45688</v>
       </c>
@@ -16768,7 +16768,7 @@
         <v>98.856924440267264</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="63">
         <v>45691</v>
       </c>
@@ -16818,7 +16818,7 @@
         <v>98.727607497843323</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="63">
         <v>45692</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>98.0825902638136</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="63">
         <v>45693</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>98.385897274226124</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="63">
         <v>45694</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>98.927460954316714</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="63">
         <v>45695</v>
       </c>
@@ -17018,7 +17018,7 @@
         <v>97.668776048056998</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="63">
         <v>45698</v>
       </c>
@@ -17068,7 +17068,7 @@
         <v>98.415679357935886</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="63">
         <v>45699</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>99.160231450679802</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="63">
         <v>45700</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>97.481462416303515</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="63">
         <v>45701</v>
       </c>
@@ -17218,7 +17218,7 @@
         <v>97.849819767450512</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="63">
         <v>45702</v>
       </c>
@@ -17268,7 +17268,7 @@
         <v>100.49023661003393</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="63">
         <v>45705</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>100.7512217120168</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="63">
         <v>45706</v>
       </c>
@@ -17368,7 +17368,7 @@
         <v>100.73554693111693</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="63">
         <v>45707</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>99.777034079089759</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="63">
         <v>45708</v>
       </c>
@@ -17468,7 +17468,7 @@
         <v>100.00588588022788</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="63">
         <v>45709</v>
       </c>
@@ -17518,7 +17518,7 @@
         <v>99.63517731194591</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="63">
         <v>45712</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>98.281659981241958</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="63">
         <v>45713</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>98.735444888293259</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="63">
         <v>45714</v>
       </c>
@@ -17668,7 +17668,7 @@
         <v>97.786336904806006</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="63">
         <v>45715</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>97.8098490761558</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="63">
         <v>45716</v>
       </c>
@@ -17768,7 +17768,7 @@
         <v>96.242370986168609</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="63">
         <v>45721</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>96.436738269327023</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="63">
         <v>45722</v>
       </c>
@@ -17868,7 +17868,7 @@
         <v>96.680481112320038</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="63">
         <v>45723</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>97.994811490774296</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="63">
         <v>45726</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>97.590402143557597</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="63">
         <v>45727</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>96.797258230024084</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="63">
         <v>45728</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>97.077053069086801</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="63">
         <v>45729</v>
       </c>
@@ -18116,6 +18116,56 @@
       <c r="M279" s="85">
         <f t="shared" si="80"/>
         <v>98.466622395860455</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="63">
+        <v>45730</v>
+      </c>
+      <c r="B280" s="28">
+        <v>128957</v>
+      </c>
+      <c r="C280" s="28">
+        <v>131555.39000000001</v>
+      </c>
+      <c r="D280" s="71">
+        <v>1.7712319999999999</v>
+      </c>
+      <c r="E280" s="82">
+        <f t="shared" ref="E280" si="81">D280/D279-1</f>
+        <v>1.8288269487375386E-2</v>
+      </c>
+      <c r="F280" s="82">
+        <f t="shared" ref="F280" si="82">B280/B279-1</f>
+        <v>2.6425336485271123E-2</v>
+      </c>
+      <c r="G280" s="82">
+        <f t="shared" ref="G280" si="83">D280/$D$2-1</f>
+        <v>-8.317241734855485E-3</v>
+      </c>
+      <c r="H280" s="82">
+        <f t="shared" ref="H280" si="84">B280/$B$2-1</f>
+        <v>1.0686360252392113E-2</v>
+      </c>
+      <c r="I280" s="83" t="str">
+        <f t="shared" ref="I280" si="85">TEXT(A280,"mmaaaa")</f>
+        <v>032025</v>
+      </c>
+      <c r="J280" s="82">
+        <f t="shared" ref="J280" si="86">IF(I280=I279,(1+E280)*(1+J279)-1,E280)</f>
+        <v>1.740563951451235E-2</v>
+      </c>
+      <c r="K280" s="82">
+        <f t="shared" ref="K280" si="87">IF(I280=I279,(1+F280)*(1+K279)-1,F280)</f>
+        <v>5.0146988167656392E-2</v>
+      </c>
+      <c r="L280" s="84">
+        <f t="shared" ref="L280" si="88">L279*(1+E280)</f>
+        <v>99.168275826514403</v>
+      </c>
+      <c r="M280" s="85">
+        <f t="shared" ref="M280" si="89">M279*(1+F280)</f>
+        <v>101.0686360252392</v>
       </c>
     </row>
   </sheetData>
@@ -18132,24 +18182,24 @@
       <selection activeCell="B3" sqref="B3:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="49" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -18190,7 +18240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>45657</v>
       </c>
@@ -18232,7 +18282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>45659</v>
       </c>
@@ -18281,7 +18331,7 @@
         <v>99.868643116649906</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>45660</v>
       </c>
@@ -18330,7 +18380,7 @@
         <v>98.545097810995742</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>45663</v>
       </c>
@@ -18379,7 +18429,7 @@
         <v>99.78301173066852</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>45664</v>
       </c>
@@ -18428,7 +18478,7 @@
         <v>100.7316079578993</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>45665</v>
       </c>
@@ -18477,7 +18527,7 @@
         <v>99.452956776934414</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>45666</v>
       </c>
@@ -18526,7 +18576,7 @@
         <v>99.582650914925651</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>45667</v>
       </c>
@@ -18575,7 +18625,7 @@
         <v>98.813631186451971</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>45670</v>
       </c>
@@ -18624,7 +18674,7 @@
         <v>98.939168461046066</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>45671</v>
       </c>
@@ -18673,7 +18723,7 @@
         <v>99.181929283439928</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>45672</v>
       </c>
@@ -18722,7 +18772,7 @@
         <v>101.96785913221323</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>45673</v>
       </c>
@@ -18771,7 +18821,7 @@
         <v>100.79063541813893</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>45674</v>
       </c>
@@ -18820,7 +18870,7 @@
         <v>101.71844732838393</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>45677</v>
       </c>
@@ -18869,7 +18919,7 @@
         <v>102.13829053149658</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>45678</v>
       </c>
@@ -18918,7 +18968,7 @@
         <v>102.53984353566175</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>45679</v>
       </c>
@@ -18967,7 +19017,7 @@
         <v>102.23556113498999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>45680</v>
       </c>
@@ -19016,7 +19066,7 @@
         <v>101.82901989474823</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>45681</v>
       </c>
@@ -19065,7 +19115,7 @@
         <v>101.79909047828872</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>45684</v>
       </c>
@@ -19114,7 +19164,7 @@
         <v>103.80685549911459</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>45685</v>
       </c>
@@ -19163,7 +19213,7 @@
         <v>103.1367691194932</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>45686</v>
       </c>
@@ -19212,7 +19262,7 @@
         <v>102.61799256752825</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>45687</v>
       </c>
@@ -19261,7 +19311,7 @@
         <v>105.51116949194815</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>45688</v>
       </c>
@@ -19310,7 +19360,7 @@
         <v>104.86519292003025</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>45691</v>
       </c>
@@ -19359,7 +19409,7 @@
         <v>104.72801642792415</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>45692</v>
       </c>
@@ -19408,7 +19458,7 @@
         <v>104.04379671275242</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>45693</v>
       </c>
@@ -19457,7 +19507,7 @@
         <v>104.36553793969222</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>45694</v>
       </c>
@@ -19506,7 +19556,7 @@
         <v>104.94001646117906</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>45695</v>
       </c>
@@ -19555,7 +19605,7 @@
         <v>103.60483193801286</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>45698</v>
       </c>
@@ -19604,7 +19654,7 @@
         <v>104.39713010151061</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>45699</v>
       </c>
@@ -19653,7 +19703,7 @@
         <v>105.18693414697007</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>45700</v>
       </c>
@@ -19702,7 +19752,7 @@
         <v>103.40613386762885</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>45701</v>
       </c>
@@ -19751,7 +19801,7 @@
         <v>103.79687902696143</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>45702</v>
       </c>
@@ -19800,7 +19850,7 @@
         <v>106.5977735839645</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>45705</v>
       </c>
@@ -19849,7 +19899,7 @@
         <v>106.87462068621502</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>45706</v>
       </c>
@@ -19898,7 +19948,7 @@
         <v>106.8579932326264</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>45707</v>
       </c>
@@ -19947,7 +19997,7 @@
         <v>105.84122444568227</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>45708</v>
       </c>
@@ -19996,7 +20046,7 @@
         <v>106.08398526807612</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>45709</v>
       </c>
@@ -20045,7 +20095,7 @@
         <v>105.69074599070525</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>45712</v>
       </c>
@@ -20095,7 +20145,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>45713</v>
       </c>
@@ -20144,7 +20194,7 @@
         <v>104.73633015471844</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="27">
         <v>45714</v>
       </c>
@@ -20203,19 +20253,19 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A22" sqref="A21:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>16</v>
       </c>
@@ -20232,7 +20282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="39">
         <v>45688</v>
       </c>
@@ -20250,7 +20300,7 @@
         <v>066.368.579-60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="39">
         <v>45688</v>
       </c>
@@ -20268,7 +20318,7 @@
         <v>360.228.188-42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>45688</v>
       </c>
@@ -20286,7 +20336,7 @@
         <v>892.996.550-49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>45688</v>
       </c>
@@ -20304,7 +20354,7 @@
         <v>252.436.798-36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>45688</v>
       </c>
@@ -20322,7 +20372,7 @@
         <v>098.578.909-38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>45688</v>
       </c>
@@ -20340,7 +20390,7 @@
         <v>044.624.719-70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>45688</v>
       </c>
@@ -20358,7 +20408,7 @@
         <v>872.566.739-49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>45688</v>
       </c>
@@ -20376,7 +20426,7 @@
         <v>145.548.979-40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>45688</v>
       </c>
@@ -20394,7 +20444,7 @@
         <v>091.360.339-28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>45714</v>
       </c>
@@ -20414,7 +20464,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>45714</v>
       </c>
@@ -20432,7 +20482,7 @@
         <v>360.228.188-42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>45714</v>
       </c>
@@ -20450,7 +20500,7 @@
         <v>892.996.550-49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>45714</v>
       </c>
@@ -20468,7 +20518,7 @@
         <v>252.436.798-36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>45714</v>
       </c>
@@ -20486,7 +20536,7 @@
         <v>081.265.669-57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>45714</v>
       </c>
@@ -20504,7 +20554,7 @@
         <v>122.555.979-00</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>45714</v>
       </c>
@@ -20522,7 +20572,7 @@
         <v>098.578.909-38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>45714</v>
       </c>
@@ -20540,7 +20590,7 @@
         <v>044.624.719-70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>45714</v>
       </c>
@@ -20558,7 +20608,7 @@
         <v>872.566.739-49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>45714</v>
       </c>
@@ -20576,7 +20626,7 @@
         <v>145.548.979-40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>45714</v>
       </c>
@@ -20594,7 +20644,7 @@
         <v>091.360.339-28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="55">
         <v>45714</v>
       </c>
@@ -20621,24 +20671,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView showGridLines="0" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="3"/>
-    <col min="4" max="4" width="9.1796875" style="1"/>
-    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
@@ -20661,7 +20711,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>45688</v>
       </c>
@@ -20688,7 +20738,7 @@
       <c r="J2" s="50"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>45688</v>
       </c>
@@ -20715,7 +20765,7 @@
       <c r="J3" s="50"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>45688</v>
       </c>
@@ -20742,7 +20792,7 @@
       <c r="J4" s="50"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>45688</v>
       </c>
@@ -20769,7 +20819,7 @@
       <c r="J5" s="50"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>45688</v>
       </c>
@@ -20796,7 +20846,7 @@
       <c r="J6" s="50"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>45688</v>
       </c>
@@ -20823,7 +20873,7 @@
       <c r="J7" s="50"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>45688</v>
       </c>
@@ -20850,7 +20900,7 @@
       <c r="J8" s="50"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>45688</v>
       </c>
@@ -20877,7 +20927,7 @@
       <c r="J9" s="50"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>45688</v>
       </c>
@@ -20904,7 +20954,7 @@
       <c r="J10" s="50"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>45688</v>
       </c>
@@ -20931,7 +20981,7 @@
       <c r="J11" s="50"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>45688</v>
       </c>
@@ -20958,7 +21008,7 @@
       <c r="J12" s="50"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>45716</v>
       </c>
@@ -20987,7 +21037,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>45716</v>
       </c>
@@ -21015,7 +21065,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>45716</v>
       </c>
@@ -21043,7 +21093,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>45716</v>
       </c>
@@ -21071,7 +21121,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>45716</v>
       </c>
@@ -21099,7 +21149,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>45716</v>
       </c>
@@ -21127,7 +21177,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>45716</v>
       </c>
@@ -21155,7 +21205,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>45716</v>
       </c>
@@ -21183,7 +21233,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>45716</v>
       </c>
@@ -21211,7 +21261,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>45716</v>
       </c>
@@ -21239,7 +21289,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>45716</v>
       </c>
@@ -21267,7 +21317,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>45723</v>
       </c>
@@ -21294,7 +21344,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>45723</v>
       </c>
@@ -21320,7 +21370,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>45723</v>
       </c>
@@ -21346,7 +21396,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>45723</v>
       </c>
@@ -21372,7 +21422,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>45723</v>
       </c>
@@ -21398,7 +21448,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>45723</v>
       </c>
@@ -21424,7 +21474,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>45723</v>
       </c>
@@ -21450,7 +21500,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>45723</v>
       </c>
@@ -21476,7 +21526,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>45723</v>
       </c>
@@ -21502,7 +21552,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>45723</v>
       </c>
@@ -21528,7 +21578,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>45723</v>
       </c>
@@ -21554,19 +21604,19 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="13">
-        <v>16193.79</v>
+        <v>16201.76</v>
       </c>
       <c r="D35" s="44">
         <f>C35/G35</f>
-        <v>0.12534601413237745</v>
+        <v>0.12315542525471589</v>
       </c>
       <c r="E35" s="12" t="str">
         <f>_xlfn.XLOOKUP(B35,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
@@ -21577,22 +21627,22 @@
       </c>
       <c r="G35" s="13">
         <f>_xlfn.XLOOKUP(A35,Historico_Cota!A:A,Historico_Cota!C:C)</f>
-        <v>129192.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131555.39000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C36" s="13">
-        <v>13992.41</v>
+        <v>14190.92</v>
       </c>
       <c r="D36" s="44">
         <f t="shared" ref="D36:D45" si="2">C36/G36</f>
-        <v>0.10830650648217741</v>
+        <v>0.1078703046678665</v>
       </c>
       <c r="E36" s="12" t="str">
         <f>_xlfn.XLOOKUP(B36,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
@@ -21603,22 +21653,24 @@
       </c>
       <c r="G36" s="13">
         <f>_xlfn.XLOOKUP(A36,Historico_Cota!A:A,Historico_Cota!C:C)</f>
-        <v>129192.7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131555.39000000001</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="13">
-        <v>6970.48</v>
+        <v>7086.18</v>
       </c>
       <c r="D37" s="44">
         <f t="shared" si="2"/>
-        <v>5.3954132083314302E-2</v>
+        <v>5.3864611704621146E-2</v>
       </c>
       <c r="E37" s="12" t="str">
         <f>_xlfn.XLOOKUP(B37,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
@@ -21629,22 +21681,23 @@
       </c>
       <c r="G37" s="13">
         <f>_xlfn.XLOOKUP(A37,Historico_Cota!A:A,Historico_Cota!C:C)</f>
-        <v>129192.7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131555.39000000001</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="13">
-        <v>14286.64</v>
+        <v>14526.32</v>
       </c>
       <c r="D38" s="44">
         <f t="shared" si="2"/>
-        <v>0.11058395714308936</v>
+        <v>0.11041980111951322</v>
       </c>
       <c r="E38" s="12" t="str">
         <f>_xlfn.XLOOKUP(B38,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
@@ -21655,22 +21708,23 @@
       </c>
       <c r="G38" s="13">
         <f>_xlfn.XLOOKUP(A38,Historico_Cota!A:A,Historico_Cota!C:C)</f>
-        <v>129192.7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131555.39000000001</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="13">
-        <v>10751.04</v>
+        <v>10877.76</v>
       </c>
       <c r="D39" s="44">
         <f t="shared" si="2"/>
-        <v>8.3217085795095236E-2</v>
+        <v>8.2685779731259956E-2</v>
       </c>
       <c r="E39" s="12" t="str">
         <f>_xlfn.XLOOKUP(B39,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
@@ -21681,22 +21735,23 @@
       </c>
       <c r="G39" s="13">
         <f>_xlfn.XLOOKUP(A39,Historico_Cota!A:A,Historico_Cota!C:C)</f>
-        <v>129192.7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131555.39000000001</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="13">
-        <v>15019.97</v>
+        <v>15043.98</v>
       </c>
       <c r="D40" s="44">
         <f t="shared" si="2"/>
-        <v>0.11626020665254307</v>
+        <v>0.11435472161193851</v>
       </c>
       <c r="E40" s="12" t="str">
         <f>_xlfn.XLOOKUP(B40,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
@@ -21707,22 +21762,23 @@
       </c>
       <c r="G40" s="13">
         <f>_xlfn.XLOOKUP(A40,Historico_Cota!A:A,Historico_Cota!C:C)</f>
-        <v>129192.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131555.39000000001</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="13">
-        <v>9328.7999999999993</v>
+        <v>9412</v>
       </c>
       <c r="D41" s="44">
         <f t="shared" si="2"/>
-        <v>7.2208414252508069E-2</v>
+        <v>7.1544008953186938E-2</v>
       </c>
       <c r="E41" s="12" t="str">
         <f>_xlfn.XLOOKUP(B41,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
@@ -21733,22 +21789,23 @@
       </c>
       <c r="G41" s="13">
         <f>_xlfn.XLOOKUP(A41,Historico_Cota!A:A,Historico_Cota!C:C)</f>
-        <v>129192.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131555.39000000001</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C42" s="13">
-        <v>11753</v>
+        <v>12670.7</v>
       </c>
       <c r="D42" s="44">
         <f>C42/G42</f>
-        <v>9.0972632354614461E-2</v>
+        <v>9.6314563774239886E-2</v>
       </c>
       <c r="E42" s="12" t="str">
         <f>_xlfn.XLOOKUP(B42,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
@@ -21759,22 +21816,23 @@
       </c>
       <c r="G42" s="13">
         <f>_xlfn.XLOOKUP(A42,Historico_Cota!A:A,Historico_Cota!C:C)</f>
-        <v>129192.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131555.39000000001</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C43" s="13">
-        <v>9975</v>
+        <v>10178</v>
       </c>
       <c r="D43" s="44">
         <f t="shared" si="2"/>
-        <v>7.7210244851295781E-2</v>
+        <v>7.7366651415802873E-2</v>
       </c>
       <c r="E43" s="12" t="str">
         <f>_xlfn.XLOOKUP(B43,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
@@ -21785,22 +21843,23 @@
       </c>
       <c r="G43" s="13">
         <f>_xlfn.XLOOKUP(A43,Historico_Cota!A:A,Historico_Cota!C:C)</f>
-        <v>129192.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131555.39000000001</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="13">
-        <v>13897.5</v>
+        <v>14353.95</v>
       </c>
       <c r="D44" s="44">
         <f t="shared" si="2"/>
-        <v>0.10757186745071509</v>
+        <v>0.1091095545382063</v>
       </c>
       <c r="E44" s="12" t="str">
         <f>_xlfn.XLOOKUP(B44,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
@@ -21811,22 +21870,23 @@
       </c>
       <c r="G44" s="13">
         <f>_xlfn.XLOOKUP(A44,Historico_Cota!A:A,Historico_Cota!C:C)</f>
-        <v>129192.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+        <v>131555.39000000001</v>
+      </c>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
-        <v>45729</v>
+        <v>45730</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C45" s="16">
-        <v>5320.45</v>
+        <v>6065.46</v>
       </c>
       <c r="D45" s="45">
         <f t="shared" si="2"/>
-        <v>4.1182280422965074E-2</v>
+        <v>4.6105750589162477E-2</v>
       </c>
       <c r="E45" s="15" t="str">
         <f>_xlfn.XLOOKUP(B45,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
@@ -21837,7 +21897,7 @@
       </c>
       <c r="G45" s="16">
         <f>_xlfn.XLOOKUP(A45,Historico_Cota!A:A,Historico_Cota!C:C)</f>
-        <v>129192.7</v>
+        <v>131555.39000000001</v>
       </c>
     </row>
   </sheetData>
@@ -21850,18 +21910,18 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="50">
         <v>45292</v>
       </c>
@@ -21912,7 +21972,7 @@
       <c r="N2" s="50"/>
       <c r="O2" s="50"/>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="50" t="str">
         <f>TEXT(B2,"mmaaaa")</f>
         <v>012024</v>
@@ -21964,7 +22024,7 @@
       <c r="N3" s="50"/>
       <c r="O3" s="50"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="50"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
@@ -21980,7 +22040,7 @@
       <c r="N4" s="50"/>
       <c r="O4" s="50"/>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="50">
         <v>45658</v>
       </c>
@@ -22031,7 +22091,7 @@
       <c r="N5" s="50"/>
       <c r="O5" s="50"/>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="50" t="str">
         <f>TEXT(B5,"mmaaaa")</f>
         <v>012025</v>
@@ -22083,7 +22143,7 @@
       <c r="N6" s="50"/>
       <c r="O6" s="50"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="53" t="s">
         <v>64</v>
       </c>
@@ -22140,7 +22200,7 @@
       </c>
       <c r="O7" s="51"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -22154,7 +22214,7 @@
       </c>
       <c r="D8" s="52">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
-        <v>-8.6677810135959987E-4</v>
+        <v>1.740563951451235E-2</v>
       </c>
       <c r="E8" s="52" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
@@ -22194,11 +22254,11 @@
       </c>
       <c r="N8" s="52" cm="1">
         <f t="array" ref="N8">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B8:M8,B8:M8&lt;&gt;"-"))))-1</f>
-        <v>3.1162133081978238E-2</v>
+        <v>5.0020304056958231E-2</v>
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -22212,7 +22272,7 @@
       </c>
       <c r="D9" s="52">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
-        <v>2.3110937385483865E-2</v>
+        <v>5.0146988167656392E-2</v>
       </c>
       <c r="E9" s="52" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
@@ -22252,11 +22312,11 @@
       </c>
       <c r="N9" s="52" cm="1">
         <f t="array" ref="N9">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B9:M9,B9:M9&lt;&gt;"-"))))-1</f>
-        <v>4.4511693256736207E-2</v>
+        <v>7.2113266213845728E-2</v>
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -22270,7 +22330,7 @@
       </c>
       <c r="D10" s="52">
         <f t="shared" si="14"/>
-        <v>0.9765639144195668</v>
+        <v>0.96882212773825827</v>
       </c>
       <c r="E10" s="52" t="str">
         <f t="shared" si="14"/>
@@ -22310,11 +22370,11 @@
       </c>
       <c r="N10" s="52">
         <f t="shared" si="14"/>
-        <v>0.98721932912676669</v>
+        <v>0.97939307081339599</v>
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -22372,7 +22432,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -22430,7 +22490,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -22488,7 +22548,7 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
@@ -22499,21 +22559,41 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1E5C71-1434-4F31-9D11-DB10380ACD99}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.13250000000000001</v>
       </c>
+    </row>
+    <row r="24" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -22528,9 +22608,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -22544,7 +22624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -22558,7 +22638,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -22572,7 +22652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -22586,7 +22666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -22600,7 +22680,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -22614,7 +22694,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -22628,7 +22708,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -22642,7 +22722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -22656,7 +22736,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -22670,7 +22750,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -22684,7 +22764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>

--- a/Relatório_Gerencial_Denver.xlsx
+++ b/Relatório_Gerencial_Denver.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Denver Asset\Clube Kairos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Denver Asset\Clube Kairos\_DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4100C6-4DEF-4CC5-9D6E-7DD750455A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5060E39-7C4F-41B2-9362-1A8FA1BCC7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28910" yWindow="1630" windowWidth="29020" windowHeight="15700" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
   </bookViews>
@@ -2193,7 +2193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="72">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -4154,11 +4154,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7BB3D-AA6F-4398-826D-91557AA445E2}">
-  <dimension ref="A1:S280"/>
+  <dimension ref="A1:S281"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A280" sqref="A280"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18168,6 +18168,56 @@
       <c r="M280" s="82">
         <f t="shared" ref="M280" si="89">M279*(1+F280)</f>
         <v>101.0686360252392</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A281" s="60">
+        <v>45733</v>
+      </c>
+      <c r="B281" s="26">
+        <v>130834</v>
+      </c>
+      <c r="C281" s="26">
+        <v>132965.79</v>
+      </c>
+      <c r="D281" s="68">
+        <v>1.7902210000000001</v>
+      </c>
+      <c r="E281" s="79">
+        <f t="shared" ref="E281" si="90">D281/D280-1</f>
+        <v>1.0720786435656215E-2</v>
+      </c>
+      <c r="F281" s="79">
+        <f t="shared" ref="F281" si="91">B281/B280-1</f>
+        <v>1.4555239343347015E-2</v>
+      </c>
+      <c r="G281" s="79">
+        <f>D281/$D$2-1</f>
+        <v>2.3143773284275415E-3</v>
+      </c>
+      <c r="H281" s="79">
+        <f t="shared" ref="H281" si="92">B281/$B$2-1</f>
+        <v>2.5397142126921901E-2</v>
+      </c>
+      <c r="I281" s="80" t="str">
+        <f t="shared" ref="I281" si="93">TEXT(A281,"mmaaaa")</f>
+        <v>032025</v>
+      </c>
+      <c r="J281" s="79">
+        <f t="shared" ref="J281" si="94">IF(I281=I280,(1+E281)*(1+J280)-1,E281)</f>
+        <v>2.8313028094179682E-2</v>
+      </c>
+      <c r="K281" s="79">
+        <f t="shared" ref="K281" si="95">IF(I281=I280,(1+F281)*(1+K280)-1,F281)</f>
+        <v>6.5432128926131705E-2</v>
+      </c>
+      <c r="L281" s="81">
+        <f t="shared" ref="L281" si="96">L280*(1+E281)</f>
+        <v>100.23143773284271</v>
+      </c>
+      <c r="M281" s="82">
+        <f t="shared" ref="M281" si="97">M280*(1+F281)</f>
+        <v>102.53971421269218</v>
       </c>
     </row>
   </sheetData>
@@ -20255,7 +20305,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:E22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20671,10 +20721,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21907,6 +21957,292 @@
         <v>131555.39000000001</v>
       </c>
     </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="11">
+        <v>16209.74</v>
+      </c>
+      <c r="D46" s="41">
+        <f>C46/G46</f>
+        <v>0.12190910158169255</v>
+      </c>
+      <c r="E46" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B46,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Títulos Públicos</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="11">
+        <f>_xlfn.XLOOKUP(A46,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132965.79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="11">
+        <v>14486.14</v>
+      </c>
+      <c r="D47" s="41">
+        <f t="shared" ref="D47:D56" si="3">C47/G47</f>
+        <v>0.10894636883667595</v>
+      </c>
+      <c r="E47" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B47,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="11">
+        <f>_xlfn.XLOOKUP(A47,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132965.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="11">
+        <v>7120</v>
+      </c>
+      <c r="D48" s="41">
+        <f t="shared" si="3"/>
+        <v>5.3547607997515748E-2</v>
+      </c>
+      <c r="E48" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B48,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="11">
+        <f>_xlfn.XLOOKUP(A48,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132965.79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="11">
+        <v>14937.2</v>
+      </c>
+      <c r="D49" s="41">
+        <f t="shared" si="3"/>
+        <v>0.11233866996917026</v>
+      </c>
+      <c r="E49" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B49,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="11">
+        <f>_xlfn.XLOOKUP(A49,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132965.79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="11">
+        <v>11102.4</v>
+      </c>
+      <c r="D50" s="41">
+        <f t="shared" si="3"/>
+        <v>8.3498168965114999E-2</v>
+      </c>
+      <c r="E50" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B50,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G50" s="11">
+        <f>_xlfn.XLOOKUP(A50,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132965.79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="11">
+        <v>15157.17</v>
+      </c>
+      <c r="D51" s="41">
+        <f t="shared" si="3"/>
+        <v>0.11399300526849801</v>
+      </c>
+      <c r="E51" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B51,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="11">
+        <f>_xlfn.XLOOKUP(A51,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132965.79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="11">
+        <v>6860.9</v>
+      </c>
+      <c r="D52" s="41">
+        <f t="shared" si="3"/>
+        <v>5.1598986476145477E-2</v>
+      </c>
+      <c r="E52" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B52,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="11">
+        <f>_xlfn.XLOOKUP(A52,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132965.79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="11">
+        <v>16753.400000000001</v>
+      </c>
+      <c r="D53" s="41">
+        <f>C53/G53</f>
+        <v>0.12599782244741298</v>
+      </c>
+      <c r="E53" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B53,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G53" s="11">
+        <f>_xlfn.XLOOKUP(A53,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132965.79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="11">
+        <v>6595.68</v>
+      </c>
+      <c r="D54" s="41">
+        <f t="shared" ref="D54:D56" si="4">C54/G54</f>
+        <v>4.9604338078238018E-2</v>
+      </c>
+      <c r="E54" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B54,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G54" s="11">
+        <f>_xlfn.XLOOKUP(A54,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132965.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="9">
+        <v>45733</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="11">
+        <v>14560.5</v>
+      </c>
+      <c r="D55" s="41">
+        <f t="shared" si="4"/>
+        <v>0.10950561042806574</v>
+      </c>
+      <c r="E55" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B55,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G55" s="11">
+        <f>_xlfn.XLOOKUP(A55,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132965.79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="12">
+        <v>45733</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="14">
+        <v>6065.46</v>
+      </c>
+      <c r="D56" s="42">
+        <f t="shared" si="4"/>
+        <v>4.5616695843344365E-2</v>
+      </c>
+      <c r="E56" s="13" t="str">
+        <f>_xlfn.XLOOKUP(B56,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="14">
+        <f>_xlfn.XLOOKUP(A56,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132965.79</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G45" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -21918,7 +22254,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22222,7 +22558,7 @@
       </c>
       <c r="D8" s="49">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
-        <v>1.740563951451235E-2</v>
+        <v>2.8313028094179682E-2</v>
       </c>
       <c r="E8" s="49" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
@@ -22262,7 +22598,7 @@
       </c>
       <c r="N8" s="49" cm="1">
         <f t="array" ref="N8">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B8:M8,B8:M8&lt;&gt;"-"))))-1</f>
-        <v>5.0020304056958231E-2</v>
+        <v>6.1277347489855805E-2</v>
       </c>
       <c r="O8" s="1"/>
     </row>
@@ -22280,7 +22616,7 @@
       </c>
       <c r="D9" s="49">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
-        <v>5.0146988167656392E-2</v>
+        <v>6.5432128926131705E-2</v>
       </c>
       <c r="E9" s="49" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
@@ -22320,7 +22656,7 @@
       </c>
       <c r="N9" s="49" cm="1">
         <f t="array" ref="N9">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B9:M9,B9:M9&lt;&gt;"-"))))-1</f>
-        <v>7.2113266213845728E-2</v>
+        <v>8.7718131406765876E-2</v>
       </c>
       <c r="O9" s="1"/>
     </row>
@@ -22338,7 +22674,7 @@
       </c>
       <c r="D10" s="49">
         <f t="shared" si="14"/>
-        <v>0.96882212773825827</v>
+        <v>0.96516052048349144</v>
       </c>
       <c r="E10" s="49" t="str">
         <f t="shared" si="14"/>
@@ -22378,7 +22714,7 @@
       </c>
       <c r="N10" s="49">
         <f t="shared" si="14"/>
-        <v>0.97939307081339599</v>
+        <v>0.97569151129004927</v>
       </c>
       <c r="O10" s="1"/>
     </row>

--- a/Relatório_Gerencial_Denver.xlsx
+++ b/Relatório_Gerencial_Denver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Denver Asset\Clube Kairos\_DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5060E39-7C4F-41B2-9362-1A8FA1BCC7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1AB37F-EE78-4597-A2A8-659CD6A91888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28910" yWindow="1630" windowWidth="29020" windowHeight="15700" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico_Cota" sheetId="7" r:id="rId1"/>
@@ -2193,7 +2193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="72">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -2415,10 +2415,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -2687,7 +2689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2882,6 +2884,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4154,37 +4158,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7BB3D-AA6F-4398-826D-91557AA445E2}">
-  <dimension ref="A1:S281"/>
+  <dimension ref="A1:S285"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A281" sqref="A281"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="83" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="49" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="64" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" style="64" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -4225,7 +4229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="57">
         <v>45327</v>
       </c>
@@ -4267,7 +4271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="57">
         <v>45328</v>
       </c>
@@ -4318,7 +4322,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
         <v>45329</v>
       </c>
@@ -4368,7 +4372,7 @@
         <v>101.84681052301336</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>45330</v>
       </c>
@@ -4418,7 +4422,7 @@
         <v>100.48860643282036</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>45331</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>100.33873985263669</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <v>45336</v>
       </c>
@@ -4518,7 +4522,7 @@
         <v>99.54919330131969</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
         <v>45337</v>
       </c>
@@ -4568,7 +4572,7 @@
         <v>100.16508679243748</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
         <v>45338</v>
       </c>
@@ -4618,7 +4622,7 @@
         <v>100.88749825716032</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="57">
         <v>45341</v>
       </c>
@@ -4668,7 +4672,7 @@
         <v>101.13034763764202</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
         <v>45342</v>
       </c>
@@ -4718,7 +4722,7 @@
         <v>101.82032798068303</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="57">
         <v>45343</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>101.91082632820843</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="57">
         <v>45344</v>
       </c>
@@ -4818,7 +4822,7 @@
         <v>102.07460427644075</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>45345</v>
       </c>
@@ -4868,7 +4872,7 @@
         <v>101.43051185448411</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="57">
         <v>45348</v>
       </c>
@@ -4918,7 +4922,7 @@
         <v>101.57967306952729</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="57">
         <v>45349</v>
       </c>
@@ -4968,7 +4972,7 @@
         <v>103.21010107960835</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="57">
         <v>45350</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>102.00789240893087</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="57">
         <v>45351</v>
       </c>
@@ -5068,7 +5072,7 @@
         <v>101.1180272598547</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>45352</v>
       </c>
@@ -5118,7 +5122,7 @@
         <v>101.24369981571942</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="57">
         <v>45355</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>100.58549225356245</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="57">
         <v>45356</v>
       </c>
@@ -5218,7 +5222,7 @@
         <v>100.39549039688467</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="57">
         <v>45357</v>
       </c>
@@ -5268,7 +5272,7 @@
         <v>101.01630576920499</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="57">
         <v>45358</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>100.58488093710737</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="57">
         <v>45359</v>
       </c>
@@ -5368,7 +5372,7 @@
         <v>99.590339601181839</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="57">
         <v>45362</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>98.847958465592555</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="57">
         <v>45363</v>
       </c>
@@ -5468,7 +5472,7 @@
         <v>100.05827099799527</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="57">
         <v>45364</v>
       </c>
@@ -5518,7 +5522,7 @@
         <v>100.32333938040254</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="57">
         <v>45365</v>
       </c>
@@ -5568,7 +5572,7 @@
         <v>100.07561514306097</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="57">
         <v>45366</v>
       </c>
@@ -5618,7 +5622,7 @@
         <v>99.332505130159831</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="57">
         <v>45369</v>
       </c>
@@ -5668,7 +5672,7 @@
         <v>99.498947791145113</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="57">
         <v>45370</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>99.949339108131596</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="57">
         <v>45371</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>101.20017094916048</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="57">
         <v>45372</v>
       </c>
@@ -5818,7 +5822,7 @@
         <v>100.44287525954498</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="57">
         <v>45373</v>
       </c>
@@ -5868,7 +5872,7 @@
         <v>99.556098042306061</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="57">
         <v>45376</v>
       </c>
@@ -5918,7 +5922,7 @@
         <v>99.481149077433315</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="57">
         <v>45377</v>
       </c>
@@ -5968,7 +5972,7 @@
         <v>99.427502139803508</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="57">
         <v>45378</v>
       </c>
@@ -6018,7 +6022,7 @@
         <v>100.07612457344021</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="57">
         <v>45379</v>
       </c>
@@ -6068,7 +6072,7 @@
         <v>100.40175247185415</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="57">
         <v>45383</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>99.527374006307042</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="57">
         <v>45384</v>
       </c>
@@ -6170,7 +6174,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="57">
         <v>45385</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>99.784393388722251</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="57">
         <v>45386</v>
       </c>
@@ -6270,7 +6274,7 @@
         <v>99.869930668092849</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="57">
         <v>45387</v>
       </c>
@@ -6320,7 +6324,7 @@
         <v>99.374513542971499</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="57">
         <v>45390</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>100.99038751898706</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="60">
         <v>45391</v>
       </c>
@@ -6420,7 +6424,7 @@
         <v>101.80015453766489</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="60">
         <v>45392</v>
       </c>
@@ -6470,7 +6474,7 @@
         <v>100.36071589545831</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="60">
         <v>45393</v>
       </c>
@@ -6520,7 +6524,7 @@
         <v>99.845493684669975</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="60">
         <v>45394</v>
       </c>
@@ -6570,7 +6574,7 @@
         <v>98.708868297277547</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="60">
         <v>45397</v>
       </c>
@@ -6620,7 +6624,7 @@
         <v>98.229063253932466</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="60">
         <v>45398</v>
       </c>
@@ -6670,7 +6674,7 @@
         <v>97.488218246871369</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="60">
         <v>45399</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>97.317778516756604</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="60">
         <v>45400</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>97.337395505052797</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="60">
         <v>45401</v>
       </c>
@@ -6820,7 +6824,7 @@
         <v>98.064799387492258</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="60">
         <v>45404</v>
       </c>
@@ -6870,7 +6874,7 @@
         <v>98.416588495228083</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="60">
         <v>45405</v>
       </c>
@@ -6920,7 +6924,7 @@
         <v>98.083428864591752</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="60">
         <v>45406</v>
       </c>
@@ -6970,7 +6974,7 @@
         <v>97.764149252442252</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="60">
         <v>45407</v>
       </c>
@@ -7020,7 +7024,7 @@
         <v>97.689607831872905</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="60">
         <v>45408</v>
       </c>
@@ -7070,7 +7074,7 @@
         <v>99.163578016401914</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="60">
         <v>45411</v>
       </c>
@@ -7120,7 +7124,7 @@
         <v>99.810570272825018</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="60">
         <v>45412</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>98.691704412192166</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="60">
         <v>45414</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>99.630670812437188</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="60">
         <v>45415</v>
       </c>
@@ -7270,7 +7274,7 @@
         <v>100.7172622991972</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="60">
         <v>45418</v>
       </c>
@@ -7320,7 +7324,7 @@
         <v>100.68357719504338</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="60">
         <v>45419</v>
       </c>
@@ -7370,7 +7374,7 @@
         <v>101.26729819836414</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="60">
         <v>45420</v>
       </c>
@@ -7420,7 +7424,7 @@
         <v>101.47922907352087</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="60">
         <v>45421</v>
       </c>
@@ -7470,7 +7474,7 @@
         <v>100.4662071709144</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="60">
         <v>45422</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>100.00476513339353</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="60">
         <v>45425</v>
       </c>
@@ -7570,7 +7574,7 @@
         <v>100.43991272595487</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="60">
         <v>45426</v>
       </c>
@@ -7620,7 +7624,7 @@
         <v>100.72260739948406</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="60">
         <v>45427</v>
       </c>
@@ -7670,7 +7674,7 @@
         <v>100.34022111943167</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="60">
         <v>45428</v>
       </c>
@@ -7720,7 +7724,7 @@
         <v>100.5408818271214</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="60">
         <v>45429</v>
       </c>
@@ -7770,7 +7774,7 @@
         <v>100.4367150706513</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="60">
         <v>45432</v>
       </c>
@@ -7820,7 +7824,7 @@
         <v>100.12338403785331</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="60">
         <v>45433</v>
       </c>
@@ -7870,7 +7874,7 @@
         <v>99.857406518153837</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="60">
         <v>45434</v>
       </c>
@@ -7920,7 +7924,7 @@
         <v>98.476834515616716</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="60">
         <v>45435</v>
       </c>
@@ -7970,7 +7974,7 @@
         <v>97.755300838624251</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="60">
         <v>45436</v>
       </c>
@@ -8020,7 +8024,7 @@
         <v>97.423128719184618</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="60">
         <v>45439</v>
       </c>
@@ -8070,7 +8074,7 @@
         <v>97.57212534902834</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="60">
         <v>45440</v>
       </c>
@@ -8120,7 +8124,7 @@
         <v>97.010858469346616</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="60">
         <v>45441</v>
       </c>
@@ -8170,7 +8174,7 @@
         <v>96.170486440961781</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="60">
         <v>45443</v>
       </c>
@@ -8220,7 +8224,7 @@
         <v>95.693040452142128</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="60">
         <v>45446</v>
       </c>
@@ -8270,7 +8274,7 @@
         <v>95.640913968259611</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="60">
         <v>45447</v>
       </c>
@@ -8320,7 +8324,7 @@
         <v>95.461030182652678</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="60">
         <v>45448</v>
       </c>
@@ -8370,7 +8374,7 @@
         <v>95.151664869422362</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="60">
         <v>45449</v>
       </c>
@@ -8420,7 +8424,7 @@
         <v>96.320588142858952</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="60">
         <v>45450</v>
       </c>
@@ -8470,7 +8474,7 @@
         <v>94.649962157160147</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="60">
         <v>45453</v>
       </c>
@@ -8520,7 +8524,7 @@
         <v>94.643943041294591</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="60">
         <v>45454</v>
       </c>
@@ -8570,7 +8574,7 @@
         <v>95.330145762138741</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="60">
         <v>45455</v>
       </c>
@@ -8620,7 +8624,7 @@
         <v>93.998541775132836</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="60">
         <v>45456</v>
       </c>
@@ -8670,7 +8674,7 @@
         <v>93.709741774443145</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="60">
         <v>45457</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>93.784079422860799</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="60">
         <v>45460</v>
       </c>
@@ -8770,7 +8774,7 @@
         <v>93.37299261898076</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="60">
         <v>45461</v>
       </c>
@@ -8820,7 +8824,7 @@
         <v>93.759046797763702</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="60">
         <v>45462</v>
       </c>
@@ -8870,7 +8874,7 @@
         <v>94.253507761250162</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="60">
         <v>45463</v>
       </c>
@@ -8920,7 +8924,7 @@
         <v>94.398162476784634</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="60">
         <v>45464</v>
       </c>
@@ -8970,7 +8974,7 @@
         <v>95.099781344643816</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="60">
         <v>45467</v>
       </c>
@@ -9020,7 +9024,7 @@
         <v>96.115373911317874</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="60">
         <v>45468</v>
       </c>
@@ -9070,7 +9074,7 @@
         <v>95.875886771339168</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="60">
         <v>45469</v>
       </c>
@@ -9120,7 +9124,7 @@
         <v>96.118775338773133</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="60">
         <v>45470</v>
       </c>
@@ -9170,7 +9174,7 @@
         <v>97.424899969426306</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="60">
         <v>45471</v>
       </c>
@@ -9220,7 +9224,7 @@
         <v>97.110401165451279</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="60">
         <v>45474</v>
       </c>
@@ -9270,7 +9274,7 @@
         <v>97.746421075244484</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="60">
         <v>45475</v>
       </c>
@@ -9320,7 +9324,7 @@
         <v>97.800506906739486</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="60">
         <v>45476</v>
       </c>
@@ -9370,7 +9374,7 @@
         <v>98.486129660690324</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="60">
         <v>45477</v>
       </c>
@@ -9420,7 +9424,7 @@
         <v>98.879637197791155</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="60">
         <v>45478</v>
       </c>
@@ -9470,7 +9474,7 @@
         <v>98.960417181158661</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="60">
         <v>45481</v>
       </c>
@@ -9520,7 +9524,7 @@
         <v>99.1808751371249</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="60">
         <v>45482</v>
       </c>
@@ -9570,7 +9574,7 @@
         <v>99.619674953635922</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="60">
         <v>45483</v>
       </c>
@@ -9620,7 +9624,7 @@
         <v>99.705901923366113</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="60">
         <v>45484</v>
       </c>
@@ -9670,7 +9674,7 @@
         <v>100.54871138018088</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="60">
         <v>45485</v>
       </c>
@@ -9720,7 +9724,7 @@
         <v>101.02159600775867</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="60">
         <v>45488</v>
       </c>
@@ -9770,7 +9774,7 @@
         <v>101.35388568805507</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="60">
         <v>45489</v>
       </c>
@@ -9820,7 +9824,7 @@
         <v>101.18884591996031</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="60">
         <v>45490</v>
       </c>
@@ -9870,7 +9874,7 @@
         <v>101.45527017091543</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="60">
         <v>45491</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>100.04590359586524</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="60">
         <v>45492</v>
       </c>
@@ -9970,7 +9974,7 @@
         <v>100.01800248586348</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="60">
         <v>45495</v>
       </c>
@@ -10020,7 +10024,7 @@
         <v>100.20858430943457</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="60">
         <v>45496</v>
       </c>
@@ -10070,7 +10074,7 @@
         <v>99.213400307492151</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="60">
         <v>45497</v>
       </c>
@@ -10120,7 +10124,7 @@
         <v>99.082429675683272</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="60">
         <v>45498</v>
       </c>
@@ -10170,7 +10174,7 @@
         <v>98.715138209637473</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="60">
         <v>45499</v>
       </c>
@@ -10220,7 +10224,7 @@
         <v>99.920842356455637</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="60">
         <v>45502</v>
       </c>
@@ -10270,7 +10274,7 @@
         <v>99.498696994650729</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="60">
         <v>45503</v>
       </c>
@@ -10320,7 +10324,7 @@
         <v>98.860223981646698</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="60">
         <v>45504</v>
       </c>
@@ -10370,7 +10374,7 @@
         <v>100.045707661104</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="60">
         <v>45505</v>
       </c>
@@ -10420,7 +10424,7 @@
         <v>99.844514010863705</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="60">
         <v>45506</v>
       </c>
@@ -10470,7 +10474,7 @@
         <v>98.636764305138115</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="60">
         <v>45509</v>
       </c>
@@ -10520,7 +10524,7 @@
         <v>98.178629646387108</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="60">
         <v>45510</v>
       </c>
@@ -10570,7 +10574,7 @@
         <v>98.960142872492938</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="60">
         <v>45511</v>
       </c>
@@ -10620,7 +10624,7 @@
         <v>99.937606534628046</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="60">
         <v>45512</v>
       </c>
@@ -10670,7 +10674,7 @@
         <v>100.83655521923571</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="60">
         <v>45513</v>
       </c>
@@ -10720,7 +10724,7 @@
         <v>102.36775402883015</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="60">
         <v>45516</v>
       </c>
@@ -10770,7 +10774,7 @@
         <v>102.76065024947589</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="60">
         <v>45517</v>
       </c>
@@ -10820,7 +10824,7 @@
         <v>103.76545856689083</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="60">
         <v>45518</v>
       </c>
@@ -10870,7 +10874,7 @@
         <v>104.48625552918098</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="60">
         <v>45519</v>
       </c>
@@ -10920,7 +10924,7 @@
         <v>105.14127327342483</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="60">
         <v>45520</v>
       </c>
@@ -10970,7 +10974,7 @@
         <v>104.98439222878845</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="60">
         <v>45523</v>
       </c>
@@ -11020,7 +11024,7 @@
         <v>106.41450437635962</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="60">
         <v>45524</v>
       </c>
@@ -11070,7 +11074,7 @@
         <v>106.65701674905198</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="60">
         <v>45525</v>
       </c>
@@ -11120,7 +11124,7 @@
         <v>106.95189072734034</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="60">
         <v>45526</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>105.94066358714691</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="60">
         <v>45527</v>
       </c>
@@ -11220,7 +11224,7 @@
         <v>106.28165277084273</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="60">
         <v>45530</v>
       </c>
@@ -11270,7 +11274,7 @@
         <v>107.28502684580532</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="60">
         <v>45531</v>
       </c>
@@ -11320,7 +11324,7 @@
         <v>107.19662108153004</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="60">
         <v>45532</v>
       </c>
@@ -11370,7 +11374,7 @@
         <v>107.64182404603864</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="60">
         <v>45533</v>
       </c>
@@ -11420,7 +11424,7 @@
         <v>106.62091772863954</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="60">
         <v>45534</v>
       </c>
@@ -11470,7 +11474,7 @@
         <v>106.59165291269949</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="60">
         <v>45537</v>
       </c>
@@ -11520,7 +11524,7 @@
         <v>105.73115446563922</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="60">
         <v>45538</v>
       </c>
@@ -11570,7 +11574,7 @@
         <v>105.29806810676621</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="60">
         <v>45539</v>
       </c>
@@ -11620,7 +11624,7 @@
         <v>106.6752935435812</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="60">
         <v>45540</v>
       </c>
@@ -11670,7 +11674,7 @@
         <v>106.98233115184789</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="60">
         <v>45541</v>
       </c>
@@ -11720,7 +11724,7 @@
         <v>105.46968344544847</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="60">
         <v>45544</v>
       </c>
@@ -11770,7 +11774,7 @@
         <v>105.59881229050158</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="60">
         <v>45545</v>
       </c>
@@ -11820,7 +11824,7 @@
         <v>105.2714993531409</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="60">
         <v>45546</v>
       </c>
@@ -11870,7 +11874,7 @@
         <v>105.55142742784128</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="60">
         <v>45547</v>
       </c>
@@ -11920,7 +11924,7 @@
         <v>105.04409746923602</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="60">
         <v>45548</v>
       </c>
@@ -11970,7 +11974,7 @@
         <v>105.71225067987397</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="60">
         <v>45551</v>
       </c>
@@ -12020,7 +12024,7 @@
         <v>105.89742470403461</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="60">
         <v>45552</v>
       </c>
@@ -12070,7 +12074,7 @@
         <v>105.77357042275428</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="60">
         <v>45553</v>
       </c>
@@ -12120,7 +12124,7 @@
         <v>104.82328683069954</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="60">
         <v>45554</v>
       </c>
@@ -12170,7 +12174,7 @@
         <v>104.33343425279766</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="60">
         <v>45555</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>102.72110277726549</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="60">
         <v>45558</v>
       </c>
@@ -12270,7 +12274,7 @@
         <v>102.33152961017052</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="60">
         <v>45559</v>
       </c>
@@ -12320,7 +12324,7 @@
         <v>103.57562913280292</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="60">
         <v>45560</v>
       </c>
@@ -12370,7 +12374,7 @@
         <v>103.12943865709761</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="60">
         <v>45561</v>
       </c>
@@ -12420,7 +12424,7 @@
         <v>104.24495795200833</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="60">
         <v>45562</v>
       </c>
@@ -12470,7 +12474,7 @@
         <v>104.02596558805621</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="60">
         <v>45565</v>
       </c>
@@ -12520,7 +12524,7 @@
         <v>103.30969080005568</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="60">
         <v>45566</v>
       </c>
@@ -12570,7 +12574,7 @@
         <v>103.84163016467373</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="60">
         <v>45567</v>
       </c>
@@ -12620,7 +12624,7 @@
         <v>104.6408715679773</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="60">
         <v>45568</v>
       </c>
@@ -12670,7 +12674,7 @@
         <v>103.19610350026477</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="60">
         <v>45569</v>
       </c>
@@ -12720,7 +12724,7 @@
         <v>103.29018353522579</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="60">
         <v>45572</v>
       </c>
@@ -12770,7 +12774,7 @@
         <v>103.4675358437174</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="60">
         <v>45573</v>
       </c>
@@ -12820,7 +12824,7 @@
         <v>103.07087767565569</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="60">
         <v>45574</v>
       </c>
@@ -12870,7 +12874,7 @@
         <v>101.85634078980046</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="60">
         <v>45575</v>
       </c>
@@ -12920,7 +12924,7 @@
         <v>102.16262600858396</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="60">
         <v>45576</v>
       </c>
@@ -12970,7 +12974,7 @@
         <v>101.8800332211306</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="60">
         <v>45579</v>
       </c>
@@ -13020,7 +13024,7 @@
         <v>102.67392952414731</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="60">
         <v>45580</v>
       </c>
@@ -13070,7 +13074,7 @@
         <v>102.70372728263797</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="60">
         <v>45581</v>
       </c>
@@ -13120,7 +13124,7 @@
         <v>103.25739973097369</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="60">
         <v>45582</v>
       </c>
@@ -13170,7 +13174,7 @@
         <v>102.50790224485587</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="60">
         <v>45583</v>
       </c>
@@ -13220,7 +13224,7 @@
         <v>102.277365404771</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="60">
         <v>45586</v>
       </c>
@@ -13270,7 +13274,7 @@
         <v>102.16944453827539</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="60">
         <v>45587</v>
       </c>
@@ -13320,7 +13324,7 @@
         <v>101.84796261940946</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="60">
         <v>45588</v>
       </c>
@@ -13370,7 +13374,7 @@
         <v>101.28503421295237</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="60">
         <v>45589</v>
       </c>
@@ -13420,7 +13424,7 @@
         <v>101.93854717822983</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="60">
         <v>45590</v>
       </c>
@@ -13470,7 +13474,7 @@
         <v>101.80246656784759</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="60">
         <v>45593</v>
       </c>
@@ -13520,7 +13524,7 @@
         <v>102.83642214034582</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="60">
         <v>45594</v>
       </c>
@@ -13570,7 +13574,7 @@
         <v>102.45815049027966</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="60">
         <v>45595</v>
       </c>
@@ -13620,7 +13624,7 @@
         <v>102.38714373280325</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="60">
         <v>45596</v>
       </c>
@@ -13670,7 +13674,7 @@
         <v>101.66140137713919</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="60">
         <v>45597</v>
       </c>
@@ -13720,7 +13724,7 @@
         <v>100.41323424886329</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="60">
         <v>45600</v>
       </c>
@@ -13770,7 +13774,7 @@
         <v>102.28953687213976</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="60">
         <v>45601</v>
       </c>
@@ -13820,7 +13824,7 @@
         <v>102.40393142314703</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="60">
         <v>45602</v>
       </c>
@@ -13870,7 +13874,7 @@
         <v>102.15326816438673</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="60">
         <v>45603</v>
       </c>
@@ -13920,7 +13924,7 @@
         <v>101.63661171114605</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="60">
         <v>45604</v>
       </c>
@@ -13970,7 +13974,7 @@
         <v>100.18520537372241</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="60">
         <v>45607</v>
       </c>
@@ -14020,7 +14024,7 @@
         <v>100.21961151779763</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="60">
         <v>45608</v>
       </c>
@@ -14070,7 +14074,7 @@
         <v>100.08215936408666</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="60">
         <v>45609</v>
       </c>
@@ -14120,7 +14124,7 @@
         <v>100.11002912452663</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="60">
         <v>45610</v>
       </c>
@@ -14170,7 +14174,7 @@
         <v>100.15526654220365</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="60">
         <v>45614</v>
       </c>
@@ -14220,7 +14224,7 @@
         <v>100.13691921116035</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="60">
         <v>45615</v>
       </c>
@@ -14270,7 +14274,7 @@
         <v>100.4731902858053</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="60">
         <v>45617</v>
       </c>
@@ -14320,7 +14324,7 @@
         <v>99.473813279972163</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="60">
         <v>45618</v>
       </c>
@@ -14370,7 +14374,7 @@
         <v>101.20070389171104</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="60">
         <v>45621</v>
       </c>
@@ -14420,7 +14424,7 @@
         <v>101.13062978369817</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="60">
         <v>45622</v>
       </c>
@@ -14470,7 +14474,7 @@
         <v>101.82524202449508</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="60">
         <v>45623</v>
       </c>
@@ -14520,7 +14524,7 @@
         <v>100.05887447705986</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="60">
         <v>45624</v>
       </c>
@@ -14570,7 +14574,7 @@
         <v>97.662043729660454</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="60">
         <v>45625</v>
       </c>
@@ -14620,7 +14624,7 @@
         <v>98.490785070617591</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="60">
         <v>45628</v>
       </c>
@@ -14670,7 +14674,7 @@
         <v>98.151982518857309</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="60">
         <v>45629</v>
       </c>
@@ -14720,7 +14724,7 @@
         <v>98.860216144256228</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="60">
         <v>45630</v>
       </c>
@@ -14770,7 +14774,7 @@
         <v>98.819320640888463</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="60">
         <v>45631</v>
       </c>
@@ -14820,7 +14824,7 @@
         <v>100.20697764439234</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="60">
         <v>45632</v>
       </c>
@@ -14870,7 +14874,7 @@
         <v>98.708797760763474</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="60">
         <v>45635</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>99.699443913635378</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="60">
         <v>45636</v>
       </c>
@@ -14970,7 +14974,7 @@
         <v>100.49729026143886</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="60">
         <v>45637</v>
       </c>
@@ -15020,7 +15024,7 @@
         <v>101.56709405785513</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="60">
         <v>45638</v>
       </c>
@@ -15070,7 +15074,7 @@
         <v>98.784036709082869</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="60">
         <v>45639</v>
       </c>
@@ -15120,7 +15124,7 @@
         <v>97.66328987474202</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="60">
         <v>45642</v>
       </c>
@@ -15170,7 +15174,7 @@
         <v>96.838796399408764</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="60">
         <v>45643</v>
       </c>
@@ -15220,7 +15224,7 @@
         <v>97.730691432611479</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="60">
         <v>45644</v>
       </c>
@@ -15270,7 +15274,7 @@
         <v>94.652948202921621</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="60">
         <v>45645</v>
       </c>
@@ -15320,7 +15324,7 @@
         <v>94.979767384683953</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="60">
         <v>45646</v>
       </c>
@@ -15370,7 +15374,7 @@
         <v>95.696104871808103</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="60">
         <v>45649</v>
       </c>
@@ -15420,7 +15424,7 @@
         <v>94.649813246741658</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="60">
         <v>45650</v>
       </c>
@@ -15470,7 +15474,7 @@
         <v>94.649813246741658</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="60">
         <v>45652</v>
       </c>
@@ -15520,7 +15524,7 @@
         <v>94.893556089734673</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="60">
         <v>45653</v>
       </c>
@@ -15570,7 +15574,7 @@
         <v>94.259511202334849</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="60">
         <v>45656</v>
       </c>
@@ -15620,7 +15624,7 @@
         <v>94.270483548964748</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="60">
         <v>45657</v>
       </c>
@@ -15670,7 +15674,7 @@
         <v>94.270483548964748</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="60">
         <v>45659</v>
       </c>
@@ -15720,7 +15724,7 @@
         <v>94.146652779855756</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="60">
         <v>45660</v>
       </c>
@@ -15770,7 +15774,7 @@
         <v>92.898940220225953</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="60">
         <v>45663</v>
       </c>
@@ -15820,7 +15824,7 @@
         <v>94.065927658221412</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="60">
         <v>45664</v>
       </c>
@@ -15870,7 +15874,7 @@
         <v>94.960173908559099</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="60">
         <v>45665</v>
       </c>
@@ -15920,7 +15924,7 @@
         <v>93.754783257358952</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="60">
         <v>45666</v>
       </c>
@@ -15970,7 +15974,7 @@
         <v>93.877046548377947</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="60">
         <v>45667</v>
       </c>
@@ -16020,7 +16024,7 @@
         <v>93.152087931758871</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="60">
         <v>45670</v>
       </c>
@@ -16070,7 +16074,7 @@
         <v>93.270432527552913</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="60">
         <v>45671</v>
       </c>
@@ -16120,7 +16124,7 @@
         <v>93.499284328691047</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="60">
         <v>45672</v>
       </c>
@@ -16170,7 +16174,7 @@
         <v>96.125593868464591</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="60">
         <v>45673</v>
       </c>
@@ -16220,7 +16224,7 @@
         <v>95.015819380753669</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="60">
         <v>45674</v>
       </c>
@@ -16270,7 +16274,7 @@
         <v>95.890472154966517</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="60">
         <v>45677</v>
       </c>
@@ -16320,7 +16324,7 @@
         <v>96.286260372688275</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="60">
         <v>45678</v>
       </c>
@@ -16370,7 +16374,7 @@
         <v>96.664806331420181</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="60">
         <v>45679</v>
       </c>
@@ -16420,7 +16424,7 @@
         <v>96.377957840952519</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="60">
         <v>45680</v>
       </c>
@@ -16470,7 +16474,7 @@
         <v>95.994709447950655</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="60">
         <v>45681</v>
       </c>
@@ -16520,7 +16524,7 @@
         <v>95.966494842330889</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="60">
         <v>45684</v>
       </c>
@@ -16570,7 +16574,7 @@
         <v>97.859224635990415</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="60">
         <v>45685</v>
       </c>
@@ -16620,7 +16624,7 @@
         <v>97.227530965725578</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="60">
         <v>45686</v>
       </c>
@@ -16670,7 +16674,7 @@
         <v>96.738477801649566</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="60">
         <v>45687</v>
       </c>
@@ -16720,7 +16724,7 @@
         <v>99.465889678227285</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="60">
         <v>45688</v>
       </c>
@@ -16770,7 +16774,7 @@
         <v>98.856924440267264</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="60">
         <v>45691</v>
       </c>
@@ -16820,7 +16824,7 @@
         <v>98.727607497843323</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="60">
         <v>45692</v>
       </c>
@@ -16870,7 +16874,7 @@
         <v>98.0825902638136</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="60">
         <v>45693</v>
       </c>
@@ -16920,7 +16924,7 @@
         <v>98.385897274226124</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="60">
         <v>45694</v>
       </c>
@@ -16970,7 +16974,7 @@
         <v>98.927460954316714</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="60">
         <v>45695</v>
       </c>
@@ -17020,7 +17024,7 @@
         <v>97.668776048056998</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="60">
         <v>45698</v>
       </c>
@@ -17070,7 +17074,7 @@
         <v>98.415679357935886</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="60">
         <v>45699</v>
       </c>
@@ -17120,7 +17124,7 @@
         <v>99.160231450679802</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="60">
         <v>45700</v>
       </c>
@@ -17170,7 +17174,7 @@
         <v>97.481462416303515</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="60">
         <v>45701</v>
       </c>
@@ -17220,7 +17224,7 @@
         <v>97.849819767450512</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="60">
         <v>45702</v>
       </c>
@@ -17270,7 +17274,7 @@
         <v>100.49023661003393</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="60">
         <v>45705</v>
       </c>
@@ -17320,7 +17324,7 @@
         <v>100.7512217120168</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="60">
         <v>45706</v>
       </c>
@@ -17370,7 +17374,7 @@
         <v>100.73554693111693</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="60">
         <v>45707</v>
       </c>
@@ -17420,7 +17424,7 @@
         <v>99.777034079089759</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="60">
         <v>45708</v>
       </c>
@@ -17470,7 +17474,7 @@
         <v>100.00588588022788</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="60">
         <v>45709</v>
       </c>
@@ -17520,7 +17524,7 @@
         <v>99.63517731194591</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="60">
         <v>45712</v>
       </c>
@@ -17570,7 +17574,7 @@
         <v>98.281659981241958</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="60">
         <v>45713</v>
       </c>
@@ -17620,7 +17624,7 @@
         <v>98.735444888293259</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="60">
         <v>45714</v>
       </c>
@@ -17670,7 +17674,7 @@
         <v>97.786336904806006</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="60">
         <v>45715</v>
       </c>
@@ -17720,7 +17724,7 @@
         <v>97.8098490761558</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="60">
         <v>45716</v>
       </c>
@@ -17770,7 +17774,7 @@
         <v>96.242370986168609</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="60">
         <v>45721</v>
       </c>
@@ -17820,7 +17824,7 @@
         <v>96.436738269327023</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="60">
         <v>45722</v>
       </c>
@@ -17870,7 +17874,7 @@
         <v>96.680481112320038</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="60">
         <v>45723</v>
       </c>
@@ -17920,7 +17924,7 @@
         <v>97.994811490774296</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="60">
         <v>45726</v>
       </c>
@@ -17970,7 +17974,7 @@
         <v>97.590402143557597</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="60">
         <v>45727</v>
       </c>
@@ -18020,7 +18024,7 @@
         <v>96.797258230024084</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="60">
         <v>45728</v>
       </c>
@@ -18070,7 +18074,7 @@
         <v>97.077053069086801</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="60">
         <v>45729</v>
       </c>
@@ -18120,7 +18124,7 @@
         <v>98.466622395860455</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="60">
         <v>45730</v>
       </c>
@@ -18170,7 +18174,7 @@
         <v>101.0686360252392</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="60">
         <v>45733</v>
       </c>
@@ -18218,6 +18222,206 @@
       <c r="M281" s="82">
         <f t="shared" ref="M281" si="97">M280*(1+F281)</f>
         <v>102.53971421269218</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="60">
+        <v>45734</v>
+      </c>
+      <c r="B282" s="26">
+        <v>131475</v>
+      </c>
+      <c r="C282" s="26">
+        <v>133265.72</v>
+      </c>
+      <c r="D282" s="68">
+        <v>1.794259</v>
+      </c>
+      <c r="E282" s="79">
+        <f t="shared" ref="E282" si="98">D282/D281-1</f>
+        <v>2.2555874386458452E-3</v>
+      </c>
+      <c r="F282" s="79">
+        <f t="shared" ref="F282" si="99">B282/B281-1</f>
+        <v>4.899338092544836E-3</v>
+      </c>
+      <c r="G282" s="79">
+        <f>D282/$D$2-1</f>
+        <v>4.5751850475037603E-3</v>
+      </c>
+      <c r="H282" s="79">
+        <f t="shared" ref="H282" si="100">B282/$B$2-1</f>
+        <v>3.0420909405330931E-2</v>
+      </c>
+      <c r="I282" s="80" t="str">
+        <f t="shared" ref="I282" si="101">TEXT(A282,"mmaaaa")</f>
+        <v>032025</v>
+      </c>
+      <c r="J282" s="79">
+        <f t="shared" ref="J282" si="102">IF(I282=I281,(1+E282)*(1+J281)-1,E282)</f>
+        <v>3.063247804334468E-2</v>
+      </c>
+      <c r="K282" s="79">
+        <f t="shared" ref="K282" si="103">IF(I282=I281,(1+F282)*(1+K281)-1,F282)</f>
+        <v>7.0652041140400579E-2</v>
+      </c>
+      <c r="L282" s="81">
+        <f t="shared" ref="L282" si="104">L281*(1+E282)</f>
+        <v>100.45751850475033</v>
+      </c>
+      <c r="M282" s="82">
+        <f t="shared" ref="M282" si="105">M281*(1+F282)</f>
+        <v>103.04209094053307</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="60">
+        <v>45735</v>
+      </c>
+      <c r="B283" s="26">
+        <v>132508</v>
+      </c>
+      <c r="C283" s="26">
+        <v>133655.76999999999</v>
+      </c>
+      <c r="D283" s="68">
+        <v>1.7995110000000001</v>
+      </c>
+      <c r="E283" s="79">
+        <f t="shared" ref="E283:E284" si="106">D283/D282-1</f>
+        <v>2.9271136441282319E-3</v>
+      </c>
+      <c r="F283" s="79">
+        <f t="shared" ref="F283:F284" si="107">B283/B282-1</f>
+        <v>7.857007035558139E-3</v>
+      </c>
+      <c r="G283" s="79">
+        <f t="shared" ref="G283:G284" si="108">D283/$D$2-1</f>
+        <v>7.5156907782090165E-3</v>
+      </c>
+      <c r="H283" s="79">
+        <f t="shared" ref="H283:H284" si="109">B283/$B$2-1</f>
+        <v>3.8516933740114778E-2</v>
+      </c>
+      <c r="I283" s="80" t="str">
+        <f t="shared" ref="I283:I284" si="110">TEXT(A283,"mmaaaa")</f>
+        <v>032025</v>
+      </c>
+      <c r="J283" s="79">
+        <f t="shared" ref="J283:J284" si="111">IF(I283=I282,(1+E283)*(1+J282)-1,E283)</f>
+        <v>3.3649256431907082E-2</v>
+      </c>
+      <c r="K283" s="79">
+        <f t="shared" ref="K283:K284" si="112">IF(I283=I282,(1+F283)*(1+K282)-1,F283)</f>
+        <v>7.906416176027542E-2</v>
+      </c>
+      <c r="L283" s="81">
+        <f t="shared" ref="L283:L284" si="113">L282*(1+E283)</f>
+        <v>100.75156907782085</v>
+      </c>
+      <c r="M283" s="82">
+        <f t="shared" ref="M283:M284" si="114">M282*(1+F283)</f>
+        <v>103.85169337401146</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="60">
+        <v>45736</v>
+      </c>
+      <c r="B284" s="26">
+        <v>131955</v>
+      </c>
+      <c r="C284" s="26">
+        <v>133544.21</v>
+      </c>
+      <c r="D284" s="68">
+        <v>1.798009</v>
+      </c>
+      <c r="E284" s="79">
+        <f t="shared" si="106"/>
+        <v>-8.34671196786263E-4</v>
+      </c>
+      <c r="F284" s="79">
+        <f t="shared" si="107"/>
+        <v>-4.1733329308418776E-3</v>
+      </c>
+      <c r="G284" s="79">
+        <f t="shared" si="108"/>
+        <v>6.6747464508061238E-3</v>
+      </c>
+      <c r="H284" s="79">
+        <f t="shared" si="109"/>
+        <v>3.4182856821300067E-2</v>
+      </c>
+      <c r="I284" s="80" t="str">
+        <f t="shared" si="110"/>
+        <v>032025</v>
+      </c>
+      <c r="J284" s="79">
+        <f t="shared" si="111"/>
+        <v>3.2786499169983774E-2</v>
+      </c>
+      <c r="K284" s="79">
+        <f t="shared" si="112"/>
+        <v>7.4560867759509986E-2</v>
+      </c>
+      <c r="L284" s="81">
+        <f t="shared" si="113"/>
+        <v>100.66747464508057</v>
+      </c>
+      <c r="M284" s="82">
+        <f t="shared" si="114"/>
+        <v>103.41828568213</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="60">
+        <v>45737</v>
+      </c>
+      <c r="B285" s="26">
+        <v>132345</v>
+      </c>
+      <c r="C285" s="26">
+        <v>133642.26999999999</v>
+      </c>
+      <c r="D285" s="68">
+        <v>1.799329</v>
+      </c>
+      <c r="E285" s="79">
+        <f t="shared" ref="E285" si="115">D285/D284-1</f>
+        <v>7.3414537969496152E-4</v>
+      </c>
+      <c r="F285" s="79">
+        <f t="shared" ref="F285" si="116">B285/B284-1</f>
+        <v>2.9555530294418375E-3</v>
+      </c>
+      <c r="G285" s="79">
+        <f t="shared" ref="G285" si="117">D285/$D$2-1</f>
+        <v>7.413792064768554E-3</v>
+      </c>
+      <c r="H285" s="79">
+        <f t="shared" ref="H285" si="118">B285/$B$2-1</f>
+        <v>3.7239439096775184E-2</v>
+      </c>
+      <c r="I285" s="80" t="str">
+        <f t="shared" ref="I285" si="119">TEXT(A285,"mmaaaa")</f>
+        <v>032025</v>
+      </c>
+      <c r="J285" s="79">
+        <f t="shared" ref="J285" si="120">IF(I285=I284,(1+E285)*(1+J284)-1,E285)</f>
+        <v>3.3544714606560833E-2</v>
+      </c>
+      <c r="K285" s="79">
+        <f t="shared" ref="K285" si="121">IF(I285=I284,(1+F285)*(1+K284)-1,F285)</f>
+        <v>7.7736789387536254E-2</v>
+      </c>
+      <c r="L285" s="81">
+        <f t="shared" ref="L285" si="122">L284*(1+E285)</f>
+        <v>100.74137920647682</v>
+      </c>
+      <c r="M285" s="82">
+        <f t="shared" ref="M285" si="123">M284*(1+F285)</f>
+        <v>103.7239439096775</v>
       </c>
     </row>
   </sheetData>
@@ -18234,24 +18438,24 @@
       <selection activeCell="B3" sqref="B3:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -18292,7 +18496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>45657</v>
       </c>
@@ -18334,7 +18538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>45659</v>
       </c>
@@ -18383,7 +18587,7 @@
         <v>99.868643116649906</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>45660</v>
       </c>
@@ -18432,7 +18636,7 @@
         <v>98.545097810995742</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>45663</v>
       </c>
@@ -18481,7 +18685,7 @@
         <v>99.78301173066852</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>45664</v>
       </c>
@@ -18530,7 +18734,7 @@
         <v>100.7316079578993</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>45665</v>
       </c>
@@ -18579,7 +18783,7 @@
         <v>99.452956776934414</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>45666</v>
       </c>
@@ -18628,7 +18832,7 @@
         <v>99.582650914925651</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>45667</v>
       </c>
@@ -18677,7 +18881,7 @@
         <v>98.813631186451971</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>45670</v>
       </c>
@@ -18726,7 +18930,7 @@
         <v>98.939168461046066</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>45671</v>
       </c>
@@ -18775,7 +18979,7 @@
         <v>99.181929283439928</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>45672</v>
       </c>
@@ -18824,7 +19028,7 @@
         <v>101.96785913221323</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>45673</v>
       </c>
@@ -18873,7 +19077,7 @@
         <v>100.79063541813893</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>45674</v>
       </c>
@@ -18922,7 +19126,7 @@
         <v>101.71844732838393</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>45677</v>
       </c>
@@ -18971,7 +19175,7 @@
         <v>102.13829053149658</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>45678</v>
       </c>
@@ -19020,7 +19224,7 @@
         <v>102.53984353566175</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>45679</v>
       </c>
@@ -19069,7 +19273,7 @@
         <v>102.23556113498999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>45680</v>
       </c>
@@ -19118,7 +19322,7 @@
         <v>101.82901989474823</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>45681</v>
       </c>
@@ -19167,7 +19371,7 @@
         <v>101.79909047828872</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>45684</v>
       </c>
@@ -19216,7 +19420,7 @@
         <v>103.80685549911459</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>45685</v>
       </c>
@@ -19265,7 +19469,7 @@
         <v>103.1367691194932</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>45686</v>
       </c>
@@ -19314,7 +19518,7 @@
         <v>102.61799256752825</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>45687</v>
       </c>
@@ -19363,7 +19567,7 @@
         <v>105.51116949194815</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>45688</v>
       </c>
@@ -19412,7 +19616,7 @@
         <v>104.86519292003025</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>45691</v>
       </c>
@@ -19461,7 +19665,7 @@
         <v>104.72801642792415</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>45692</v>
       </c>
@@ -19510,7 +19714,7 @@
         <v>104.04379671275242</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>45693</v>
       </c>
@@ -19559,7 +19763,7 @@
         <v>104.36553793969222</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>45694</v>
       </c>
@@ -19608,7 +19812,7 @@
         <v>104.94001646117906</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>45695</v>
       </c>
@@ -19657,7 +19861,7 @@
         <v>103.60483193801286</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>45698</v>
       </c>
@@ -19706,7 +19910,7 @@
         <v>104.39713010151061</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>45699</v>
       </c>
@@ -19755,7 +19959,7 @@
         <v>105.18693414697007</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>45700</v>
       </c>
@@ -19804,7 +20008,7 @@
         <v>103.40613386762885</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>45701</v>
       </c>
@@ -19853,7 +20057,7 @@
         <v>103.79687902696143</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>45702</v>
       </c>
@@ -19902,7 +20106,7 @@
         <v>106.5977735839645</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>45705</v>
       </c>
@@ -19951,7 +20155,7 @@
         <v>106.87462068621502</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
         <v>45706</v>
       </c>
@@ -20000,7 +20204,7 @@
         <v>106.8579932326264</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
         <v>45707</v>
       </c>
@@ -20049,7 +20253,7 @@
         <v>105.84122444568227</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
         <v>45708</v>
       </c>
@@ -20098,7 +20302,7 @@
         <v>106.08398526807612</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
         <v>45709</v>
       </c>
@@ -20147,7 +20351,7 @@
         <v>105.69074599070525</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
         <v>45712</v>
       </c>
@@ -20197,7 +20401,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
         <v>45713</v>
       </c>
@@ -20246,7 +20450,7 @@
         <v>104.73633015471844</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <v>45714</v>
       </c>
@@ -20305,19 +20509,19 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A22" sqref="A11:A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
@@ -20334,7 +20538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="37">
         <v>45688</v>
       </c>
@@ -20352,7 +20556,7 @@
         <v>066.368.579-60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="37">
         <v>45688</v>
       </c>
@@ -20370,7 +20574,7 @@
         <v>360.228.188-42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="37">
         <v>45688</v>
       </c>
@@ -20388,7 +20592,7 @@
         <v>892.996.550-49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>45688</v>
       </c>
@@ -20406,7 +20610,7 @@
         <v>252.436.798-36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="37">
         <v>45688</v>
       </c>
@@ -20424,7 +20628,7 @@
         <v>098.578.909-38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="37">
         <v>45688</v>
       </c>
@@ -20442,7 +20646,7 @@
         <v>044.624.719-70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="37">
         <v>45688</v>
       </c>
@@ -20460,7 +20664,7 @@
         <v>872.566.739-49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="37">
         <v>45688</v>
       </c>
@@ -20478,7 +20682,7 @@
         <v>145.548.979-40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
         <v>45688</v>
       </c>
@@ -20496,7 +20700,7 @@
         <v>091.360.339-28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
         <v>45714</v>
       </c>
@@ -20516,7 +20720,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="37">
         <v>45714</v>
       </c>
@@ -20534,7 +20738,7 @@
         <v>360.228.188-42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="37">
         <v>45714</v>
       </c>
@@ -20552,7 +20756,7 @@
         <v>892.996.550-49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="37">
         <v>45714</v>
       </c>
@@ -20570,7 +20774,7 @@
         <v>252.436.798-36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="37">
         <v>45714</v>
       </c>
@@ -20588,7 +20792,7 @@
         <v>081.265.669-57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="37">
         <v>45714</v>
       </c>
@@ -20606,7 +20810,7 @@
         <v>122.555.979-00</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="37">
         <v>45714</v>
       </c>
@@ -20624,7 +20828,7 @@
         <v>098.578.909-38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="37">
         <v>45714</v>
       </c>
@@ -20642,7 +20846,7 @@
         <v>044.624.719-70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="37">
         <v>45714</v>
       </c>
@@ -20660,7 +20864,7 @@
         <v>872.566.739-49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="37">
         <v>45714</v>
       </c>
@@ -20678,7 +20882,7 @@
         <v>145.548.979-40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <v>45714</v>
       </c>
@@ -20696,7 +20900,7 @@
         <v>091.360.339-28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="52">
         <v>45714</v>
       </c>
@@ -20721,27 +20925,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="3"/>
-    <col min="4" max="4" width="9.1796875" style="1"/>
-    <col min="5" max="5" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
         <v>16</v>
       </c>
@@ -20764,7 +20968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>45688</v>
       </c>
@@ -20791,7 +20995,7 @@
       <c r="J2" s="47"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>45688</v>
       </c>
@@ -20818,7 +21022,7 @@
       <c r="J3" s="47"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>45688</v>
       </c>
@@ -20845,7 +21049,7 @@
       <c r="J4" s="47"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>45688</v>
       </c>
@@ -20872,7 +21076,7 @@
       <c r="J5" s="47"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>45688</v>
       </c>
@@ -20899,7 +21103,7 @@
       <c r="J6" s="47"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45688</v>
       </c>
@@ -20926,7 +21130,7 @@
       <c r="J7" s="47"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>45688</v>
       </c>
@@ -20953,7 +21157,7 @@
       <c r="J8" s="47"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>45688</v>
       </c>
@@ -20980,7 +21184,7 @@
       <c r="J9" s="47"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45688</v>
       </c>
@@ -21007,7 +21211,7 @@
       <c r="J10" s="47"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45688</v>
       </c>
@@ -21034,7 +21238,7 @@
       <c r="J11" s="47"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>45688</v>
       </c>
@@ -21061,7 +21265,7 @@
       <c r="J12" s="47"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45716</v>
       </c>
@@ -21090,7 +21294,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>45716</v>
       </c>
@@ -21118,7 +21322,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45716</v>
       </c>
@@ -21146,7 +21350,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45716</v>
       </c>
@@ -21174,7 +21378,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45716</v>
       </c>
@@ -21202,7 +21406,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45716</v>
       </c>
@@ -21230,7 +21434,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45716</v>
       </c>
@@ -21258,7 +21462,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>45716</v>
       </c>
@@ -21286,7 +21490,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45716</v>
       </c>
@@ -21314,7 +21518,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>45716</v>
       </c>
@@ -21342,7 +21546,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>45716</v>
       </c>
@@ -21370,7 +21574,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45723</v>
       </c>
@@ -21397,7 +21601,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45723</v>
       </c>
@@ -21423,7 +21627,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45723</v>
       </c>
@@ -21449,7 +21653,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>45723</v>
       </c>
@@ -21475,7 +21679,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>45723</v>
       </c>
@@ -21501,7 +21705,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>45723</v>
       </c>
@@ -21527,7 +21731,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>45723</v>
       </c>
@@ -21553,7 +21757,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>45723</v>
       </c>
@@ -21579,7 +21783,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>45723</v>
       </c>
@@ -21605,7 +21809,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>45723</v>
       </c>
@@ -21631,7 +21835,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>45723</v>
       </c>
@@ -21657,7 +21861,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>45730</v>
       </c>
@@ -21683,7 +21887,7 @@
         <v>131555.39000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>45730</v>
       </c>
@@ -21711,7 +21915,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>45730</v>
       </c>
@@ -21738,7 +21942,7 @@
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>45730</v>
       </c>
@@ -21765,7 +21969,7 @@
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>45730</v>
       </c>
@@ -21792,7 +21996,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>45730</v>
       </c>
@@ -21819,7 +22023,7 @@
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>45730</v>
       </c>
@@ -21846,7 +22050,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>45730</v>
       </c>
@@ -21877,7 +22081,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>45730</v>
       </c>
@@ -21904,7 +22108,7 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>45730</v>
       </c>
@@ -21931,7 +22135,7 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>45730</v>
       </c>
@@ -21957,7 +22161,7 @@
         <v>131555.39000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>45733</v>
       </c>
@@ -21982,8 +22186,10 @@
         <f>_xlfn.XLOOKUP(A46,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>45733</v>
       </c>
@@ -21994,7 +22200,7 @@
         <v>14486.14</v>
       </c>
       <c r="D47" s="41">
-        <f t="shared" ref="D47:D56" si="3">C47/G47</f>
+        <f t="shared" ref="D47:D52" si="3">C47/G47</f>
         <v>0.10894636883667595</v>
       </c>
       <c r="E47" s="10" t="str">
@@ -22008,8 +22214,10 @@
         <f>_xlfn.XLOOKUP(A47,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>45733</v>
       </c>
@@ -22034,8 +22242,10 @@
         <f>_xlfn.XLOOKUP(A48,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>45733</v>
       </c>
@@ -22060,8 +22270,10 @@
         <f>_xlfn.XLOOKUP(A49,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>45733</v>
       </c>
@@ -22086,8 +22298,10 @@
         <f>_xlfn.XLOOKUP(A50,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>45733</v>
       </c>
@@ -22112,8 +22326,10 @@
         <f>_xlfn.XLOOKUP(A51,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>45733</v>
       </c>
@@ -22138,8 +22354,10 @@
         <f>_xlfn.XLOOKUP(A52,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>45733</v>
       </c>
@@ -22164,8 +22382,10 @@
         <f>_xlfn.XLOOKUP(A53,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>45733</v>
       </c>
@@ -22190,8 +22410,10 @@
         <f>_xlfn.XLOOKUP(A54,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>45733</v>
       </c>
@@ -22216,8 +22438,10 @@
         <f>_xlfn.XLOOKUP(A55,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>45733</v>
       </c>
@@ -22241,6 +22465,583 @@
       <c r="G56" s="14">
         <f>_xlfn.XLOOKUP(A56,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
+      </c>
+      <c r="I56" s="88"/>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>45734</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="11">
+        <v>16217.71</v>
+      </c>
+      <c r="D57" s="41">
+        <f>C57/G57</f>
+        <v>0.12169453629935739</v>
+      </c>
+      <c r="E57" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B57,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Títulos Públicos</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="11">
+        <f>_xlfn.XLOOKUP(A57,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133265.72</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>45734</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="11">
+        <v>14506.5</v>
+      </c>
+      <c r="D58" s="41">
+        <f t="shared" ref="D58:D63" si="5">C58/G58</f>
+        <v>0.10885394983796283</v>
+      </c>
+      <c r="E58" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B58,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="11">
+        <f>_xlfn.XLOOKUP(A58,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133265.72</v>
+      </c>
+      <c r="I58" s="89"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>45734</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="11">
+        <v>7187.64</v>
+      </c>
+      <c r="D59" s="41">
+        <f t="shared" si="5"/>
+        <v>5.3934650261147431E-2</v>
+      </c>
+      <c r="E59" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B59,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="11">
+        <f>_xlfn.XLOOKUP(A59,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133265.72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>45734</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="11">
+        <v>15223.96</v>
+      </c>
+      <c r="D60" s="41">
+        <f t="shared" si="5"/>
+        <v>0.11423762990212336</v>
+      </c>
+      <c r="E60" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B60,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="11">
+        <f>_xlfn.XLOOKUP(A60,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133265.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>45734</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="11">
+        <v>11142.72</v>
+      </c>
+      <c r="D61" s="41">
+        <f t="shared" si="5"/>
+        <v>8.3612800050905808E-2</v>
+      </c>
+      <c r="E61" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B61,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="11">
+        <f>_xlfn.XLOOKUP(A61,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133265.72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>45734</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="11">
+        <v>15191.47</v>
+      </c>
+      <c r="D62" s="41">
+        <f t="shared" si="5"/>
+        <v>0.11399383127183794</v>
+      </c>
+      <c r="E62" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B62,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G62" s="11">
+        <f>_xlfn.XLOOKUP(A62,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133265.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>45734</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="11">
+        <v>6782.05</v>
+      </c>
+      <c r="D63" s="41">
+        <f t="shared" si="5"/>
+        <v>5.0891181918350799E-2</v>
+      </c>
+      <c r="E63" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B63,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="11">
+        <f>_xlfn.XLOOKUP(A63,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133265.72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>45734</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="11">
+        <v>16732.3</v>
+      </c>
+      <c r="D64" s="41">
+        <f>C64/G64</f>
+        <v>0.12555591940673114</v>
+      </c>
+      <c r="E64" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B64,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G64" s="11">
+        <f>_xlfn.XLOOKUP(A64,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133265.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>45734</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="11">
+        <v>6441.66</v>
+      </c>
+      <c r="D65" s="41">
+        <f t="shared" ref="D65:D67" si="6">C65/G65</f>
+        <v>4.8336961673264511E-2</v>
+      </c>
+      <c r="E65" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B65,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G65" s="11">
+        <f>_xlfn.XLOOKUP(A65,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133265.72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>45734</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="11">
+        <v>14667.6</v>
+      </c>
+      <c r="D66" s="41">
+        <f t="shared" si="6"/>
+        <v>0.11006281285239745</v>
+      </c>
+      <c r="E66" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B66,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G66" s="11">
+        <f>_xlfn.XLOOKUP(A66,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133265.72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>45734</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="14">
+        <v>6065.46</v>
+      </c>
+      <c r="D67" s="42">
+        <f t="shared" si="6"/>
+        <v>4.5514030164696517E-2</v>
+      </c>
+      <c r="E67" s="13" t="str">
+        <f>_xlfn.XLOOKUP(B67,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="14">
+        <f>_xlfn.XLOOKUP(A67,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133265.72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>45737</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="11">
+        <v>16242.19</v>
+      </c>
+      <c r="D68" s="41">
+        <f>C68/G68</f>
+        <v>0.12153482577031954</v>
+      </c>
+      <c r="E68" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B68,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Títulos Públicos</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="11">
+        <f>_xlfn.XLOOKUP(A68,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133642.26999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>45737</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="11">
+        <v>14440.33</v>
+      </c>
+      <c r="D69" s="41">
+        <f t="shared" ref="D69:D74" si="7">C69/G69</f>
+        <v>0.10805211554697478</v>
+      </c>
+      <c r="E69" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B69,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G69" s="11">
+        <f>_xlfn.XLOOKUP(A69,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133642.26999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>45737</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="11">
+        <v>7175.18</v>
+      </c>
+      <c r="D70" s="41">
+        <f t="shared" si="7"/>
+        <v>5.3689450201646539E-2</v>
+      </c>
+      <c r="E70" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B70,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G70" s="11">
+        <f>_xlfn.XLOOKUP(A70,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133642.26999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>45737</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="11">
+        <v>15322.4</v>
+      </c>
+      <c r="D71" s="41">
+        <f t="shared" si="7"/>
+        <v>0.11465234764419971</v>
+      </c>
+      <c r="E71" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B71,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" s="11">
+        <f>_xlfn.XLOOKUP(A71,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133642.26999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>45737</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="11">
+        <v>11255.04</v>
+      </c>
+      <c r="D72" s="41">
+        <f t="shared" si="7"/>
+        <v>8.4217665563447869E-2</v>
+      </c>
+      <c r="E72" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B72,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G72" s="11">
+        <f>_xlfn.XLOOKUP(A72,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133642.26999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>45737</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="11">
+        <v>15459.01</v>
+      </c>
+      <c r="D73" s="41">
+        <f t="shared" si="7"/>
+        <v>0.11567455416613323</v>
+      </c>
+      <c r="E73" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B73,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" s="11">
+        <f>_xlfn.XLOOKUP(A73,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133642.26999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>45737</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="11">
+        <v>6890.35</v>
+      </c>
+      <c r="D74" s="41">
+        <f t="shared" si="7"/>
+        <v>5.1558163446340746E-2</v>
+      </c>
+      <c r="E74" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B74,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G74" s="11">
+        <f>_xlfn.XLOOKUP(A74,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133642.26999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>45737</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="11">
+        <v>16483.32</v>
+      </c>
+      <c r="D75" s="41">
+        <f>C75/G75</f>
+        <v>0.12333912017507635</v>
+      </c>
+      <c r="E75" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B75,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G75" s="11">
+        <f>_xlfn.XLOOKUP(A75,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133642.26999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>45737</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="11">
+        <v>6582.09</v>
+      </c>
+      <c r="D76" s="41">
+        <f t="shared" ref="D76:D78" si="8">C76/G76</f>
+        <v>4.925155790903582E-2</v>
+      </c>
+      <c r="E76" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B76,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G76" s="11">
+        <f>_xlfn.XLOOKUP(A76,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133642.26999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>45737</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="11">
+        <v>14649.75</v>
+      </c>
+      <c r="D77" s="41">
+        <f t="shared" si="8"/>
+        <v>0.10961913472436528</v>
+      </c>
+      <c r="E77" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B77,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G77" s="11">
+        <f>_xlfn.XLOOKUP(A77,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133642.26999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>45737</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="14">
+        <v>8570.68</v>
+      </c>
+      <c r="D78" s="42">
+        <f t="shared" si="8"/>
+        <v>6.4131505698010072E-2</v>
+      </c>
+      <c r="E78" s="13" t="str">
+        <f>_xlfn.XLOOKUP(B78,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="14">
+        <f>_xlfn.XLOOKUP(A78,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>133642.26999999999</v>
       </c>
     </row>
   </sheetData>
@@ -22251,21 +23052,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5410629D-6DE0-46FD-B578-14B10353174E}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="47">
         <v>45292</v>
       </c>
@@ -22316,7 +23117,7 @@
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="47" t="str">
         <f>TEXT(B2,"mmaaaa")</f>
         <v>012024</v>
@@ -22368,7 +23169,7 @@
       <c r="N3" s="47"/>
       <c r="O3" s="47"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -22384,7 +23185,7 @@
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="47">
         <v>45658</v>
       </c>
@@ -22435,7 +23236,7 @@
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="str">
         <f>TEXT(B5,"mmaaaa")</f>
         <v>012025</v>
@@ -22487,7 +23288,7 @@
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="50" t="s">
         <v>64</v>
       </c>
@@ -22544,7 +23345,7 @@
       </c>
       <c r="O7" s="48"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -22558,7 +23359,7 @@
       </c>
       <c r="D8" s="49">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
-        <v>2.8313028094179682E-2</v>
+        <v>3.3544714606560833E-2</v>
       </c>
       <c r="E8" s="49" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
@@ -22598,11 +23399,12 @@
       </c>
       <c r="N8" s="49" cm="1">
         <f t="array" ref="N8">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B8:M8,B8:M8&lt;&gt;"-"))))-1</f>
-        <v>6.1277347489855805E-2</v>
+        <v>6.6676744592748305E-2</v>
       </c>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -22616,7 +23418,7 @@
       </c>
       <c r="D9" s="49">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
-        <v>6.5432128926131705E-2</v>
+        <v>7.7736789387536254E-2</v>
       </c>
       <c r="E9" s="49" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
@@ -22656,11 +23458,11 @@
       </c>
       <c r="N9" s="49" cm="1">
         <f t="array" ref="N9">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B9:M9,B9:M9&lt;&gt;"-"))))-1</f>
-        <v>8.7718131406765876E-2</v>
+        <v>0.10028017259296851</v>
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -22674,7 +23476,7 @@
       </c>
       <c r="D10" s="49">
         <f t="shared" si="14"/>
-        <v>0.96516052048349144</v>
+        <v>0.95899548459685668</v>
       </c>
       <c r="E10" s="49" t="str">
         <f t="shared" si="14"/>
@@ -22714,11 +23516,11 @@
       </c>
       <c r="N10" s="49">
         <f t="shared" si="14"/>
-        <v>0.97569151129004927</v>
+        <v>0.96945920790244822</v>
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -22776,7 +23578,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -22834,7 +23636,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -22892,7 +23694,7 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
@@ -22906,34 +23708,34 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.13250000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="12:15" x14ac:dyDescent="0.35">
+        <v>0.14249999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="12:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="12:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="12:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="12:15" x14ac:dyDescent="0.25">
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -22952,9 +23754,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -22968,7 +23770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -22982,7 +23784,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -22996,7 +23798,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -23010,7 +23812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -23024,7 +23826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -23038,7 +23840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -23052,7 +23854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -23066,7 +23868,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -23080,7 +23882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -23094,7 +23896,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -23108,7 +23910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>59</v>
       </c>

--- a/Relatório_Gerencial_Denver.xlsx
+++ b/Relatório_Gerencial_Denver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Denver Asset\Clube Kairos\_DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1AB37F-EE78-4597-A2A8-659CD6A91888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E255BAF-2E92-42D6-AF91-7F5D3B1EDA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico_Cota" sheetId="7" r:id="rId1"/>
@@ -2193,7 +2193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="72">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -4158,11 +4158,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7BB3D-AA6F-4398-826D-91557AA445E2}">
-  <dimension ref="A1:S285"/>
+  <dimension ref="A1:S288"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C280" sqref="C280"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H288" sqref="H288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18422,6 +18422,156 @@
       <c r="M285" s="82">
         <f t="shared" ref="M285" si="123">M284*(1+F285)</f>
         <v>103.7239439096775</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="60">
+        <v>45740</v>
+      </c>
+      <c r="B286" s="26">
+        <v>131321</v>
+      </c>
+      <c r="C286" s="26">
+        <v>133560.32000000001</v>
+      </c>
+      <c r="D286" s="68">
+        <v>1.7982260000000001</v>
+      </c>
+      <c r="E286" s="79">
+        <f t="shared" ref="E286" si="124">D286/D285-1</f>
+        <v>-6.1300629290128583E-4</v>
+      </c>
+      <c r="F286" s="79">
+        <f t="shared" ref="F286" si="125">B286/B285-1</f>
+        <v>-7.7373531300767295E-3</v>
+      </c>
+      <c r="G286" s="79">
+        <f t="shared" ref="G286" si="126">D286/$D$2-1</f>
+        <v>6.7962410706774445E-3</v>
+      </c>
+      <c r="H286" s="79">
+        <f t="shared" ref="H286" si="127">B286/$B$2-1</f>
+        <v>2.9213951276040762E-2</v>
+      </c>
+      <c r="I286" s="80" t="str">
+        <f t="shared" ref="I286" si="128">TEXT(A286,"mmaaaa")</f>
+        <v>032025</v>
+      </c>
+      <c r="J286" s="79">
+        <f t="shared" ref="J286" si="129">IF(I286=I285,(1+E286)*(1+J285)-1,E286)</f>
+        <v>3.2911145192512148E-2</v>
+      </c>
+      <c r="K286" s="79">
+        <f t="shared" ref="K286" si="130">IF(I286=I285,(1+F286)*(1+K285)-1,F286)</f>
+        <v>6.9397959266769726E-2</v>
+      </c>
+      <c r="L286" s="81">
+        <f t="shared" ref="L286" si="131">L285*(1+E286)</f>
+        <v>100.6796241070677</v>
+      </c>
+      <c r="M286" s="82">
+        <f t="shared" ref="M286" si="132">M285*(1+F286)</f>
+        <v>102.92139512760406</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="60">
+        <v>45741</v>
+      </c>
+      <c r="B287" s="26">
+        <v>132068</v>
+      </c>
+      <c r="C287" s="26">
+        <v>133662.72</v>
+      </c>
+      <c r="D287" s="68">
+        <v>1.799604</v>
+      </c>
+      <c r="E287" s="79">
+        <f t="shared" ref="E287:E288" si="133">D287/D286-1</f>
+        <v>7.6631079741917851E-4</v>
+      </c>
+      <c r="F287" s="79">
+        <f t="shared" ref="F287:F288" si="134">B287/B286-1</f>
+        <v>5.6883514441712357E-3</v>
+      </c>
+      <c r="G287" s="79">
+        <f t="shared" ref="G287:G288" si="135">D287/$D$2-1</f>
+        <v>7.5677599010108842E-3</v>
+      </c>
+      <c r="H287" s="79">
+        <f t="shared" ref="H287:H288" si="136">B287/$B$2-1</f>
+        <v>3.5068481942142959E-2</v>
+      </c>
+      <c r="I287" s="80" t="str">
+        <f t="shared" ref="I287:I288" si="137">TEXT(A287,"mmaaaa")</f>
+        <v>032025</v>
+      </c>
+      <c r="J287" s="79">
+        <f t="shared" ref="J287:J288" si="138">IF(I287=I286,(1+E287)*(1+J286)-1,E287)</f>
+        <v>3.3702676155847877E-2</v>
+      </c>
+      <c r="K287" s="79">
+        <f t="shared" ref="K287:K288" si="139">IF(I287=I286,(1+F287)*(1+K286)-1,F287)</f>
+        <v>7.5481070692758667E-2</v>
+      </c>
+      <c r="L287" s="81">
+        <f t="shared" ref="L287:L288" si="140">L286*(1+E287)</f>
+        <v>100.75677599010105</v>
+      </c>
+      <c r="M287" s="82">
+        <f t="shared" ref="M287:M288" si="141">M286*(1+F287)</f>
+        <v>103.50684819421429</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="60">
+        <v>45742</v>
+      </c>
+      <c r="B288" s="26">
+        <v>132520</v>
+      </c>
+      <c r="C288" s="26">
+        <v>134290.53</v>
+      </c>
+      <c r="D288" s="68">
+        <v>1.808057</v>
+      </c>
+      <c r="E288" s="79">
+        <f t="shared" si="133"/>
+        <v>4.6971444828973752E-3</v>
+      </c>
+      <c r="F288" s="79">
+        <f t="shared" si="134"/>
+        <v>3.4224793288306632E-3</v>
+      </c>
+      <c r="G288" s="79">
+        <f t="shared" si="135"/>
+        <v>1.2300451245575106E-2</v>
+      </c>
+      <c r="H288" s="79">
+        <f t="shared" si="136"/>
+        <v>3.8610982425514084E-2</v>
+      </c>
+      <c r="I288" s="80" t="str">
+        <f t="shared" si="137"/>
+        <v>032025</v>
+      </c>
+      <c r="J288" s="79">
+        <f t="shared" si="138"/>
+        <v>3.8558126978109675E-2</v>
+      </c>
+      <c r="K288" s="79">
+        <f t="shared" si="139"/>
+        <v>7.9161882425753394E-2</v>
+      </c>
+      <c r="L288" s="81">
+        <f t="shared" si="140"/>
+        <v>101.23004512455748</v>
+      </c>
+      <c r="M288" s="82">
+        <f t="shared" si="141"/>
+        <v>103.86109824255139</v>
       </c>
     </row>
   </sheetData>
@@ -20508,8 +20658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A891FF2B-1847-4160-BE18-64A7C8438401}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A11:A22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20925,10 +21075,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView showGridLines="0" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23044,6 +23194,292 @@
         <v>133642.26999999999</v>
       </c>
     </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>45742</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="11">
+        <v>16267.8</v>
+      </c>
+      <c r="D79" s="41">
+        <f>C79/G79</f>
+        <v>0.12113884724410574</v>
+      </c>
+      <c r="E79" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B79,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Títulos Públicos</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" s="11">
+        <f>_xlfn.XLOOKUP(A79,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>134290.53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>45742</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="11">
+        <v>14664.29</v>
+      </c>
+      <c r="D80" s="41">
+        <f t="shared" ref="D80:D85" si="9">C80/G80</f>
+        <v>0.10919824353958542</v>
+      </c>
+      <c r="E80" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B80,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G80" s="11">
+        <f>_xlfn.XLOOKUP(A80,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>134290.53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>45742</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="11">
+        <v>7143.14</v>
+      </c>
+      <c r="D81" s="41">
+        <f t="shared" si="9"/>
+        <v>5.3191688200202952E-2</v>
+      </c>
+      <c r="E81" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B81,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G81" s="11">
+        <f>_xlfn.XLOOKUP(A81,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>134290.53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>45742</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="11">
+        <v>15116.96</v>
+      </c>
+      <c r="D82" s="41">
+        <f t="shared" si="9"/>
+        <v>0.11256906946454079</v>
+      </c>
+      <c r="E82" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B82,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G82" s="11">
+        <f>_xlfn.XLOOKUP(A82,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>134290.53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>45742</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="11">
+        <v>11148.48</v>
+      </c>
+      <c r="D83" s="41">
+        <f t="shared" si="9"/>
+        <v>8.3017618591571571E-2</v>
+      </c>
+      <c r="E83" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B83,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G83" s="11">
+        <f>_xlfn.XLOOKUP(A83,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>134290.53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>45742</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" s="11">
+        <v>15441.86</v>
+      </c>
+      <c r="D84" s="41">
+        <f t="shared" si="9"/>
+        <v>0.11498845078651489</v>
+      </c>
+      <c r="E84" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B84,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G84" s="11">
+        <f>_xlfn.XLOOKUP(A84,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>134290.53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>45742</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="11">
+        <v>6962.55</v>
+      </c>
+      <c r="D85" s="41">
+        <f t="shared" si="9"/>
+        <v>5.1846917277041056E-2</v>
+      </c>
+      <c r="E85" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B85,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G85" s="11">
+        <f>_xlfn.XLOOKUP(A85,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>134290.53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>45742</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="11">
+        <v>17141.64</v>
+      </c>
+      <c r="D86" s="41">
+        <f>C86/G86</f>
+        <v>0.12764593303786945</v>
+      </c>
+      <c r="E86" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B86,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G86" s="11">
+        <f>_xlfn.XLOOKUP(A86,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>134290.53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>45742</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="11">
+        <v>6582.09</v>
+      </c>
+      <c r="D87" s="41">
+        <f t="shared" ref="D87:D89" si="10">C87/G87</f>
+        <v>4.9013806111272332E-2</v>
+      </c>
+      <c r="E87" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B87,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G87" s="11">
+        <f>_xlfn.XLOOKUP(A87,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>134290.53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>45742</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="11">
+        <v>14710.95</v>
+      </c>
+      <c r="D88" s="41">
+        <f t="shared" si="10"/>
+        <v>0.10954569916434168</v>
+      </c>
+      <c r="E88" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B88,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G88" s="11">
+        <f>_xlfn.XLOOKUP(A88,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>134290.53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="12">
+        <v>45742</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="14">
+        <v>8570.68</v>
+      </c>
+      <c r="D89" s="42">
+        <f t="shared" si="10"/>
+        <v>6.3821924003129638E-2</v>
+      </c>
+      <c r="E89" s="13" t="str">
+        <f>_xlfn.XLOOKUP(B89,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="14">
+        <f>_xlfn.XLOOKUP(A89,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>134290.53</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G45" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -23055,7 +23491,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23359,7 +23795,7 @@
       </c>
       <c r="D8" s="49">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
-        <v>3.3544714606560833E-2</v>
+        <v>3.8558126978109675E-2</v>
       </c>
       <c r="E8" s="49" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
@@ -23399,7 +23835,7 @@
       </c>
       <c r="N8" s="49" cm="1">
         <f t="array" ref="N8">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B8:M8,B8:M8&lt;&gt;"-"))))-1</f>
-        <v>6.6676744592748305E-2</v>
+        <v>7.1850870406763301E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="R8" s="3"/>
@@ -23418,7 +23854,7 @@
       </c>
       <c r="D9" s="49">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
-        <v>7.7736789387536254E-2</v>
+        <v>7.9161882425753394E-2</v>
       </c>
       <c r="E9" s="49" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
@@ -23458,7 +23894,7 @@
       </c>
       <c r="N9" s="49" cm="1">
         <f t="array" ref="N9">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B9:M9,B9:M9&lt;&gt;"-"))))-1</f>
-        <v>0.10028017259296851</v>
+        <v>0.10173507478197297</v>
       </c>
       <c r="O9" s="1"/>
     </row>
@@ -23476,7 +23912,7 @@
       </c>
       <c r="D10" s="49">
         <f t="shared" si="14"/>
-        <v>0.95899548459685668</v>
+        <v>0.96237473162379117</v>
       </c>
       <c r="E10" s="49" t="str">
         <f t="shared" si="14"/>
@@ -23516,7 +23952,7 @@
       </c>
       <c r="N10" s="49">
         <f t="shared" si="14"/>
-        <v>0.96945920790244822</v>
+        <v>0.97287532632913265</v>
       </c>
       <c r="O10" s="1"/>
     </row>

--- a/Relatório_Gerencial_Denver.xlsx
+++ b/Relatório_Gerencial_Denver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Denver Asset\Clube Kairos\_DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E255BAF-2E92-42D6-AF91-7F5D3B1EDA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF218664-F43D-4E80-9FE9-9E434782937C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico_Cota" sheetId="7" r:id="rId1"/>
@@ -2193,7 +2193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="73">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -2409,6 +2409,9 @@
   </si>
   <si>
     <t>2024 - Ibov</t>
+  </si>
+  <si>
+    <t>SA</t>
   </si>
 </sst>
 </file>
@@ -4158,11 +4161,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7BB3D-AA6F-4398-826D-91557AA445E2}">
-  <dimension ref="A1:S288"/>
+  <dimension ref="A1:S291"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H288" sqref="H288"/>
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M291" sqref="M291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18572,6 +18575,156 @@
       <c r="M288" s="82">
         <f t="shared" si="141"/>
         <v>103.86109824255139</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="60">
+        <v>45743</v>
+      </c>
+      <c r="B289" s="26">
+        <v>133149</v>
+      </c>
+      <c r="C289" s="26">
+        <v>134360.5</v>
+      </c>
+      <c r="D289" s="68">
+        <v>1.808999</v>
+      </c>
+      <c r="E289" s="79">
+        <f t="shared" ref="E289:E290" si="142">D289/D288-1</f>
+        <v>5.2100127374310468E-4</v>
+      </c>
+      <c r="F289" s="79">
+        <f t="shared" ref="F289:F290" si="143">B289/B288-1</f>
+        <v>4.7464533655297014E-3</v>
+      </c>
+      <c r="G289" s="79">
+        <f t="shared" ref="G289:G290" si="144">D289/$D$2-1</f>
+        <v>1.2827861070084712E-2</v>
+      </c>
+      <c r="H289" s="79">
+        <f t="shared" ref="H289:H290" si="145">B289/$B$2-1</f>
+        <v>4.3540701018523809E-2</v>
+      </c>
+      <c r="I289" s="80" t="str">
+        <f t="shared" ref="I289:I290" si="146">TEXT(A289,"mmaaaa")</f>
+        <v>032025</v>
+      </c>
+      <c r="J289" s="79">
+        <f t="shared" ref="J289:J290" si="147">IF(I289=I288,(1+E289)*(1+J288)-1,E289)</f>
+        <v>3.9099217085121429E-2</v>
+      </c>
+      <c r="K289" s="79">
+        <f t="shared" ref="K289:K290" si="148">IF(I289=I288,(1+F289)*(1+K288)-1,F289)</f>
+        <v>8.4284073974544516E-2</v>
+      </c>
+      <c r="L289" s="81">
+        <f t="shared" ref="L289:L290" si="149">L288*(1+E289)</f>
+        <v>101.28278610700845</v>
+      </c>
+      <c r="M289" s="82">
+        <f t="shared" ref="M289:M290" si="150">M288*(1+F289)</f>
+        <v>104.35407010185236</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="60">
+        <v>45744</v>
+      </c>
+      <c r="B290" s="26">
+        <v>131902</v>
+      </c>
+      <c r="C290" s="26">
+        <v>133440.13</v>
+      </c>
+      <c r="D290" s="68">
+        <v>1.7966070000000001</v>
+      </c>
+      <c r="E290" s="79">
+        <f t="shared" ref="E290:E291" si="151">D290/D289-1</f>
+        <v>-6.8501972637906583E-3</v>
+      </c>
+      <c r="F290" s="79">
+        <f t="shared" ref="F290:F291" si="152">B290/B289-1</f>
+        <v>-9.3654477314887297E-3</v>
+      </c>
+      <c r="G290" s="79">
+        <f t="shared" ref="G290:G291" si="153">D290/$D$2-1</f>
+        <v>5.8897904274914925E-3</v>
+      </c>
+      <c r="H290" s="79">
+        <f t="shared" ref="H290:H291" si="154">B290/$B$2-1</f>
+        <v>3.3767475127453483E-2</v>
+      </c>
+      <c r="I290" s="80" t="str">
+        <f t="shared" ref="I290:I291" si="155">TEXT(A290,"mmaaaa")</f>
+        <v>032025</v>
+      </c>
+      <c r="J290" s="79">
+        <f t="shared" ref="J290:J291" si="156">IF(I290=I289,(1+E290)*(1+J289)-1,E290)</f>
+        <v>3.1981182471437997E-2</v>
+      </c>
+      <c r="K290" s="79">
+        <f t="shared" ref="K290:K291" si="157">IF(I290=I289,(1+F290)*(1+K289)-1,F290)</f>
+        <v>7.4129268153650285E-2</v>
+      </c>
+      <c r="L290" s="81">
+        <f t="shared" ref="L290:L291" si="158">L289*(1+E290)</f>
+        <v>100.58897904274913</v>
+      </c>
+      <c r="M290" s="82">
+        <f t="shared" ref="M290:M291" si="159">M289*(1+F290)</f>
+        <v>103.37674751274535</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="60">
+        <v>45747</v>
+      </c>
+      <c r="B291" s="26">
+        <v>130260</v>
+      </c>
+      <c r="C291" s="26">
+        <v>132059.6</v>
+      </c>
+      <c r="D291" s="68">
+        <v>1.7780199999999999</v>
+      </c>
+      <c r="E291" s="79">
+        <f t="shared" si="151"/>
+        <v>-1.0345612590844877E-2</v>
+      </c>
+      <c r="F291" s="79">
+        <f t="shared" si="152"/>
+        <v>-1.2448636108626121E-2</v>
+      </c>
+      <c r="G291" s="79">
+        <f t="shared" si="153"/>
+        <v>-4.5167556533575182E-3</v>
+      </c>
+      <c r="H291" s="79">
+        <f t="shared" si="154"/>
+        <v>2.0898480008658682E-2</v>
+      </c>
+      <c r="I291" s="80" t="str">
+        <f t="shared" si="155"/>
+        <v>032025</v>
+      </c>
+      <c r="J291" s="79">
+        <f t="shared" si="156"/>
+        <v>2.1304704956546461E-2</v>
+      </c>
+      <c r="K291" s="79">
+        <f t="shared" si="157"/>
+        <v>6.0757823760780649E-2</v>
+      </c>
+      <c r="L291" s="81">
+        <f t="shared" si="158"/>
+        <v>99.548324434664238</v>
+      </c>
+      <c r="M291" s="82">
+        <f t="shared" si="159"/>
+        <v>102.08984800086587</v>
       </c>
     </row>
   </sheetData>
@@ -20658,8 +20811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A891FF2B-1847-4160-BE18-64A7C8438401}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21075,10 +21228,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80:D88"/>
+    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21117,6 +21270,9 @@
       <c r="G1" s="86" t="s">
         <v>20</v>
       </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -22830,7 +22986,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>45734</v>
       </c>
@@ -22856,7 +23012,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>45734</v>
       </c>
@@ -22882,7 +23038,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>45734</v>
       </c>
@@ -22908,7 +23064,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>45737</v>
       </c>
@@ -22934,7 +23090,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>45737</v>
       </c>
@@ -22960,7 +23116,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>45737</v>
       </c>
@@ -22986,7 +23142,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>45737</v>
       </c>
@@ -23012,7 +23168,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>45737</v>
       </c>
@@ -23038,7 +23194,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>45737</v>
       </c>
@@ -23064,7 +23220,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>45737</v>
       </c>
@@ -23090,7 +23246,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>45737</v>
       </c>
@@ -23116,7 +23272,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>45737</v>
       </c>
@@ -23142,7 +23298,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>45737</v>
       </c>
@@ -23168,7 +23324,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>45737</v>
       </c>
@@ -23194,7 +23350,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>45742</v>
       </c>
@@ -23219,8 +23375,9 @@
         <f>_xlfn.XLOOKUP(A79,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>45742</v>
       </c>
@@ -23245,8 +23402,10 @@
         <f>_xlfn.XLOOKUP(A80,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>45742</v>
       </c>
@@ -23271,8 +23430,10 @@
         <f>_xlfn.XLOOKUP(A81,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>45742</v>
       </c>
@@ -23297,8 +23458,10 @@
         <f>_xlfn.XLOOKUP(A82,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>45742</v>
       </c>
@@ -23323,8 +23486,10 @@
         <f>_xlfn.XLOOKUP(A83,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>45742</v>
       </c>
@@ -23349,8 +23514,10 @@
         <f>_xlfn.XLOOKUP(A84,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>45742</v>
       </c>
@@ -23375,8 +23542,10 @@
         <f>_xlfn.XLOOKUP(A85,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>45742</v>
       </c>
@@ -23401,8 +23570,10 @@
         <f>_xlfn.XLOOKUP(A86,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>45742</v>
       </c>
@@ -23427,8 +23598,10 @@
         <f>_xlfn.XLOOKUP(A87,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>45742</v>
       </c>
@@ -23453,8 +23626,10 @@
         <f>_xlfn.XLOOKUP(A88,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>45742</v>
       </c>
@@ -23478,6 +23653,295 @@
       <c r="G89" s="14">
         <f>_xlfn.XLOOKUP(A89,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="11">
+        <v>16293.45</v>
+      </c>
+      <c r="D90" s="41">
+        <f>C90/G90</f>
+        <v>0.12337951955026367</v>
+      </c>
+      <c r="E90" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B90,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Títulos Públicos</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="11">
+        <f>_xlfn.XLOOKUP(A90,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132059.6</v>
+      </c>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="11">
+        <v>14348.71</v>
+      </c>
+      <c r="D91" s="41">
+        <f t="shared" ref="D91:D96" si="11">C91/G91</f>
+        <v>0.10865328987820649</v>
+      </c>
+      <c r="E91" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B91,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G91" s="11">
+        <f>_xlfn.XLOOKUP(A91,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132059.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="11">
+        <v>7173.4</v>
+      </c>
+      <c r="D92" s="41">
+        <f t="shared" si="11"/>
+        <v>5.4319413355787834E-2</v>
+      </c>
+      <c r="E92" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B92,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G92" s="11">
+        <f>_xlfn.XLOOKUP(A92,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132059.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93" s="11">
+        <v>14423.6</v>
+      </c>
+      <c r="D93" s="41">
+        <f t="shared" si="11"/>
+        <v>0.10922038231222872</v>
+      </c>
+      <c r="E93" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B93,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G93" s="11">
+        <f>_xlfn.XLOOKUP(A93,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132059.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" s="11">
+        <v>11116.8</v>
+      </c>
+      <c r="D94" s="41">
+        <f t="shared" si="11"/>
+        <v>8.4180173194527308E-2</v>
+      </c>
+      <c r="E94" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B94,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G94" s="11">
+        <f>_xlfn.XLOOKUP(A94,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132059.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="11">
+        <v>15236.06</v>
+      </c>
+      <c r="D95" s="41">
+        <f t="shared" si="11"/>
+        <v>0.11537260449069965</v>
+      </c>
+      <c r="E95" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B95,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G95" s="11">
+        <f>_xlfn.XLOOKUP(A95,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132059.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="11">
+        <v>6815.3</v>
+      </c>
+      <c r="D96" s="41">
+        <f t="shared" si="11"/>
+        <v>5.1607758920972045E-2</v>
+      </c>
+      <c r="E96" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B96,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G96" s="11">
+        <f>_xlfn.XLOOKUP(A96,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132059.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="11">
+        <v>16795.599999999999</v>
+      </c>
+      <c r="D97" s="41">
+        <f>C97/G97</f>
+        <v>0.12718196935323139</v>
+      </c>
+      <c r="E97" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B97,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G97" s="11">
+        <f>_xlfn.XLOOKUP(A97,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132059.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="11">
+        <v>6319.35</v>
+      </c>
+      <c r="D98" s="41">
+        <f t="shared" ref="D98:D100" si="12">C98/G98</f>
+        <v>4.7852257617015351E-2</v>
+      </c>
+      <c r="E98" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B98,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G98" s="11">
+        <f>_xlfn.XLOOKUP(A98,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132059.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="11">
+        <v>14458.5</v>
+      </c>
+      <c r="D99" s="41">
+        <f t="shared" si="12"/>
+        <v>0.10948465692762964</v>
+      </c>
+      <c r="E99" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B99,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G99" s="11">
+        <f>_xlfn.XLOOKUP(A99,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132059.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>45747</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="14">
+        <v>8570.6200000000008</v>
+      </c>
+      <c r="D100" s="42">
+        <f t="shared" si="12"/>
+        <v>6.4899636224856047E-2</v>
+      </c>
+      <c r="E100" s="13" t="str">
+        <f>_xlfn.XLOOKUP(B100,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" s="14">
+        <f>_xlfn.XLOOKUP(A100,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>132059.6</v>
       </c>
     </row>
   </sheetData>
@@ -23488,10 +23952,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5410629D-6DE0-46FD-B578-14B10353174E}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23795,7 +24259,7 @@
       </c>
       <c r="D8" s="49">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
-        <v>3.8558126978109675E-2</v>
+        <v>2.1304704956546461E-2</v>
       </c>
       <c r="E8" s="49" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
@@ -23835,7 +24299,7 @@
       </c>
       <c r="N8" s="49" cm="1">
         <f t="array" ref="N8">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B8:M8,B8:M8&lt;&gt;"-"))))-1</f>
-        <v>7.1850870406763301E-2</v>
+        <v>5.4044360659333934E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="R8" s="3"/>
@@ -23854,7 +24318,7 @@
       </c>
       <c r="D9" s="49">
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
-        <v>7.9161882425753394E-2</v>
+        <v>6.0757823760780649E-2</v>
       </c>
       <c r="E9" s="49" t="str">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
@@ -23894,7 +24358,7 @@
       </c>
       <c r="N9" s="49" cm="1">
         <f t="array" ref="N9">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B9:M9,B9:M9&lt;&gt;"-"))))-1</f>
-        <v>0.10173507478197297</v>
+        <v>8.2946052226832379E-2</v>
       </c>
       <c r="O9" s="1"/>
     </row>
@@ -23912,7 +24376,7 @@
       </c>
       <c r="D10" s="49">
         <f t="shared" si="14"/>
-        <v>0.96237473162379117</v>
+        <v>0.96280666715767582</v>
       </c>
       <c r="E10" s="49" t="str">
         <f t="shared" si="14"/>
@@ -23952,7 +24416,7 @@
       </c>
       <c r="N10" s="49">
         <f t="shared" si="14"/>
-        <v>0.97287532632913265</v>
+        <v>0.97331197476728537</v>
       </c>
       <c r="O10" s="1"/>
     </row>
@@ -24133,6 +24597,10 @@
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Relatório_Gerencial_Denver.xlsx
+++ b/Relatório_Gerencial_Denver.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Denver Asset\Clube Kairos\_DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF218664-F43D-4E80-9FE9-9E434782937C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D6DAD-3B58-4D06-9208-950407BF373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
   </bookViews>
@@ -2193,7 +2193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="73">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -2692,7 +2692,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2889,6 +2889,7 @@
     <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4161,11 +4162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7BB3D-AA6F-4398-826D-91557AA445E2}">
-  <dimension ref="A1:S291"/>
+  <dimension ref="A1:S301"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M291" sqref="M291"/>
+      <selection pane="bottomLeft" activeCell="D302" sqref="D302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18591,39 +18592,39 @@
         <v>1.808999</v>
       </c>
       <c r="E289" s="79">
-        <f t="shared" ref="E289:E290" si="142">D289/D288-1</f>
+        <f t="shared" ref="E289" si="142">D289/D288-1</f>
         <v>5.2100127374310468E-4</v>
       </c>
       <c r="F289" s="79">
-        <f t="shared" ref="F289:F290" si="143">B289/B288-1</f>
+        <f t="shared" ref="F289" si="143">B289/B288-1</f>
         <v>4.7464533655297014E-3</v>
       </c>
       <c r="G289" s="79">
-        <f t="shared" ref="G289:G290" si="144">D289/$D$2-1</f>
+        <f t="shared" ref="G289" si="144">D289/$D$2-1</f>
         <v>1.2827861070084712E-2</v>
       </c>
       <c r="H289" s="79">
-        <f t="shared" ref="H289:H290" si="145">B289/$B$2-1</f>
+        <f t="shared" ref="H289" si="145">B289/$B$2-1</f>
         <v>4.3540701018523809E-2</v>
       </c>
       <c r="I289" s="80" t="str">
-        <f t="shared" ref="I289:I290" si="146">TEXT(A289,"mmaaaa")</f>
+        <f t="shared" ref="I289" si="146">TEXT(A289,"mmaaaa")</f>
         <v>032025</v>
       </c>
       <c r="J289" s="79">
-        <f t="shared" ref="J289:J290" si="147">IF(I289=I288,(1+E289)*(1+J288)-1,E289)</f>
+        <f t="shared" ref="J289" si="147">IF(I289=I288,(1+E289)*(1+J288)-1,E289)</f>
         <v>3.9099217085121429E-2</v>
       </c>
       <c r="K289" s="79">
-        <f t="shared" ref="K289:K290" si="148">IF(I289=I288,(1+F289)*(1+K288)-1,F289)</f>
+        <f t="shared" ref="K289" si="148">IF(I289=I288,(1+F289)*(1+K288)-1,F289)</f>
         <v>8.4284073974544516E-2</v>
       </c>
       <c r="L289" s="81">
-        <f t="shared" ref="L289:L290" si="149">L288*(1+E289)</f>
+        <f t="shared" ref="L289" si="149">L288*(1+E289)</f>
         <v>101.28278610700845</v>
       </c>
       <c r="M289" s="82">
-        <f t="shared" ref="M289:M290" si="150">M288*(1+F289)</f>
+        <f t="shared" ref="M289" si="150">M288*(1+F289)</f>
         <v>104.35407010185236</v>
       </c>
     </row>
@@ -18725,6 +18726,506 @@
       <c r="M291" s="82">
         <f t="shared" si="159"/>
         <v>102.08984800086587</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="60">
+        <v>45748</v>
+      </c>
+      <c r="B292" s="26">
+        <v>131147</v>
+      </c>
+      <c r="C292" s="26">
+        <v>132669.26999999999</v>
+      </c>
+      <c r="D292" s="68">
+        <v>1.7862290000000001</v>
+      </c>
+      <c r="E292" s="79">
+        <f t="shared" ref="E292:E293" si="160">D292/D291-1</f>
+        <v>4.6169334428185493E-3</v>
+      </c>
+      <c r="F292" s="79">
+        <f t="shared" ref="F292:F293" si="161">B292/B291-1</f>
+        <v>6.8094580070627853E-3</v>
+      </c>
+      <c r="G292" s="79">
+        <f t="shared" ref="G292:G293" si="162">D292/$D$2-1</f>
+        <v>7.9324229232069499E-5</v>
+      </c>
+      <c r="H292" s="79">
+        <f t="shared" ref="H292:H293" si="163">B292/$B$2-1</f>
+        <v>2.7850245337751822E-2</v>
+      </c>
+      <c r="I292" s="80" t="str">
+        <f t="shared" ref="I292:I293" si="164">TEXT(A292,"mmaaaa")</f>
+        <v>042025</v>
+      </c>
+      <c r="J292" s="79">
+        <f t="shared" ref="J292:J293" si="165">IF(I292=I291,(1+E292)*(1+J291)-1,E292)</f>
+        <v>4.6169334428185493E-3</v>
+      </c>
+      <c r="K292" s="79">
+        <f t="shared" ref="K292:K293" si="166">IF(I292=I291,(1+F292)*(1+K291)-1,F292)</f>
+        <v>6.8094580070627853E-3</v>
+      </c>
+      <c r="L292" s="81">
+        <f t="shared" ref="L292:L293" si="167">L291*(1+E292)</f>
+        <v>100.00793242292319</v>
+      </c>
+      <c r="M292" s="82">
+        <f t="shared" ref="M292:M293" si="168">M291*(1+F292)</f>
+        <v>102.78502453377519</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="60">
+        <v>45749</v>
+      </c>
+      <c r="B293" s="26">
+        <v>131190</v>
+      </c>
+      <c r="C293" s="26">
+        <v>132447.88</v>
+      </c>
+      <c r="D293" s="68">
+        <v>1.7832479999999999</v>
+      </c>
+      <c r="E293" s="79">
+        <f t="shared" si="160"/>
+        <v>-1.6688789623279243E-3</v>
+      </c>
+      <c r="F293" s="79">
+        <f t="shared" si="161"/>
+        <v>3.2787635248987534E-4</v>
+      </c>
+      <c r="G293" s="79">
+        <f t="shared" si="162"/>
+        <v>-1.5896871156333425E-3</v>
+      </c>
+      <c r="H293" s="79">
+        <f t="shared" si="163"/>
+        <v>2.8187253127099243E-2</v>
+      </c>
+      <c r="I293" s="80" t="str">
+        <f t="shared" si="164"/>
+        <v>042025</v>
+      </c>
+      <c r="J293" s="79">
+        <f t="shared" si="165"/>
+        <v>2.9403493773973999E-3</v>
+      </c>
+      <c r="K293" s="79">
+        <f t="shared" si="166"/>
+        <v>7.1395670198064476E-3</v>
+      </c>
+      <c r="L293" s="81">
+        <f t="shared" si="167"/>
+        <v>99.841031288436668</v>
+      </c>
+      <c r="M293" s="82">
+        <f t="shared" si="168"/>
+        <v>102.8187253127099</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="60">
+        <v>45750</v>
+      </c>
+      <c r="B294" s="26">
+        <v>131141</v>
+      </c>
+      <c r="C294" s="26">
+        <v>130887.9</v>
+      </c>
+      <c r="D294" s="68">
+        <v>1.7622450000000001</v>
+      </c>
+      <c r="E294" s="79">
+        <f t="shared" ref="E294:E297" si="169">D294/D293-1</f>
+        <v>-1.1777946757826063E-2</v>
+      </c>
+      <c r="F294" s="79">
+        <f t="shared" ref="F294:F297" si="170">B294/B293-1</f>
+        <v>-3.7350407805469832E-4</v>
+      </c>
+      <c r="G294" s="79">
+        <f t="shared" ref="G294:G297" si="171">D294/$D$2-1</f>
+        <v>-1.3348910623249943E-2</v>
+      </c>
+      <c r="H294" s="79">
+        <f t="shared" ref="H294:H297" si="172">B294/$B$2-1</f>
+        <v>2.780322099505228E-2</v>
+      </c>
+      <c r="I294" s="80" t="str">
+        <f t="shared" ref="I294:I297" si="173">TEXT(A294,"mmaaaa")</f>
+        <v>042025</v>
+      </c>
+      <c r="J294" s="79">
+        <f t="shared" ref="J294:J297" si="174">IF(I294=I293,(1+E294)*(1+J293)-1,E294)</f>
+        <v>-8.8722286588450716E-3</v>
+      </c>
+      <c r="K294" s="79">
+        <f t="shared" ref="K294:K297" si="175">IF(I294=I293,(1+F294)*(1+K293)-1,F294)</f>
+        <v>6.763396284354295E-3</v>
+      </c>
+      <c r="L294" s="81">
+        <f t="shared" ref="L294:L297" si="176">L293*(1+E294)</f>
+        <v>98.665108937675015</v>
+      </c>
+      <c r="M294" s="82">
+        <f t="shared" ref="M294:M297" si="177">M293*(1+F294)</f>
+        <v>102.78032209950521</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="60">
+        <v>45751</v>
+      </c>
+      <c r="B295" s="26">
+        <v>127256</v>
+      </c>
+      <c r="C295" s="26">
+        <v>127154.27</v>
+      </c>
+      <c r="D295" s="68">
+        <v>1.7119759999999999</v>
+      </c>
+      <c r="E295" s="79">
+        <f t="shared" si="169"/>
+        <v>-2.8525545539922148E-2</v>
+      </c>
+      <c r="F295" s="79">
+        <f t="shared" si="170"/>
+        <v>-2.9624602527051014E-2</v>
+      </c>
+      <c r="G295" s="79">
+        <f t="shared" si="171"/>
+        <v>-4.1493671205280247E-2</v>
+      </c>
+      <c r="H295" s="79">
+        <f t="shared" si="172"/>
+        <v>-2.6450409029489252E-3</v>
+      </c>
+      <c r="I295" s="80" t="str">
+        <f t="shared" si="173"/>
+        <v>042025</v>
+      </c>
+      <c r="J295" s="79">
+        <f t="shared" si="174"/>
+        <v>-3.7144689036118783E-2</v>
+      </c>
+      <c r="K295" s="79">
+        <f t="shared" si="175"/>
+        <v>-2.3061569169353646E-2</v>
+      </c>
+      <c r="L295" s="81">
+        <f t="shared" si="176"/>
+        <v>95.850632879471988</v>
+      </c>
+      <c r="M295" s="82">
+        <f t="shared" si="177"/>
+        <v>99.735495909705094</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="60">
+        <v>45754</v>
+      </c>
+      <c r="B296" s="26">
+        <v>125588</v>
+      </c>
+      <c r="C296" s="26">
+        <v>116215.1</v>
+      </c>
+      <c r="D296" s="68">
+        <v>1.713565</v>
+      </c>
+      <c r="E296" s="79">
+        <f t="shared" si="169"/>
+        <v>9.2816721729738205E-4</v>
+      </c>
+      <c r="F296" s="79">
+        <f t="shared" si="170"/>
+        <v>-1.310743697743133E-2</v>
+      </c>
+      <c r="G296" s="79">
+        <f t="shared" si="171"/>
+        <v>-4.060401705332084E-2</v>
+      </c>
+      <c r="H296" s="79">
+        <f t="shared" si="172"/>
+        <v>-1.5717808173442149E-2</v>
+      </c>
+      <c r="I296" s="80" t="str">
+        <f t="shared" si="173"/>
+        <v>042025</v>
+      </c>
+      <c r="J296" s="79">
+        <f t="shared" si="174"/>
+        <v>-3.6250998301481485E-2</v>
+      </c>
+      <c r="K296" s="79">
+        <f t="shared" si="175"/>
+        <v>-3.5866728082296961E-2</v>
+      </c>
+      <c r="L296" s="81">
+        <f t="shared" si="176"/>
+        <v>95.939598294667917</v>
+      </c>
+      <c r="M296" s="82">
+        <f t="shared" si="177"/>
+        <v>98.428219182655781</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="60">
+        <v>45755</v>
+      </c>
+      <c r="B297" s="26">
+        <v>123932</v>
+      </c>
+      <c r="C297" s="26">
+        <v>115156.59</v>
+      </c>
+      <c r="D297" s="68">
+        <v>1.6979569999999999</v>
+      </c>
+      <c r="E297" s="79">
+        <f t="shared" si="169"/>
+        <v>-9.1084960302060258E-3</v>
+      </c>
+      <c r="F297" s="79">
+        <f t="shared" si="170"/>
+        <v>-1.3185973182151201E-2</v>
+      </c>
+      <c r="G297" s="79">
+        <f t="shared" si="171"/>
+        <v>-4.9342671555386297E-2</v>
+      </c>
+      <c r="H297" s="79">
+        <f t="shared" si="172"/>
+        <v>-2.8696526758536067E-2</v>
+      </c>
+      <c r="I297" s="80" t="str">
+        <f t="shared" si="173"/>
+        <v>042025</v>
+      </c>
+      <c r="J297" s="79">
+        <f t="shared" si="174"/>
+        <v>-4.5029302257567516E-2</v>
+      </c>
+      <c r="K297" s="79">
+        <f t="shared" si="175"/>
+        <v>-4.8579763549823518E-2</v>
+      </c>
+      <c r="L297" s="81">
+        <f t="shared" si="176"/>
+        <v>95.06573284446138</v>
+      </c>
+      <c r="M297" s="82">
+        <f t="shared" si="177"/>
+        <v>97.130347324146385</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="60">
+        <v>45756</v>
+      </c>
+      <c r="B298" s="26">
+        <v>127402</v>
+      </c>
+      <c r="C298" s="26">
+        <v>118502.33</v>
+      </c>
+      <c r="D298" s="68">
+        <v>1.7472890000000001</v>
+      </c>
+      <c r="E298" s="79">
+        <f t="shared" ref="E298:E300" si="178">D298/D297-1</f>
+        <v>2.9053739287861813E-2</v>
+      </c>
+      <c r="F298" s="79">
+        <f t="shared" ref="F298:F300" si="179">B298/B297-1</f>
+        <v>2.7999225381660997E-2</v>
+      </c>
+      <c r="G298" s="79">
+        <f t="shared" ref="G298:G300" si="180">D298/$D$2-1</f>
+        <v>-2.1722521382661175E-2</v>
+      </c>
+      <c r="H298" s="79">
+        <f t="shared" ref="H298:H300" si="181">B298/$B$2-1</f>
+        <v>-1.5007818972583298E-3</v>
+      </c>
+      <c r="I298" s="80" t="str">
+        <f t="shared" ref="I298:I300" si="182">TEXT(A298,"mmaaaa")</f>
+        <v>042025</v>
+      </c>
+      <c r="J298" s="79">
+        <f t="shared" ref="J298:J300" si="183">IF(I298=I297,(1+E298)*(1+J297)-1,E298)</f>
+        <v>-1.7283832577811409E-2</v>
+      </c>
+      <c r="K298" s="79">
+        <f t="shared" ref="K298:K300" si="184">IF(I298=I297,(1+F298)*(1+K297)-1,F298)</f>
+        <v>-2.1940733916781863E-2</v>
+      </c>
+      <c r="L298" s="81">
+        <f t="shared" ref="L298:L300" si="185">L297*(1+E298)</f>
+        <v>97.827747861733883</v>
+      </c>
+      <c r="M298" s="82">
+        <f t="shared" ref="M298:M300" si="186">M297*(1+F298)</f>
+        <v>99.849921810274168</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="60">
+        <v>45757</v>
+      </c>
+      <c r="B299" s="26">
+        <v>126355</v>
+      </c>
+      <c r="C299" s="26">
+        <v>116697.75</v>
+      </c>
+      <c r="D299" s="68">
+        <v>1.7206809999999999</v>
+      </c>
+      <c r="E299" s="79">
+        <f t="shared" si="178"/>
+        <v>-1.5228162027003056E-2</v>
+      </c>
+      <c r="F299" s="79">
+        <f t="shared" si="179"/>
+        <v>-8.2180813488014204E-3</v>
+      </c>
+      <c r="G299" s="79">
+        <f t="shared" si="180"/>
+        <v>-3.6619889334414069E-2</v>
+      </c>
+      <c r="H299" s="79">
+        <f t="shared" si="181"/>
+        <v>-9.706529698341182E-3</v>
+      </c>
+      <c r="I299" s="80" t="str">
+        <f t="shared" si="182"/>
+        <v>042025</v>
+      </c>
+      <c r="J299" s="79">
+        <f t="shared" si="183"/>
+        <v>-3.2248793601871939E-2</v>
+      </c>
+      <c r="K299" s="79">
+        <f t="shared" si="184"/>
+        <v>-2.9978504529402761E-2</v>
+      </c>
+      <c r="L299" s="81">
+        <f t="shared" si="185"/>
+        <v>96.338011066558593</v>
+      </c>
+      <c r="M299" s="82">
+        <f t="shared" si="186"/>
+        <v>99.02934703016588</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="60">
+        <v>45758</v>
+      </c>
+      <c r="B300" s="26">
+        <v>127682</v>
+      </c>
+      <c r="C300" s="26">
+        <v>117806.57</v>
+      </c>
+      <c r="D300" s="68">
+        <v>1.737031</v>
+      </c>
+      <c r="E300" s="79">
+        <f t="shared" si="178"/>
+        <v>9.5020518039079516E-3</v>
+      </c>
+      <c r="F300" s="79">
+        <f t="shared" si="179"/>
+        <v>1.0502156622215209E-2</v>
+      </c>
+      <c r="G300" s="79">
+        <f t="shared" si="180"/>
+        <v>-2.7465801616015084E-2</v>
+      </c>
+      <c r="H300" s="79">
+        <f t="shared" si="181"/>
+        <v>6.9368742872377709E-4</v>
+      </c>
+      <c r="I300" s="80" t="str">
+        <f t="shared" si="182"/>
+        <v>042025</v>
+      </c>
+      <c r="J300" s="79">
+        <f t="shared" si="183"/>
+        <v>-2.3053171505382553E-2</v>
+      </c>
+      <c r="K300" s="79">
+        <f t="shared" si="184"/>
+        <v>-1.9791186857055165E-2</v>
+      </c>
+      <c r="L300" s="81">
+        <f t="shared" si="185"/>
+        <v>97.253419838398486</v>
+      </c>
+      <c r="M300" s="82">
+        <f t="shared" si="186"/>
+        <v>100.06936874287238</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="60">
+        <v>45761</v>
+      </c>
+      <c r="B301" s="26">
+        <v>129454</v>
+      </c>
+      <c r="C301" s="26">
+        <v>118628.72</v>
+      </c>
+      <c r="D301" s="68">
+        <v>1.749153</v>
+      </c>
+      <c r="E301" s="79">
+        <f t="shared" ref="E301" si="187">D301/D300-1</f>
+        <v>6.9785743605035311E-3</v>
+      </c>
+      <c r="F301" s="79">
+        <f t="shared" ref="F301" si="188">B301/B300-1</f>
+        <v>1.3878228724487407E-2</v>
+      </c>
+      <c r="G301" s="79">
+        <f t="shared" ref="G301" si="189">D301/$D$2-1</f>
+        <v>-2.067889939445966E-2</v>
+      </c>
+      <c r="H301" s="79">
+        <f t="shared" ref="H301" si="190">B301/$B$2-1</f>
+        <v>1.4581543306010358E-2</v>
+      </c>
+      <c r="I301" s="80" t="str">
+        <f t="shared" ref="I301" si="191">TEXT(A301,"mmaaaa")</f>
+        <v>042025</v>
+      </c>
+      <c r="J301" s="79">
+        <f t="shared" ref="J301" si="192">IF(I301=I300,(1+E301)*(1+J300)-1,E301)</f>
+        <v>-1.6235475416474743E-2</v>
+      </c>
+      <c r="K301" s="79">
+        <f t="shared" ref="K301" si="193">IF(I301=I300,(1+F301)*(1+K300)-1,F301)</f>
+        <v>-6.1876247504990545E-3</v>
+      </c>
+      <c r="L301" s="81">
+        <f t="shared" ref="L301" si="194">L300*(1+E301)</f>
+        <v>97.932110060554024</v>
+      </c>
+      <c r="M301" s="82">
+        <f t="shared" ref="M301" si="195">M300*(1+F301)</f>
+        <v>101.45815433060103</v>
       </c>
     </row>
   </sheetData>
@@ -20812,7 +21313,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21228,10 +21729,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView showGridLines="0" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23405,7 +23906,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>45742</v>
       </c>
@@ -23433,7 +23934,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>45742</v>
       </c>
@@ -23461,7 +23962,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>45742</v>
       </c>
@@ -23489,7 +23990,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>45742</v>
       </c>
@@ -23517,7 +24018,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>45742</v>
       </c>
@@ -23545,7 +24046,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>45742</v>
       </c>
@@ -23573,7 +24074,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>45742</v>
       </c>
@@ -23601,7 +24102,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>45742</v>
       </c>
@@ -23629,7 +24130,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>45742</v>
       </c>
@@ -23657,7 +24158,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>45747</v>
       </c>
@@ -23682,9 +24183,9 @@
         <f>_xlfn.XLOOKUP(A90,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-      <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I90" s="90"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>45747</v>
       </c>
@@ -23709,8 +24210,12 @@
         <f>_xlfn.XLOOKUP(A91,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="9">
         <v>45747</v>
       </c>
@@ -23735,8 +24240,12 @@
         <f>_xlfn.XLOOKUP(A92,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
         <v>45747</v>
       </c>
@@ -23761,8 +24270,12 @@
         <f>_xlfn.XLOOKUP(A93,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
         <v>45747</v>
       </c>
@@ -23787,8 +24300,12 @@
         <f>_xlfn.XLOOKUP(A94,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
         <v>45747</v>
       </c>
@@ -23813,8 +24330,12 @@
         <f>_xlfn.XLOOKUP(A95,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="9">
         <v>45747</v>
       </c>
@@ -23839,8 +24360,12 @@
         <f>_xlfn.XLOOKUP(A96,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
         <v>45747</v>
       </c>
@@ -23865,8 +24390,12 @@
         <f>_xlfn.XLOOKUP(A97,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="9">
         <v>45747</v>
       </c>
@@ -23891,8 +24420,12 @@
         <f>_xlfn.XLOOKUP(A98,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="9">
         <v>45747</v>
       </c>
@@ -23917,9 +24450,13 @@
         <f>_xlfn.XLOOKUP(A99,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="9">
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
         <v>45747</v>
       </c>
       <c r="B100" s="13" t="s">
@@ -23942,6 +24479,584 @@
       <c r="G100" s="14">
         <f>_xlfn.XLOOKUP(A100,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
+      </c>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>45755</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101" s="11">
+        <v>16345.53</v>
+      </c>
+      <c r="D101" s="41">
+        <f>C101/G101</f>
+        <v>0.14194176816107529</v>
+      </c>
+      <c r="E101" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B101,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Títulos Públicos</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" s="11">
+        <f>_xlfn.XLOOKUP(A101,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>115156.59</v>
+      </c>
+      <c r="I101" s="90"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>45755</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="11">
+        <v>14063.67</v>
+      </c>
+      <c r="D102" s="41">
+        <f t="shared" ref="D102:D107" si="13">C102/G102</f>
+        <v>0.12212648880971554</v>
+      </c>
+      <c r="E102" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B102,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G102" s="11">
+        <f>_xlfn.XLOOKUP(A102,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>115156.59</v>
+      </c>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>45755</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="11">
+        <v>7200.1</v>
+      </c>
+      <c r="D103" s="41">
+        <f t="shared" si="13"/>
+        <v>6.2524428693138623E-2</v>
+      </c>
+      <c r="E103" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B103,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G103" s="11">
+        <f>_xlfn.XLOOKUP(A103,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>115156.59</v>
+      </c>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>45755</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" s="11">
+        <v>14380.8</v>
+      </c>
+      <c r="D104" s="41">
+        <f t="shared" si="13"/>
+        <v>0.12488039112655211</v>
+      </c>
+      <c r="E104" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B104,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G104" s="11">
+        <f>_xlfn.XLOOKUP(A104,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>115156.59</v>
+      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>45755</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="11">
+        <v>11246.4</v>
+      </c>
+      <c r="D105" s="41">
+        <f t="shared" si="13"/>
+        <v>9.766180120477691E-2</v>
+      </c>
+      <c r="E105" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B105,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G105" s="11">
+        <f>_xlfn.XLOOKUP(A105,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>115156.59</v>
+      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>45755</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="11">
+        <v>15043.98</v>
+      </c>
+      <c r="D106" s="41">
+        <f t="shared" si="13"/>
+        <v>0.13063933206080519</v>
+      </c>
+      <c r="E106" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B106,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G106" s="11">
+        <f>_xlfn.XLOOKUP(A106,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>115156.59</v>
+      </c>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>45755</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="11">
+        <v>6353.6</v>
+      </c>
+      <c r="D107" s="41">
+        <f t="shared" si="13"/>
+        <v>5.5173568442761292E-2</v>
+      </c>
+      <c r="E107" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B107,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G107" s="11">
+        <f>_xlfn.XLOOKUP(A107,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>115156.59</v>
+      </c>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>45755</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="11">
+        <v>14272.04</v>
+      </c>
+      <c r="D108" s="41">
+        <f>C108/G108</f>
+        <v>0.12393593801275291</v>
+      </c>
+      <c r="E108" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B108,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G108" s="11">
+        <f>_xlfn.XLOOKUP(A108,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>115156.59</v>
+      </c>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>45755</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109" s="11">
+        <v>5744.04</v>
+      </c>
+      <c r="D109" s="41">
+        <f t="shared" ref="D109:D111" si="14">C109/G109</f>
+        <v>4.9880254356263934E-2</v>
+      </c>
+      <c r="E109" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B109,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G109" s="11">
+        <f>_xlfn.XLOOKUP(A109,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>115156.59</v>
+      </c>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>45755</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="11">
+        <v>12546</v>
+      </c>
+      <c r="D110" s="41">
+        <f t="shared" si="14"/>
+        <v>0.10894730384079626</v>
+      </c>
+      <c r="E110" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B110,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G110" s="11">
+        <f>_xlfn.XLOOKUP(A110,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>115156.59</v>
+      </c>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
+        <v>45755</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="14">
+        <v>8372.31</v>
+      </c>
+      <c r="D111" s="42">
+        <f t="shared" si="14"/>
+        <v>7.2703698503055705E-2</v>
+      </c>
+      <c r="E111" s="13" t="str">
+        <f>_xlfn.XLOOKUP(B111,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G111" s="14">
+        <f>_xlfn.XLOOKUP(A111,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>115156.59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>45761</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" s="11">
+        <v>14287.63</v>
+      </c>
+      <c r="D112" s="41">
+        <f t="shared" ref="D112:D117" si="15">C112/G112</f>
+        <v>0.12043989010418386</v>
+      </c>
+      <c r="E112" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B112,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G112" s="11">
+        <f>_xlfn.XLOOKUP(A112,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
+        <v>45761</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" s="11">
+        <v>7171.62</v>
+      </c>
+      <c r="D113" s="41">
+        <f t="shared" si="15"/>
+        <v>6.0454331800933195E-2</v>
+      </c>
+      <c r="E113" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B113,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G113" s="11">
+        <f>_xlfn.XLOOKUP(A113,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
+        <v>45761</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" s="11">
+        <v>14714.64</v>
+      </c>
+      <c r="D114" s="41">
+        <f t="shared" si="15"/>
+        <v>0.12403944002767626</v>
+      </c>
+      <c r="E114" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B114,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G114" s="11">
+        <f>_xlfn.XLOOKUP(A114,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
+        <v>45761</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="11">
+        <v>11445.12</v>
+      </c>
+      <c r="D115" s="41">
+        <f t="shared" si="15"/>
+        <v>9.6478491886281839E-2</v>
+      </c>
+      <c r="E115" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B115,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F115" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G115" s="11">
+        <f>_xlfn.XLOOKUP(A115,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
+        <v>45761</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" s="11">
+        <v>15627.08</v>
+      </c>
+      <c r="D116" s="41">
+        <f t="shared" si="15"/>
+        <v>0.13173100072225344</v>
+      </c>
+      <c r="E116" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B116,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G116" s="11">
+        <f>_xlfn.XLOOKUP(A116,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
+        <v>45761</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="11">
+        <v>6734.55</v>
+      </c>
+      <c r="D117" s="41">
+        <f t="shared" si="15"/>
+        <v>5.6769979478831098E-2</v>
+      </c>
+      <c r="E117" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B117,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G117" s="11">
+        <f>_xlfn.XLOOKUP(A117,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
+        <v>45761</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" s="11">
+        <v>14272.04</v>
+      </c>
+      <c r="D118" s="41">
+        <f>C118/G118</f>
+        <v>0.12030847167532449</v>
+      </c>
+      <c r="E118" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B118,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G118" s="11">
+        <f>_xlfn.XLOOKUP(A118,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
+        <v>45761</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="11">
+        <v>6237.81</v>
+      </c>
+      <c r="D119" s="41">
+        <f t="shared" ref="D119:D121" si="16">C119/G119</f>
+        <v>5.2582629231774571E-2</v>
+      </c>
+      <c r="E119" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B119,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F119" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G119" s="11">
+        <f>_xlfn.XLOOKUP(A119,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
+        <v>45761</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C120" s="11">
+        <v>13861.8</v>
+      </c>
+      <c r="D120" s="41">
+        <f t="shared" si="16"/>
+        <v>0.11685028718172125</v>
+      </c>
+      <c r="E120" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B120,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G120" s="11">
+        <f>_xlfn.XLOOKUP(A120,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="12">
+        <v>45761</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="14">
+        <v>13668.29</v>
+      </c>
+      <c r="D121" s="42">
+        <f t="shared" si="16"/>
+        <v>0.11521906330945829</v>
+      </c>
+      <c r="E121" s="13" t="str">
+        <f>_xlfn.XLOOKUP(B121,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G121" s="14">
+        <f>_xlfn.XLOOKUP(A121,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>118628.72</v>
       </c>
     </row>
   </sheetData>
@@ -23955,7 +25070,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24261,9 +25376,9 @@
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
         <v>2.1304704956546461E-2</v>
       </c>
-      <c r="E8" s="49" t="str">
+      <c r="E8" s="49">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
-        <v>-</v>
+        <v>-1.6235475416474743E-2</v>
       </c>
       <c r="F8" s="49" t="str">
         <f>_xlfn.XLOOKUP(F6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
@@ -24299,7 +25414,7 @@
       </c>
       <c r="N8" s="49" cm="1">
         <f t="array" ref="N8">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B8:M8,B8:M8&lt;&gt;"-"))))-1</f>
-        <v>5.4044360659333934E-2</v>
+        <v>3.693144935397541E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="R8" s="3"/>
@@ -24320,9 +25435,9 @@
         <f>_xlfn.XLOOKUP(D6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
         <v>6.0757823760780649E-2</v>
       </c>
-      <c r="E9" s="49" t="str">
+      <c r="E9" s="49">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
-        <v>-</v>
+        <v>-6.1876247504990545E-3</v>
       </c>
       <c r="F9" s="49" t="str">
         <f>_xlfn.XLOOKUP(F6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
@@ -24358,7 +25473,7 @@
       </c>
       <c r="N9" s="49" cm="1">
         <f t="array" ref="N9">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B9:M9,B9:M9&lt;&gt;"-"))))-1</f>
-        <v>8.2946052226832379E-2</v>
+        <v>7.6245188430618338E-2</v>
       </c>
       <c r="O9" s="1"/>
     </row>
@@ -24378,9 +25493,9 @@
         <f t="shared" si="14"/>
         <v>0.96280666715767582</v>
       </c>
-      <c r="E10" s="49" t="str">
+      <c r="E10" s="49">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>0.98988958991031573</v>
       </c>
       <c r="F10" s="49" t="str">
         <f t="shared" si="14"/>
@@ -24416,7 +25531,7 @@
       </c>
       <c r="N10" s="49">
         <f t="shared" si="14"/>
-        <v>0.97331197476728537</v>
+        <v>0.96347139155718753</v>
       </c>
       <c r="O10" s="1"/>
     </row>

--- a/Relatório_Gerencial_Denver.xlsx
+++ b/Relatório_Gerencial_Denver.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Denver Asset\Clube Kairos\_DashBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D6DAD-3B58-4D06-9208-950407BF373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8855EB4-7E7B-4B85-80AF-4BF66BAD3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="3" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico_Cota" sheetId="7" r:id="rId1"/>
@@ -2193,7 +2193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="73">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -4162,37 +4162,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7BB3D-AA6F-4398-826D-91557AA445E2}">
-  <dimension ref="A1:S301"/>
+  <dimension ref="A1:S304"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D302" sqref="D302"/>
+      <selection pane="bottomLeft" activeCell="A304" sqref="A304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="49" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="64" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="64" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="64" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="57">
         <v>45327</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="57">
         <v>45328</v>
       </c>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="57">
         <v>45329</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>101.84681052301336</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="57">
         <v>45330</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>100.48860643282036</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="57">
         <v>45331</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>100.33873985263669</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="57">
         <v>45336</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>99.54919330131969</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="57">
         <v>45337</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>100.16508679243748</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="57">
         <v>45338</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>100.88749825716032</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="57">
         <v>45341</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>101.13034763764202</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="57">
         <v>45342</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>101.82032798068303</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="57">
         <v>45343</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>101.91082632820843</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="57">
         <v>45344</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>102.07460427644075</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="57">
         <v>45345</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>101.43051185448411</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="57">
         <v>45348</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>101.57967306952729</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="57">
         <v>45349</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>103.21010107960835</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="57">
         <v>45350</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>102.00789240893087</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="57">
         <v>45351</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>101.1180272598547</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="57">
         <v>45352</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>101.24369981571942</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="57">
         <v>45355</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>100.58549225356245</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="57">
         <v>45356</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>100.39549039688467</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="57">
         <v>45357</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>101.01630576920499</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="57">
         <v>45358</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>100.58488093710737</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="57">
         <v>45359</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>99.590339601181839</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="57">
         <v>45362</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>98.847958465592555</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="57">
         <v>45363</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>100.05827099799527</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="57">
         <v>45364</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>100.32333938040254</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="57">
         <v>45365</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>100.07561514306097</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="57">
         <v>45366</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>99.332505130159831</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="57">
         <v>45369</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>99.498947791145113</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="57">
         <v>45370</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>99.949339108131596</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="57">
         <v>45371</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>101.20017094916048</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="57">
         <v>45372</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>100.44287525954498</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="57">
         <v>45373</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>99.556098042306061</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="57">
         <v>45376</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>99.481149077433315</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="57">
         <v>45377</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>99.427502139803508</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="57">
         <v>45378</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>100.07612457344021</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="57">
         <v>45379</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>100.40175247185415</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="57">
         <v>45383</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>99.527374006307042</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="57">
         <v>45384</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="57">
         <v>45385</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>99.784393388722251</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="57">
         <v>45386</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>99.869930668092849</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="57">
         <v>45387</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>99.374513542971499</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="57">
         <v>45390</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>100.99038751898706</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="60">
         <v>45391</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>101.80015453766489</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="60">
         <v>45392</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>100.36071589545831</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="60">
         <v>45393</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>99.845493684669975</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="60">
         <v>45394</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>98.708868297277547</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="60">
         <v>45397</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>98.229063253932466</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="60">
         <v>45398</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>97.488218246871369</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="60">
         <v>45399</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>97.317778516756604</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="60">
         <v>45400</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>97.337395505052797</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="60">
         <v>45401</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>98.064799387492258</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="60">
         <v>45404</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>98.416588495228083</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="60">
         <v>45405</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>98.083428864591752</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="60">
         <v>45406</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>97.764149252442252</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="60">
         <v>45407</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>97.689607831872905</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="60">
         <v>45408</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>99.163578016401914</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="60">
         <v>45411</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>99.810570272825018</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="60">
         <v>45412</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>98.691704412192166</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="60">
         <v>45414</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>99.630670812437188</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="60">
         <v>45415</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>100.7172622991972</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="60">
         <v>45418</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>100.68357719504338</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="60">
         <v>45419</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>101.26729819836414</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="60">
         <v>45420</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>101.47922907352087</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="60">
         <v>45421</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>100.4662071709144</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="60">
         <v>45422</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>100.00476513339353</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="60">
         <v>45425</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>100.43991272595487</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="60">
         <v>45426</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>100.72260739948406</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="60">
         <v>45427</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>100.34022111943167</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="60">
         <v>45428</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>100.5408818271214</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="60">
         <v>45429</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>100.4367150706513</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="60">
         <v>45432</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>100.12338403785331</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="60">
         <v>45433</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>99.857406518153837</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="60">
         <v>45434</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>98.476834515616716</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="60">
         <v>45435</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>97.755300838624251</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="60">
         <v>45436</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>97.423128719184618</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="60">
         <v>45439</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>97.57212534902834</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="60">
         <v>45440</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>97.010858469346616</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="60">
         <v>45441</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>96.170486440961781</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="60">
         <v>45443</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>95.693040452142128</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="60">
         <v>45446</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>95.640913968259611</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="60">
         <v>45447</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>95.461030182652678</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="60">
         <v>45448</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>95.151664869422362</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="60">
         <v>45449</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>96.320588142858952</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="60">
         <v>45450</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>94.649962157160147</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="60">
         <v>45453</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>94.643943041294591</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="60">
         <v>45454</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>95.330145762138741</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="60">
         <v>45455</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>93.998541775132836</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="60">
         <v>45456</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>93.709741774443145</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="60">
         <v>45457</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>93.784079422860799</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="60">
         <v>45460</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>93.37299261898076</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="60">
         <v>45461</v>
       </c>
@@ -8828,7 +8828,7 @@
         <v>93.759046797763702</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="60">
         <v>45462</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>94.253507761250162</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="60">
         <v>45463</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>94.398162476784634</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="60">
         <v>45464</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>95.099781344643816</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="60">
         <v>45467</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>96.115373911317874</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="60">
         <v>45468</v>
       </c>
@@ -9078,7 +9078,7 @@
         <v>95.875886771339168</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="60">
         <v>45469</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>96.118775338773133</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="60">
         <v>45470</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>97.424899969426306</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="60">
         <v>45471</v>
       </c>
@@ -9228,7 +9228,7 @@
         <v>97.110401165451279</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="60">
         <v>45474</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>97.746421075244484</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="60">
         <v>45475</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>97.800506906739486</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="60">
         <v>45476</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>98.486129660690324</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="60">
         <v>45477</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>98.879637197791155</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="60">
         <v>45478</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>98.960417181158661</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="60">
         <v>45481</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>99.1808751371249</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="60">
         <v>45482</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>99.619674953635922</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="60">
         <v>45483</v>
       </c>
@@ -9628,7 +9628,7 @@
         <v>99.705901923366113</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="60">
         <v>45484</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>100.54871138018088</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="60">
         <v>45485</v>
       </c>
@@ -9728,7 +9728,7 @@
         <v>101.02159600775867</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="60">
         <v>45488</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>101.35388568805507</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="60">
         <v>45489</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>101.18884591996031</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="60">
         <v>45490</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>101.45527017091543</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="60">
         <v>45491</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>100.04590359586524</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="60">
         <v>45492</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>100.01800248586348</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="60">
         <v>45495</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>100.20858430943457</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="60">
         <v>45496</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>99.213400307492151</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="60">
         <v>45497</v>
       </c>
@@ -10128,7 +10128,7 @@
         <v>99.082429675683272</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="60">
         <v>45498</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>98.715138209637473</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="60">
         <v>45499</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>99.920842356455637</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="60">
         <v>45502</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>99.498696994650729</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="60">
         <v>45503</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>98.860223981646698</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="60">
         <v>45504</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>100.045707661104</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="60">
         <v>45505</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>99.844514010863705</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="60">
         <v>45506</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>98.636764305138115</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="60">
         <v>45509</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>98.178629646387108</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="60">
         <v>45510</v>
       </c>
@@ -10578,7 +10578,7 @@
         <v>98.960142872492938</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="60">
         <v>45511</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>99.937606534628046</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="60">
         <v>45512</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>100.83655521923571</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="60">
         <v>45513</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>102.36775402883015</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="60">
         <v>45516</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>102.76065024947589</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="60">
         <v>45517</v>
       </c>
@@ -10828,7 +10828,7 @@
         <v>103.76545856689083</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="60">
         <v>45518</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>104.48625552918098</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="60">
         <v>45519</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>105.14127327342483</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="60">
         <v>45520</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>104.98439222878845</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="60">
         <v>45523</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>106.41450437635962</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="60">
         <v>45524</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>106.65701674905198</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="60">
         <v>45525</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>106.95189072734034</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="60">
         <v>45526</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>105.94066358714691</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="60">
         <v>45527</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>106.28165277084273</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="60">
         <v>45530</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>107.28502684580532</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="60">
         <v>45531</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>107.19662108153004</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="60">
         <v>45532</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>107.64182404603864</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="60">
         <v>45533</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>106.62091772863954</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="60">
         <v>45534</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>106.59165291269949</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="60">
         <v>45537</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>105.73115446563922</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="60">
         <v>45538</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>105.29806810676621</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="60">
         <v>45539</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>106.6752935435812</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="60">
         <v>45540</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>106.98233115184789</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="60">
         <v>45541</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>105.46968344544847</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="60">
         <v>45544</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>105.59881229050158</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="60">
         <v>45545</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>105.2714993531409</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="60">
         <v>45546</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>105.55142742784128</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="60">
         <v>45547</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>105.04409746923602</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="60">
         <v>45548</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>105.71225067987397</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="60">
         <v>45551</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>105.89742470403461</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="60">
         <v>45552</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>105.77357042275428</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="60">
         <v>45553</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>104.82328683069954</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="60">
         <v>45554</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>104.33343425279766</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="60">
         <v>45555</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>102.72110277726549</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="60">
         <v>45558</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>102.33152961017052</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="60">
         <v>45559</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>103.57562913280292</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="60">
         <v>45560</v>
       </c>
@@ -12378,7 +12378,7 @@
         <v>103.12943865709761</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="60">
         <v>45561</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>104.24495795200833</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="60">
         <v>45562</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>104.02596558805621</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="60">
         <v>45565</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>103.30969080005568</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="60">
         <v>45566</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>103.84163016467373</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="60">
         <v>45567</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>104.6408715679773</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="60">
         <v>45568</v>
       </c>
@@ -12678,7 +12678,7 @@
         <v>103.19610350026477</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="60">
         <v>45569</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>103.29018353522579</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="60">
         <v>45572</v>
       </c>
@@ -12778,7 +12778,7 @@
         <v>103.4675358437174</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="60">
         <v>45573</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>103.07087767565569</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="60">
         <v>45574</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>101.85634078980046</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="60">
         <v>45575</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>102.16262600858396</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="60">
         <v>45576</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>101.8800332211306</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="60">
         <v>45579</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>102.67392952414731</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="60">
         <v>45580</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>102.70372728263797</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="60">
         <v>45581</v>
       </c>
@@ -13128,7 +13128,7 @@
         <v>103.25739973097369</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="60">
         <v>45582</v>
       </c>
@@ -13178,7 +13178,7 @@
         <v>102.50790224485587</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="60">
         <v>45583</v>
       </c>
@@ -13228,7 +13228,7 @@
         <v>102.277365404771</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="60">
         <v>45586</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>102.16944453827539</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="60">
         <v>45587</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>101.84796261940946</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="60">
         <v>45588</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>101.28503421295237</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="60">
         <v>45589</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>101.93854717822983</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="60">
         <v>45590</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>101.80246656784759</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="60">
         <v>45593</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>102.83642214034582</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="60">
         <v>45594</v>
       </c>
@@ -13578,7 +13578,7 @@
         <v>102.45815049027966</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="60">
         <v>45595</v>
       </c>
@@ -13628,7 +13628,7 @@
         <v>102.38714373280325</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="60">
         <v>45596</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>101.66140137713919</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="60">
         <v>45597</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>100.41323424886329</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="60">
         <v>45600</v>
       </c>
@@ -13778,7 +13778,7 @@
         <v>102.28953687213976</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="60">
         <v>45601</v>
       </c>
@@ -13828,7 +13828,7 @@
         <v>102.40393142314703</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="60">
         <v>45602</v>
       </c>
@@ -13878,7 +13878,7 @@
         <v>102.15326816438673</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="60">
         <v>45603</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>101.63661171114605</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="60">
         <v>45604</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>100.18520537372241</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A197" s="60">
         <v>45607</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>100.21961151779763</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="60">
         <v>45608</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>100.08215936408666</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="60">
         <v>45609</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>100.11002912452663</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="60">
         <v>45610</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>100.15526654220365</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A201" s="60">
         <v>45614</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>100.13691921116035</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A202" s="60">
         <v>45615</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>100.4731902858053</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="60">
         <v>45617</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>99.473813279972163</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="60">
         <v>45618</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>101.20070389171104</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="60">
         <v>45621</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>101.13062978369817</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="60">
         <v>45622</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>101.82524202449508</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="60">
         <v>45623</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>100.05887447705986</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="60">
         <v>45624</v>
       </c>
@@ -14578,7 +14578,7 @@
         <v>97.662043729660454</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="60">
         <v>45625</v>
       </c>
@@ -14628,7 +14628,7 @@
         <v>98.490785070617591</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A210" s="60">
         <v>45628</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>98.151982518857309</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="60">
         <v>45629</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>98.860216144256228</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="60">
         <v>45630</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>98.819320640888463</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="60">
         <v>45631</v>
       </c>
@@ -14828,7 +14828,7 @@
         <v>100.20697764439234</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A214" s="60">
         <v>45632</v>
       </c>
@@ -14878,7 +14878,7 @@
         <v>98.708797760763474</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="60">
         <v>45635</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>99.699443913635378</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A216" s="60">
         <v>45636</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>100.49729026143886</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="60">
         <v>45637</v>
       </c>
@@ -15028,7 +15028,7 @@
         <v>101.56709405785513</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="60">
         <v>45638</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>98.784036709082869</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A219" s="60">
         <v>45639</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>97.66328987474202</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A220" s="60">
         <v>45642</v>
       </c>
@@ -15178,7 +15178,7 @@
         <v>96.838796399408764</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="60">
         <v>45643</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>97.730691432611479</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222" s="60">
         <v>45644</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>94.652948202921621</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="60">
         <v>45645</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>94.979767384683953</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="60">
         <v>45646</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>95.696104871808103</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A225" s="60">
         <v>45649</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>94.649813246741658</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="60">
         <v>45650</v>
       </c>
@@ -15478,7 +15478,7 @@
         <v>94.649813246741658</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="60">
         <v>45652</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>94.893556089734673</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="60">
         <v>45653</v>
       </c>
@@ -15578,7 +15578,7 @@
         <v>94.259511202334849</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A229" s="60">
         <v>45656</v>
       </c>
@@ -15628,7 +15628,7 @@
         <v>94.270483548964748</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="60">
         <v>45657</v>
       </c>
@@ -15678,7 +15678,7 @@
         <v>94.270483548964748</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A231" s="60">
         <v>45659</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>94.146652779855756</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A232" s="60">
         <v>45660</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>92.898940220225953</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="60">
         <v>45663</v>
       </c>
@@ -15828,7 +15828,7 @@
         <v>94.065927658221412</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A234" s="60">
         <v>45664</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>94.960173908559099</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A235" s="60">
         <v>45665</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>93.754783257358952</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A236" s="60">
         <v>45666</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>93.877046548377947</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="60">
         <v>45667</v>
       </c>
@@ -16028,7 +16028,7 @@
         <v>93.152087931758871</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A238" s="60">
         <v>45670</v>
       </c>
@@ -16078,7 +16078,7 @@
         <v>93.270432527552913</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A239" s="60">
         <v>45671</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>93.499284328691047</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="60">
         <v>45672</v>
       </c>
@@ -16178,7 +16178,7 @@
         <v>96.125593868464591</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="60">
         <v>45673</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>95.015819380753669</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A242" s="60">
         <v>45674</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>95.890472154966517</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="60">
         <v>45677</v>
       </c>
@@ -16328,7 +16328,7 @@
         <v>96.286260372688275</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A244" s="60">
         <v>45678</v>
       </c>
@@ -16378,7 +16378,7 @@
         <v>96.664806331420181</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A245" s="60">
         <v>45679</v>
       </c>
@@ -16428,7 +16428,7 @@
         <v>96.377957840952519</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A246" s="60">
         <v>45680</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>95.994709447950655</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A247" s="60">
         <v>45681</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>95.966494842330889</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A248" s="60">
         <v>45684</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>97.859224635990415</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="60">
         <v>45685</v>
       </c>
@@ -16628,7 +16628,7 @@
         <v>97.227530965725578</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A250" s="60">
         <v>45686</v>
       </c>
@@ -16678,7 +16678,7 @@
         <v>96.738477801649566</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A251" s="60">
         <v>45687</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>99.465889678227285</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A252" s="60">
         <v>45688</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>98.856924440267264</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A253" s="60">
         <v>45691</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>98.727607497843323</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A254" s="60">
         <v>45692</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>98.0825902638136</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A255" s="60">
         <v>45693</v>
       </c>
@@ -16928,7 +16928,7 @@
         <v>98.385897274226124</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="60">
         <v>45694</v>
       </c>
@@ -16978,7 +16978,7 @@
         <v>98.927460954316714</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="60">
         <v>45695</v>
       </c>
@@ -17028,7 +17028,7 @@
         <v>97.668776048056998</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A258" s="60">
         <v>45698</v>
       </c>
@@ -17078,7 +17078,7 @@
         <v>98.415679357935886</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" s="60">
         <v>45699</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>99.160231450679802</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A260" s="60">
         <v>45700</v>
       </c>
@@ -17178,7 +17178,7 @@
         <v>97.481462416303515</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A261" s="60">
         <v>45701</v>
       </c>
@@ -17228,7 +17228,7 @@
         <v>97.849819767450512</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="60">
         <v>45702</v>
       </c>
@@ -17278,7 +17278,7 @@
         <v>100.49023661003393</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A263" s="60">
         <v>45705</v>
       </c>
@@ -17328,7 +17328,7 @@
         <v>100.7512217120168</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="60">
         <v>45706</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>100.73554693111693</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A265" s="60">
         <v>45707</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>99.777034079089759</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A266" s="60">
         <v>45708</v>
       </c>
@@ -17478,7 +17478,7 @@
         <v>100.00588588022788</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A267" s="60">
         <v>45709</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>99.63517731194591</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A268" s="60">
         <v>45712</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>98.281659981241958</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="60">
         <v>45713</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>98.735444888293259</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A270" s="60">
         <v>45714</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>97.786336904806006</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A271" s="60">
         <v>45715</v>
       </c>
@@ -17728,7 +17728,7 @@
         <v>97.8098490761558</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="60">
         <v>45716</v>
       </c>
@@ -17778,7 +17778,7 @@
         <v>96.242370986168609</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A273" s="60">
         <v>45721</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>96.436738269327023</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A274" s="60">
         <v>45722</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v>96.680481112320038</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A275" s="60">
         <v>45723</v>
       </c>
@@ -17928,7 +17928,7 @@
         <v>97.994811490774296</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A276" s="60">
         <v>45726</v>
       </c>
@@ -17978,7 +17978,7 @@
         <v>97.590402143557597</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A277" s="60">
         <v>45727</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>96.797258230024084</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A278" s="60">
         <v>45728</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>97.077053069086801</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A279" s="60">
         <v>45729</v>
       </c>
@@ -18128,7 +18128,7 @@
         <v>98.466622395860455</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A280" s="60">
         <v>45730</v>
       </c>
@@ -18178,7 +18178,7 @@
         <v>101.0686360252392</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A281" s="60">
         <v>45733</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>102.53971421269218</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A282" s="60">
         <v>45734</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>103.04209094053307</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A283" s="60">
         <v>45735</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>103.85169337401146</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A284" s="60">
         <v>45736</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>103.41828568213</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A285" s="60">
         <v>45737</v>
       </c>
@@ -18428,7 +18428,7 @@
         <v>103.7239439096775</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="60">
         <v>45740</v>
       </c>
@@ -18478,7 +18478,7 @@
         <v>102.92139512760406</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A287" s="60">
         <v>45741</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>103.50684819421429</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="60">
         <v>45742</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>103.86109824255139</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A289" s="60">
         <v>45743</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>104.35407010185236</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A290" s="60">
         <v>45744</v>
       </c>
@@ -18678,7 +18678,7 @@
         <v>103.37674751274535</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A291" s="60">
         <v>45747</v>
       </c>
@@ -18728,7 +18728,7 @@
         <v>102.08984800086587</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A292" s="60">
         <v>45748</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>102.78502453377519</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A293" s="60">
         <v>45749</v>
       </c>
@@ -18828,7 +18828,7 @@
         <v>102.8187253127099</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A294" s="60">
         <v>45750</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>102.78032209950521</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A295" s="60">
         <v>45751</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>99.735495909705094</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A296" s="60">
         <v>45754</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>98.428219182655781</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A297" s="60">
         <v>45755</v>
       </c>
@@ -19028,7 +19028,7 @@
         <v>97.130347324146385</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A298" s="60">
         <v>45756</v>
       </c>
@@ -19078,7 +19078,7 @@
         <v>99.849921810274168</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A299" s="60">
         <v>45757</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>99.02934703016588</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A300" s="60">
         <v>45758</v>
       </c>
@@ -19178,7 +19178,7 @@
         <v>100.06936874287238</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A301" s="60">
         <v>45761</v>
       </c>
@@ -19226,6 +19226,156 @@
       <c r="M301" s="82">
         <f t="shared" ref="M301" si="195">M300*(1+F301)</f>
         <v>101.45815433060103</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="60">
+        <v>45762</v>
+      </c>
+      <c r="B302" s="26">
+        <v>129245</v>
+      </c>
+      <c r="C302" s="26">
+        <v>117992.73</v>
+      </c>
+      <c r="D302" s="68">
+        <v>1.739776</v>
+      </c>
+      <c r="E302" s="79">
+        <f t="shared" ref="E302" si="196">D302/D301-1</f>
+        <v>-5.360880380389843E-3</v>
+      </c>
+      <c r="F302" s="79">
+        <f t="shared" ref="F302" si="197">B302/B301-1</f>
+        <v>-1.6144730946899832E-3</v>
+      </c>
+      <c r="G302" s="79">
+        <f t="shared" ref="G302" si="198">D302/$D$2-1</f>
+        <v>-2.5928922668797649E-2</v>
+      </c>
+      <c r="H302" s="79">
+        <f t="shared" ref="H302" si="199">B302/$B$2-1</f>
+        <v>1.2943528701973683E-2</v>
+      </c>
+      <c r="I302" s="80" t="str">
+        <f t="shared" ref="I302" si="200">TEXT(A302,"mmaaaa")</f>
+        <v>042025</v>
+      </c>
+      <c r="J302" s="79">
+        <f t="shared" ref="J302" si="201">IF(I302=I301,(1+E302)*(1+J301)-1,E302)</f>
+        <v>-2.1509319355238143E-2</v>
+      </c>
+      <c r="K302" s="79">
+        <f t="shared" ref="K302" si="202">IF(I302=I301,(1+F302)*(1+K301)-1,F302)</f>
+        <v>-7.7921080915093199E-3</v>
+      </c>
+      <c r="L302" s="81">
+        <f t="shared" ref="L302" si="203">L301*(1+E302)</f>
+        <v>97.407107733120228</v>
+      </c>
+      <c r="M302" s="82">
+        <f t="shared" ref="M302" si="204">M301*(1+F302)</f>
+        <v>101.29435287019737</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="60">
+        <v>45763</v>
+      </c>
+      <c r="B303" s="26">
+        <v>128317</v>
+      </c>
+      <c r="C303" s="26">
+        <v>116822.12</v>
+      </c>
+      <c r="D303" s="68">
+        <v>1.722515</v>
+      </c>
+      <c r="E303" s="79">
+        <f t="shared" ref="E303:E304" si="205">D303/D302-1</f>
+        <v>-9.9213921792230542E-3</v>
+      </c>
+      <c r="F303" s="79">
+        <f t="shared" ref="F303:F304" si="206">B303/B302-1</f>
+        <v>-7.1801617083833147E-3</v>
+      </c>
+      <c r="G303" s="79">
+        <f t="shared" ref="G303:G304" si="207">D303/$D$2-1</f>
+        <v>-3.5593063837438765E-2</v>
+      </c>
+      <c r="H303" s="79">
+        <f t="shared" ref="H303:H304" si="208">B303/$B$2-1</f>
+        <v>5.6704303644330434E-3</v>
+      </c>
+      <c r="I303" s="80" t="str">
+        <f t="shared" ref="I303:I304" si="209">TEXT(A303,"mmaaaa")</f>
+        <v>042025</v>
+      </c>
+      <c r="J303" s="79">
+        <f t="shared" ref="J303:J304" si="210">IF(I303=I302,(1+E303)*(1+J302)-1,E303)</f>
+        <v>-3.1217309141629679E-2</v>
+      </c>
+      <c r="K303" s="79">
+        <f t="shared" ref="K303:K304" si="211">IF(I303=I302,(1+F303)*(1+K302)-1,F303)</f>
+        <v>-1.4916321203746419E-2</v>
+      </c>
+      <c r="L303" s="81">
+        <f t="shared" ref="L303:L304" si="212">L302*(1+E303)</f>
+        <v>96.440693616256112</v>
+      </c>
+      <c r="M303" s="82">
+        <f t="shared" ref="M303:M304" si="213">M302*(1+F303)</f>
+        <v>100.56704303644331</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="60">
+        <v>45764</v>
+      </c>
+      <c r="B304" s="26">
+        <v>129650</v>
+      </c>
+      <c r="C304" s="26">
+        <v>117875.9</v>
+      </c>
+      <c r="D304" s="68">
+        <v>1.7380530000000001</v>
+      </c>
+      <c r="E304" s="79">
+        <f t="shared" si="205"/>
+        <v>9.0205310258546501E-3</v>
+      </c>
+      <c r="F304" s="79">
+        <f t="shared" si="206"/>
+        <v>1.038833513875792E-2</v>
+      </c>
+      <c r="G304" s="79">
+        <f t="shared" si="207"/>
+        <v>-2.6893601148235025E-2</v>
+      </c>
+      <c r="H304" s="79">
+        <f t="shared" si="208"/>
+        <v>1.6117671834197767E-2</v>
+      </c>
+      <c r="I304" s="80" t="str">
+        <f t="shared" si="209"/>
+        <v>042025</v>
+      </c>
+      <c r="J304" s="79">
+        <f t="shared" si="210"/>
+        <v>-2.247837482143078E-2</v>
+      </c>
+      <c r="K304" s="79">
+        <f t="shared" si="211"/>
+        <v>-4.6829418086903329E-3</v>
+      </c>
+      <c r="L304" s="81">
+        <f t="shared" si="212"/>
+        <v>97.310639885176499</v>
+      </c>
+      <c r="M304" s="82">
+        <f t="shared" si="213"/>
+        <v>101.61176718341977</v>
       </c>
     </row>
   </sheetData>
@@ -19242,24 +19392,24 @@
       <selection activeCell="B3" sqref="B3:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -19300,7 +19450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="19">
         <v>45657</v>
       </c>
@@ -19342,7 +19492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="19">
         <v>45659</v>
       </c>
@@ -19391,7 +19541,7 @@
         <v>99.868643116649906</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>45660</v>
       </c>
@@ -19440,7 +19590,7 @@
         <v>98.545097810995742</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="19">
         <v>45663</v>
       </c>
@@ -19489,7 +19639,7 @@
         <v>99.78301173066852</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>45664</v>
       </c>
@@ -19538,7 +19688,7 @@
         <v>100.7316079578993</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="19">
         <v>45665</v>
       </c>
@@ -19587,7 +19737,7 @@
         <v>99.452956776934414</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>45666</v>
       </c>
@@ -19636,7 +19786,7 @@
         <v>99.582650914925651</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>45667</v>
       </c>
@@ -19685,7 +19835,7 @@
         <v>98.813631186451971</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>45670</v>
       </c>
@@ -19734,7 +19884,7 @@
         <v>98.939168461046066</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>45671</v>
       </c>
@@ -19783,7 +19933,7 @@
         <v>99.181929283439928</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>45672</v>
       </c>
@@ -19832,7 +19982,7 @@
         <v>101.96785913221323</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>45673</v>
       </c>
@@ -19881,7 +20031,7 @@
         <v>100.79063541813893</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>45674</v>
       </c>
@@ -19930,7 +20080,7 @@
         <v>101.71844732838393</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>45677</v>
       </c>
@@ -19979,7 +20129,7 @@
         <v>102.13829053149658</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>45678</v>
       </c>
@@ -20028,7 +20178,7 @@
         <v>102.53984353566175</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>45679</v>
       </c>
@@ -20077,7 +20227,7 @@
         <v>102.23556113498999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>45680</v>
       </c>
@@ -20126,7 +20276,7 @@
         <v>101.82901989474823</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>45681</v>
       </c>
@@ -20175,7 +20325,7 @@
         <v>101.79909047828872</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>45684</v>
       </c>
@@ -20224,7 +20374,7 @@
         <v>103.80685549911459</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>45685</v>
       </c>
@@ -20273,7 +20423,7 @@
         <v>103.1367691194932</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>45686</v>
       </c>
@@ -20322,7 +20472,7 @@
         <v>102.61799256752825</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>45687</v>
       </c>
@@ -20371,7 +20521,7 @@
         <v>105.51116949194815</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>45688</v>
       </c>
@@ -20420,7 +20570,7 @@
         <v>104.86519292003025</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>45691</v>
       </c>
@@ -20469,7 +20619,7 @@
         <v>104.72801642792415</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>45692</v>
       </c>
@@ -20518,7 +20668,7 @@
         <v>104.04379671275242</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>45693</v>
       </c>
@@ -20567,7 +20717,7 @@
         <v>104.36553793969222</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>45694</v>
       </c>
@@ -20616,7 +20766,7 @@
         <v>104.94001646117906</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>45695</v>
       </c>
@@ -20665,7 +20815,7 @@
         <v>103.60483193801286</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>45698</v>
       </c>
@@ -20714,7 +20864,7 @@
         <v>104.39713010151061</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>45699</v>
       </c>
@@ -20763,7 +20913,7 @@
         <v>105.18693414697007</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>45700</v>
       </c>
@@ -20812,7 +20962,7 @@
         <v>103.40613386762885</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>45701</v>
       </c>
@@ -20861,7 +21011,7 @@
         <v>103.79687902696143</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>45702</v>
       </c>
@@ -20910,7 +21060,7 @@
         <v>106.5977735839645</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>45705</v>
       </c>
@@ -20959,7 +21109,7 @@
         <v>106.87462068621502</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>45706</v>
       </c>
@@ -21008,7 +21158,7 @@
         <v>106.8579932326264</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>45707</v>
       </c>
@@ -21057,7 +21207,7 @@
         <v>105.84122444568227</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>45708</v>
       </c>
@@ -21106,7 +21256,7 @@
         <v>106.08398526807612</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>45709</v>
       </c>
@@ -21155,7 +21305,7 @@
         <v>105.69074599070525</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="19">
         <v>45712</v>
       </c>
@@ -21205,7 +21355,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="19">
         <v>45713</v>
       </c>
@@ -21254,7 +21404,7 @@
         <v>104.73633015471844</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="25">
         <v>45714</v>
       </c>
@@ -21313,19 +21463,19 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
@@ -21342,7 +21492,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="37">
         <v>45688</v>
       </c>
@@ -21360,7 +21510,7 @@
         <v>066.368.579-60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="37">
         <v>45688</v>
       </c>
@@ -21378,7 +21528,7 @@
         <v>360.228.188-42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="37">
         <v>45688</v>
       </c>
@@ -21396,7 +21546,7 @@
         <v>892.996.550-49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <v>45688</v>
       </c>
@@ -21414,7 +21564,7 @@
         <v>252.436.798-36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="37">
         <v>45688</v>
       </c>
@@ -21432,7 +21582,7 @@
         <v>098.578.909-38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="37">
         <v>45688</v>
       </c>
@@ -21450,7 +21600,7 @@
         <v>044.624.719-70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="37">
         <v>45688</v>
       </c>
@@ -21468,7 +21618,7 @@
         <v>872.566.739-49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="37">
         <v>45688</v>
       </c>
@@ -21486,7 +21636,7 @@
         <v>145.548.979-40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="52">
         <v>45688</v>
       </c>
@@ -21504,7 +21654,7 @@
         <v>091.360.339-28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="37">
         <v>45714</v>
       </c>
@@ -21524,7 +21674,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="37">
         <v>45714</v>
       </c>
@@ -21542,7 +21692,7 @@
         <v>360.228.188-42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="37">
         <v>45714</v>
       </c>
@@ -21560,7 +21710,7 @@
         <v>892.996.550-49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="37">
         <v>45714</v>
       </c>
@@ -21578,7 +21728,7 @@
         <v>252.436.798-36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="37">
         <v>45714</v>
       </c>
@@ -21596,7 +21746,7 @@
         <v>081.265.669-57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="37">
         <v>45714</v>
       </c>
@@ -21614,7 +21764,7 @@
         <v>122.555.979-00</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="37">
         <v>45714</v>
       </c>
@@ -21632,7 +21782,7 @@
         <v>098.578.909-38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="37">
         <v>45714</v>
       </c>
@@ -21650,7 +21800,7 @@
         <v>044.624.719-70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="37">
         <v>45714</v>
       </c>
@@ -21668,7 +21818,7 @@
         <v>872.566.739-49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="37">
         <v>45714</v>
       </c>
@@ -21686,7 +21836,7 @@
         <v>145.548.979-40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="37">
         <v>45714</v>
       </c>
@@ -21704,7 +21854,7 @@
         <v>091.360.339-28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="52">
         <v>45714</v>
       </c>
@@ -21729,27 +21879,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="3"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.88671875" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="85" t="s">
         <v>16</v>
       </c>
@@ -21774,8 +21924,29 @@
       <c r="H1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>45688</v>
       </c>
@@ -21799,10 +21970,29 @@
       <c r="G2" s="11">
         <v>116861.75999999999</v>
       </c>
-      <c r="J2" s="47"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="47">
+        <v>45761</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3">
+        <v>14287.63</v>
+      </c>
+      <c r="M2">
+        <v>0.12043989010418386</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2">
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>45688</v>
       </c>
@@ -21826,10 +22016,29 @@
       <c r="G3" s="11">
         <v>116861.75999999999</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="47">
+        <v>45761</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3">
+        <v>7171.62</v>
+      </c>
+      <c r="M3">
+        <v>6.0454331800933195E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3">
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>45688</v>
       </c>
@@ -21853,10 +22062,29 @@
       <c r="G4" s="11">
         <v>116861.75999999999</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="47">
+        <v>45761</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="3">
+        <v>14714.64</v>
+      </c>
+      <c r="M4">
+        <v>0.12403944002767626</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4">
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>45688</v>
       </c>
@@ -21880,10 +22108,29 @@
       <c r="G5" s="11">
         <v>116861.75999999999</v>
       </c>
-      <c r="J5" s="47"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" s="47">
+        <v>45761</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="3">
+        <v>11445.12</v>
+      </c>
+      <c r="M5">
+        <v>9.6478491886281839E-2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5">
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>45688</v>
       </c>
@@ -21907,10 +22154,29 @@
       <c r="G6" s="11">
         <v>116861.75999999999</v>
       </c>
-      <c r="J6" s="47"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="47">
+        <v>45761</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="3">
+        <v>15627.08</v>
+      </c>
+      <c r="M6">
+        <v>0.13173100072225344</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6">
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>45688</v>
       </c>
@@ -21934,10 +22200,29 @@
       <c r="G7" s="11">
         <v>116861.75999999999</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J7" s="47">
+        <v>45761</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="3">
+        <v>6734.55</v>
+      </c>
+      <c r="M7">
+        <v>5.6769979478831098E-2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7">
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>45688</v>
       </c>
@@ -21961,10 +22246,29 @@
       <c r="G8" s="11">
         <v>116861.75999999999</v>
       </c>
-      <c r="J8" s="47"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J8" s="47">
+        <v>45761</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="3">
+        <v>14272.04</v>
+      </c>
+      <c r="M8">
+        <v>0.12030847167532449</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8">
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>45688</v>
       </c>
@@ -21988,10 +22292,29 @@
       <c r="G9" s="11">
         <v>116861.75999999999</v>
       </c>
-      <c r="J9" s="47"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J9" s="47">
+        <v>45761</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6237.81</v>
+      </c>
+      <c r="M9">
+        <v>5.2582629231774571E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9">
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>45688</v>
       </c>
@@ -22015,10 +22338,29 @@
       <c r="G10" s="11">
         <v>116861.75999999999</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J10" s="47">
+        <v>45761</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="3">
+        <v>13861.8</v>
+      </c>
+      <c r="M10">
+        <v>0.11685028718172125</v>
+      </c>
+      <c r="N10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10">
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>45688</v>
       </c>
@@ -22042,10 +22384,29 @@
       <c r="G11" s="11">
         <v>116861.75999999999</v>
       </c>
-      <c r="J11" s="47"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J11" s="47">
+        <v>45761</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="3">
+        <v>13668.29</v>
+      </c>
+      <c r="M11">
+        <v>0.11521906330945829</v>
+      </c>
+      <c r="N11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11">
+        <v>118628.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>45688</v>
       </c>
@@ -22072,7 +22433,7 @@
       <c r="J12" s="47"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>45716</v>
       </c>
@@ -22101,7 +22462,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>45716</v>
       </c>
@@ -22129,7 +22490,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>45716</v>
       </c>
@@ -22157,7 +22518,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>45716</v>
       </c>
@@ -22185,7 +22546,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45716</v>
       </c>
@@ -22213,7 +22574,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>45716</v>
       </c>
@@ -22241,7 +22602,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>45716</v>
       </c>
@@ -22269,7 +22630,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>45716</v>
       </c>
@@ -22297,7 +22658,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>45716</v>
       </c>
@@ -22325,7 +22686,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>45716</v>
       </c>
@@ -22353,7 +22714,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>45716</v>
       </c>
@@ -22381,7 +22742,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>45723</v>
       </c>
@@ -22408,7 +22769,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>45723</v>
       </c>
@@ -22434,7 +22795,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>45723</v>
       </c>
@@ -22460,7 +22821,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>45723</v>
       </c>
@@ -22486,7 +22847,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>45723</v>
       </c>
@@ -22512,7 +22873,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>45723</v>
       </c>
@@ -22538,7 +22899,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>45723</v>
       </c>
@@ -22564,7 +22925,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>45723</v>
       </c>
@@ -22590,7 +22951,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>45723</v>
       </c>
@@ -22616,7 +22977,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>45723</v>
       </c>
@@ -22642,7 +23003,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>45723</v>
       </c>
@@ -22668,7 +23029,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>45730</v>
       </c>
@@ -22694,7 +23055,7 @@
         <v>131555.39000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>45730</v>
       </c>
@@ -22722,7 +23083,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>45730</v>
       </c>
@@ -22749,7 +23110,7 @@
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>45730</v>
       </c>
@@ -22776,7 +23137,7 @@
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>45730</v>
       </c>
@@ -22803,7 +23164,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>45730</v>
       </c>
@@ -22830,7 +23191,7 @@
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>45730</v>
       </c>
@@ -22857,7 +23218,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>45730</v>
       </c>
@@ -22888,7 +23249,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>45730</v>
       </c>
@@ -22915,7 +23276,7 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>45730</v>
       </c>
@@ -22942,7 +23303,7 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <v>45730</v>
       </c>
@@ -22968,7 +23329,7 @@
         <v>131555.39000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>45733</v>
       </c>
@@ -22996,7 +23357,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>45733</v>
       </c>
@@ -23024,7 +23385,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>45733</v>
       </c>
@@ -23052,7 +23413,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>45733</v>
       </c>
@@ -23080,7 +23441,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>45733</v>
       </c>
@@ -23108,7 +23469,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>45733</v>
       </c>
@@ -23136,7 +23497,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>45733</v>
       </c>
@@ -23164,7 +23525,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>45733</v>
       </c>
@@ -23192,7 +23553,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>45733</v>
       </c>
@@ -23220,7 +23581,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>45733</v>
       </c>
@@ -23248,7 +23609,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>45733</v>
       </c>
@@ -23276,7 +23637,7 @@
       <c r="I56" s="88"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>45734</v>
       </c>
@@ -23304,7 +23665,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>45734</v>
       </c>
@@ -23331,7 +23692,7 @@
       </c>
       <c r="I58" s="89"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>45734</v>
       </c>
@@ -23357,7 +23718,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>45734</v>
       </c>
@@ -23383,7 +23744,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>45734</v>
       </c>
@@ -23409,7 +23770,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>45734</v>
       </c>
@@ -23435,7 +23796,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>45734</v>
       </c>
@@ -23461,7 +23822,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>45734</v>
       </c>
@@ -23487,7 +23848,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>45734</v>
       </c>
@@ -23513,7 +23874,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>45734</v>
       </c>
@@ -23539,7 +23900,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <v>45734</v>
       </c>
@@ -23565,7 +23926,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>45737</v>
       </c>
@@ -23591,7 +23952,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>45737</v>
       </c>
@@ -23617,7 +23978,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>45737</v>
       </c>
@@ -23643,7 +24004,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>45737</v>
       </c>
@@ -23669,7 +24030,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>45737</v>
       </c>
@@ -23695,7 +24056,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>45737</v>
       </c>
@@ -23721,7 +24082,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>45737</v>
       </c>
@@ -23747,7 +24108,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>45737</v>
       </c>
@@ -23773,7 +24134,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>45737</v>
       </c>
@@ -23799,7 +24160,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>45737</v>
       </c>
@@ -23825,7 +24186,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="12">
         <v>45737</v>
       </c>
@@ -23851,7 +24212,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>45742</v>
       </c>
@@ -23878,7 +24239,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>45742</v>
       </c>
@@ -23906,7 +24267,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>45742</v>
       </c>
@@ -23934,7 +24295,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>45742</v>
       </c>
@@ -23962,7 +24323,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>45742</v>
       </c>
@@ -23990,7 +24351,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>45742</v>
       </c>
@@ -24018,7 +24379,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>45742</v>
       </c>
@@ -24046,7 +24407,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>45742</v>
       </c>
@@ -24074,7 +24435,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>45742</v>
       </c>
@@ -24102,7 +24463,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>45742</v>
       </c>
@@ -24130,7 +24491,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
         <v>45742</v>
       </c>
@@ -24158,7 +24519,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="9">
         <v>45747</v>
       </c>
@@ -24185,7 +24546,7 @@
       </c>
       <c r="I90" s="90"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="9">
         <v>45747</v>
       </c>
@@ -24215,7 +24576,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>45747</v>
       </c>
@@ -24245,7 +24606,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>45747</v>
       </c>
@@ -24275,7 +24636,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="9">
         <v>45747</v>
       </c>
@@ -24305,7 +24666,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>45747</v>
       </c>
@@ -24335,7 +24696,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="9">
         <v>45747</v>
       </c>
@@ -24365,7 +24726,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>45747</v>
       </c>
@@ -24395,7 +24756,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="9">
         <v>45747</v>
       </c>
@@ -24425,7 +24786,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="9">
         <v>45747</v>
       </c>
@@ -24455,7 +24816,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>45747</v>
       </c>
@@ -24485,7 +24846,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="9">
         <v>45755</v>
       </c>
@@ -24512,7 +24873,7 @@
       </c>
       <c r="I101" s="90"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="9">
         <v>45755</v>
       </c>
@@ -24541,7 +24902,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="9">
         <v>45755</v>
       </c>
@@ -24570,7 +24931,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="9">
         <v>45755</v>
       </c>
@@ -24599,7 +24960,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="9">
         <v>45755</v>
       </c>
@@ -24628,7 +24989,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="9">
         <v>45755</v>
       </c>
@@ -24657,7 +25018,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="9">
         <v>45755</v>
       </c>
@@ -24686,7 +25047,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="9">
         <v>45755</v>
       </c>
@@ -24715,7 +25076,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="9">
         <v>45755</v>
       </c>
@@ -24744,7 +25105,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="9">
         <v>45755</v>
       </c>
@@ -24773,7 +25134,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <v>45755</v>
       </c>
@@ -24799,7 +25160,7 @@
         <v>115156.59</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="9">
         <v>45761</v>
       </c>
@@ -24825,7 +25186,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="9">
         <v>45761</v>
       </c>
@@ -24851,7 +25212,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="9">
         <v>45761</v>
       </c>
@@ -24877,7 +25238,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="9">
         <v>45761</v>
       </c>
@@ -24903,7 +25264,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="9">
         <v>45761</v>
       </c>
@@ -24929,7 +25290,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="9">
         <v>45761</v>
       </c>
@@ -24955,7 +25316,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="9">
         <v>45761</v>
       </c>
@@ -24981,7 +25342,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="9">
         <v>45761</v>
       </c>
@@ -24992,7 +25353,7 @@
         <v>6237.81</v>
       </c>
       <c r="D119" s="41">
-        <f t="shared" ref="D119:D121" si="16">C119/G119</f>
+        <f t="shared" ref="D119:D127" si="16">C119/G119</f>
         <v>5.2582629231774571E-2</v>
       </c>
       <c r="E119" s="10" t="str">
@@ -25007,7 +25368,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="9">
         <v>45761</v>
       </c>
@@ -25033,7 +25394,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="12">
         <v>45761</v>
       </c>
@@ -25059,8 +25420,271 @@
         <v>118628.72</v>
       </c>
     </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="9">
+        <v>45764</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="11">
+        <v>13961.87</v>
+      </c>
+      <c r="D122" s="41">
+        <f t="shared" si="16"/>
+        <v>0.1184455007342468</v>
+      </c>
+      <c r="E122" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B122,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G122" s="11">
+        <f>_xlfn.XLOOKUP(A122,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>117875.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="9">
+        <v>45764</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" s="11">
+        <v>7251.72</v>
+      </c>
+      <c r="D123" s="41">
+        <f t="shared" si="16"/>
+        <v>6.1519954460581006E-2</v>
+      </c>
+      <c r="E123" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B123,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G123" s="11">
+        <f>_xlfn.XLOOKUP(A123,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>117875.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="9">
+        <v>45764</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124" s="11">
+        <v>14864.44</v>
+      </c>
+      <c r="D124" s="41">
+        <f t="shared" si="16"/>
+        <v>0.12610245181585042</v>
+      </c>
+      <c r="E124" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B124,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G124" s="11">
+        <f>_xlfn.XLOOKUP(A124,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>117875.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="9">
+        <v>45764</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="11">
+        <v>11315.52</v>
+      </c>
+      <c r="D125" s="41">
+        <f t="shared" si="16"/>
+        <v>9.5995194946549733E-2</v>
+      </c>
+      <c r="E125" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B125,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G125" s="11">
+        <f>_xlfn.XLOOKUP(A125,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>117875.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="9">
+        <v>45764</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="11">
+        <v>15640.8</v>
+      </c>
+      <c r="D126" s="41">
+        <f t="shared" si="16"/>
+        <v>0.13268870057407833</v>
+      </c>
+      <c r="E126" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B126,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G126" s="11">
+        <f>_xlfn.XLOOKUP(A126,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>117875.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="9">
+        <v>45764</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" s="11">
+        <v>6531.25</v>
+      </c>
+      <c r="D127" s="41">
+        <f t="shared" si="16"/>
+        <v>5.5407848423638759E-2</v>
+      </c>
+      <c r="E127" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B127,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G127" s="11">
+        <f>_xlfn.XLOOKUP(A127,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>117875.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="9">
+        <v>45764</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" s="11">
+        <v>14584.32</v>
+      </c>
+      <c r="D128" s="41">
+        <f>C128/G128</f>
+        <v>0.12372605426554538</v>
+      </c>
+      <c r="E128" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B128,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G128" s="11">
+        <f>_xlfn.XLOOKUP(A128,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>117875.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="9">
+        <v>45764</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" s="11">
+        <v>5993.19</v>
+      </c>
+      <c r="D129" s="41">
+        <f t="shared" ref="D129:D131" si="17">C129/G129</f>
+        <v>5.0843217315838095E-2</v>
+      </c>
+      <c r="E129" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B129,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G129" s="11">
+        <f>_xlfn.XLOOKUP(A129,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>117875.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="9">
+        <v>45764</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" s="11">
+        <v>13484.4</v>
+      </c>
+      <c r="D130" s="41">
+        <f t="shared" si="17"/>
+        <v>0.11439488478985102</v>
+      </c>
+      <c r="E130" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B130,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G130" s="11">
+        <f>_xlfn.XLOOKUP(A130,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>117875.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="12">
+        <v>45764</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="14">
+        <v>13668.29</v>
+      </c>
+      <c r="D131" s="42">
+        <f t="shared" si="17"/>
+        <v>0.115954915296511</v>
+      </c>
+      <c r="E131" s="13" t="str">
+        <f>_xlfn.XLOOKUP(B131,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G131" s="14">
+        <f>_xlfn.XLOOKUP(A131,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>117875.9</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G45" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:P11">
+    <sortCondition ref="M2:M11"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -25069,19 +25693,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5410629D-6DE0-46FD-B578-14B10353174E}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="B2" s="47">
         <v>45292</v>
       </c>
@@ -25132,7 +25756,7 @@
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="47" t="str">
         <f>TEXT(B2,"mmaaaa")</f>
         <v>012024</v>
@@ -25184,7 +25808,7 @@
       <c r="N3" s="47"/>
       <c r="O3" s="47"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -25200,7 +25824,7 @@
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="47">
         <v>45658</v>
       </c>
@@ -25251,7 +25875,7 @@
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="str">
         <f>TEXT(B5,"mmaaaa")</f>
         <v>012025</v>
@@ -25303,7 +25927,7 @@
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>64</v>
       </c>
@@ -25360,7 +25984,7 @@
       </c>
       <c r="O7" s="48"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -25378,7 +26002,7 @@
       </c>
       <c r="E8" s="49">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
-        <v>-1.6235475416474743E-2</v>
+        <v>-2.247837482143078E-2</v>
       </c>
       <c r="F8" s="49" t="str">
         <f>_xlfn.XLOOKUP(F6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
@@ -25414,12 +26038,12 @@
       </c>
       <c r="N8" s="49" cm="1">
         <f t="array" ref="N8">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B8:M8,B8:M8&lt;&gt;"-"))))-1</f>
-        <v>3.693144935397541E-2</v>
+        <v>3.0351156442018024E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -25437,7 +26061,7 @@
       </c>
       <c r="E9" s="49">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
-        <v>-6.1876247504990545E-3</v>
+        <v>-4.6829418086903329E-3</v>
       </c>
       <c r="F9" s="49" t="str">
         <f>_xlfn.XLOOKUP(F6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
@@ -25473,11 +26097,11 @@
       </c>
       <c r="N9" s="49" cm="1">
         <f t="array" ref="N9">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B9:M9,B9:M9&lt;&gt;"-"))))-1</f>
-        <v>7.6245188430618338E-2</v>
+        <v>7.7874678882303039E-2</v>
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -25495,7 +26119,7 @@
       </c>
       <c r="E10" s="49">
         <f t="shared" si="14"/>
-        <v>0.98988958991031573</v>
+        <v>0.98212083992102139</v>
       </c>
       <c r="F10" s="49" t="str">
         <f t="shared" si="14"/>
@@ -25531,11 +26155,12 @@
       </c>
       <c r="N10" s="49">
         <f t="shared" si="14"/>
-        <v>0.96347139155718753</v>
+        <v>0.95590997416363443</v>
       </c>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P10" s="49"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -25593,7 +26218,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -25651,7 +26276,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -25709,12 +26334,12 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D15" s="1"/>
     </row>
   </sheetData>
@@ -25730,31 +26355,31 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.14249999999999999</v>
       </c>
     </row>
-    <row r="24" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:15" x14ac:dyDescent="0.3">
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -25773,9 +26398,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -25789,7 +26414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -25803,7 +26428,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -25817,7 +26442,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -25831,7 +26456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -25845,7 +26470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -25859,7 +26484,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -25873,7 +26498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -25887,7 +26512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -25901,7 +26526,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -25915,7 +26540,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -25929,7 +26554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>

--- a/Relatório_Gerencial_Denver.xlsx
+++ b/Relatório_Gerencial_Denver.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Denver Asset\Clube Kairos\_DashBoard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobassi/Library/CloudStorage/GoogleDrive-joao.bassi@denvercontabil.com.br/Meu Drive/Denver Asset/Clube Kairos/_DashBoard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8855EB4-7E7B-4B85-80AF-4BF66BAD3EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF36E00-CD9C-1546-8837-9D87A16F2EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="3" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico_Cota" sheetId="7" r:id="rId1"/>
@@ -2193,7 +2193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="73">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -2419,11 +2419,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00000000"/>
-    <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="167" formatCode="0.00000%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -2690,12 +2690,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2712,7 +2712,7 @@
     <xf numFmtId="4" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2720,13 +2720,13 @@
     <xf numFmtId="4" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2738,7 +2738,7 @@
     <xf numFmtId="4" fontId="5" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2747,19 +2747,19 @@
     <xf numFmtId="10" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2832,16 +2832,16 @@
     <xf numFmtId="4" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2862,10 +2862,10 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2874,10 +2874,10 @@
     <xf numFmtId="49" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2887,8 +2887,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -4162,37 +4162,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7BB3D-AA6F-4398-826D-91557AA445E2}">
-  <dimension ref="A1:S304"/>
+  <dimension ref="A1:S311"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A304" sqref="A304"/>
+    <sheetView showGridLines="0" zoomScale="174" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G315" sqref="G315"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="64" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="70" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.6640625" style="49" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="83" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="49" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="64" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" style="64" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="57">
         <v>45327</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="57">
         <v>45328</v>
       </c>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="57">
         <v>45329</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>101.84681052301336</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="57">
         <v>45330</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>100.48860643282036</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="57">
         <v>45331</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>100.33873985263669</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="57">
         <v>45336</v>
       </c>
@@ -4526,7 +4526,7 @@
         <v>99.54919330131969</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="57">
         <v>45337</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>100.16508679243748</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="57">
         <v>45338</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>100.88749825716032</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="57">
         <v>45341</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>101.13034763764202</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="57">
         <v>45342</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>101.82032798068303</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="57">
         <v>45343</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>101.91082632820843</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="57">
         <v>45344</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>102.07460427644075</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="57">
         <v>45345</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>101.43051185448411</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="57">
         <v>45348</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>101.57967306952729</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="57">
         <v>45349</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>103.21010107960835</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="57">
         <v>45350</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>102.00789240893087</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="57">
         <v>45351</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>101.1180272598547</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="57">
         <v>45352</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>101.24369981571942</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="57">
         <v>45355</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>100.58549225356245</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="57">
         <v>45356</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>100.39549039688467</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="57">
         <v>45357</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>101.01630576920499</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="57">
         <v>45358</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>100.58488093710737</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="57">
         <v>45359</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>99.590339601181839</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="57">
         <v>45362</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>98.847958465592555</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="57">
         <v>45363</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>100.05827099799527</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="57">
         <v>45364</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>100.32333938040254</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="57">
         <v>45365</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>100.07561514306097</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="57">
         <v>45366</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>99.332505130159831</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="57">
         <v>45369</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>99.498947791145113</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="57">
         <v>45370</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>99.949339108131596</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="57">
         <v>45371</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>101.20017094916048</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="57">
         <v>45372</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>100.44287525954498</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="57">
         <v>45373</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>99.556098042306061</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="57">
         <v>45376</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>99.481149077433315</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="57">
         <v>45377</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>99.427502139803508</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="57">
         <v>45378</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>100.07612457344021</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="57">
         <v>45379</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>100.40175247185415</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="57">
         <v>45383</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>99.527374006307042</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="57">
         <v>45384</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="57">
         <v>45385</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>99.784393388722251</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57">
         <v>45386</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>99.869930668092849</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57">
         <v>45387</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>99.374513542971499</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57">
         <v>45390</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>100.99038751898706</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="60">
         <v>45391</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>101.80015453766489</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="60">
         <v>45392</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>100.36071589545831</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="60">
         <v>45393</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>99.845493684669975</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="60">
         <v>45394</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>98.708868297277547</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60">
         <v>45397</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>98.229063253932466</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="60">
         <v>45398</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>97.488218246871369</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="60">
         <v>45399</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>97.317778516756604</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="60">
         <v>45400</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>97.337395505052797</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="60">
         <v>45401</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>98.064799387492258</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="60">
         <v>45404</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>98.416588495228083</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="60">
         <v>45405</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>98.083428864591752</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="60">
         <v>45406</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>97.764149252442252</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="60">
         <v>45407</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>97.689607831872905</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="60">
         <v>45408</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>99.163578016401914</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="60">
         <v>45411</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>99.810570272825018</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="60">
         <v>45412</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>98.691704412192166</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="60">
         <v>45414</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>99.630670812437188</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="60">
         <v>45415</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>100.7172622991972</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="60">
         <v>45418</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>100.68357719504338</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="60">
         <v>45419</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>101.26729819836414</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="60">
         <v>45420</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>101.47922907352087</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="60">
         <v>45421</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>100.4662071709144</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="60">
         <v>45422</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>100.00476513339353</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="60">
         <v>45425</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>100.43991272595487</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="60">
         <v>45426</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>100.72260739948406</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="60">
         <v>45427</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>100.34022111943167</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="60">
         <v>45428</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>100.5408818271214</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="60">
         <v>45429</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>100.4367150706513</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="60">
         <v>45432</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>100.12338403785331</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="60">
         <v>45433</v>
       </c>
@@ -7878,7 +7878,7 @@
         <v>99.857406518153837</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="60">
         <v>45434</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>98.476834515616716</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="60">
         <v>45435</v>
       </c>
@@ -7978,7 +7978,7 @@
         <v>97.755300838624251</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="60">
         <v>45436</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>97.423128719184618</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="60">
         <v>45439</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>97.57212534902834</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="60">
         <v>45440</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>97.010858469346616</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="60">
         <v>45441</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>96.170486440961781</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="60">
         <v>45443</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>95.693040452142128</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="60">
         <v>45446</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>95.640913968259611</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="60">
         <v>45447</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>95.461030182652678</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="60">
         <v>45448</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>95.151664869422362</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="60">
         <v>45449</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>96.320588142858952</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="60">
         <v>45450</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>94.649962157160147</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="60">
         <v>45453</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>94.643943041294591</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="60">
         <v>45454</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>95.330145762138741</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="60">
         <v>45455</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>93.998541775132836</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="60">
         <v>45456</v>
       </c>
@@ -8643,7 +8643,7 @@
       </c>
       <c r="E90" s="79">
         <f t="shared" si="18"/>
-        <v>-1.6432397313081992E-4</v>
+        <v>-1.643239731307089E-4</v>
       </c>
       <c r="F90" s="79">
         <f t="shared" si="10"/>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="J90" s="79">
         <f t="shared" si="14"/>
-        <v>-3.8705333485031801E-3</v>
+        <v>-3.8705333485030691E-3</v>
       </c>
       <c r="K90" s="79">
         <f t="shared" si="15"/>
@@ -8671,14 +8671,14 @@
       </c>
       <c r="L90" s="81">
         <f t="shared" si="16"/>
-        <v>94.431794073763413</v>
+        <v>94.431794073763427</v>
       </c>
       <c r="M90" s="82">
         <f t="shared" si="17"/>
         <v>93.709741774443145</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="60">
         <v>45457</v>
       </c>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="J91" s="79">
         <f t="shared" si="14"/>
-        <v>-1.7281189545985676E-3</v>
+        <v>-1.7281189545984565E-3</v>
       </c>
       <c r="K91" s="79">
         <f t="shared" si="15"/>
@@ -8721,14 +8721,14 @@
       </c>
       <c r="L91" s="81">
         <f t="shared" si="16"/>
-        <v>94.634892206725922</v>
+        <v>94.634892206725937</v>
       </c>
       <c r="M91" s="82">
         <f t="shared" si="17"/>
         <v>93.784079422860799</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="60">
         <v>45460</v>
       </c>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="J92" s="79">
         <f t="shared" si="14"/>
-        <v>-5.3877129190815776E-3</v>
+        <v>-5.3877129190814665E-3</v>
       </c>
       <c r="K92" s="79">
         <f t="shared" si="15"/>
@@ -8771,14 +8771,14 @@
       </c>
       <c r="L92" s="81">
         <f t="shared" si="16"/>
-        <v>94.28796739904071</v>
+        <v>94.287967399040724</v>
       </c>
       <c r="M92" s="82">
         <f t="shared" si="17"/>
         <v>93.37299261898076</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="60">
         <v>45461</v>
       </c>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="J93" s="79">
         <f t="shared" si="14"/>
-        <v>-6.7948279146627932E-3</v>
+        <v>-6.7948279146626822E-3</v>
       </c>
       <c r="K93" s="79">
         <f t="shared" si="15"/>
@@ -8821,14 +8821,14 @@
       </c>
       <c r="L93" s="81">
         <f t="shared" si="16"/>
-        <v>94.154574704667866</v>
+        <v>94.15457470466788</v>
       </c>
       <c r="M93" s="82">
         <f t="shared" si="17"/>
         <v>93.759046797763702</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="60">
         <v>45462</v>
       </c>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="J94" s="79">
         <f t="shared" si="14"/>
-        <v>-3.5459326237541333E-3</v>
+        <v>-3.5459326237540223E-3</v>
       </c>
       <c r="K94" s="79">
         <f t="shared" si="15"/>
@@ -8871,14 +8871,14 @@
       </c>
       <c r="L94" s="81">
         <f t="shared" si="16"/>
-        <v>94.462565805573263</v>
+        <v>94.462565805573277</v>
       </c>
       <c r="M94" s="82">
         <f t="shared" si="17"/>
         <v>94.253507761250162</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="60">
         <v>45463</v>
       </c>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="J95" s="79">
         <f t="shared" si="14"/>
-        <v>-6.6978569843730851E-3</v>
+        <v>-6.6978569843729741E-3</v>
       </c>
       <c r="K95" s="79">
         <f t="shared" si="15"/>
@@ -8921,14 +8921,14 @@
       </c>
       <c r="L95" s="81">
         <f t="shared" si="16"/>
-        <v>94.163767424316077</v>
+        <v>94.163767424316092</v>
       </c>
       <c r="M95" s="82">
         <f t="shared" si="17"/>
         <v>94.398162476784634</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="60">
         <v>45464</v>
       </c>
@@ -8963,7 +8963,7 @@
       </c>
       <c r="J96" s="79">
         <f t="shared" si="14"/>
-        <v>-9.8393099728355526E-4</v>
+        <v>-9.8393099728344424E-4</v>
       </c>
       <c r="K96" s="79">
         <f t="shared" si="15"/>
@@ -8971,14 +8971,14 @@
       </c>
       <c r="L96" s="81">
         <f t="shared" si="16"/>
-        <v>94.705440269292097</v>
+        <v>94.705440269292112</v>
       </c>
       <c r="M96" s="82">
         <f t="shared" si="17"/>
         <v>95.099781344643816</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="60">
         <v>45467</v>
       </c>
@@ -9021,14 +9021,14 @@
       </c>
       <c r="L97" s="81">
         <f t="shared" si="16"/>
-        <v>95.671256990951591</v>
+        <v>95.671256990951605</v>
       </c>
       <c r="M97" s="82">
         <f t="shared" si="17"/>
         <v>96.115373911317874</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="60">
         <v>45468</v>
       </c>
@@ -9071,14 +9071,14 @@
       </c>
       <c r="L98" s="81">
         <f t="shared" si="16"/>
-        <v>95.29208403987775</v>
+        <v>95.292084039877764</v>
       </c>
       <c r="M98" s="82">
         <f t="shared" si="17"/>
         <v>95.875886771339168</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="60">
         <v>45469</v>
       </c>
@@ -9121,14 +9121,14 @@
       </c>
       <c r="L99" s="81">
         <f t="shared" si="16"/>
-        <v>95.29559618619318</v>
+        <v>95.295596186193194</v>
       </c>
       <c r="M99" s="82">
         <f t="shared" si="17"/>
         <v>96.118775338773133</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="60">
         <v>45470</v>
       </c>
@@ -9171,14 +9171,14 @@
       </c>
       <c r="L100" s="81">
         <f t="shared" si="16"/>
-        <v>95.605492569086721</v>
+        <v>95.605492569086735</v>
       </c>
       <c r="M100" s="82">
         <f t="shared" si="17"/>
         <v>97.424899969426306</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="60">
         <v>45471</v>
       </c>
@@ -9221,14 +9221,14 @@
       </c>
       <c r="L101" s="81">
         <f t="shared" si="16"/>
-        <v>95.3634769659526</v>
+        <v>95.363476965952614</v>
       </c>
       <c r="M101" s="82">
         <f t="shared" si="17"/>
         <v>97.110401165451279</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="60">
         <v>45474</v>
       </c>
@@ -9271,14 +9271,14 @@
       </c>
       <c r="L102" s="81">
         <f t="shared" si="16"/>
-        <v>96.098657147400843</v>
+        <v>96.098657147400857</v>
       </c>
       <c r="M102" s="82">
         <f t="shared" si="17"/>
         <v>97.746421075244484</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="60">
         <v>45475</v>
       </c>
@@ -9321,14 +9321,14 @@
       </c>
       <c r="L103" s="81">
         <f t="shared" si="16"/>
-        <v>96.399540533102268</v>
+        <v>96.399540533102282</v>
       </c>
       <c r="M103" s="82">
         <f t="shared" si="17"/>
         <v>97.800506906739486</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="60">
         <v>45476</v>
       </c>
@@ -9371,14 +9371,14 @@
       </c>
       <c r="L104" s="81">
         <f t="shared" si="16"/>
-        <v>97.536270511119241</v>
+        <v>97.536270511119255</v>
       </c>
       <c r="M104" s="82">
         <f t="shared" si="17"/>
         <v>98.486129660690324</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="60">
         <v>45477</v>
       </c>
@@ -9421,14 +9421,14 @@
       </c>
       <c r="L105" s="81">
         <f t="shared" si="16"/>
-        <v>98.198820984855317</v>
+        <v>98.198820984855331</v>
       </c>
       <c r="M105" s="82">
         <f t="shared" si="17"/>
         <v>98.879637197791155</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="60">
         <v>45478</v>
       </c>
@@ -9471,14 +9471,14 @@
       </c>
       <c r="L106" s="81">
         <f t="shared" si="16"/>
-        <v>98.234117131518516</v>
+        <v>98.234117131518531</v>
       </c>
       <c r="M106" s="82">
         <f t="shared" si="17"/>
         <v>98.960417181158661</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="60">
         <v>45481</v>
       </c>
@@ -9521,14 +9521,14 @@
       </c>
       <c r="L107" s="81">
         <f t="shared" ref="L107:L170" si="25">L106*(1+E107)</f>
-        <v>97.637934073682345</v>
+        <v>97.637934073682359</v>
       </c>
       <c r="M107" s="82">
         <f t="shared" ref="M107:M170" si="26">M106*(1+F107)</f>
         <v>99.1808751371249</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="60">
         <v>45482</v>
       </c>
@@ -9571,14 +9571,14 @@
       </c>
       <c r="L108" s="81">
         <f t="shared" si="25"/>
-        <v>97.645585995202069</v>
+        <v>97.645585995202083</v>
       </c>
       <c r="M108" s="82">
         <f t="shared" si="26"/>
         <v>99.619674953635922</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="60">
         <v>45483</v>
       </c>
@@ -9621,14 +9621,14 @@
       </c>
       <c r="L109" s="81">
         <f t="shared" si="25"/>
-        <v>97.650345560932607</v>
+        <v>97.650345560932621</v>
       </c>
       <c r="M109" s="82">
         <f t="shared" si="26"/>
         <v>99.705901923366113</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="60">
         <v>45484</v>
       </c>
@@ -9671,14 +9671,14 @@
       </c>
       <c r="L110" s="81">
         <f t="shared" si="25"/>
-        <v>97.898671605820468</v>
+        <v>97.898671605820482</v>
       </c>
       <c r="M110" s="82">
         <f t="shared" si="26"/>
         <v>100.54871138018088</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="60">
         <v>45485</v>
       </c>
@@ -9721,14 +9721,14 @@
       </c>
       <c r="L111" s="81">
         <f t="shared" si="25"/>
-        <v>99.212514984989639</v>
+        <v>99.212514984989653</v>
       </c>
       <c r="M111" s="82">
         <f t="shared" si="26"/>
         <v>101.02159600775867</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="60">
         <v>45488</v>
       </c>
@@ -9771,14 +9771,14 @@
       </c>
       <c r="L112" s="81">
         <f t="shared" si="25"/>
-        <v>99.25386962603821</v>
+        <v>99.253869626038224</v>
       </c>
       <c r="M112" s="82">
         <f t="shared" si="26"/>
         <v>101.35388568805507</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="60">
         <v>45489</v>
       </c>
@@ -9821,14 +9821,14 @@
       </c>
       <c r="L113" s="81">
         <f t="shared" si="25"/>
-        <v>98.972810019165237</v>
+        <v>98.972810019165252</v>
       </c>
       <c r="M113" s="82">
         <f t="shared" si="26"/>
         <v>101.18884591996031</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="60">
         <v>45490</v>
       </c>
@@ -9871,14 +9871,14 @@
       </c>
       <c r="L114" s="81">
         <f t="shared" si="25"/>
-        <v>99.484374593734856</v>
+        <v>99.48437459373487</v>
       </c>
       <c r="M114" s="82">
         <f t="shared" si="26"/>
         <v>101.45527017091543</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="60">
         <v>45491</v>
       </c>
@@ -9921,14 +9921,14 @@
       </c>
       <c r="L115" s="81">
         <f t="shared" si="25"/>
-        <v>98.325895399111815</v>
+        <v>98.325895399111829</v>
       </c>
       <c r="M115" s="82">
         <f t="shared" si="26"/>
         <v>100.04590359586524</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="60">
         <v>45492</v>
       </c>
@@ -9971,14 +9971,14 @@
       </c>
       <c r="L116" s="81">
         <f t="shared" si="25"/>
-        <v>97.815528974249673</v>
+        <v>97.815528974249688</v>
       </c>
       <c r="M116" s="82">
         <f t="shared" si="26"/>
         <v>100.01800248586348</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="60">
         <v>45495</v>
       </c>
@@ -10021,14 +10021,14 @@
       </c>
       <c r="L117" s="81">
         <f t="shared" si="25"/>
-        <v>98.221030985203981</v>
+        <v>98.221030985203996</v>
       </c>
       <c r="M117" s="82">
         <f t="shared" si="26"/>
         <v>100.20858430943457</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="60">
         <v>45496</v>
       </c>
@@ -10071,14 +10071,14 @@
       </c>
       <c r="L118" s="81">
         <f t="shared" si="25"/>
-        <v>97.438815029491366</v>
+        <v>97.43881502949138</v>
       </c>
       <c r="M118" s="82">
         <f t="shared" si="26"/>
         <v>99.213400307492151</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="60">
         <v>45497</v>
       </c>
@@ -10121,14 +10121,14 @@
       </c>
       <c r="L119" s="81">
         <f t="shared" si="25"/>
-        <v>97.628838213800179</v>
+        <v>97.628838213800194</v>
       </c>
       <c r="M119" s="82">
         <f t="shared" si="26"/>
         <v>99.082429675683272</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="60">
         <v>45498</v>
       </c>
@@ -10171,14 +10171,14 @@
       </c>
       <c r="L120" s="81">
         <f t="shared" si="25"/>
-        <v>97.588033937780807</v>
+        <v>97.588033937780821</v>
       </c>
       <c r="M120" s="82">
         <f t="shared" si="26"/>
         <v>98.715138209637473</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="60">
         <v>45499</v>
       </c>
@@ -10221,14 +10221,14 @@
       </c>
       <c r="L121" s="81">
         <f t="shared" si="25"/>
-        <v>99.029076585124599</v>
+        <v>99.029076585124614</v>
       </c>
       <c r="M121" s="82">
         <f t="shared" si="26"/>
         <v>99.920842356455637</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="60">
         <v>45502</v>
       </c>
@@ -10271,14 +10271,14 @@
       </c>
       <c r="L122" s="81">
         <f t="shared" si="25"/>
-        <v>98.847837965727209</v>
+        <v>98.847837965727223</v>
       </c>
       <c r="M122" s="82">
         <f t="shared" si="26"/>
         <v>99.498696994650729</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="60">
         <v>45503</v>
       </c>
@@ -10321,14 +10321,14 @@
       </c>
       <c r="L123" s="81">
         <f t="shared" si="25"/>
-        <v>98.220628989180639</v>
+        <v>98.220628989180653</v>
       </c>
       <c r="M123" s="82">
         <f t="shared" si="26"/>
         <v>98.860223981646698</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="60">
         <v>45504</v>
       </c>
@@ -10371,14 +10371,14 @@
       </c>
       <c r="L124" s="81">
         <f t="shared" si="25"/>
-        <v>99.370123180763613</v>
+        <v>99.370123180763628</v>
       </c>
       <c r="M124" s="82">
         <f t="shared" si="26"/>
         <v>100.045707661104</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="60">
         <v>45505</v>
       </c>
@@ -10421,14 +10421,14 @@
       </c>
       <c r="L125" s="81">
         <f t="shared" si="25"/>
-        <v>99.199733415049366</v>
+        <v>99.19973341504938</v>
       </c>
       <c r="M125" s="82">
         <f t="shared" si="26"/>
         <v>99.844514010863705</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="60">
         <v>45506</v>
       </c>
@@ -10471,14 +10471,14 @@
       </c>
       <c r="L126" s="81">
         <f t="shared" si="25"/>
-        <v>97.766827547938675</v>
+        <v>97.766827547938689</v>
       </c>
       <c r="M126" s="82">
         <f t="shared" si="26"/>
         <v>98.636764305138115</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="60">
         <v>45509</v>
       </c>
@@ -10521,14 +10521,14 @@
       </c>
       <c r="L127" s="81">
         <f t="shared" si="25"/>
-        <v>96.513470013324962</v>
+        <v>96.513470013324977</v>
       </c>
       <c r="M127" s="82">
         <f t="shared" si="26"/>
         <v>98.178629646387108</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="60">
         <v>45510</v>
       </c>
@@ -10571,14 +10571,14 @@
       </c>
       <c r="L128" s="81">
         <f t="shared" si="25"/>
-        <v>96.721376981725598</v>
+        <v>96.721376981725612</v>
       </c>
       <c r="M128" s="82">
         <f t="shared" si="26"/>
         <v>98.960142872492938</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="60">
         <v>45511</v>
       </c>
@@ -10621,14 +10621,14 @@
       </c>
       <c r="L129" s="81">
         <f t="shared" si="25"/>
-        <v>97.585412005500359</v>
+        <v>97.585412005500373</v>
       </c>
       <c r="M129" s="82">
         <f t="shared" si="26"/>
         <v>99.937606534628046</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="60">
         <v>45512</v>
       </c>
@@ -10671,14 +10671,14 @@
       </c>
       <c r="L130" s="81">
         <f t="shared" si="25"/>
-        <v>98.900269892739601</v>
+        <v>98.900269892739615</v>
       </c>
       <c r="M130" s="82">
         <f t="shared" si="26"/>
         <v>100.83655521923571</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="60">
         <v>45513</v>
       </c>
@@ -10721,14 +10721,14 @@
       </c>
       <c r="L131" s="81">
         <f t="shared" si="25"/>
-        <v>100.14288607121401</v>
+        <v>100.14288607121402</v>
       </c>
       <c r="M131" s="82">
         <f t="shared" si="26"/>
         <v>102.36775402883015</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="60">
         <v>45516</v>
       </c>
@@ -10771,14 +10771,14 @@
       </c>
       <c r="L132" s="81">
         <f t="shared" si="25"/>
-        <v>100.85535067792765</v>
+        <v>100.85535067792766</v>
       </c>
       <c r="M132" s="82">
         <f t="shared" si="26"/>
         <v>102.76065024947589</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="60">
         <v>45517</v>
       </c>
@@ -10821,14 +10821,14 @@
       </c>
       <c r="L133" s="81">
         <f t="shared" si="25"/>
-        <v>101.57226579493324</v>
+        <v>101.57226579493326</v>
       </c>
       <c r="M133" s="82">
         <f t="shared" si="26"/>
         <v>103.76545856689083</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="60">
         <v>45518</v>
       </c>
@@ -10871,14 +10871,14 @@
       </c>
       <c r="L134" s="81">
         <f t="shared" si="25"/>
-        <v>101.9317745338453</v>
+        <v>101.93177453384531</v>
       </c>
       <c r="M134" s="82">
         <f t="shared" si="26"/>
         <v>104.48625552918098</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="60">
         <v>45519</v>
       </c>
@@ -10921,14 +10921,14 @@
       </c>
       <c r="L135" s="81">
         <f t="shared" si="25"/>
-        <v>102.46350273624921</v>
+        <v>102.46350273624923</v>
       </c>
       <c r="M135" s="82">
         <f t="shared" si="26"/>
         <v>105.14127327342483</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="60">
         <v>45520</v>
       </c>
@@ -10971,14 +10971,14 @@
       </c>
       <c r="L136" s="81">
         <f t="shared" si="25"/>
-        <v>102.57707837039011</v>
+        <v>102.57707837039013</v>
       </c>
       <c r="M136" s="82">
         <f t="shared" si="26"/>
         <v>104.98439222878845</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="60">
         <v>45523</v>
       </c>
@@ -11021,14 +11021,14 @@
       </c>
       <c r="L137" s="81">
         <f t="shared" si="25"/>
-        <v>103.17486213384015</v>
+        <v>103.17486213384016</v>
       </c>
       <c r="M137" s="82">
         <f t="shared" si="26"/>
         <v>106.41450437635962</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="60">
         <v>45524</v>
       </c>
@@ -11071,14 +11071,14 @@
       </c>
       <c r="L138" s="81">
         <f t="shared" si="25"/>
-        <v>103.40744538738456</v>
+        <v>103.40744538738457</v>
       </c>
       <c r="M138" s="82">
         <f t="shared" si="26"/>
         <v>106.65701674905198</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="60">
         <v>45525</v>
       </c>
@@ -11121,14 +11121,14 @@
       </c>
       <c r="L139" s="81">
         <f t="shared" si="25"/>
-        <v>103.5414993036287</v>
+        <v>103.54149930362871</v>
       </c>
       <c r="M139" s="82">
         <f t="shared" si="26"/>
         <v>106.95189072734034</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="60">
         <v>45526</v>
       </c>
@@ -11171,14 +11171,14 @@
       </c>
       <c r="L140" s="81">
         <f t="shared" si="25"/>
-        <v>103.04024665490601</v>
+        <v>103.04024665490603</v>
       </c>
       <c r="M140" s="82">
         <f t="shared" si="26"/>
         <v>105.94066358714691</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="60">
         <v>45527</v>
       </c>
@@ -11221,14 +11221,14 @@
       </c>
       <c r="L141" s="81">
         <f t="shared" si="25"/>
-        <v>103.49900138141065</v>
+        <v>103.49900138141066</v>
       </c>
       <c r="M141" s="82">
         <f t="shared" si="26"/>
         <v>106.28165277084273</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="60">
         <v>45530</v>
       </c>
@@ -11271,14 +11271,14 @@
       </c>
       <c r="L142" s="81">
         <f t="shared" si="25"/>
-        <v>103.40939881931419</v>
+        <v>103.40939881931421</v>
       </c>
       <c r="M142" s="82">
         <f t="shared" si="26"/>
         <v>107.28502684580532</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="60">
         <v>45531</v>
       </c>
@@ -11321,14 +11321,14 @@
       </c>
       <c r="L143" s="81">
         <f t="shared" si="25"/>
-        <v>103.45776431580067</v>
+        <v>103.45776431580069</v>
       </c>
       <c r="M143" s="82">
         <f t="shared" si="26"/>
         <v>107.19662108153004</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="60">
         <v>45532</v>
       </c>
@@ -11371,14 +11371,14 @@
       </c>
       <c r="L144" s="81">
         <f t="shared" si="25"/>
-        <v>103.51406895380683</v>
+        <v>103.51406895380684</v>
       </c>
       <c r="M144" s="82">
         <f t="shared" si="26"/>
         <v>107.64182404603864</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="60">
         <v>45533</v>
       </c>
@@ -11421,14 +11421,14 @@
       </c>
       <c r="L145" s="81">
         <f t="shared" si="25"/>
-        <v>103.03579222543277</v>
+        <v>103.03579222543279</v>
       </c>
       <c r="M145" s="82">
         <f t="shared" si="26"/>
         <v>106.62091772863954</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="60">
         <v>45534</v>
       </c>
@@ -11471,14 +11471,14 @@
       </c>
       <c r="L146" s="81">
         <f t="shared" si="25"/>
-        <v>103.40396403463637</v>
+        <v>103.40396403463639</v>
       </c>
       <c r="M146" s="82">
         <f t="shared" si="26"/>
         <v>106.59165291269949</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="60">
         <v>45537</v>
       </c>
@@ -11521,14 +11521,14 @@
       </c>
       <c r="L147" s="81">
         <f t="shared" si="25"/>
-        <v>103.1707430743084</v>
+        <v>103.17074307430842</v>
       </c>
       <c r="M147" s="82">
         <f t="shared" si="26"/>
         <v>105.73115446563922</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="60">
         <v>45538</v>
       </c>
@@ -11571,14 +11571,14 @@
       </c>
       <c r="L148" s="81">
         <f t="shared" si="25"/>
-        <v>102.30047991158689</v>
+        <v>102.3004799115869</v>
       </c>
       <c r="M148" s="82">
         <f t="shared" si="26"/>
         <v>105.29806810676621</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="60">
         <v>45539</v>
       </c>
@@ -11621,14 +11621,14 @@
       </c>
       <c r="L149" s="81">
         <f t="shared" si="25"/>
-        <v>102.86356268404619</v>
+        <v>102.8635626840462</v>
       </c>
       <c r="M149" s="82">
         <f t="shared" si="26"/>
         <v>106.6752935435812</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="60">
         <v>45540</v>
       </c>
@@ -11671,14 +11671,14 @@
       </c>
       <c r="L150" s="81">
         <f t="shared" si="25"/>
-        <v>102.71262941388557</v>
+        <v>102.71262941388558</v>
       </c>
       <c r="M150" s="82">
         <f t="shared" si="26"/>
         <v>106.98233115184789</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="60">
         <v>45541</v>
       </c>
@@ -11721,14 +11721,14 @@
       </c>
       <c r="L151" s="81">
         <f t="shared" si="25"/>
-        <v>101.70232606544681</v>
+        <v>101.70232606544683</v>
       </c>
       <c r="M151" s="82">
         <f t="shared" si="26"/>
         <v>105.46968344544847</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="60">
         <v>45544</v>
       </c>
@@ -11771,14 +11771,14 @@
       </c>
       <c r="L152" s="81">
         <f t="shared" si="25"/>
-        <v>101.82161754555204</v>
+        <v>101.82161754555206</v>
       </c>
       <c r="M152" s="82">
         <f t="shared" si="26"/>
         <v>105.59881229050158</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="60">
         <v>45545</v>
       </c>
@@ -11821,14 +11821,14 @@
       </c>
       <c r="L153" s="81">
         <f t="shared" si="25"/>
-        <v>101.49562844441446</v>
+        <v>101.49562844441448</v>
       </c>
       <c r="M153" s="82">
         <f t="shared" si="26"/>
         <v>105.2714993531409</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="60">
         <v>45546</v>
       </c>
@@ -11871,14 +11871,14 @@
       </c>
       <c r="L154" s="81">
         <f t="shared" si="25"/>
-        <v>101.55889522803399</v>
+        <v>101.558895228034</v>
       </c>
       <c r="M154" s="82">
         <f t="shared" si="26"/>
         <v>105.55142742784128</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="60">
         <v>45547</v>
       </c>
@@ -11921,14 +11921,14 @@
       </c>
       <c r="L155" s="81">
         <f t="shared" si="25"/>
-        <v>101.03987972995631</v>
+        <v>101.03987972995633</v>
       </c>
       <c r="M155" s="82">
         <f t="shared" si="26"/>
         <v>105.04409746923602</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="60">
         <v>45548</v>
       </c>
@@ -11971,14 +11971,14 @@
       </c>
       <c r="L156" s="81">
         <f t="shared" si="25"/>
-        <v>101.86166989864751</v>
+        <v>101.86166989864752</v>
       </c>
       <c r="M156" s="82">
         <f t="shared" si="26"/>
         <v>105.71225067987397</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="60">
         <v>45551</v>
       </c>
@@ -12021,14 +12021,14 @@
       </c>
       <c r="L157" s="81">
         <f t="shared" si="25"/>
-        <v>102.02482037664315</v>
+        <v>102.02482037664316</v>
       </c>
       <c r="M157" s="82">
         <f t="shared" si="26"/>
         <v>105.89742470403461</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="60">
         <v>45552</v>
       </c>
@@ -12071,14 +12071,14 @@
       </c>
       <c r="L158" s="81">
         <f t="shared" si="25"/>
-        <v>101.91413317911017</v>
+        <v>101.91413317911018</v>
       </c>
       <c r="M158" s="82">
         <f t="shared" si="26"/>
         <v>105.77357042275428</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="60">
         <v>45553</v>
       </c>
@@ -12121,14 +12121,14 @@
       </c>
       <c r="L159" s="81">
         <f t="shared" si="25"/>
-        <v>101.35441754325872</v>
+        <v>101.35441754325873</v>
       </c>
       <c r="M159" s="82">
         <f t="shared" si="26"/>
         <v>104.82328683069954</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="60">
         <v>45554</v>
       </c>
@@ -12171,14 +12171,14 @@
       </c>
       <c r="L160" s="81">
         <f t="shared" si="25"/>
-        <v>101.19092441684202</v>
+        <v>101.19092441684204</v>
       </c>
       <c r="M160" s="82">
         <f t="shared" si="26"/>
         <v>104.33343425279766</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="60">
         <v>45555</v>
       </c>
@@ -12221,14 +12221,14 @@
       </c>
       <c r="L161" s="81">
         <f t="shared" si="25"/>
-        <v>100.24503841167181</v>
+        <v>100.24503841167183</v>
       </c>
       <c r="M161" s="82">
         <f t="shared" si="26"/>
         <v>102.72110277726549</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="60">
         <v>45558</v>
       </c>
@@ -12271,14 +12271,14 @@
       </c>
       <c r="L162" s="81">
         <f t="shared" si="25"/>
-        <v>99.985398810176846</v>
+        <v>99.985398810176861</v>
       </c>
       <c r="M162" s="82">
         <f t="shared" si="26"/>
         <v>102.33152961017052</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="60">
         <v>45559</v>
       </c>
@@ -12321,14 +12321,14 @@
       </c>
       <c r="L163" s="81">
         <f t="shared" si="25"/>
-        <v>100.97809495674599</v>
+        <v>100.97809495674601</v>
       </c>
       <c r="M163" s="82">
         <f t="shared" si="26"/>
         <v>103.57562913280292</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="60">
         <v>45560</v>
       </c>
@@ -12371,14 +12371,14 @@
       </c>
       <c r="L164" s="81">
         <f t="shared" si="25"/>
-        <v>100.3290919729501</v>
+        <v>100.32909197295011</v>
       </c>
       <c r="M164" s="82">
         <f t="shared" si="26"/>
         <v>103.12943865709761</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="60">
         <v>45561</v>
       </c>
@@ -12421,14 +12421,14 @@
       </c>
       <c r="L165" s="81">
         <f t="shared" si="25"/>
-        <v>100.84004739477125</v>
+        <v>100.84004739477126</v>
       </c>
       <c r="M165" s="82">
         <f t="shared" si="26"/>
         <v>104.24495795200833</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="60">
         <v>45562</v>
       </c>
@@ -12471,14 +12471,14 @@
       </c>
       <c r="L166" s="81">
         <f t="shared" si="25"/>
-        <v>101.11181350304864</v>
+        <v>101.11181350304865</v>
       </c>
       <c r="M166" s="82">
         <f t="shared" si="26"/>
         <v>104.02596558805621</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="60">
         <v>45565</v>
       </c>
@@ -12521,14 +12521,14 @@
       </c>
       <c r="L167" s="81">
         <f t="shared" si="25"/>
-        <v>100.59745007315765</v>
+        <v>100.59745007315766</v>
       </c>
       <c r="M167" s="82">
         <f t="shared" si="26"/>
         <v>103.30969080005568</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="60">
         <v>45566</v>
       </c>
@@ -12571,14 +12571,14 @@
       </c>
       <c r="L168" s="81">
         <f t="shared" si="25"/>
-        <v>100.76923898659105</v>
+        <v>100.76923898659106</v>
       </c>
       <c r="M168" s="82">
         <f t="shared" si="26"/>
         <v>103.84163016467373</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="60">
         <v>45567</v>
       </c>
@@ -12621,14 +12621,14 @@
       </c>
       <c r="L169" s="81">
         <f t="shared" si="25"/>
-        <v>100.60235464859575</v>
+        <v>100.60235464859576</v>
       </c>
       <c r="M169" s="82">
         <f t="shared" si="26"/>
         <v>104.6408715679773</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="60">
         <v>45568</v>
       </c>
@@ -12671,14 +12671,14 @@
       </c>
       <c r="L170" s="81">
         <f t="shared" si="25"/>
-        <v>99.781960268325477</v>
+        <v>99.781960268325491</v>
       </c>
       <c r="M170" s="82">
         <f t="shared" si="26"/>
         <v>103.19610350026477</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="60">
         <v>45569</v>
       </c>
@@ -12721,14 +12721,14 @@
       </c>
       <c r="L171" s="81">
         <f t="shared" ref="L171:L234" si="34">L170*(1+E171)</f>
-        <v>99.83522754083485</v>
+        <v>99.835227540834865</v>
       </c>
       <c r="M171" s="82">
         <f t="shared" ref="M171:M234" si="35">M170*(1+F171)</f>
         <v>103.29018353522579</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="60">
         <v>45572</v>
       </c>
@@ -12771,14 +12771,14 @@
       </c>
       <c r="L172" s="81">
         <f t="shared" si="34"/>
-        <v>99.944543024917678</v>
+        <v>99.944543024917692</v>
       </c>
       <c r="M172" s="82">
         <f t="shared" si="35"/>
         <v>103.4675358437174</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="60">
         <v>45573</v>
       </c>
@@ -12821,14 +12821,14 @@
       </c>
       <c r="L173" s="81">
         <f t="shared" si="34"/>
-        <v>99.370905897254744</v>
+        <v>99.370905897254758</v>
       </c>
       <c r="M173" s="82">
         <f t="shared" si="35"/>
         <v>103.07087767565569</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="60">
         <v>45574</v>
       </c>
@@ -12871,14 +12871,14 @@
       </c>
       <c r="L174" s="81">
         <f t="shared" si="34"/>
-        <v>98.612303568674307</v>
+        <v>98.612303568674321</v>
       </c>
       <c r="M174" s="82">
         <f t="shared" si="35"/>
         <v>101.85634078980046</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="60">
         <v>45575</v>
       </c>
@@ -12921,14 +12921,14 @@
       </c>
       <c r="L175" s="81">
         <f t="shared" si="34"/>
-        <v>98.671138878025261</v>
+        <v>98.671138878025275</v>
       </c>
       <c r="M175" s="82">
         <f t="shared" si="35"/>
         <v>102.16262600858396</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="60">
         <v>45576</v>
       </c>
@@ -12971,14 +12971,14 @@
       </c>
       <c r="L176" s="81">
         <f t="shared" si="34"/>
-        <v>98.795092504211922</v>
+        <v>98.795092504211937</v>
       </c>
       <c r="M176" s="82">
         <f t="shared" si="35"/>
         <v>101.8800332211306</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="60">
         <v>45579</v>
       </c>
@@ -13021,14 +13021,14 @@
       </c>
       <c r="L177" s="81">
         <f t="shared" si="34"/>
-        <v>99.035966505825684</v>
+        <v>99.035966505825698</v>
       </c>
       <c r="M177" s="82">
         <f t="shared" si="35"/>
         <v>102.67392952414731</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="60">
         <v>45580</v>
       </c>
@@ -13071,14 +13071,14 @@
       </c>
       <c r="L178" s="81">
         <f t="shared" si="34"/>
-        <v>98.825912945846326</v>
+        <v>98.825912945846341</v>
       </c>
       <c r="M178" s="82">
         <f t="shared" si="35"/>
         <v>102.70372728263797</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="60">
         <v>45581</v>
       </c>
@@ -13121,14 +13121,14 @@
       </c>
       <c r="L179" s="81">
         <f t="shared" si="34"/>
-        <v>98.890930483734678</v>
+        <v>98.890930483734692</v>
       </c>
       <c r="M179" s="82">
         <f t="shared" si="35"/>
         <v>103.25739973097369</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="60">
         <v>45582</v>
       </c>
@@ -13171,14 +13171,14 @@
       </c>
       <c r="L180" s="81">
         <f t="shared" si="34"/>
-        <v>98.445915287053253</v>
+        <v>98.445915287053268</v>
       </c>
       <c r="M180" s="82">
         <f t="shared" si="35"/>
         <v>102.50790224485587</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="60">
         <v>45583</v>
       </c>
@@ -13221,14 +13221,14 @@
       </c>
       <c r="L181" s="81">
         <f t="shared" si="34"/>
-        <v>98.257118806487</v>
+        <v>98.257118806487014</v>
       </c>
       <c r="M181" s="82">
         <f t="shared" si="35"/>
         <v>102.277365404771</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="60">
         <v>45586</v>
       </c>
@@ -13271,14 +13271,14 @@
       </c>
       <c r="L182" s="81">
         <f t="shared" si="34"/>
-        <v>98.078546350130267</v>
+        <v>98.078546350130281</v>
       </c>
       <c r="M182" s="82">
         <f t="shared" si="35"/>
         <v>102.16944453827539</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="60">
         <v>45587</v>
       </c>
@@ -13321,14 +13321,14 @@
       </c>
       <c r="L183" s="81">
         <f t="shared" si="34"/>
-        <v>97.838073784656828</v>
+        <v>97.838073784656842</v>
       </c>
       <c r="M183" s="82">
         <f t="shared" si="35"/>
         <v>101.84796261940946</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="60">
         <v>45588</v>
       </c>
@@ -13371,14 +13371,14 @@
       </c>
       <c r="L184" s="81">
         <f t="shared" si="34"/>
-        <v>97.338386568916448</v>
+        <v>97.338386568916462</v>
       </c>
       <c r="M184" s="82">
         <f t="shared" si="35"/>
         <v>101.28503421295237</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="60">
         <v>45589</v>
       </c>
@@ -13421,14 +13421,14 @@
       </c>
       <c r="L185" s="81">
         <f t="shared" si="34"/>
-        <v>97.869380204770721</v>
+        <v>97.869380204770735</v>
       </c>
       <c r="M185" s="82">
         <f t="shared" si="35"/>
         <v>101.93854717822983</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="60">
         <v>45590</v>
       </c>
@@ -13471,14 +13471,14 @@
       </c>
       <c r="L186" s="81">
         <f t="shared" si="34"/>
-        <v>98.025739301480513</v>
+        <v>98.025739301480527</v>
       </c>
       <c r="M186" s="82">
         <f t="shared" si="35"/>
         <v>101.80246656784759</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="60">
         <v>45593</v>
       </c>
@@ -13521,14 +13521,14 @@
       </c>
       <c r="L187" s="81">
         <f t="shared" si="34"/>
-        <v>98.358742617354224</v>
+        <v>98.358742617354238</v>
       </c>
       <c r="M187" s="82">
         <f t="shared" si="35"/>
         <v>102.83642214034582</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="60">
         <v>45594</v>
       </c>
@@ -13571,14 +13571,14 @@
       </c>
       <c r="L188" s="81">
         <f t="shared" si="34"/>
-        <v>98.536649372775358</v>
+        <v>98.536649372775372</v>
       </c>
       <c r="M188" s="82">
         <f t="shared" si="35"/>
         <v>102.45815049027966</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="60">
         <v>45595</v>
       </c>
@@ -13621,14 +13621,14 @@
       </c>
       <c r="L189" s="81">
         <f t="shared" si="34"/>
-        <v>98.614543660720912</v>
+        <v>98.614543660720926</v>
       </c>
       <c r="M189" s="82">
         <f t="shared" si="35"/>
         <v>102.38714373280325</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="60">
         <v>45596</v>
       </c>
@@ -13671,14 +13671,14 @@
       </c>
       <c r="L190" s="81">
         <f t="shared" si="34"/>
-        <v>97.929346477864257</v>
+        <v>97.929346477864271</v>
       </c>
       <c r="M190" s="82">
         <f t="shared" si="35"/>
         <v>101.66140137713919</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="60">
         <v>45597</v>
       </c>
@@ -13721,14 +13721,14 @@
       </c>
       <c r="L191" s="81">
         <f t="shared" si="34"/>
-        <v>97.329950811139511</v>
+        <v>97.329950811139526</v>
       </c>
       <c r="M191" s="82">
         <f t="shared" si="35"/>
         <v>100.41323424886329</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="60">
         <v>45600</v>
       </c>
@@ -13771,14 +13771,14 @@
       </c>
       <c r="L192" s="81">
         <f t="shared" si="34"/>
-        <v>98.314791798645075</v>
+        <v>98.314791798645089</v>
       </c>
       <c r="M192" s="82">
         <f t="shared" si="35"/>
         <v>102.28953687213976</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="60">
         <v>45601</v>
       </c>
@@ -13821,14 +13821,14 @@
       </c>
       <c r="L193" s="81">
         <f t="shared" si="34"/>
-        <v>98.142202252463193</v>
+        <v>98.142202252463207</v>
       </c>
       <c r="M193" s="82">
         <f t="shared" si="35"/>
         <v>102.40393142314703</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="60">
         <v>45602</v>
       </c>
@@ -13871,14 +13871,14 @@
       </c>
       <c r="L194" s="81">
         <f t="shared" si="34"/>
-        <v>97.541629711586523</v>
+        <v>97.541629711586538</v>
       </c>
       <c r="M194" s="82">
         <f t="shared" si="35"/>
         <v>102.15326816438673</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="60">
         <v>45603</v>
       </c>
@@ -13921,14 +13921,14 @@
       </c>
       <c r="L195" s="81">
         <f t="shared" si="34"/>
-        <v>97.815332455302325</v>
+        <v>97.81533245530234</v>
       </c>
       <c r="M195" s="82">
         <f t="shared" si="35"/>
         <v>101.63661171114605</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="60">
         <v>45604</v>
       </c>
@@ -13971,14 +13971,14 @@
       </c>
       <c r="L196" s="81">
         <f t="shared" si="34"/>
-        <v>96.688244223132358</v>
+        <v>96.688244223132372</v>
       </c>
       <c r="M196" s="82">
         <f t="shared" si="35"/>
         <v>100.18520537372241</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="60">
         <v>45607</v>
       </c>
@@ -14021,14 +14021,14 @@
       </c>
       <c r="L197" s="81">
         <f t="shared" si="34"/>
-        <v>96.528418890516463</v>
+        <v>96.528418890516477</v>
       </c>
       <c r="M197" s="82">
         <f t="shared" si="35"/>
         <v>100.21961151779763</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="60">
         <v>45608</v>
       </c>
@@ -14071,14 +14071,14 @@
       </c>
       <c r="L198" s="81">
         <f t="shared" si="34"/>
-        <v>95.953016451625629</v>
+        <v>95.953016451625643</v>
       </c>
       <c r="M198" s="82">
         <f t="shared" si="35"/>
         <v>100.08215936408666</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="60">
         <v>45609</v>
       </c>
@@ -14121,14 +14121,14 @@
       </c>
       <c r="L199" s="81">
         <f t="shared" si="34"/>
-        <v>96.075213164829989</v>
+        <v>96.075213164830004</v>
       </c>
       <c r="M199" s="82">
         <f t="shared" si="35"/>
         <v>100.11002912452663</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="60">
         <v>45610</v>
       </c>
@@ -14171,14 +14171,14 @@
       </c>
       <c r="L200" s="81">
         <f t="shared" si="34"/>
-        <v>95.907466047068695</v>
+        <v>95.907466047068709</v>
       </c>
       <c r="M200" s="82">
         <f t="shared" si="35"/>
         <v>100.15526654220365</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="60">
         <v>45614</v>
       </c>
@@ -14221,14 +14221,14 @@
       </c>
       <c r="L201" s="81">
         <f t="shared" si="34"/>
-        <v>95.855478667190766</v>
+        <v>95.855478667190781</v>
       </c>
       <c r="M201" s="82">
         <f t="shared" si="35"/>
         <v>100.13691921116035</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="60">
         <v>45615</v>
       </c>
@@ -14271,14 +14271,14 @@
       </c>
       <c r="L202" s="81">
         <f t="shared" si="34"/>
-        <v>96.342377034511358</v>
+        <v>96.342377034511372</v>
       </c>
       <c r="M202" s="82">
         <f t="shared" si="35"/>
         <v>100.4731902858053</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="60">
         <v>45617</v>
       </c>
@@ -14321,14 +14321,14 @@
       </c>
       <c r="L203" s="81">
         <f t="shared" si="34"/>
-        <v>95.497915521845798</v>
+        <v>95.497915521845812</v>
       </c>
       <c r="M203" s="82">
         <f t="shared" si="35"/>
         <v>99.473813279972163</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="60">
         <v>45618</v>
       </c>
@@ -14371,14 +14371,14 @@
       </c>
       <c r="L204" s="81">
         <f t="shared" si="34"/>
-        <v>96.448774408185116</v>
+        <v>96.44877440818513</v>
       </c>
       <c r="M204" s="82">
         <f t="shared" si="35"/>
         <v>101.20070389171104</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="60">
         <v>45621</v>
       </c>
@@ -14421,14 +14421,14 @@
       </c>
       <c r="L205" s="81">
         <f t="shared" si="34"/>
-        <v>96.39437449228403</v>
+        <v>96.394374492284044</v>
       </c>
       <c r="M205" s="82">
         <f t="shared" si="35"/>
         <v>101.13062978369817</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="60">
         <v>45622</v>
       </c>
@@ -14471,14 +14471,14 @@
       </c>
       <c r="L206" s="81">
         <f t="shared" si="34"/>
-        <v>96.779051653532775</v>
+        <v>96.779051653532804</v>
       </c>
       <c r="M206" s="82">
         <f t="shared" si="35"/>
         <v>101.82524202449508</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="60">
         <v>45623</v>
       </c>
@@ -14521,14 +14521,14 @@
       </c>
       <c r="L207" s="81">
         <f t="shared" si="34"/>
-        <v>95.970286044021591</v>
+        <v>95.97028604402162</v>
       </c>
       <c r="M207" s="82">
         <f t="shared" si="35"/>
         <v>100.05887447705986</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="60">
         <v>45624</v>
       </c>
@@ -14571,14 +14571,14 @@
       </c>
       <c r="L208" s="81">
         <f t="shared" si="34"/>
-        <v>95.100040237674335</v>
+        <v>95.100040237674364</v>
       </c>
       <c r="M208" s="82">
         <f t="shared" si="35"/>
         <v>97.662043729660454</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="60">
         <v>45625</v>
       </c>
@@ -14621,14 +14621,14 @@
       </c>
       <c r="L209" s="81">
         <f t="shared" si="34"/>
-        <v>95.531010768275252</v>
+        <v>95.53101076827528</v>
       </c>
       <c r="M209" s="82">
         <f t="shared" si="35"/>
         <v>98.490785070617591</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="60">
         <v>45628</v>
       </c>
@@ -14671,14 +14671,14 @@
       </c>
       <c r="L210" s="81">
         <f t="shared" si="34"/>
-        <v>95.707654427556164</v>
+        <v>95.707654427556193</v>
       </c>
       <c r="M210" s="82">
         <f t="shared" si="35"/>
         <v>98.151982518857309</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="60">
         <v>45629</v>
       </c>
@@ -14721,14 +14721,14 @@
       </c>
       <c r="L211" s="81">
         <f t="shared" si="34"/>
-        <v>96.348986453808934</v>
+        <v>96.348986453808962</v>
       </c>
       <c r="M211" s="82">
         <f t="shared" si="35"/>
         <v>98.860216144256228</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="60">
         <v>45630</v>
       </c>
@@ -14771,14 +14771,14 @@
       </c>
       <c r="L212" s="81">
         <f t="shared" si="34"/>
-        <v>96.424837728538321</v>
+        <v>96.42483772853835</v>
       </c>
       <c r="M212" s="82">
         <f t="shared" si="35"/>
         <v>98.819320640888463</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="60">
         <v>45631</v>
       </c>
@@ -14821,14 +14821,14 @@
       </c>
       <c r="L213" s="81">
         <f t="shared" si="34"/>
-        <v>97.165282490219951</v>
+        <v>97.16528249021998</v>
       </c>
       <c r="M213" s="82">
         <f t="shared" si="35"/>
         <v>100.20697764439234</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="60">
         <v>45632</v>
       </c>
@@ -14871,14 +14871,14 @@
       </c>
       <c r="L214" s="81">
         <f t="shared" si="34"/>
-        <v>96.615601078227158</v>
+        <v>96.615601078227186</v>
       </c>
       <c r="M214" s="82">
         <f t="shared" si="35"/>
         <v>98.708797760763474</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="60">
         <v>45635</v>
       </c>
@@ -14921,14 +14921,14 @@
       </c>
       <c r="L215" s="81">
         <f t="shared" si="34"/>
-        <v>97.023083955380102</v>
+        <v>97.02308395538013</v>
       </c>
       <c r="M215" s="82">
         <f t="shared" si="35"/>
         <v>99.699443913635378</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="60">
         <v>45636</v>
       </c>
@@ -14971,14 +14971,14 @@
       </c>
       <c r="L216" s="81">
         <f t="shared" si="34"/>
-        <v>97.302577569387722</v>
+        <v>97.302577569387751</v>
       </c>
       <c r="M216" s="82">
         <f t="shared" si="35"/>
         <v>100.49729026143886</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="60">
         <v>45637</v>
       </c>
@@ -15021,14 +15021,14 @@
       </c>
       <c r="L217" s="81">
         <f t="shared" si="34"/>
-        <v>98.1589186804147</v>
+        <v>98.158918680414729</v>
       </c>
       <c r="M217" s="82">
         <f t="shared" si="35"/>
         <v>101.56709405785513</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="60">
         <v>45638</v>
       </c>
@@ -15071,14 +15071,14 @@
       </c>
       <c r="L218" s="81">
         <f t="shared" si="34"/>
-        <v>96.591190177644748</v>
+        <v>96.591190177644776</v>
       </c>
       <c r="M218" s="82">
         <f t="shared" si="35"/>
         <v>98.784036709082869</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="60">
         <v>45639</v>
       </c>
@@ -15121,14 +15121,14 @@
       </c>
       <c r="L219" s="81">
         <f t="shared" si="34"/>
-        <v>96.470143464206345</v>
+        <v>96.470143464206373</v>
       </c>
       <c r="M219" s="82">
         <f t="shared" si="35"/>
         <v>97.66328987474202</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="60">
         <v>45642</v>
       </c>
@@ -15171,14 +15171,14 @@
       </c>
       <c r="L220" s="81">
         <f t="shared" si="34"/>
-        <v>95.907628973033525</v>
+        <v>95.907628973033553</v>
       </c>
       <c r="M220" s="82">
         <f t="shared" si="35"/>
         <v>96.838796399408764</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="60">
         <v>45643</v>
       </c>
@@ -15221,14 +15221,14 @@
       </c>
       <c r="L221" s="81">
         <f t="shared" si="34"/>
-        <v>96.440357686431483</v>
+        <v>96.440357686431511</v>
       </c>
       <c r="M221" s="82">
         <f t="shared" si="35"/>
         <v>97.730691432611479</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="60">
         <v>45644</v>
       </c>
@@ -15271,14 +15271,14 @@
       </c>
       <c r="L222" s="81">
         <f t="shared" si="34"/>
-        <v>94.555343464394454</v>
+        <v>94.555343464394483</v>
       </c>
       <c r="M222" s="82">
         <f t="shared" si="35"/>
         <v>94.652948202921621</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="60">
         <v>45645</v>
       </c>
@@ -15321,14 +15321,14 @@
       </c>
       <c r="L223" s="81">
         <f t="shared" si="34"/>
-        <v>94.420915546278991</v>
+        <v>94.420915546279019</v>
       </c>
       <c r="M223" s="82">
         <f t="shared" si="35"/>
         <v>94.979767384683953</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="60">
         <v>45646</v>
       </c>
@@ -15371,14 +15371,14 @@
       </c>
       <c r="L224" s="81">
         <f t="shared" si="34"/>
-        <v>95.191482575443047</v>
+        <v>95.191482575443075</v>
       </c>
       <c r="M224" s="82">
         <f t="shared" si="35"/>
         <v>95.696104871808103</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="60">
         <v>45649</v>
       </c>
@@ -15421,14 +15421,14 @@
       </c>
       <c r="L225" s="81">
         <f t="shared" si="34"/>
-        <v>94.677845873739116</v>
+        <v>94.677845873739145</v>
       </c>
       <c r="M225" s="82">
         <f t="shared" si="35"/>
         <v>94.649813246741658</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="60">
         <v>45650</v>
       </c>
@@ -15471,14 +15471,14 @@
       </c>
       <c r="L226" s="81">
         <f t="shared" si="34"/>
-        <v>94.673814715844784</v>
+        <v>94.673814715844813</v>
       </c>
       <c r="M226" s="82">
         <f t="shared" si="35"/>
         <v>94.649813246741658</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="60">
         <v>45652</v>
       </c>
@@ -15521,14 +15521,14 @@
       </c>
       <c r="L227" s="81">
         <f t="shared" si="34"/>
-        <v>95.302731335666053</v>
+        <v>95.302731335666081</v>
       </c>
       <c r="M227" s="82">
         <f t="shared" si="35"/>
         <v>94.893556089734673</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="60">
         <v>45653</v>
       </c>
@@ -15571,14 +15571,14 @@
       </c>
       <c r="L228" s="81">
         <f t="shared" si="34"/>
-        <v>94.682268949762104</v>
+        <v>94.682268949762133</v>
       </c>
       <c r="M228" s="82">
         <f t="shared" si="35"/>
         <v>94.259511202334849</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="60">
         <v>45656</v>
       </c>
@@ -15621,14 +15621,14 @@
       </c>
       <c r="L229" s="81">
         <f t="shared" si="34"/>
-        <v>94.448125862065794</v>
+        <v>94.448125862065822</v>
       </c>
       <c r="M229" s="82">
         <f t="shared" si="35"/>
         <v>94.270483548964748</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="60">
         <v>45657</v>
       </c>
@@ -15671,14 +15671,14 @@
       </c>
       <c r="L230" s="81">
         <f t="shared" si="34"/>
-        <v>94.444150692475546</v>
+        <v>94.444150692475574</v>
       </c>
       <c r="M230" s="82">
         <f t="shared" si="35"/>
         <v>94.270483548964748</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="60">
         <v>45659</v>
       </c>
@@ -15721,14 +15721,14 @@
       </c>
       <c r="L231" s="81">
         <f t="shared" si="34"/>
-        <v>94.185372750980505</v>
+        <v>94.185372750980534</v>
       </c>
       <c r="M231" s="82">
         <f t="shared" si="35"/>
         <v>94.146652779855756</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="60">
         <v>45660</v>
       </c>
@@ -15771,14 +15771,14 @@
       </c>
       <c r="L232" s="81">
         <f t="shared" si="34"/>
-        <v>93.938184388431679</v>
+        <v>93.938184388431708</v>
       </c>
       <c r="M232" s="82">
         <f t="shared" si="35"/>
         <v>92.898940220225953</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="60">
         <v>45663</v>
       </c>
@@ -15821,14 +15821,14 @@
       </c>
       <c r="L233" s="81">
         <f t="shared" si="34"/>
-        <v>94.421643394232134</v>
+        <v>94.421643394232163</v>
       </c>
       <c r="M233" s="82">
         <f t="shared" si="35"/>
         <v>94.065927658221412</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="60">
         <v>45664</v>
       </c>
@@ -15871,14 +15871,14 @@
       </c>
       <c r="L234" s="81">
         <f t="shared" si="34"/>
-        <v>94.498571324049138</v>
+        <v>94.498571324049166</v>
       </c>
       <c r="M234" s="82">
         <f t="shared" si="35"/>
         <v>94.960173908559099</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="60">
         <v>45665</v>
       </c>
@@ -15921,14 +15921,14 @@
       </c>
       <c r="L235" s="81">
         <f t="shared" ref="L235:L268" si="43">L234*(1+E235)</f>
-        <v>94.212135160334597</v>
+        <v>94.212135160334626</v>
       </c>
       <c r="M235" s="82">
         <f t="shared" ref="M235:M268" si="44">M234*(1+F235)</f>
         <v>93.754783257358952</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="60">
         <v>45666</v>
       </c>
@@ -15971,14 +15971,14 @@
       </c>
       <c r="L236" s="81">
         <f t="shared" si="43"/>
-        <v>94.556127300651681</v>
+        <v>94.55612730065171</v>
       </c>
       <c r="M236" s="82">
         <f t="shared" si="44"/>
         <v>93.877046548377947</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="60">
         <v>45667</v>
       </c>
@@ -16021,14 +16021,14 @@
       </c>
       <c r="L237" s="81">
         <f t="shared" si="43"/>
-        <v>93.988741827023219</v>
+        <v>93.988741827023247</v>
       </c>
       <c r="M237" s="82">
         <f t="shared" si="44"/>
         <v>93.152087931758871</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="60">
         <v>45670</v>
       </c>
@@ -16071,14 +16071,14 @@
       </c>
       <c r="L238" s="81">
         <f t="shared" si="43"/>
-        <v>93.891490142822263</v>
+        <v>93.891490142822292</v>
       </c>
       <c r="M238" s="82">
         <f t="shared" si="44"/>
         <v>93.270432527552913</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="60">
         <v>45671</v>
       </c>
@@ -16121,14 +16121,14 @@
       </c>
       <c r="L239" s="81">
         <f t="shared" si="43"/>
-        <v>94.159170224667307</v>
+        <v>94.159170224667335</v>
       </c>
       <c r="M239" s="82">
         <f t="shared" si="44"/>
         <v>93.499284328691047</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="60">
         <v>45672</v>
       </c>
@@ -16171,14 +16171,14 @@
       </c>
       <c r="L240" s="81">
         <f t="shared" si="43"/>
-        <v>96.149162516869453</v>
+        <v>96.149162516869481</v>
       </c>
       <c r="M240" s="82">
         <f t="shared" si="44"/>
         <v>96.125593868464591</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="60">
         <v>45673</v>
       </c>
@@ -16221,14 +16221,14 @@
       </c>
       <c r="L241" s="81">
         <f t="shared" si="43"/>
-        <v>95.749126084160224</v>
+        <v>95.749126084160253</v>
       </c>
       <c r="M241" s="82">
         <f t="shared" si="44"/>
         <v>95.015819380753669</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="60">
         <v>45674</v>
       </c>
@@ -16271,14 +16271,14 @@
       </c>
       <c r="L242" s="81">
         <f t="shared" si="43"/>
-        <v>96.698799698101993</v>
+        <v>96.698799698102022</v>
       </c>
       <c r="M242" s="82">
         <f t="shared" si="44"/>
         <v>95.890472154966517</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="60">
         <v>45677</v>
       </c>
@@ -16321,14 +16321,14 @@
       </c>
       <c r="L243" s="81">
         <f t="shared" si="43"/>
-        <v>96.46051347590317</v>
+        <v>96.460513475903198</v>
       </c>
       <c r="M243" s="82">
         <f t="shared" si="44"/>
         <v>96.286260372688275</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="60">
         <v>45678</v>
       </c>
@@ -16371,14 +16371,14 @@
       </c>
       <c r="L244" s="81">
         <f t="shared" si="43"/>
-        <v>96.708373698101028</v>
+        <v>96.708373698101056</v>
       </c>
       <c r="M244" s="82">
         <f t="shared" si="44"/>
         <v>96.664806331420181</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="60">
         <v>45679</v>
       </c>
@@ -16421,14 +16421,14 @@
       </c>
       <c r="L245" s="81">
         <f t="shared" si="43"/>
-        <v>96.697176037283413</v>
+        <v>96.697176037283441</v>
       </c>
       <c r="M245" s="82">
         <f t="shared" si="44"/>
         <v>96.377957840952519</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="60">
         <v>45680</v>
       </c>
@@ -16471,14 +16471,14 @@
       </c>
       <c r="L246" s="81">
         <f t="shared" si="43"/>
-        <v>96.633349370623023</v>
+        <v>96.633349370623051</v>
       </c>
       <c r="M246" s="82">
         <f t="shared" si="44"/>
         <v>95.994709447950655</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="60">
         <v>45681</v>
       </c>
@@ -16521,14 +16521,14 @@
       </c>
       <c r="L247" s="81">
         <f t="shared" si="43"/>
-        <v>96.564091838466084</v>
+        <v>96.564091838466112</v>
       </c>
       <c r="M247" s="82">
         <f t="shared" si="44"/>
         <v>95.966494842330889</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="60">
         <v>45684</v>
       </c>
@@ -16571,14 +16571,14 @@
       </c>
       <c r="L248" s="81">
         <f t="shared" si="43"/>
-        <v>97.599427557662622</v>
+        <v>97.599427557662651</v>
       </c>
       <c r="M248" s="82">
         <f t="shared" si="44"/>
         <v>97.859224635990415</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="60">
         <v>45685</v>
       </c>
@@ -16621,14 +16621,14 @@
       </c>
       <c r="L249" s="81">
         <f t="shared" si="43"/>
-        <v>97.399605300372301</v>
+        <v>97.399605300372329</v>
       </c>
       <c r="M249" s="82">
         <f t="shared" si="44"/>
         <v>97.227530965725578</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="60">
         <v>45686</v>
       </c>
@@ -16671,14 +16671,14 @@
       </c>
       <c r="L250" s="81">
         <f t="shared" si="43"/>
-        <v>96.853719335513659</v>
+        <v>96.853719335513688</v>
       </c>
       <c r="M250" s="82">
         <f t="shared" si="44"/>
         <v>96.738477801649566</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="60">
         <v>45687</v>
       </c>
@@ -16721,14 +16721,14 @@
       </c>
       <c r="L251" s="81">
         <f t="shared" si="43"/>
-        <v>98.243125089763112</v>
+        <v>98.24312508976314</v>
       </c>
       <c r="M251" s="82">
         <f t="shared" si="44"/>
         <v>99.465889678227285</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="60">
         <v>45688</v>
       </c>
@@ -16771,14 +16771,14 @@
       </c>
       <c r="L252" s="81">
         <f t="shared" si="43"/>
-        <v>97.762913405599775</v>
+        <v>97.762913405599804</v>
       </c>
       <c r="M252" s="82">
         <f t="shared" si="44"/>
         <v>98.856924440267264</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="60">
         <v>45691</v>
       </c>
@@ -16821,14 +16821,14 @@
       </c>
       <c r="L253" s="81">
         <f t="shared" si="43"/>
-        <v>97.4381252535849</v>
+        <v>97.438125253584928</v>
       </c>
       <c r="M253" s="82">
         <f t="shared" si="44"/>
         <v>98.727607497843323</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="60">
         <v>45692</v>
       </c>
@@ -16871,14 +16871,14 @@
       </c>
       <c r="L254" s="81">
         <f t="shared" si="43"/>
-        <v>97.221226563547745</v>
+        <v>97.221226563547773</v>
       </c>
       <c r="M254" s="82">
         <f t="shared" si="44"/>
         <v>98.0825902638136</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="60">
         <v>45693</v>
       </c>
@@ -16921,14 +16921,14 @@
       </c>
       <c r="L255" s="81">
         <f t="shared" si="43"/>
-        <v>97.315118949503443</v>
+        <v>97.315118949503471</v>
       </c>
       <c r="M255" s="82">
         <f t="shared" si="44"/>
         <v>98.385897274226124</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="60">
         <v>45694</v>
       </c>
@@ -16971,14 +16971,14 @@
       </c>
       <c r="L256" s="81">
         <f t="shared" si="43"/>
-        <v>97.785140762322783</v>
+        <v>97.785140762322811</v>
       </c>
       <c r="M256" s="82">
         <f t="shared" si="44"/>
         <v>98.927460954316714</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="60">
         <v>45695</v>
       </c>
@@ -17021,14 +17021,14 @@
       </c>
       <c r="L257" s="81">
         <f t="shared" si="43"/>
-        <v>97.105722692214087</v>
+        <v>97.105722692214115</v>
       </c>
       <c r="M257" s="82">
         <f t="shared" si="44"/>
         <v>97.668776048056998</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="60">
         <v>45698</v>
       </c>
@@ -17071,14 +17071,14 @@
       </c>
       <c r="L258" s="81">
         <f t="shared" si="43"/>
-        <v>97.422728469960717</v>
+        <v>97.422728469960745</v>
       </c>
       <c r="M258" s="82">
         <f t="shared" si="44"/>
         <v>98.415679357935886</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="60">
         <v>45699</v>
       </c>
@@ -17121,14 +17121,14 @@
       </c>
       <c r="L259" s="81">
         <f t="shared" si="43"/>
-        <v>97.952993697978783</v>
+        <v>97.952993697978826</v>
       </c>
       <c r="M259" s="82">
         <f t="shared" si="44"/>
         <v>99.160231450679802</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="60">
         <v>45700</v>
       </c>
@@ -17171,14 +17171,14 @@
       </c>
       <c r="L260" s="81">
         <f t="shared" si="43"/>
-        <v>97.059140423212796</v>
+        <v>97.059140423212838</v>
       </c>
       <c r="M260" s="82">
         <f t="shared" si="44"/>
         <v>97.481462416303515</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="60">
         <v>45701</v>
       </c>
@@ -17221,14 +17221,14 @@
       </c>
       <c r="L261" s="81">
         <f t="shared" si="43"/>
-        <v>97.183098528463788</v>
+        <v>97.18309852846383</v>
       </c>
       <c r="M261" s="82">
         <f t="shared" si="44"/>
         <v>97.849819767450512</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="60">
         <v>45702</v>
       </c>
@@ -17271,14 +17271,14 @@
       </c>
       <c r="L262" s="81">
         <f t="shared" si="43"/>
-        <v>98.792818259299779</v>
+        <v>98.792818259299835</v>
       </c>
       <c r="M262" s="82">
         <f t="shared" si="44"/>
         <v>100.49023661003393</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="60">
         <v>45705</v>
       </c>
@@ -17321,14 +17321,14 @@
       </c>
       <c r="L263" s="81">
         <f t="shared" si="43"/>
-        <v>99.153942820667822</v>
+        <v>99.153942820667879</v>
       </c>
       <c r="M263" s="82">
         <f t="shared" si="44"/>
         <v>100.7512217120168</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="60">
         <v>45706</v>
       </c>
@@ -17371,14 +17371,14 @@
       </c>
       <c r="L264" s="81">
         <f t="shared" si="43"/>
-        <v>99.404602458070087</v>
+        <v>99.404602458070144</v>
       </c>
       <c r="M264" s="82">
         <f t="shared" si="44"/>
         <v>100.73554693111693</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="60">
         <v>45707</v>
       </c>
@@ -17421,14 +17421,14 @@
       </c>
       <c r="L265" s="81">
         <f t="shared" si="43"/>
-        <v>98.888670235898559</v>
+        <v>98.888670235898616</v>
       </c>
       <c r="M265" s="82">
         <f t="shared" si="44"/>
         <v>99.777034079089759</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="60">
         <v>45708</v>
       </c>
@@ -17471,14 +17471,14 @@
       </c>
       <c r="L266" s="81">
         <f t="shared" si="43"/>
-        <v>99.005405849922184</v>
+        <v>99.005405849922241</v>
       </c>
       <c r="M266" s="82">
         <f t="shared" si="44"/>
         <v>100.00588588022788</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="60">
         <v>45709</v>
       </c>
@@ -17521,14 +17521,14 @@
       </c>
       <c r="L267" s="81">
         <f t="shared" si="43"/>
-        <v>98.469989697928</v>
+        <v>98.469989697928057</v>
       </c>
       <c r="M267" s="82">
         <f t="shared" si="44"/>
         <v>99.63517731194591</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="60">
         <v>45712</v>
       </c>
@@ -17571,14 +17571,14 @@
       </c>
       <c r="L268" s="81">
         <f t="shared" si="43"/>
-        <v>97.737046809111106</v>
+        <v>97.737046809111163</v>
       </c>
       <c r="M268" s="82">
         <f t="shared" si="44"/>
         <v>98.281659981241958</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="60">
         <v>45713</v>
       </c>
@@ -17621,14 +17621,14 @@
       </c>
       <c r="L269" s="81">
         <f t="shared" ref="L269:L270" si="52">L268*(1+E269)</f>
-        <v>97.669524914380915</v>
+        <v>97.669524914380972</v>
       </c>
       <c r="M269" s="82">
         <f t="shared" ref="M269:M270" si="53">M268*(1+F269)</f>
         <v>98.735444888293259</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="60">
         <v>45714</v>
       </c>
@@ -17671,14 +17671,14 @@
       </c>
       <c r="L270" s="81">
         <f t="shared" si="52"/>
-        <v>97.736262972853879</v>
+        <v>97.736262972853936</v>
       </c>
       <c r="M270" s="82">
         <f t="shared" si="53"/>
         <v>97.786336904806006</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="60">
         <v>45715</v>
       </c>
@@ -17721,14 +17721,14 @@
       </c>
       <c r="L271" s="81">
         <f t="shared" ref="L271:L272" si="61">L270*(1+E271)</f>
-        <v>97.559955803280573</v>
+        <v>97.55995580328063</v>
       </c>
       <c r="M271" s="82">
         <f t="shared" ref="M271:M272" si="62">M270*(1+F271)</f>
         <v>97.8098490761558</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="60">
         <v>45716</v>
       </c>
@@ -17771,14 +17771,14 @@
       </c>
       <c r="L272" s="81">
         <f t="shared" si="61"/>
-        <v>97.471718236037788</v>
+        <v>97.471718236037844</v>
       </c>
       <c r="M272" s="82">
         <f t="shared" si="62"/>
         <v>96.242370986168609</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="60">
         <v>45721</v>
       </c>
@@ -17821,14 +17821,14 @@
       </c>
       <c r="L273" s="81">
         <f t="shared" ref="L273:L275" si="70">L272*(1+E273)</f>
-        <v>96.942740739013729</v>
+        <v>96.942740739013786</v>
       </c>
       <c r="M273" s="82">
         <f t="shared" ref="M273:M275" si="71">M272*(1+F273)</f>
         <v>96.436738269327023</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="60">
         <v>45722</v>
       </c>
@@ -17871,14 +17871,14 @@
       </c>
       <c r="L274" s="81">
         <f t="shared" si="70"/>
-        <v>96.824325475867468</v>
+        <v>96.824325475867525</v>
       </c>
       <c r="M274" s="82">
         <f t="shared" si="71"/>
         <v>96.680481112320038</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="60">
         <v>45723</v>
       </c>
@@ -17921,14 +17921,14 @@
       </c>
       <c r="L275" s="81">
         <f t="shared" si="70"/>
-        <v>97.94067627107944</v>
+        <v>97.940676271079496</v>
       </c>
       <c r="M275" s="82">
         <f t="shared" si="71"/>
         <v>97.994811490774296</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="60">
         <v>45726</v>
       </c>
@@ -17971,14 +17971,14 @@
       </c>
       <c r="L276" s="81">
         <f t="shared" ref="L276:L279" si="79">L275*(1+E276)</f>
-        <v>97.190656949515699</v>
+        <v>97.190656949515756</v>
       </c>
       <c r="M276" s="82">
         <f t="shared" ref="M276:M279" si="80">M275*(1+F276)</f>
         <v>97.590402143557597</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="60">
         <v>45727</v>
       </c>
@@ -18021,14 +18021,14 @@
       </c>
       <c r="L277" s="81">
         <f t="shared" si="79"/>
-        <v>96.661959394012086</v>
+        <v>96.661959394012143</v>
       </c>
       <c r="M277" s="82">
         <f t="shared" si="80"/>
         <v>96.797258230024084</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A278" s="60">
         <v>45728</v>
       </c>
@@ -18071,14 +18071,14 @@
       </c>
       <c r="L278" s="81">
         <f t="shared" si="79"/>
-        <v>96.711005148393241</v>
+        <v>96.711005148393298</v>
       </c>
       <c r="M278" s="82">
         <f t="shared" si="80"/>
         <v>97.077053069086801</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A279" s="60">
         <v>45729</v>
       </c>
@@ -18121,14 +18121,14 @@
       </c>
       <c r="L279" s="81">
         <f t="shared" si="79"/>
-        <v>97.387231885168916</v>
+        <v>97.387231885168973</v>
       </c>
       <c r="M279" s="82">
         <f t="shared" si="80"/>
         <v>98.466622395860455</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="60">
         <v>45730</v>
       </c>
@@ -18171,14 +18171,14 @@
       </c>
       <c r="L280" s="81">
         <f t="shared" ref="L280" si="88">L279*(1+E280)</f>
-        <v>99.168275826514403</v>
+        <v>99.16827582651446</v>
       </c>
       <c r="M280" s="82">
         <f t="shared" ref="M280" si="89">M279*(1+F280)</f>
         <v>101.0686360252392</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="60">
         <v>45733</v>
       </c>
@@ -18221,14 +18221,14 @@
       </c>
       <c r="L281" s="81">
         <f t="shared" ref="L281" si="96">L280*(1+E281)</f>
-        <v>100.23143773284271</v>
+        <v>100.23143773284276</v>
       </c>
       <c r="M281" s="82">
         <f t="shared" ref="M281" si="97">M280*(1+F281)</f>
         <v>102.53971421269218</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="60">
         <v>45734</v>
       </c>
@@ -18271,14 +18271,14 @@
       </c>
       <c r="L282" s="81">
         <f t="shared" ref="L282" si="104">L281*(1+E282)</f>
-        <v>100.45751850475033</v>
+        <v>100.45751850475038</v>
       </c>
       <c r="M282" s="82">
         <f t="shared" ref="M282" si="105">M281*(1+F282)</f>
         <v>103.04209094053307</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="60">
         <v>45735</v>
       </c>
@@ -18321,14 +18321,14 @@
       </c>
       <c r="L283" s="81">
         <f t="shared" ref="L283:L284" si="113">L282*(1+E283)</f>
-        <v>100.75156907782085</v>
+        <v>100.7515690778209</v>
       </c>
       <c r="M283" s="82">
         <f t="shared" ref="M283:M284" si="114">M282*(1+F283)</f>
         <v>103.85169337401146</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="60">
         <v>45736</v>
       </c>
@@ -18371,14 +18371,14 @@
       </c>
       <c r="L284" s="81">
         <f t="shared" si="113"/>
-        <v>100.66747464508057</v>
+        <v>100.66747464508063</v>
       </c>
       <c r="M284" s="82">
         <f t="shared" si="114"/>
         <v>103.41828568213</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="60">
         <v>45737</v>
       </c>
@@ -18421,14 +18421,14 @@
       </c>
       <c r="L285" s="81">
         <f t="shared" ref="L285" si="122">L284*(1+E285)</f>
-        <v>100.74137920647682</v>
+        <v>100.74137920647688</v>
       </c>
       <c r="M285" s="82">
         <f t="shared" ref="M285" si="123">M284*(1+F285)</f>
         <v>103.7239439096775</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="60">
         <v>45740</v>
       </c>
@@ -18471,14 +18471,14 @@
       </c>
       <c r="L286" s="81">
         <f t="shared" ref="L286" si="131">L285*(1+E286)</f>
-        <v>100.6796241070677</v>
+        <v>100.67962410706775</v>
       </c>
       <c r="M286" s="82">
         <f t="shared" ref="M286" si="132">M285*(1+F286)</f>
         <v>102.92139512760406</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="60">
         <v>45741</v>
       </c>
@@ -18521,14 +18521,14 @@
       </c>
       <c r="L287" s="81">
         <f t="shared" ref="L287:L288" si="140">L286*(1+E287)</f>
-        <v>100.75677599010105</v>
+        <v>100.7567759901011</v>
       </c>
       <c r="M287" s="82">
         <f t="shared" ref="M287:M288" si="141">M286*(1+F287)</f>
         <v>103.50684819421429</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="60">
         <v>45742</v>
       </c>
@@ -18571,14 +18571,14 @@
       </c>
       <c r="L288" s="81">
         <f t="shared" si="140"/>
-        <v>101.23004512455748</v>
+        <v>101.23004512455753</v>
       </c>
       <c r="M288" s="82">
         <f t="shared" si="141"/>
         <v>103.86109824255139</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="60">
         <v>45743</v>
       </c>
@@ -18621,14 +18621,14 @@
       </c>
       <c r="L289" s="81">
         <f t="shared" ref="L289" si="149">L288*(1+E289)</f>
-        <v>101.28278610700845</v>
+        <v>101.2827861070085</v>
       </c>
       <c r="M289" s="82">
         <f t="shared" ref="M289" si="150">M288*(1+F289)</f>
         <v>104.35407010185236</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A290" s="60">
         <v>45744</v>
       </c>
@@ -18671,14 +18671,14 @@
       </c>
       <c r="L290" s="81">
         <f t="shared" ref="L290:L291" si="158">L289*(1+E290)</f>
-        <v>100.58897904274913</v>
+        <v>100.58897904274919</v>
       </c>
       <c r="M290" s="82">
         <f t="shared" ref="M290:M291" si="159">M289*(1+F290)</f>
         <v>103.37674751274535</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A291" s="60">
         <v>45747</v>
       </c>
@@ -18721,14 +18721,14 @@
       </c>
       <c r="L291" s="81">
         <f t="shared" si="158"/>
-        <v>99.548324434664238</v>
+        <v>99.548324434664295</v>
       </c>
       <c r="M291" s="82">
         <f t="shared" si="159"/>
         <v>102.08984800086587</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A292" s="60">
         <v>45748</v>
       </c>
@@ -18771,14 +18771,14 @@
       </c>
       <c r="L292" s="81">
         <f t="shared" ref="L292:L293" si="167">L291*(1+E292)</f>
-        <v>100.00793242292319</v>
+        <v>100.00793242292325</v>
       </c>
       <c r="M292" s="82">
         <f t="shared" ref="M292:M293" si="168">M291*(1+F292)</f>
         <v>102.78502453377519</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A293" s="60">
         <v>45749</v>
       </c>
@@ -18821,14 +18821,14 @@
       </c>
       <c r="L293" s="81">
         <f t="shared" si="167"/>
-        <v>99.841031288436668</v>
+        <v>99.841031288436724</v>
       </c>
       <c r="M293" s="82">
         <f t="shared" si="168"/>
         <v>102.8187253127099</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A294" s="60">
         <v>45750</v>
       </c>
@@ -18871,14 +18871,14 @@
       </c>
       <c r="L294" s="81">
         <f t="shared" ref="L294:L297" si="176">L293*(1+E294)</f>
-        <v>98.665108937675015</v>
+        <v>98.665108937675072</v>
       </c>
       <c r="M294" s="82">
         <f t="shared" ref="M294:M297" si="177">M293*(1+F294)</f>
         <v>102.78032209950521</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A295" s="60">
         <v>45751</v>
       </c>
@@ -18921,14 +18921,14 @@
       </c>
       <c r="L295" s="81">
         <f t="shared" si="176"/>
-        <v>95.850632879471988</v>
+        <v>95.850632879472045</v>
       </c>
       <c r="M295" s="82">
         <f t="shared" si="177"/>
         <v>99.735495909705094</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A296" s="60">
         <v>45754</v>
       </c>
@@ -18971,14 +18971,14 @@
       </c>
       <c r="L296" s="81">
         <f t="shared" si="176"/>
-        <v>95.939598294667917</v>
+        <v>95.939598294667974</v>
       </c>
       <c r="M296" s="82">
         <f t="shared" si="177"/>
         <v>98.428219182655781</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A297" s="60">
         <v>45755</v>
       </c>
@@ -19021,14 +19021,14 @@
       </c>
       <c r="L297" s="81">
         <f t="shared" si="176"/>
-        <v>95.06573284446138</v>
+        <v>95.065732844461436</v>
       </c>
       <c r="M297" s="82">
         <f t="shared" si="177"/>
         <v>97.130347324146385</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A298" s="60">
         <v>45756</v>
       </c>
@@ -19071,14 +19071,14 @@
       </c>
       <c r="L298" s="81">
         <f t="shared" ref="L298:L300" si="185">L297*(1+E298)</f>
-        <v>97.827747861733883</v>
+        <v>97.82774786173394</v>
       </c>
       <c r="M298" s="82">
         <f t="shared" ref="M298:M300" si="186">M297*(1+F298)</f>
         <v>99.849921810274168</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A299" s="60">
         <v>45757</v>
       </c>
@@ -19121,14 +19121,14 @@
       </c>
       <c r="L299" s="81">
         <f t="shared" si="185"/>
-        <v>96.338011066558593</v>
+        <v>96.33801106655865</v>
       </c>
       <c r="M299" s="82">
         <f t="shared" si="186"/>
         <v>99.02934703016588</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A300" s="60">
         <v>45758</v>
       </c>
@@ -19171,14 +19171,14 @@
       </c>
       <c r="L300" s="81">
         <f t="shared" si="185"/>
-        <v>97.253419838398486</v>
+        <v>97.253419838398543</v>
       </c>
       <c r="M300" s="82">
         <f t="shared" si="186"/>
         <v>100.06936874287238</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A301" s="60">
         <v>45761</v>
       </c>
@@ -19221,14 +19221,14 @@
       </c>
       <c r="L301" s="81">
         <f t="shared" ref="L301" si="194">L300*(1+E301)</f>
-        <v>97.932110060554024</v>
+        <v>97.932110060554081</v>
       </c>
       <c r="M301" s="82">
         <f t="shared" ref="M301" si="195">M300*(1+F301)</f>
         <v>101.45815433060103</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A302" s="60">
         <v>45762</v>
       </c>
@@ -19271,14 +19271,14 @@
       </c>
       <c r="L302" s="81">
         <f t="shared" ref="L302" si="203">L301*(1+E302)</f>
-        <v>97.407107733120228</v>
+        <v>97.407107733120284</v>
       </c>
       <c r="M302" s="82">
         <f t="shared" ref="M302" si="204">M301*(1+F302)</f>
         <v>101.29435287019737</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A303" s="60">
         <v>45763</v>
       </c>
@@ -19321,14 +19321,14 @@
       </c>
       <c r="L303" s="81">
         <f t="shared" ref="L303:L304" si="212">L302*(1+E303)</f>
-        <v>96.440693616256112</v>
+        <v>96.440693616256169</v>
       </c>
       <c r="M303" s="82">
         <f t="shared" ref="M303:M304" si="213">M302*(1+F303)</f>
         <v>100.56704303644331</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A304" s="60">
         <v>45764</v>
       </c>
@@ -19371,11 +19371,367 @@
       </c>
       <c r="L304" s="81">
         <f t="shared" si="212"/>
-        <v>97.310639885176499</v>
+        <v>97.310639885176556</v>
       </c>
       <c r="M304" s="82">
         <f t="shared" si="213"/>
         <v>101.61176718341977</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="60">
+        <v>45769</v>
+      </c>
+      <c r="B305" s="26">
+        <v>130464</v>
+      </c>
+      <c r="C305" s="26">
+        <v>118099.56</v>
+      </c>
+      <c r="D305" s="68">
+        <v>1.7413511951399347</v>
+      </c>
+      <c r="E305" s="79">
+        <f t="shared" ref="E305:E308" si="214">D305/D304-1</f>
+        <v>1.8976378395449967E-3</v>
+      </c>
+      <c r="F305" s="79">
+        <f t="shared" ref="F305:F308" si="215">B305/B304-1</f>
+        <v>6.2784419591206397E-3</v>
+      </c>
+      <c r="G305" s="79">
+        <f t="shared" ref="G305:G308" si="216">D305/$D$2-1</f>
+        <v>-2.5046997623870526E-2</v>
+      </c>
+      <c r="H305" s="79">
+        <f t="shared" ref="H305:H308" si="217">B305/$B$2-1</f>
+        <v>2.2497307660445554E-2</v>
+      </c>
+      <c r="I305" s="80" t="str">
+        <f t="shared" ref="I305:I308" si="218">TEXT(A305,"mmaaaa")</f>
+        <v>042025</v>
+      </c>
+      <c r="J305" s="79">
+        <f t="shared" ref="J305:J308" si="219">IF(I305=I304,(1+E305)*(1+J304)-1,E305)</f>
+        <v>-2.0623392796518369E-2</v>
+      </c>
+      <c r="K305" s="79">
+        <f t="shared" ref="K305:K308" si="220">IF(I305=I304,(1+F305)*(1+K304)-1,F305)</f>
+        <v>1.5660985720864495E-3</v>
+      </c>
+      <c r="L305" s="81">
+        <f t="shared" ref="L305:L308" si="221">L304*(1+E305)</f>
+        <v>97.495300237613009</v>
+      </c>
+      <c r="M305" s="82">
+        <f t="shared" ref="M305:M308" si="222">M304*(1+F305)</f>
+        <v>102.24973076604455</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="60">
+        <f>A305+1</f>
+        <v>45770</v>
+      </c>
+      <c r="B306" s="26">
+        <v>132216</v>
+      </c>
+      <c r="C306" s="26">
+        <v>118888.93</v>
+      </c>
+      <c r="D306" s="68">
+        <v>1.7529902765463989</v>
+      </c>
+      <c r="E306" s="79">
+        <f t="shared" si="214"/>
+        <v>6.6839368410855915E-3</v>
+      </c>
+      <c r="F306" s="79">
+        <f t="shared" si="215"/>
+        <v>1.3428991905813037E-2</v>
+      </c>
+      <c r="G306" s="79">
+        <f t="shared" si="216"/>
+        <v>-1.8530473332961761E-2</v>
+      </c>
+      <c r="H306" s="79">
+        <f t="shared" si="217"/>
+        <v>3.6228415728733365E-2</v>
+      </c>
+      <c r="I306" s="80" t="str">
+        <f t="shared" si="218"/>
+        <v>042025</v>
+      </c>
+      <c r="J306" s="79">
+        <f t="shared" si="219"/>
+        <v>-1.4077301410333587E-2</v>
+      </c>
+      <c r="K306" s="79">
+        <f t="shared" si="220"/>
+        <v>1.5016121602947852E-2</v>
+      </c>
+      <c r="L306" s="81">
+        <f t="shared" si="221"/>
+        <v>98.146952666703896</v>
+      </c>
+      <c r="M306" s="82">
+        <f t="shared" si="222"/>
+        <v>103.62284157287333</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="60">
+        <f t="shared" ref="A307:A311" si="223">A306+1</f>
+        <v>45771</v>
+      </c>
+      <c r="B307" s="26">
+        <v>134580</v>
+      </c>
+      <c r="C307" s="26">
+        <v>120667.53</v>
+      </c>
+      <c r="D307" s="68">
+        <v>1.7792153296767907</v>
+      </c>
+      <c r="E307" s="79">
+        <f t="shared" si="214"/>
+        <v>1.4960181742740941E-2</v>
+      </c>
+      <c r="F307" s="79">
+        <f t="shared" si="215"/>
+        <v>1.7879833000544521E-2</v>
+      </c>
+      <c r="G307" s="79">
+        <f t="shared" si="216"/>
+        <v>-3.8475108390608748E-3</v>
+      </c>
+      <c r="H307" s="79">
+        <f t="shared" si="217"/>
+        <v>5.4756006752382014E-2</v>
+      </c>
+      <c r="I307" s="80" t="str">
+        <f t="shared" si="218"/>
+        <v>042025</v>
+      </c>
+      <c r="J307" s="79">
+        <f t="shared" si="219"/>
+        <v>6.72281344861414E-4</v>
+      </c>
+      <c r="K307" s="79">
+        <f t="shared" si="220"/>
+        <v>3.3164440350069047E-2</v>
+      </c>
+      <c r="L307" s="81">
+        <f t="shared" si="221"/>
+        <v>99.615248916093975</v>
+      </c>
+      <c r="M307" s="82">
+        <f t="shared" si="222"/>
+        <v>105.47560067523818</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="60">
+        <f t="shared" si="223"/>
+        <v>45772</v>
+      </c>
+      <c r="B308" s="26">
+        <v>134739</v>
+      </c>
+      <c r="C308" s="26">
+        <v>120872.73</v>
+      </c>
+      <c r="D308" s="68">
+        <v>1.7822409570816915</v>
+      </c>
+      <c r="E308" s="79">
+        <f t="shared" si="214"/>
+        <v>1.7005403193386393E-3</v>
+      </c>
+      <c r="F308" s="79">
+        <f t="shared" si="215"/>
+        <v>1.1814534106107111E-3</v>
+      </c>
+      <c r="G308" s="79">
+        <f t="shared" si="216"/>
+        <v>-2.1535133670331774E-3</v>
+      </c>
+      <c r="H308" s="79">
+        <f t="shared" si="217"/>
+        <v>5.6002151833921987E-2</v>
+      </c>
+      <c r="I308" s="80" t="str">
+        <f t="shared" si="218"/>
+        <v>042025</v>
+      </c>
+      <c r="J308" s="79">
+        <f t="shared" si="219"/>
+        <v>2.3739649057328283E-3</v>
+      </c>
+      <c r="K308" s="79">
+        <f t="shared" si="220"/>
+        <v>3.4385076001842263E-2</v>
+      </c>
+      <c r="L308" s="81">
+        <f t="shared" si="221"/>
+        <v>99.78464866329675</v>
+      </c>
+      <c r="M308" s="82">
+        <f t="shared" si="222"/>
+        <v>105.60021518339215</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="60">
+        <f>A308+3</f>
+        <v>45775</v>
+      </c>
+      <c r="B309" s="26">
+        <v>135015</v>
+      </c>
+      <c r="C309" s="26">
+        <v>121042.06</v>
+      </c>
+      <c r="D309" s="68">
+        <v>1.784737</v>
+      </c>
+      <c r="E309" s="79">
+        <f t="shared" ref="E309:E311" si="224">D309/D308-1</f>
+        <v>1.4005081122114849E-3</v>
+      </c>
+      <c r="F309" s="79">
+        <f t="shared" ref="F309:F311" si="225">B309/B308-1</f>
+        <v>2.0484046935185241E-3</v>
+      </c>
+      <c r="G309" s="79">
+        <f t="shared" ref="G309:G311" si="226">D309/$D$2-1</f>
+        <v>-7.5602126776197487E-4</v>
+      </c>
+      <c r="H309" s="79">
+        <f t="shared" ref="H309:H311" si="227">B309/$B$2-1</f>
+        <v>5.8165271598104251E-2</v>
+      </c>
+      <c r="I309" s="80" t="str">
+        <f t="shared" ref="I309:I311" si="228">TEXT(A309,"mmaaaa")</f>
+        <v>042025</v>
+      </c>
+      <c r="J309" s="79">
+        <f t="shared" ref="J309:J311" si="229">IF(I309=I308,(1+E309)*(1+J308)-1,E309)</f>
+        <v>3.7777977750528269E-3</v>
+      </c>
+      <c r="K309" s="79">
+        <f t="shared" ref="K309:K311" si="230">IF(I309=I308,(1+F309)*(1+K308)-1,F309)</f>
+        <v>3.650391524642993E-2</v>
+      </c>
+      <c r="L309" s="81">
+        <f t="shared" ref="L309:L311" si="231">L308*(1+E309)</f>
+        <v>99.924397873223867</v>
+      </c>
+      <c r="M309" s="82">
+        <f t="shared" ref="M309:M311" si="232">M308*(1+F309)</f>
+        <v>105.81652715981038</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="60">
+        <f t="shared" si="223"/>
+        <v>45776</v>
+      </c>
+      <c r="B310" s="26">
+        <v>135093</v>
+      </c>
+      <c r="C310" s="26">
+        <v>121544.67</v>
+      </c>
+      <c r="D310" s="68">
+        <v>1.7921480000000001</v>
+      </c>
+      <c r="E310" s="79">
+        <f t="shared" si="224"/>
+        <v>4.1524325432822362E-3</v>
+      </c>
+      <c r="F310" s="79">
+        <f t="shared" si="225"/>
+        <v>5.7771358737923606E-4</v>
+      </c>
+      <c r="G310" s="79">
+        <f t="shared" si="226"/>
+        <v>3.3932719482046014E-3</v>
+      </c>
+      <c r="H310" s="79">
+        <f t="shared" si="227"/>
+        <v>5.8776588053199186E-2</v>
+      </c>
+      <c r="I310" s="80" t="str">
+        <f t="shared" si="228"/>
+        <v>042025</v>
+      </c>
+      <c r="J310" s="79">
+        <f t="shared" si="229"/>
+        <v>7.9459173687581597E-3</v>
+      </c>
+      <c r="K310" s="79">
+        <f t="shared" si="230"/>
+        <v>3.7102717641639638E-2</v>
+      </c>
+      <c r="L310" s="81">
+        <f t="shared" si="231"/>
+        <v>100.33932719482053</v>
+      </c>
+      <c r="M310" s="82">
+        <f t="shared" si="232"/>
+        <v>105.87765880531988</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="60">
+        <f t="shared" si="223"/>
+        <v>45777</v>
+      </c>
+      <c r="B311" s="26">
+        <v>135067</v>
+      </c>
+      <c r="C311" s="26">
+        <v>122186.69</v>
+      </c>
+      <c r="D311" s="68">
+        <v>1.801615</v>
+      </c>
+      <c r="E311" s="79">
+        <f t="shared" si="224"/>
+        <v>5.2824878302462075E-3</v>
+      </c>
+      <c r="F311" s="79">
+        <f t="shared" si="225"/>
+        <v>-1.9246000903083704E-4</v>
+      </c>
+      <c r="G311" s="79">
+        <f t="shared" si="226"/>
+        <v>8.6936846962217817E-3</v>
+      </c>
+      <c r="H311" s="79">
+        <f t="shared" si="227"/>
+        <v>5.8572815901500874E-2</v>
+      </c>
+      <c r="I311" s="80" t="str">
+        <f t="shared" si="228"/>
+        <v>042025</v>
+      </c>
+      <c r="J311" s="79">
+        <f t="shared" si="229"/>
+        <v>1.3270379410804889E-2</v>
+      </c>
+      <c r="K311" s="79">
+        <f t="shared" si="230"/>
+        <v>3.6903116843236328E-2</v>
+      </c>
+      <c r="L311" s="81">
+        <f t="shared" si="231"/>
+        <v>100.86936846962226</v>
+      </c>
+      <c r="M311" s="82">
+        <f t="shared" si="232"/>
+        <v>105.85728159015005</v>
       </c>
     </row>
   </sheetData>
@@ -19392,24 +19748,24 @@
       <selection activeCell="B3" sqref="B3:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -19450,7 +19806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="19">
         <v>45657</v>
       </c>
@@ -19492,7 +19848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>45659</v>
       </c>
@@ -19541,7 +19897,7 @@
         <v>99.868643116649906</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>45660</v>
       </c>
@@ -19590,7 +19946,7 @@
         <v>98.545097810995742</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>45663</v>
       </c>
@@ -19639,7 +19995,7 @@
         <v>99.78301173066852</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>45664</v>
       </c>
@@ -19688,7 +20044,7 @@
         <v>100.7316079578993</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>45665</v>
       </c>
@@ -19737,7 +20093,7 @@
         <v>99.452956776934414</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>45666</v>
       </c>
@@ -19786,7 +20142,7 @@
         <v>99.582650914925651</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>45667</v>
       </c>
@@ -19835,7 +20191,7 @@
         <v>98.813631186451971</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>45670</v>
       </c>
@@ -19884,7 +20240,7 @@
         <v>98.939168461046066</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>45671</v>
       </c>
@@ -19933,7 +20289,7 @@
         <v>99.181929283439928</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>45672</v>
       </c>
@@ -19982,7 +20338,7 @@
         <v>101.96785913221323</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>45673</v>
       </c>
@@ -20031,7 +20387,7 @@
         <v>100.79063541813893</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>45674</v>
       </c>
@@ -20080,7 +20436,7 @@
         <v>101.71844732838393</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>45677</v>
       </c>
@@ -20129,7 +20485,7 @@
         <v>102.13829053149658</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>45678</v>
       </c>
@@ -20178,7 +20534,7 @@
         <v>102.53984353566175</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>45679</v>
       </c>
@@ -20227,7 +20583,7 @@
         <v>102.23556113498999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>45680</v>
       </c>
@@ -20276,7 +20632,7 @@
         <v>101.82901989474823</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>45681</v>
       </c>
@@ -20325,7 +20681,7 @@
         <v>101.79909047828872</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>45684</v>
       </c>
@@ -20374,7 +20730,7 @@
         <v>103.80685549911459</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>45685</v>
       </c>
@@ -20423,7 +20779,7 @@
         <v>103.1367691194932</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>45686</v>
       </c>
@@ -20472,7 +20828,7 @@
         <v>102.61799256752825</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>45687</v>
       </c>
@@ -20521,7 +20877,7 @@
         <v>105.51116949194815</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>45688</v>
       </c>
@@ -20570,7 +20926,7 @@
         <v>104.86519292003025</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>45691</v>
       </c>
@@ -20619,7 +20975,7 @@
         <v>104.72801642792415</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>45692</v>
       </c>
@@ -20668,7 +21024,7 @@
         <v>104.04379671275242</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>45693</v>
       </c>
@@ -20717,7 +21073,7 @@
         <v>104.36553793969222</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>45694</v>
       </c>
@@ -20766,7 +21122,7 @@
         <v>104.94001646117906</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>45695</v>
       </c>
@@ -20815,7 +21171,7 @@
         <v>103.60483193801286</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>45698</v>
       </c>
@@ -20864,7 +21220,7 @@
         <v>104.39713010151061</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>45699</v>
       </c>
@@ -20913,7 +21269,7 @@
         <v>105.18693414697007</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>45700</v>
       </c>
@@ -20962,7 +21318,7 @@
         <v>103.40613386762885</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>45701</v>
       </c>
@@ -21011,7 +21367,7 @@
         <v>103.79687902696143</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>45702</v>
       </c>
@@ -21060,7 +21416,7 @@
         <v>106.5977735839645</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>45705</v>
       </c>
@@ -21109,7 +21465,7 @@
         <v>106.87462068621502</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>45706</v>
       </c>
@@ -21158,7 +21514,7 @@
         <v>106.8579932326264</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>45707</v>
       </c>
@@ -21207,7 +21563,7 @@
         <v>105.84122444568227</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>45708</v>
       </c>
@@ -21256,7 +21612,7 @@
         <v>106.08398526807612</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>45709</v>
       </c>
@@ -21305,7 +21661,7 @@
         <v>105.69074599070525</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>45712</v>
       </c>
@@ -21355,7 +21711,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>45713</v>
       </c>
@@ -21404,7 +21760,7 @@
         <v>104.73633015471844</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>45714</v>
       </c>
@@ -21466,16 +21822,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
@@ -21492,7 +21848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="37">
         <v>45688</v>
       </c>
@@ -21510,7 +21866,7 @@
         <v>066.368.579-60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="37">
         <v>45688</v>
       </c>
@@ -21528,7 +21884,7 @@
         <v>360.228.188-42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="37">
         <v>45688</v>
       </c>
@@ -21546,7 +21902,7 @@
         <v>892.996.550-49</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="37">
         <v>45688</v>
       </c>
@@ -21564,7 +21920,7 @@
         <v>252.436.798-36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <v>45688</v>
       </c>
@@ -21582,7 +21938,7 @@
         <v>098.578.909-38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <v>45688</v>
       </c>
@@ -21600,7 +21956,7 @@
         <v>044.624.719-70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="37">
         <v>45688</v>
       </c>
@@ -21618,7 +21974,7 @@
         <v>872.566.739-49</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <v>45688</v>
       </c>
@@ -21636,7 +21992,7 @@
         <v>145.548.979-40</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="52">
         <v>45688</v>
       </c>
@@ -21654,7 +22010,7 @@
         <v>091.360.339-28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <v>45714</v>
       </c>
@@ -21674,7 +22030,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="37">
         <v>45714</v>
       </c>
@@ -21692,7 +22048,7 @@
         <v>360.228.188-42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="37">
         <v>45714</v>
       </c>
@@ -21710,7 +22066,7 @@
         <v>892.996.550-49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <v>45714</v>
       </c>
@@ -21728,7 +22084,7 @@
         <v>252.436.798-36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
         <v>45714</v>
       </c>
@@ -21746,7 +22102,7 @@
         <v>081.265.669-57</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="37">
         <v>45714</v>
       </c>
@@ -21764,7 +22120,7 @@
         <v>122.555.979-00</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="37">
         <v>45714</v>
       </c>
@@ -21782,7 +22138,7 @@
         <v>098.578.909-38</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="37">
         <v>45714</v>
       </c>
@@ -21800,7 +22156,7 @@
         <v>044.624.719-70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="37">
         <v>45714</v>
       </c>
@@ -21818,7 +22174,7 @@
         <v>872.566.739-49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="37">
         <v>45714</v>
       </c>
@@ -21836,7 +22192,7 @@
         <v>145.548.979-40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="37">
         <v>45714</v>
       </c>
@@ -21854,7 +22210,7 @@
         <v>091.360.339-28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="52">
         <v>45714</v>
       </c>
@@ -21879,27 +22235,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}">
-  <dimension ref="A1:P131"/>
+  <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="3"/>
-    <col min="4" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.88671875" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="3"/>
+    <col min="4" max="4" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="85" t="s">
         <v>16</v>
       </c>
@@ -21946,7 +22302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>45688</v>
       </c>
@@ -21992,7 +22348,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>45688</v>
       </c>
@@ -22038,7 +22394,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>45688</v>
       </c>
@@ -22084,7 +22440,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>45688</v>
       </c>
@@ -22130,7 +22486,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>45688</v>
       </c>
@@ -22176,7 +22532,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>45688</v>
       </c>
@@ -22222,7 +22578,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>45688</v>
       </c>
@@ -22268,7 +22624,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>45688</v>
       </c>
@@ -22314,7 +22670,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>45688</v>
       </c>
@@ -22360,7 +22716,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>45688</v>
       </c>
@@ -22406,7 +22762,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>45688</v>
       </c>
@@ -22433,7 +22789,7 @@
       <c r="J12" s="47"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>45716</v>
       </c>
@@ -22462,7 +22818,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>45716</v>
       </c>
@@ -22490,7 +22846,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>45716</v>
       </c>
@@ -22518,7 +22874,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>45716</v>
       </c>
@@ -22546,7 +22902,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>45716</v>
       </c>
@@ -22574,7 +22930,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>45716</v>
       </c>
@@ -22602,7 +22958,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>45716</v>
       </c>
@@ -22630,7 +22986,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>45716</v>
       </c>
@@ -22658,7 +23014,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>45716</v>
       </c>
@@ -22686,7 +23042,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>45716</v>
       </c>
@@ -22714,7 +23070,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>45716</v>
       </c>
@@ -22742,7 +23098,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>45723</v>
       </c>
@@ -22769,7 +23125,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>45723</v>
       </c>
@@ -22795,7 +23151,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>45723</v>
       </c>
@@ -22821,7 +23177,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>45723</v>
       </c>
@@ -22847,7 +23203,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>45723</v>
       </c>
@@ -22873,7 +23229,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>45723</v>
       </c>
@@ -22899,7 +23255,7 @@
       </c>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>45723</v>
       </c>
@@ -22925,7 +23281,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>45723</v>
       </c>
@@ -22951,7 +23307,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>45723</v>
       </c>
@@ -22977,7 +23333,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>45723</v>
       </c>
@@ -23003,7 +23359,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>45723</v>
       </c>
@@ -23029,7 +23385,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>45730</v>
       </c>
@@ -23055,7 +23411,7 @@
         <v>131555.39000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>45730</v>
       </c>
@@ -23083,7 +23439,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>45730</v>
       </c>
@@ -23110,7 +23466,7 @@
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>45730</v>
       </c>
@@ -23137,7 +23493,7 @@
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>45730</v>
       </c>
@@ -23164,7 +23520,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>45730</v>
       </c>
@@ -23191,7 +23547,7 @@
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>45730</v>
       </c>
@@ -23218,7 +23574,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>45730</v>
       </c>
@@ -23249,7 +23605,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>45730</v>
       </c>
@@ -23276,7 +23632,7 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>45730</v>
       </c>
@@ -23303,7 +23659,7 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>45730</v>
       </c>
@@ -23329,7 +23685,7 @@
         <v>131555.39000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>45733</v>
       </c>
@@ -23357,7 +23713,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>45733</v>
       </c>
@@ -23385,7 +23741,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>45733</v>
       </c>
@@ -23413,7 +23769,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>45733</v>
       </c>
@@ -23441,7 +23797,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>45733</v>
       </c>
@@ -23469,7 +23825,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <v>45733</v>
       </c>
@@ -23497,7 +23853,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <v>45733</v>
       </c>
@@ -23525,7 +23881,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <v>45733</v>
       </c>
@@ -23553,7 +23909,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <v>45733</v>
       </c>
@@ -23581,7 +23937,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <v>45733</v>
       </c>
@@ -23609,7 +23965,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>45733</v>
       </c>
@@ -23637,7 +23993,7 @@
       <c r="I56" s="88"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <v>45734</v>
       </c>
@@ -23665,7 +24021,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <v>45734</v>
       </c>
@@ -23692,7 +24048,7 @@
       </c>
       <c r="I58" s="89"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>45734</v>
       </c>
@@ -23718,7 +24074,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>45734</v>
       </c>
@@ -23744,7 +24100,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
         <v>45734</v>
       </c>
@@ -23770,7 +24126,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
         <v>45734</v>
       </c>
@@ -23796,7 +24152,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
         <v>45734</v>
       </c>
@@ -23822,7 +24178,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
         <v>45734</v>
       </c>
@@ -23848,7 +24204,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
         <v>45734</v>
       </c>
@@ -23874,7 +24230,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
         <v>45734</v>
       </c>
@@ -23900,7 +24256,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>45734</v>
       </c>
@@ -23926,7 +24282,7 @@
         <v>133265.72</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
         <v>45737</v>
       </c>
@@ -23952,7 +24308,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
         <v>45737</v>
       </c>
@@ -23978,7 +24334,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
         <v>45737</v>
       </c>
@@ -24004,7 +24360,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
         <v>45737</v>
       </c>
@@ -24030,7 +24386,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
         <v>45737</v>
       </c>
@@ -24056,7 +24412,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
         <v>45737</v>
       </c>
@@ -24082,7 +24438,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
         <v>45737</v>
       </c>
@@ -24108,7 +24464,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
         <v>45737</v>
       </c>
@@ -24134,7 +24490,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
         <v>45737</v>
       </c>
@@ -24160,7 +24516,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
         <v>45737</v>
       </c>
@@ -24186,7 +24542,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>45737</v>
       </c>
@@ -24212,7 +24568,7 @@
         <v>133642.26999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
         <v>45742</v>
       </c>
@@ -24239,7 +24595,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
         <v>45742</v>
       </c>
@@ -24267,7 +24623,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
         <v>45742</v>
       </c>
@@ -24295,7 +24651,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
         <v>45742</v>
       </c>
@@ -24323,7 +24679,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
         <v>45742</v>
       </c>
@@ -24351,7 +24707,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
         <v>45742</v>
       </c>
@@ -24379,7 +24735,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
         <v>45742</v>
       </c>
@@ -24407,7 +24763,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
         <v>45742</v>
       </c>
@@ -24435,7 +24791,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
         <v>45742</v>
       </c>
@@ -24463,7 +24819,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
         <v>45742</v>
       </c>
@@ -24491,7 +24847,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>45742</v>
       </c>
@@ -24519,7 +24875,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
         <v>45747</v>
       </c>
@@ -24546,7 +24902,7 @@
       </c>
       <c r="I90" s="90"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
         <v>45747</v>
       </c>
@@ -24576,7 +24932,7 @@
       <c r="J91" s="3"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
         <v>45747</v>
       </c>
@@ -24606,7 +24962,7 @@
       <c r="J92" s="3"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
         <v>45747</v>
       </c>
@@ -24636,7 +24992,7 @@
       <c r="J93" s="3"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
         <v>45747</v>
       </c>
@@ -24666,7 +25022,7 @@
       <c r="J94" s="3"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
         <v>45747</v>
       </c>
@@ -24696,7 +25052,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
         <v>45747</v>
       </c>
@@ -24726,7 +25082,7 @@
       <c r="J96" s="3"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
         <v>45747</v>
       </c>
@@ -24756,7 +25112,7 @@
       <c r="J97" s="3"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
         <v>45747</v>
       </c>
@@ -24786,7 +25142,7 @@
       <c r="J98" s="3"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
         <v>45747</v>
       </c>
@@ -24816,7 +25172,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="12">
         <v>45747</v>
       </c>
@@ -24846,7 +25202,7 @@
       <c r="J100" s="3"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
         <v>45755</v>
       </c>
@@ -24873,7 +25229,7 @@
       </c>
       <c r="I101" s="90"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
         <v>45755</v>
       </c>
@@ -24902,7 +25258,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
         <v>45755</v>
       </c>
@@ -24931,7 +25287,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
         <v>45755</v>
       </c>
@@ -24960,7 +25316,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
         <v>45755</v>
       </c>
@@ -24989,7 +25345,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
         <v>45755</v>
       </c>
@@ -25018,7 +25374,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
         <v>45755</v>
       </c>
@@ -25047,7 +25403,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
         <v>45755</v>
       </c>
@@ -25076,7 +25432,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
         <v>45755</v>
       </c>
@@ -25105,7 +25461,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
         <v>45755</v>
       </c>
@@ -25134,7 +25490,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
         <v>45755</v>
       </c>
@@ -25160,7 +25516,7 @@
         <v>115156.59</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
         <v>45761</v>
       </c>
@@ -25186,7 +25542,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>45761</v>
       </c>
@@ -25212,7 +25568,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>45761</v>
       </c>
@@ -25238,7 +25594,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>45761</v>
       </c>
@@ -25264,7 +25620,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>45761</v>
       </c>
@@ -25290,7 +25646,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>45761</v>
       </c>
@@ -25316,7 +25672,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>45761</v>
       </c>
@@ -25342,7 +25698,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>45761</v>
       </c>
@@ -25368,7 +25724,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>45761</v>
       </c>
@@ -25394,7 +25750,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>45761</v>
       </c>
@@ -25420,7 +25776,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>45764</v>
       </c>
@@ -25446,7 +25802,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>45764</v>
       </c>
@@ -25472,7 +25828,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>45764</v>
       </c>
@@ -25498,7 +25854,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>45764</v>
       </c>
@@ -25524,7 +25880,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>45764</v>
       </c>
@@ -25550,7 +25906,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>45764</v>
       </c>
@@ -25576,7 +25932,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>45764</v>
       </c>
@@ -25602,7 +25958,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>45764</v>
       </c>
@@ -25613,7 +25969,7 @@
         <v>5993.19</v>
       </c>
       <c r="D129" s="41">
-        <f t="shared" ref="D129:D131" si="17">C129/G129</f>
+        <f t="shared" ref="D129:D137" si="17">C129/G129</f>
         <v>5.0843217315838095E-2</v>
       </c>
       <c r="E129" s="10" t="str">
@@ -25628,7 +25984,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>45764</v>
       </c>
@@ -25654,7 +26010,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>45764</v>
       </c>
@@ -25678,6 +26034,266 @@
       <c r="G131" s="14">
         <f>_xlfn.XLOOKUP(A131,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>117875.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="9">
+        <v>45777</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="11">
+        <v>14725.37</v>
+      </c>
+      <c r="D132" s="41">
+        <f t="shared" si="17"/>
+        <v>0.12051533599936294</v>
+      </c>
+      <c r="E132" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B132,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G132" s="11">
+        <f>_xlfn.XLOOKUP(A132,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122186.69</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="9">
+        <v>45777</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" s="11">
+        <v>7613.06</v>
+      </c>
+      <c r="D133" s="41">
+        <f t="shared" si="17"/>
+        <v>6.2306786442942352E-2</v>
+      </c>
+      <c r="E133" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B133,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G133" s="11">
+        <f>_xlfn.XLOOKUP(A133,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122186.69</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="9">
+        <v>45777</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C134" s="11">
+        <v>16311.08</v>
+      </c>
+      <c r="D134" s="41">
+        <f t="shared" si="17"/>
+        <v>0.13349309978034432</v>
+      </c>
+      <c r="E134" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B134,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G134" s="11">
+        <f>_xlfn.XLOOKUP(A134,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122186.69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="9">
+        <v>45777</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="11">
+        <v>11972.16</v>
+      </c>
+      <c r="D135" s="41">
+        <f t="shared" si="17"/>
+        <v>9.798252166418453E-2</v>
+      </c>
+      <c r="E135" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B135,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G135" s="11">
+        <f>_xlfn.XLOOKUP(A135,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122186.69</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="9">
+        <v>45777</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="11">
+        <v>16542.89</v>
+      </c>
+      <c r="D136" s="41">
+        <f t="shared" si="17"/>
+        <v>0.13539027859744787</v>
+      </c>
+      <c r="E136" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B136,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G136" s="11">
+        <f>_xlfn.XLOOKUP(A136,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122186.69</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="9">
+        <v>45777</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" s="11">
+        <v>6732.65</v>
+      </c>
+      <c r="D137" s="41">
+        <f t="shared" si="17"/>
+        <v>5.5101337142367958E-2</v>
+      </c>
+      <c r="E137" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B137,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F137" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G137" s="11">
+        <f>_xlfn.XLOOKUP(A137,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122186.69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="9">
+        <v>45777</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C138" s="11">
+        <v>14225.62</v>
+      </c>
+      <c r="D138" s="41">
+        <f>C138/G138</f>
+        <v>0.11642528331031801</v>
+      </c>
+      <c r="E138" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B138,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G138" s="11">
+        <f>_xlfn.XLOOKUP(A138,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122186.69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="9">
+        <v>45777</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C139" s="11">
+        <v>6364.65</v>
+      </c>
+      <c r="D139" s="41">
+        <f t="shared" ref="D139:D141" si="18">C139/G139</f>
+        <v>5.2089552470895147E-2</v>
+      </c>
+      <c r="E139" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B139,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G139" s="11">
+        <f>_xlfn.XLOOKUP(A139,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122186.69</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="9">
+        <v>45777</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140" s="11">
+        <v>13479.3</v>
+      </c>
+      <c r="D140" s="41">
+        <f t="shared" si="18"/>
+        <v>0.11031725304941151</v>
+      </c>
+      <c r="E140" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B140,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G140" s="11">
+        <f>_xlfn.XLOOKUP(A140,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122186.69</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="12">
+        <v>45777</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" s="14">
+        <v>13668.23</v>
+      </c>
+      <c r="D141" s="42">
+        <f t="shared" si="18"/>
+        <v>0.11186349347870868</v>
+      </c>
+      <c r="E141" s="13" t="str">
+        <f>_xlfn.XLOOKUP(B141,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G141" s="14">
+        <f>_xlfn.XLOOKUP(A141,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122186.69</v>
       </c>
     </row>
   </sheetData>
@@ -25694,18 +26310,18 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B2" s="47">
         <v>45292</v>
       </c>
@@ -25756,7 +26372,7 @@
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B3" s="47" t="str">
         <f>TEXT(B2,"mmaaaa")</f>
         <v>012024</v>
@@ -25808,7 +26424,7 @@
       <c r="N3" s="47"/>
       <c r="O3" s="47"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" s="47"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
@@ -25824,7 +26440,7 @@
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B5" s="47">
         <v>45658</v>
       </c>
@@ -25875,7 +26491,7 @@
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="47" t="str">
         <f>TEXT(B5,"mmaaaa")</f>
         <v>012025</v>
@@ -25927,7 +26543,7 @@
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>64</v>
       </c>
@@ -25984,7 +26600,7 @@
       </c>
       <c r="O7" s="48"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -26002,7 +26618,7 @@
       </c>
       <c r="E8" s="49">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
-        <v>-2.247837482143078E-2</v>
+        <v>1.3270379410804889E-2</v>
       </c>
       <c r="F8" s="49" t="str">
         <f>_xlfn.XLOOKUP(F6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
@@ -26038,12 +26654,12 @@
       </c>
       <c r="N8" s="49" cm="1">
         <f t="array" ref="N8">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B8:M8,B8:M8&lt;&gt;"-"))))-1</f>
-        <v>3.0351156442018024E-2</v>
+        <v>6.8031929241102684E-2</v>
       </c>
       <c r="O8" s="1"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -26061,7 +26677,7 @@
       </c>
       <c r="E9" s="49">
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
-        <v>-4.6829418086903329E-3</v>
+        <v>3.6903116843236328E-2</v>
       </c>
       <c r="F9" s="49" t="str">
         <f>_xlfn.XLOOKUP(F6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
@@ -26097,11 +26713,11 @@
       </c>
       <c r="N9" s="49" cm="1">
         <f t="array" ref="N9">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B9:M9,B9:M9&lt;&gt;"-"))))-1</f>
-        <v>7.7874678882303039E-2</v>
+        <v>0.12291013692708064</v>
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -26119,7 +26735,7 @@
       </c>
       <c r="E10" s="49">
         <f t="shared" si="14"/>
-        <v>0.98212083992102139</v>
+        <v>0.97720834565105819</v>
       </c>
       <c r="F10" s="49" t="str">
         <f t="shared" si="14"/>
@@ -26155,12 +26771,12 @@
       </c>
       <c r="N10" s="49">
         <f t="shared" si="14"/>
-        <v>0.95590997416363443</v>
+        <v>0.95112858466470351</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="49"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -26218,7 +26834,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -26276,7 +26892,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -26334,12 +26950,12 @@
       </c>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D15" s="1"/>
     </row>
   </sheetData>
@@ -26355,31 +26971,31 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.14249999999999999</v>
       </c>
     </row>
-    <row r="24" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="12:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -26398,9 +27014,9 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -26414,7 +27030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -26428,7 +27044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -26442,7 +27058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -26456,7 +27072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -26470,7 +27086,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -26484,7 +27100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -26498,7 +27114,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -26512,7 +27128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -26526,7 +27142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -26540,7 +27156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -26554,7 +27170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>59</v>
       </c>

--- a/Relatório_Gerencial_Denver.xlsx
+++ b/Relatório_Gerencial_Denver.xlsx
@@ -8,22 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaobassi/Library/CloudStorage/GoogleDrive-joao.bassi@denvercontabil.com.br/Meu Drive/Denver Asset/Clube Kairos/_DashBoard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF36E00-CD9C-1546-8837-9D87A16F2EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCA1570-D240-4C41-9B1B-D3B1134603E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
+    <workbookView xWindow="6040" yWindow="22100" windowWidth="28800" windowHeight="16260" xr2:uid="{EAECE1ED-A44F-408D-B68A-B04E867498A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico_Cota" sheetId="7" r:id="rId1"/>
     <sheet name="Historico_Cota_old" sheetId="1" state="hidden" r:id="rId2"/>
     <sheet name="Cotistas" sheetId="2" r:id="rId3"/>
     <sheet name="Ativos" sheetId="3" r:id="rId4"/>
-    <sheet name="Rent_Mensal" sheetId="5" r:id="rId5"/>
-    <sheet name="Selic" sheetId="6" r:id="rId6"/>
-    <sheet name="Cadastro_Acoes" sheetId="4" state="hidden" r:id="rId7"/>
+    <sheet name="Movimentos" sheetId="8" r:id="rId5"/>
+    <sheet name="Rent_Mensal" sheetId="5" r:id="rId6"/>
+    <sheet name="Selic" sheetId="6" r:id="rId7"/>
+    <sheet name="Cadastro_Acoes" sheetId="4" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Ativos!$A$1:$G$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Historico_Cota!$A$1:$S$1</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Historico_Cota!$L$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Historico_Cota!$L$2:$L$319</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Historico_Cota!$M$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Historico_Cota!$M$2:$M$319</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Historico_Cota!$L$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Historico_Cota!$L$2:$L$319</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Historico_Cota!$M$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Historico_Cota!$M$2:$M$319</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2193,7 +2202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="79">
   <si>
     <t xml:space="preserve">Data </t>
   </si>
@@ -2413,6 +2422,24 @@
   <si>
     <t>SA</t>
   </si>
+  <si>
+    <t>QTDE</t>
+  </si>
+  <si>
+    <t>PU</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NOVO % PL</t>
+  </si>
+  <si>
+    <t>NOVA QTDE</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
 </sst>
 </file>
 
@@ -2425,7 +2452,7 @@
     <numFmt numFmtId="167" formatCode="0.0000%"/>
     <numFmt numFmtId="168" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2481,8 +2508,40 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2522,6 +2581,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2688,11 +2759,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2890,9 +2962,25 @@
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2906,6 +2994,3221 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Movimentos!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NOVO % PL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3D17-8740-8B59-FD2C2CA3BCEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3D17-8740-8B59-FD2C2CA3BCEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3D17-8740-8B59-FD2C2CA3BCEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3D17-8740-8B59-FD2C2CA3BCEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3D17-8740-8B59-FD2C2CA3BCEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3D17-8740-8B59-FD2C2CA3BCEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3D17-8740-8B59-FD2C2CA3BCEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3D17-8740-8B59-FD2C2CA3BCEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3D17-8740-8B59-FD2C2CA3BCEA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Movimentos!$E$2:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Intermediários Financeiros</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Previdência e Seguros</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Intermediários Financeiros</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energia Elétrica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Energia Elétrica</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fundos de índice</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Petróleo, Gás e Biocombustíveis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Fundos de índice</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mineração</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Movimentos!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4135512923119189E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13046571110781618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-9738-C944-8774-A5384E436111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Movimentos!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NOVO % PL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9738-C944-8774-A5384E436111}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9738-C944-8774-A5384E436111}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9738-C944-8774-A5384E436111}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9738-C944-8774-A5384E436111}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9738-C944-8774-A5384E436111}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-9738-C944-8774-A5384E436111}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-9738-C944-8774-A5384E436111}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-9738-C944-8774-A5384E436111}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-9738-C944-8774-A5384E436111}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Movimentos!$E$2:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Intermediários Financeiros</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Previdência e Seguros</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Intermediários Financeiros</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energia Elétrica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Energia Elétrica</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fundos de índice</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Petróleo, Gás e Biocombustíveis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Fundos de índice</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mineração</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Movimentos!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4135512923119189E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13046571110781618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-9738-C944-8774-A5384E436111}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Movimentos!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NOVO % PL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Movimentos!$E$2:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Intermediários Financeiros</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Previdência e Seguros</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Intermediários Financeiros</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energia Elétrica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Energia Elétrica</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fundos de índice</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Petróleo, Gás e Biocombustíveis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Fundos de índice</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mineração</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Movimentos!$D$2:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.11863602370915019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4135512923119189E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13640587270250895</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0384319003572272E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13069288018425348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6702783973460853E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13046571110781618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5570658899482553E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11097780383203432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-10C5-BF47-A99E-854E28696FF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Movimentos!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NOVO % PL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000020-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000022-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000024-10C5-BF47-A99E-854E28696FF9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Movimentos!$E$2:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Intermediários Financeiros</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Previdência e Seguros</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Intermediários Financeiros</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Energia Elétrica</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Energia Elétrica</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fundos de índice</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Petróleo, Gás e Biocombustíveis</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Fundos de índice</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mineração</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Movimentos!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4135512923119189E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0399999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13046571110781618</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000025-10C5-BF47-A99E-854E28696FF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C86D8F-EF57-A3F0-2A1C-80F87755EB72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C329A95-687F-E947-BCFE-01D4B009DB94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4162,11 +7465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C7BB3D-AA6F-4398-826D-91557AA445E2}">
-  <dimension ref="A1:S311"/>
+  <dimension ref="A1:S319"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="174" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G315" sqref="G315"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A319" sqref="A319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4725,6 +8028,7 @@
         <f t="shared" si="5"/>
         <v>101.82032798068303</v>
       </c>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="57">
@@ -19481,7 +22785,7 @@
     </row>
     <row r="307" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A307" s="60">
-        <f t="shared" ref="A307:A311" si="223">A306+1</f>
+        <f t="shared" ref="A307:A319" si="223">A306+1</f>
         <v>45771</v>
       </c>
       <c r="B307" s="26">
@@ -19732,6 +23036,414 @@
       <c r="M311" s="82">
         <f t="shared" si="232"/>
         <v>105.85728159015005</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="60">
+        <f>A311+2</f>
+        <v>45779</v>
+      </c>
+      <c r="B312" s="26">
+        <v>135134</v>
+      </c>
+      <c r="C312" s="26">
+        <v>123086.85</v>
+      </c>
+      <c r="D312" s="68">
+        <v>1.8148869999999999</v>
+      </c>
+      <c r="E312" s="79">
+        <f t="shared" ref="E312:E314" si="233">D312/D311-1</f>
+        <v>7.3667237450842915E-3</v>
+      </c>
+      <c r="F312" s="79">
+        <f t="shared" ref="F312:F314" si="234">B312/B311-1</f>
+        <v>4.9605010846476283E-4</v>
+      </c>
+      <c r="G312" s="79">
+        <f t="shared" ref="G312:G314" si="235">D312/$D$2-1</f>
+        <v>1.6124452414790102E-2</v>
+      </c>
+      <c r="H312" s="79">
+        <f t="shared" ref="H312:H314" si="236">B312/$B$2-1</f>
+        <v>5.9097921061646685E-2</v>
+      </c>
+      <c r="I312" s="80" t="str">
+        <f t="shared" ref="I312:I314" si="237">TEXT(A312,"mmaaaa")</f>
+        <v>052025</v>
+      </c>
+      <c r="J312" s="79">
+        <f t="shared" ref="J312:J314" si="238">IF(I312=I311,(1+E312)*(1+J311)-1,E312)</f>
+        <v>7.3667237450842915E-3</v>
+      </c>
+      <c r="K312" s="79">
+        <f t="shared" ref="K312:K314" si="239">IF(I312=I311,(1+F312)*(1+K311)-1,F312)</f>
+        <v>4.9605010846476283E-4</v>
+      </c>
+      <c r="L312" s="81">
+        <f t="shared" ref="L312:L314" si="240">L311*(1+E312)</f>
+        <v>101.61244524147908</v>
+      </c>
+      <c r="M312" s="82">
+        <f t="shared" ref="M312:M314" si="241">M311*(1+F312)</f>
+        <v>105.90979210616463</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="60">
+        <f>A312+3</f>
+        <v>45782</v>
+      </c>
+      <c r="B313" s="26">
+        <v>133491</v>
+      </c>
+      <c r="C313" s="26">
+        <v>122384.88</v>
+      </c>
+      <c r="D313" s="68">
+        <v>1.8045370000000001</v>
+      </c>
+      <c r="E313" s="79">
+        <f t="shared" si="233"/>
+        <v>-5.7028343913422264E-3</v>
+      </c>
+      <c r="F313" s="79">
+        <f t="shared" si="234"/>
+        <v>-1.2158302129737897E-2</v>
+      </c>
+      <c r="G313" s="79">
+        <f t="shared" si="235"/>
+        <v>1.0329662941675144E-2</v>
+      </c>
+      <c r="H313" s="79">
+        <f t="shared" si="236"/>
+        <v>4.6221088552401701E-2</v>
+      </c>
+      <c r="I313" s="80" t="str">
+        <f t="shared" si="237"/>
+        <v>052025</v>
+      </c>
+      <c r="J313" s="79">
+        <f t="shared" si="238"/>
+        <v>1.6218781482171263E-3</v>
+      </c>
+      <c r="K313" s="79">
+        <f t="shared" si="239"/>
+        <v>-1.1668283148363323E-2</v>
+      </c>
+      <c r="L313" s="81">
+        <f t="shared" si="240"/>
+        <v>101.03296629416759</v>
+      </c>
+      <c r="M313" s="82">
+        <f t="shared" si="241"/>
+        <v>104.62210885524016</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="60">
+        <f t="shared" si="223"/>
+        <v>45783</v>
+      </c>
+      <c r="B314" s="26">
+        <v>133516</v>
+      </c>
+      <c r="C314" s="26">
+        <v>122177.5</v>
+      </c>
+      <c r="D314" s="68">
+        <v>1.8014790000000001</v>
+      </c>
+      <c r="E314" s="79">
+        <f t="shared" si="233"/>
+        <v>-1.6946175113061734E-3</v>
+      </c>
+      <c r="F314" s="79">
+        <f t="shared" si="234"/>
+        <v>1.872785431227264E-4</v>
+      </c>
+      <c r="G314" s="79">
+        <f t="shared" si="235"/>
+        <v>8.617540602662066E-3</v>
+      </c>
+      <c r="H314" s="79">
+        <f t="shared" si="236"/>
+        <v>4.6417023313650274E-2</v>
+      </c>
+      <c r="I314" s="80" t="str">
+        <f t="shared" si="237"/>
+        <v>052025</v>
+      </c>
+      <c r="J314" s="79">
+        <f t="shared" si="238"/>
+        <v>-7.5487826200260066E-5</v>
+      </c>
+      <c r="K314" s="79">
+        <f t="shared" si="239"/>
+        <v>-1.1483189824309403E-2</v>
+      </c>
+      <c r="L314" s="81">
+        <f t="shared" si="240"/>
+        <v>100.86175406026629</v>
+      </c>
+      <c r="M314" s="82">
+        <f t="shared" si="241"/>
+        <v>104.641702331365</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="60">
+        <f t="shared" si="223"/>
+        <v>45784</v>
+      </c>
+      <c r="B315" s="26">
+        <v>133398</v>
+      </c>
+      <c r="C315" s="26">
+        <v>122255.06</v>
+      </c>
+      <c r="D315" s="68">
+        <v>1.8026230000000001</v>
+      </c>
+      <c r="E315" s="79">
+        <f t="shared" ref="E315:E317" si="242">D315/D314-1</f>
+        <v>6.3503376947493528E-4</v>
+      </c>
+      <c r="F315" s="79">
+        <f t="shared" ref="F315:F317" si="243">B315/B314-1</f>
+        <v>-8.8378920878395828E-4</v>
+      </c>
+      <c r="G315" s="79">
+        <f t="shared" ref="G315:G317" si="244">D315/$D$2-1</f>
+        <v>9.2580468014296091E-3</v>
+      </c>
+      <c r="H315" s="79">
+        <f t="shared" ref="H315:H317" si="245">B315/$B$2-1</f>
+        <v>4.5492211240557801E-2</v>
+      </c>
+      <c r="I315" s="80" t="str">
+        <f t="shared" ref="I315:I317" si="246">TEXT(A315,"mmaaaa")</f>
+        <v>052025</v>
+      </c>
+      <c r="J315" s="79">
+        <f t="shared" ref="J315:J317" si="247">IF(I315=I314,(1+E315)*(1+J314)-1,E315)</f>
+        <v>5.5949800595578303E-4</v>
+      </c>
+      <c r="K315" s="79">
+        <f t="shared" ref="K315:K317" si="248">IF(I315=I314,(1+F315)*(1+K314)-1,F315)</f>
+        <v>-1.2356830313844269E-2</v>
+      </c>
+      <c r="L315" s="81">
+        <f t="shared" ref="L315:L317" si="249">L314*(1+E315)</f>
+        <v>100.92580468014303</v>
+      </c>
+      <c r="M315" s="82">
+        <f t="shared" ref="M315:M317" si="250">M314*(1+F315)</f>
+        <v>104.54922112405575</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="60">
+        <f t="shared" si="223"/>
+        <v>45785</v>
+      </c>
+      <c r="B316" s="26">
+        <v>136232</v>
+      </c>
+      <c r="C316" s="26">
+        <v>123488.72</v>
+      </c>
+      <c r="D316" s="68">
+        <v>1.820813</v>
+      </c>
+      <c r="E316" s="79">
+        <f t="shared" si="242"/>
+        <v>1.009085094331974E-2</v>
+      </c>
+      <c r="F316" s="79">
+        <f t="shared" si="243"/>
+        <v>2.1244696322283652E-2</v>
+      </c>
+      <c r="G316" s="79">
+        <f t="shared" si="244"/>
+        <v>1.9442319315049028E-2</v>
+      </c>
+      <c r="H316" s="79">
+        <f t="shared" si="245"/>
+        <v>6.77033757756762E-2</v>
+      </c>
+      <c r="I316" s="80" t="str">
+        <f t="shared" si="246"/>
+        <v>052025</v>
+      </c>
+      <c r="J316" s="79">
+        <f t="shared" si="247"/>
+        <v>1.0655994760256693E-2</v>
+      </c>
+      <c r="K316" s="79">
+        <f t="shared" si="248"/>
+        <v>8.6253489009158191E-3</v>
+      </c>
+      <c r="L316" s="81">
+        <f t="shared" si="249"/>
+        <v>101.94423193150496</v>
+      </c>
+      <c r="M316" s="82">
+        <f t="shared" si="250"/>
+        <v>106.7703375775676</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="60">
+        <f t="shared" si="223"/>
+        <v>45786</v>
+      </c>
+      <c r="B317" s="26">
+        <v>136512</v>
+      </c>
+      <c r="C317" s="26">
+        <v>123858.48</v>
+      </c>
+      <c r="D317" s="68">
+        <v>1.826265</v>
+      </c>
+      <c r="E317" s="79">
+        <f t="shared" si="242"/>
+        <v>2.9942668467326516E-3</v>
+      </c>
+      <c r="F317" s="79">
+        <f t="shared" si="243"/>
+        <v>2.0553173997299723E-3</v>
+      </c>
+      <c r="G317" s="79">
+        <f t="shared" si="244"/>
+        <v>2.2494801653930363E-2</v>
+      </c>
+      <c r="H317" s="79">
+        <f t="shared" si="245"/>
+        <v>6.9897845101658307E-2</v>
+      </c>
+      <c r="I317" s="80" t="str">
+        <f t="shared" si="246"/>
+        <v>052025</v>
+      </c>
+      <c r="J317" s="79">
+        <f t="shared" si="247"/>
+        <v>1.368216849881887E-2</v>
+      </c>
+      <c r="K317" s="79">
+        <f t="shared" si="248"/>
+        <v>1.0698394130320477E-2</v>
+      </c>
+      <c r="L317" s="81">
+        <f t="shared" si="249"/>
+        <v>102.24948016539309</v>
+      </c>
+      <c r="M317" s="82">
+        <f t="shared" si="250"/>
+        <v>106.98978451016582</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="60">
+        <f t="shared" si="223"/>
+        <v>45787</v>
+      </c>
+      <c r="B318" s="26">
+        <v>136563</v>
+      </c>
+      <c r="C318" s="26">
+        <v>124653.35</v>
+      </c>
+      <c r="D318" s="68">
+        <v>1.837985</v>
+      </c>
+      <c r="E318" s="79">
+        <f t="shared" ref="E318" si="251">D318/D317-1</f>
+        <v>6.4174695348155897E-3</v>
+      </c>
+      <c r="F318" s="79">
+        <f t="shared" ref="F318" si="252">B318/B317-1</f>
+        <v>3.7359353023913577E-4</v>
+      </c>
+      <c r="G318" s="79">
+        <f t="shared" ref="G318" si="253">D318/$D$2-1</f>
+        <v>2.9056630893051771E-2</v>
+      </c>
+      <c r="H318" s="79">
+        <f t="shared" ref="H318" si="254">B318/$B$2-1</f>
+        <v>7.0297552014605191E-2</v>
+      </c>
+      <c r="I318" s="80" t="str">
+        <f t="shared" ref="I318" si="255">TEXT(A318,"mmaaaa")</f>
+        <v>052025</v>
+      </c>
+      <c r="J318" s="79">
+        <f t="shared" ref="J318" si="256">IF(I318=I317,(1+E318)*(1+J317)-1,E318)</f>
+        <v>2.0187442933145894E-2</v>
+      </c>
+      <c r="K318" s="79">
+        <f t="shared" ref="K318" si="257">IF(I318=I317,(1+F318)*(1+K317)-1,F318)</f>
+        <v>1.107598451139058E-2</v>
+      </c>
+      <c r="L318" s="81">
+        <f t="shared" ref="L318" si="258">L317*(1+E318)</f>
+        <v>102.90566308930524</v>
+      </c>
+      <c r="M318" s="82">
+        <f t="shared" ref="M318" si="259">M317*(1+F318)</f>
+        <v>107.0297552014605</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="60">
+        <f t="shared" si="223"/>
+        <v>45788</v>
+      </c>
+      <c r="B319" s="26">
+        <v>138963</v>
+      </c>
+      <c r="C319" s="26">
+        <v>126243.54</v>
+      </c>
+      <c r="D319" s="68">
+        <v>1.861432</v>
+      </c>
+      <c r="E319" s="79">
+        <f t="shared" ref="E319" si="260">D319/D318-1</f>
+        <v>1.2756904980182115E-2</v>
+      </c>
+      <c r="F319" s="79">
+        <f t="shared" ref="F319" si="261">B319/B318-1</f>
+        <v>1.7574306364095627E-2</v>
+      </c>
+      <c r="G319" s="79">
+        <f t="shared" ref="G319" si="262">D319/$D$2-1</f>
+        <v>4.218420855258076E-2</v>
+      </c>
+      <c r="H319" s="79">
+        <f t="shared" ref="H319" si="263">B319/$B$2-1</f>
+        <v>8.9107289094451314E-2</v>
+      </c>
+      <c r="I319" s="80" t="str">
+        <f t="shared" ref="I319" si="264">TEXT(A319,"mmaaaa")</f>
+        <v>052025</v>
+      </c>
+      <c r="J319" s="79">
+        <f t="shared" ref="J319" si="265">IF(I319=I318,(1+E319)*(1+J318)-1,E319)</f>
+        <v>3.3201877204618979E-2</v>
+      </c>
+      <c r="K319" s="79">
+        <f t="shared" ref="K319" si="266">IF(I319=I318,(1+F319)*(1+K318)-1,F319)</f>
+        <v>2.8844943620573327E-2</v>
+      </c>
+      <c r="L319" s="81">
+        <f t="shared" ref="L319" si="267">L318*(1+E319)</f>
+        <v>104.21842085525813</v>
+      </c>
+      <c r="M319" s="82">
+        <f t="shared" ref="M319" si="268">M318*(1+F319)</f>
+        <v>108.91072890944513</v>
       </c>
     </row>
   </sheetData>
@@ -21819,7 +25531,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22235,10 +25947,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}">
-  <dimension ref="A1:P141"/>
+  <dimension ref="A1:P162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView showGridLines="0" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22250,9 +25962,10 @@
     <col min="5" max="5" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.83203125" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -22326,6 +26039,7 @@
       <c r="G2" s="11">
         <v>116861.75999999999</v>
       </c>
+      <c r="H2"/>
       <c r="J2" s="47">
         <v>45761</v>
       </c>
@@ -22372,6 +26086,7 @@
       <c r="G3" s="11">
         <v>116861.75999999999</v>
       </c>
+      <c r="H3"/>
       <c r="J3" s="47">
         <v>45761</v>
       </c>
@@ -22418,6 +26133,7 @@
       <c r="G4" s="11">
         <v>116861.75999999999</v>
       </c>
+      <c r="H4"/>
       <c r="J4" s="47">
         <v>45761</v>
       </c>
@@ -22464,6 +26180,7 @@
       <c r="G5" s="11">
         <v>116861.75999999999</v>
       </c>
+      <c r="H5"/>
       <c r="J5" s="47">
         <v>45761</v>
       </c>
@@ -22510,6 +26227,7 @@
       <c r="G6" s="11">
         <v>116861.75999999999</v>
       </c>
+      <c r="H6"/>
       <c r="J6" s="47">
         <v>45761</v>
       </c>
@@ -22556,6 +26274,7 @@
       <c r="G7" s="11">
         <v>116861.75999999999</v>
       </c>
+      <c r="H7"/>
       <c r="J7" s="47">
         <v>45761</v>
       </c>
@@ -22602,6 +26321,7 @@
       <c r="G8" s="11">
         <v>116861.75999999999</v>
       </c>
+      <c r="H8"/>
       <c r="J8" s="47">
         <v>45761</v>
       </c>
@@ -22648,6 +26368,7 @@
       <c r="G9" s="11">
         <v>116861.75999999999</v>
       </c>
+      <c r="H9"/>
       <c r="J9" s="47">
         <v>45761</v>
       </c>
@@ -22694,6 +26415,7 @@
       <c r="G10" s="11">
         <v>116861.75999999999</v>
       </c>
+      <c r="H10"/>
       <c r="J10" s="47">
         <v>45761</v>
       </c>
@@ -22740,6 +26462,7 @@
       <c r="G11" s="11">
         <v>116861.75999999999</v>
       </c>
+      <c r="H11"/>
       <c r="J11" s="47">
         <v>45761</v>
       </c>
@@ -22786,6 +26509,7 @@
       <c r="G12" s="14">
         <v>116861.75999999999</v>
       </c>
+      <c r="H12"/>
       <c r="J12" s="47"/>
       <c r="L12" s="1"/>
     </row>
@@ -22813,6 +26537,7 @@
       <c r="G13" s="11">
         <v>129304.79</v>
       </c>
+      <c r="H13"/>
       <c r="I13" s="3"/>
       <c r="J13" s="1"/>
       <c r="L13" s="1"/>
@@ -22842,6 +26567,7 @@
       <c r="G14" s="11">
         <v>129304.79</v>
       </c>
+      <c r="H14"/>
       <c r="J14" s="47"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -22870,6 +26596,7 @@
       <c r="G15" s="11">
         <v>129304.79</v>
       </c>
+      <c r="H15"/>
       <c r="J15" s="47"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -22898,6 +26625,7 @@
       <c r="G16" s="11">
         <v>129304.79</v>
       </c>
+      <c r="H16"/>
       <c r="J16" s="47"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -22926,6 +26654,7 @@
       <c r="G17" s="11">
         <v>129304.79</v>
       </c>
+      <c r="H17"/>
       <c r="J17" s="47"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -22954,6 +26683,7 @@
       <c r="G18" s="11">
         <v>129304.79</v>
       </c>
+      <c r="H18"/>
       <c r="J18" s="47"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -22982,6 +26712,7 @@
       <c r="G19" s="11">
         <v>129304.79</v>
       </c>
+      <c r="H19"/>
       <c r="J19" s="47"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -23010,6 +26741,7 @@
       <c r="G20" s="11">
         <v>129304.79</v>
       </c>
+      <c r="H20"/>
       <c r="J20" s="47"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -23038,6 +26770,7 @@
       <c r="G21" s="11">
         <v>129304.79</v>
       </c>
+      <c r="H21"/>
       <c r="J21" s="47"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -23066,6 +26799,7 @@
       <c r="G22" s="11">
         <v>129304.79</v>
       </c>
+      <c r="H22"/>
       <c r="J22" s="47"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -23094,6 +26828,7 @@
       <c r="G23" s="14">
         <v>129304.79</v>
       </c>
+      <c r="H23"/>
       <c r="J23" s="47"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -23122,6 +26857,7 @@
       <c r="G24" s="11">
         <v>129926.89</v>
       </c>
+      <c r="H24"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
@@ -23149,6 +26885,7 @@
       <c r="G25" s="11">
         <v>129926.89</v>
       </c>
+      <c r="H25"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -23175,6 +26912,7 @@
       <c r="G26" s="11">
         <v>129926.89</v>
       </c>
+      <c r="H26"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -23201,6 +26939,7 @@
       <c r="G27" s="11">
         <v>129926.89</v>
       </c>
+      <c r="H27"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -23227,6 +26966,7 @@
       <c r="G28" s="11">
         <v>129926.89</v>
       </c>
+      <c r="H28"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -23243,7 +26983,7 @@
         <f t="shared" si="1"/>
         <v>0.1126729039693015</v>
       </c>
-      <c r="E29" s="10" t="str">
+      <c r="E29" s="98" t="str">
         <f>_xlfn.XLOOKUP(B29,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
         <v>Energia Elétrica</v>
       </c>
@@ -23253,6 +26993,7 @@
       <c r="G29" s="11">
         <v>129926.89</v>
       </c>
+      <c r="H29"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -23279,6 +27020,7 @@
       <c r="G30" s="11">
         <v>129926.89</v>
       </c>
+      <c r="H30"/>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -23305,6 +27047,7 @@
       <c r="G31" s="11">
         <v>129926.89</v>
       </c>
+      <c r="H31"/>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -23331,6 +27074,7 @@
       <c r="G32" s="11">
         <v>129926.89</v>
       </c>
+      <c r="H32"/>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -23357,6 +27101,7 @@
       <c r="G33" s="11">
         <v>129926.89</v>
       </c>
+      <c r="H33"/>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -23383,6 +27128,7 @@
       <c r="G34" s="14">
         <v>129926.89</v>
       </c>
+      <c r="H34"/>
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -23410,6 +27156,7 @@
         <f>_xlfn.XLOOKUP(A35,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>131555.39000000001</v>
       </c>
+      <c r="H35"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
@@ -23436,6 +27183,7 @@
         <f>_xlfn.XLOOKUP(A36,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>131555.39000000001</v>
       </c>
+      <c r="H36"/>
       <c r="J36" s="3"/>
       <c r="K36" s="1"/>
     </row>
@@ -23464,6 +27212,7 @@
         <f>_xlfn.XLOOKUP(A37,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>131555.39000000001</v>
       </c>
+      <c r="H37"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -23491,6 +27240,7 @@
         <f>_xlfn.XLOOKUP(A38,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>131555.39000000001</v>
       </c>
+      <c r="H38"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -23518,6 +27268,7 @@
         <f>_xlfn.XLOOKUP(A39,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>131555.39000000001</v>
       </c>
+      <c r="H39"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -23545,6 +27296,7 @@
         <f>_xlfn.XLOOKUP(A40,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>131555.39000000001</v>
       </c>
+      <c r="H40"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -23572,6 +27324,7 @@
         <f>_xlfn.XLOOKUP(A41,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>131555.39000000001</v>
       </c>
+      <c r="H41"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -23630,6 +27383,7 @@
         <f>_xlfn.XLOOKUP(A43,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>131555.39000000001</v>
       </c>
+      <c r="H43"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -23657,6 +27411,7 @@
         <f>_xlfn.XLOOKUP(A44,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>131555.39000000001</v>
       </c>
+      <c r="H44"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -23684,6 +27439,7 @@
         <f>_xlfn.XLOOKUP(A45,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>131555.39000000001</v>
       </c>
+      <c r="H45"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
@@ -23710,6 +27466,7 @@
         <f>_xlfn.XLOOKUP(A46,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
+      <c r="H46"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
@@ -23738,7 +27495,6 @@
         <f>_xlfn.XLOOKUP(A47,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-      <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -23766,7 +27522,6 @@
         <f>_xlfn.XLOOKUP(A48,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-      <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -23794,7 +27549,6 @@
         <f>_xlfn.XLOOKUP(A49,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -23822,7 +27576,6 @@
         <f>_xlfn.XLOOKUP(A50,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -23850,7 +27603,6 @@
         <f>_xlfn.XLOOKUP(A51,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -23878,7 +27630,6 @@
         <f>_xlfn.XLOOKUP(A52,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -23906,7 +27657,6 @@
         <f>_xlfn.XLOOKUP(A53,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
@@ -23934,7 +27684,6 @@
         <f>_xlfn.XLOOKUP(A54,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
@@ -23962,7 +27711,6 @@
         <f>_xlfn.XLOOKUP(A55,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
-      <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -23990,6 +27738,7 @@
         <f>_xlfn.XLOOKUP(A56,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132965.79</v>
       </c>
+      <c r="H56"/>
       <c r="I56" s="88"/>
       <c r="K56" s="3"/>
     </row>
@@ -24046,6 +27795,7 @@
         <f>_xlfn.XLOOKUP(A58,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133265.72</v>
       </c>
+      <c r="H58"/>
       <c r="I58" s="89"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -24073,6 +27823,7 @@
         <f>_xlfn.XLOOKUP(A59,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133265.72</v>
       </c>
+      <c r="H59"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
@@ -24099,6 +27850,7 @@
         <f>_xlfn.XLOOKUP(A60,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133265.72</v>
       </c>
+      <c r="H60"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
@@ -24125,6 +27877,7 @@
         <f>_xlfn.XLOOKUP(A61,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133265.72</v>
       </c>
+      <c r="H61"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
@@ -24151,6 +27904,7 @@
         <f>_xlfn.XLOOKUP(A62,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133265.72</v>
       </c>
+      <c r="H62"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
@@ -24177,6 +27931,7 @@
         <f>_xlfn.XLOOKUP(A63,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133265.72</v>
       </c>
+      <c r="H63"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
@@ -24203,6 +27958,7 @@
         <f>_xlfn.XLOOKUP(A64,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133265.72</v>
       </c>
+      <c r="H64"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
@@ -24229,6 +27985,7 @@
         <f>_xlfn.XLOOKUP(A65,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133265.72</v>
       </c>
+      <c r="H65"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
@@ -24255,6 +28012,7 @@
         <f>_xlfn.XLOOKUP(A66,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133265.72</v>
       </c>
+      <c r="H66"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
@@ -24281,6 +28039,7 @@
         <f>_xlfn.XLOOKUP(A67,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133265.72</v>
       </c>
+      <c r="H67"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
@@ -24307,6 +28066,7 @@
         <f>_xlfn.XLOOKUP(A68,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133642.26999999999</v>
       </c>
+      <c r="H68"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
@@ -24333,6 +28093,7 @@
         <f>_xlfn.XLOOKUP(A69,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133642.26999999999</v>
       </c>
+      <c r="H69"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
@@ -24359,6 +28120,7 @@
         <f>_xlfn.XLOOKUP(A70,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133642.26999999999</v>
       </c>
+      <c r="H70"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
@@ -24385,6 +28147,7 @@
         <f>_xlfn.XLOOKUP(A71,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133642.26999999999</v>
       </c>
+      <c r="H71"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
@@ -24411,6 +28174,7 @@
         <f>_xlfn.XLOOKUP(A72,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133642.26999999999</v>
       </c>
+      <c r="H72"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
@@ -24437,6 +28201,7 @@
         <f>_xlfn.XLOOKUP(A73,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133642.26999999999</v>
       </c>
+      <c r="H73"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
@@ -24463,6 +28228,7 @@
         <f>_xlfn.XLOOKUP(A74,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133642.26999999999</v>
       </c>
+      <c r="H74"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
@@ -24489,6 +28255,7 @@
         <f>_xlfn.XLOOKUP(A75,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133642.26999999999</v>
       </c>
+      <c r="H75"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
@@ -24515,6 +28282,7 @@
         <f>_xlfn.XLOOKUP(A76,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133642.26999999999</v>
       </c>
+      <c r="H76"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
@@ -24541,6 +28309,7 @@
         <f>_xlfn.XLOOKUP(A77,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133642.26999999999</v>
       </c>
+      <c r="H77"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
@@ -24567,6 +28336,7 @@
         <f>_xlfn.XLOOKUP(A78,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>133642.26999999999</v>
       </c>
+      <c r="H78"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
@@ -24593,6 +28363,7 @@
         <f>_xlfn.XLOOKUP(A79,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
+      <c r="H79"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -24620,7 +28391,6 @@
         <f>_xlfn.XLOOKUP(A80,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-      <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
@@ -24648,7 +28418,6 @@
         <f>_xlfn.XLOOKUP(A81,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-      <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -24676,7 +28445,6 @@
         <f>_xlfn.XLOOKUP(A82,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-      <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
@@ -24704,7 +28472,6 @@
         <f>_xlfn.XLOOKUP(A83,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-      <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
@@ -24732,7 +28499,6 @@
         <f>_xlfn.XLOOKUP(A84,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-      <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -24760,7 +28526,6 @@
         <f>_xlfn.XLOOKUP(A85,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-      <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
@@ -24788,7 +28553,6 @@
         <f>_xlfn.XLOOKUP(A86,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-      <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -24816,7 +28580,6 @@
         <f>_xlfn.XLOOKUP(A87,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-      <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
@@ -24844,7 +28607,6 @@
         <f>_xlfn.XLOOKUP(A88,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-      <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
@@ -24872,7 +28634,6 @@
         <f>_xlfn.XLOOKUP(A89,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>134290.53</v>
       </c>
-      <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
@@ -24900,6 +28661,7 @@
         <f>_xlfn.XLOOKUP(A90,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
+      <c r="H90"/>
       <c r="I90" s="90"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
@@ -24927,7 +28689,6 @@
         <f>_xlfn.XLOOKUP(A91,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-      <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="3"/>
       <c r="K91" s="1"/>
@@ -24957,7 +28718,6 @@
         <f>_xlfn.XLOOKUP(A92,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-      <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="3"/>
       <c r="K92" s="1"/>
@@ -24987,7 +28747,6 @@
         <f>_xlfn.XLOOKUP(A93,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-      <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="3"/>
       <c r="K93" s="1"/>
@@ -25017,7 +28776,6 @@
         <f>_xlfn.XLOOKUP(A94,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-      <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="3"/>
       <c r="K94" s="1"/>
@@ -25047,7 +28805,6 @@
         <f>_xlfn.XLOOKUP(A95,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-      <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="3"/>
       <c r="K95" s="1"/>
@@ -25077,7 +28834,6 @@
         <f>_xlfn.XLOOKUP(A96,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-      <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="3"/>
       <c r="K96" s="1"/>
@@ -25107,7 +28863,6 @@
         <f>_xlfn.XLOOKUP(A97,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-      <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="3"/>
       <c r="K97" s="1"/>
@@ -25137,7 +28892,6 @@
         <f>_xlfn.XLOOKUP(A98,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-      <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="3"/>
       <c r="K98" s="1"/>
@@ -25167,7 +28921,6 @@
         <f>_xlfn.XLOOKUP(A99,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-      <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="3"/>
       <c r="K99" s="1"/>
@@ -25197,7 +28950,6 @@
         <f>_xlfn.XLOOKUP(A100,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>132059.6</v>
       </c>
-      <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="3"/>
       <c r="K100" s="1"/>
@@ -25227,6 +28979,7 @@
         <f>_xlfn.XLOOKUP(A101,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>115156.59</v>
       </c>
+      <c r="H101"/>
       <c r="I101" s="90"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -25254,7 +29007,6 @@
         <f>_xlfn.XLOOKUP(A102,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>115156.59</v>
       </c>
-      <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
@@ -25283,7 +29035,6 @@
         <f>_xlfn.XLOOKUP(A103,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>115156.59</v>
       </c>
-      <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
@@ -25312,7 +29063,6 @@
         <f>_xlfn.XLOOKUP(A104,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>115156.59</v>
       </c>
-      <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
@@ -25341,7 +29091,6 @@
         <f>_xlfn.XLOOKUP(A105,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>115156.59</v>
       </c>
-      <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
@@ -25370,7 +29119,6 @@
         <f>_xlfn.XLOOKUP(A106,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>115156.59</v>
       </c>
-      <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
@@ -25399,7 +29147,6 @@
         <f>_xlfn.XLOOKUP(A107,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>115156.59</v>
       </c>
-      <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
@@ -25428,7 +29175,6 @@
         <f>_xlfn.XLOOKUP(A108,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>115156.59</v>
       </c>
-      <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
@@ -25457,7 +29203,6 @@
         <f>_xlfn.XLOOKUP(A109,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>115156.59</v>
       </c>
-      <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
@@ -25486,7 +29231,6 @@
         <f>_xlfn.XLOOKUP(A110,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>115156.59</v>
       </c>
-      <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
@@ -25515,6 +29259,7 @@
         <f>_xlfn.XLOOKUP(A111,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>115156.59</v>
       </c>
+      <c r="H111"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
@@ -25541,8 +29286,9 @@
         <f>_xlfn.XLOOKUP(A112,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>118628.72</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112"/>
+    </row>
+    <row r="113" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
         <v>45761</v>
       </c>
@@ -25568,7 +29314,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
         <v>45761</v>
       </c>
@@ -25594,7 +29340,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
         <v>45761</v>
       </c>
@@ -25620,7 +29366,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
         <v>45761</v>
       </c>
@@ -25646,7 +29392,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
         <v>45761</v>
       </c>
@@ -25672,7 +29418,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
         <v>45761</v>
       </c>
@@ -25698,7 +29444,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
         <v>45761</v>
       </c>
@@ -25724,7 +29470,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
         <v>45761</v>
       </c>
@@ -25750,7 +29496,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>45761</v>
       </c>
@@ -25776,7 +29522,7 @@
         <v>118628.72</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9">
         <v>45764</v>
       </c>
@@ -25802,7 +29548,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9">
         <v>45764</v>
       </c>
@@ -25828,7 +29574,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9">
         <v>45764</v>
       </c>
@@ -25854,7 +29600,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9">
         <v>45764</v>
       </c>
@@ -25880,7 +29626,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9">
         <v>45764</v>
       </c>
@@ -25906,7 +29652,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9">
         <v>45764</v>
       </c>
@@ -25932,7 +29678,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9">
         <v>45764</v>
       </c>
@@ -25958,7 +29704,7 @@
         <v>117875.9</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="9">
         <v>45764</v>
       </c>
@@ -25983,8 +29729,9 @@
         <f>_xlfn.XLOOKUP(A129,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>117875.9</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="9">
         <v>45764</v>
       </c>
@@ -26009,8 +29756,9 @@
         <f>_xlfn.XLOOKUP(A130,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>117875.9</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>45764</v>
       </c>
@@ -26035,8 +29783,9 @@
         <f>_xlfn.XLOOKUP(A131,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>117875.9</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="9">
         <v>45777</v>
       </c>
@@ -26061,8 +29810,11 @@
         <f>_xlfn.XLOOKUP(A132,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>122186.69</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="9">
         <v>45777</v>
       </c>
@@ -26087,8 +29839,11 @@
         <f>_xlfn.XLOOKUP(A133,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>122186.69</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="9">
         <v>45777</v>
       </c>
@@ -26113,8 +29868,11 @@
         <f>_xlfn.XLOOKUP(A134,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>122186.69</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" s="9">
         <v>45777</v>
       </c>
@@ -26139,8 +29897,11 @@
         <f>_xlfn.XLOOKUP(A135,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>122186.69</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="9">
         <v>45777</v>
       </c>
@@ -26165,8 +29926,11 @@
         <f>_xlfn.XLOOKUP(A136,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>122186.69</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="9">
         <v>45777</v>
       </c>
@@ -26191,8 +29955,11 @@
         <f>_xlfn.XLOOKUP(A137,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>122186.69</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="9">
         <v>45777</v>
       </c>
@@ -26217,8 +29984,11 @@
         <f>_xlfn.XLOOKUP(A138,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>122186.69</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="9">
         <v>45777</v>
       </c>
@@ -26229,7 +29999,7 @@
         <v>6364.65</v>
       </c>
       <c r="D139" s="41">
-        <f t="shared" ref="D139:D141" si="18">C139/G139</f>
+        <f t="shared" ref="D139:D147" si="18">C139/G139</f>
         <v>5.2089552470895147E-2</v>
       </c>
       <c r="E139" s="10" t="str">
@@ -26243,8 +30013,11 @@
         <f>_xlfn.XLOOKUP(A139,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>122186.69</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="9">
         <v>45777</v>
       </c>
@@ -26269,8 +30042,11 @@
         <f>_xlfn.XLOOKUP(A140,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>122186.69</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>45777</v>
       </c>
@@ -26295,6 +30071,690 @@
         <f>_xlfn.XLOOKUP(A141,Historico_Cota!A:A,Historico_Cota!C:C)</f>
         <v>122186.69</v>
       </c>
+      <c r="H141"/>
+      <c r="J141" s="1"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="11">
+        <v>14710.1</v>
+      </c>
+      <c r="D142" s="41">
+        <f t="shared" si="18"/>
+        <v>0.12039941887827137</v>
+      </c>
+      <c r="E142" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B142,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G142" s="11">
+        <f>_xlfn.XLOOKUP(A142,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122177.5</v>
+      </c>
+      <c r="H142"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="11">
+        <v>6909.96</v>
+      </c>
+      <c r="D143" s="41">
+        <f t="shared" si="18"/>
+        <v>5.6556730985656119E-2</v>
+      </c>
+      <c r="E143" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B143,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G143" s="11">
+        <f>_xlfn.XLOOKUP(A143,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122177.5</v>
+      </c>
+      <c r="H143"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" s="11">
+        <v>15990.08</v>
+      </c>
+      <c r="D144" s="41">
+        <f t="shared" si="18"/>
+        <v>0.13087581592355385</v>
+      </c>
+      <c r="E144" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B144,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G144" s="11">
+        <f>_xlfn.XLOOKUP(A144,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122177.5</v>
+      </c>
+      <c r="H144"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="11">
+        <v>11736</v>
+      </c>
+      <c r="D145" s="41">
+        <f t="shared" si="18"/>
+        <v>9.605696629903214E-2</v>
+      </c>
+      <c r="E145" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B145,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G145" s="11">
+        <f>_xlfn.XLOOKUP(A145,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122177.5</v>
+      </c>
+      <c r="H145"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" s="11">
+        <v>16206.75</v>
+      </c>
+      <c r="D146" s="41">
+        <f t="shared" si="18"/>
+        <v>0.13264921937345256</v>
+      </c>
+      <c r="E146" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B146,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G146" s="11">
+        <f>_xlfn.XLOOKUP(A146,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122177.5</v>
+      </c>
+      <c r="H146"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" s="11">
+        <v>6812.45</v>
+      </c>
+      <c r="D147" s="41">
+        <f t="shared" si="18"/>
+        <v>5.5758629862290521E-2</v>
+      </c>
+      <c r="E147" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B147,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G147" s="11">
+        <f>_xlfn.XLOOKUP(A147,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122177.5</v>
+      </c>
+      <c r="H147"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" s="11">
+        <v>15601.34</v>
+      </c>
+      <c r="D148" s="41">
+        <f>C148/G148</f>
+        <v>0.12769405168709461</v>
+      </c>
+      <c r="E148" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B148,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G148" s="11">
+        <f>_xlfn.XLOOKUP(A148,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122177.5</v>
+      </c>
+      <c r="H148"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+    </row>
+    <row r="149" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+      <c r="A149" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" s="11">
+        <v>6505.08</v>
+      </c>
+      <c r="D149" s="41">
+        <f t="shared" ref="D149:D157" si="19">C149/G149</f>
+        <v>5.324286386609646E-2</v>
+      </c>
+      <c r="E149" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B149,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F149" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G149" s="11">
+        <f>_xlfn.XLOOKUP(A149,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122177.5</v>
+      </c>
+      <c r="H149"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="99"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" s="9">
+        <v>45783</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C150" s="11">
+        <v>13515</v>
+      </c>
+      <c r="D150" s="41">
+        <f t="shared" si="19"/>
+        <v>0.11061774876716253</v>
+      </c>
+      <c r="E150" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B150,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G150" s="11">
+        <f>_xlfn.XLOOKUP(A150,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122177.5</v>
+      </c>
+      <c r="H150"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="100"/>
+      <c r="L150" s="100"/>
+      <c r="M150" s="100"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" s="12">
+        <v>45783</v>
+      </c>
+      <c r="B151" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" s="14">
+        <v>13475.24</v>
+      </c>
+      <c r="D151" s="42">
+        <f t="shared" si="19"/>
+        <v>0.11029232059912832</v>
+      </c>
+      <c r="E151" s="13" t="str">
+        <f>_xlfn.XLOOKUP(B151,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G151" s="14">
+        <f>_xlfn.XLOOKUP(A151,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>122177.5</v>
+      </c>
+      <c r="H151" s="3"/>
+      <c r="I151" s="1">
+        <f>SUM(I152:I160)</f>
+        <v>-3.3445886789503637E-4</v>
+      </c>
+      <c r="J151" s="1"/>
+      <c r="K151" s="101"/>
+      <c r="L151" s="102"/>
+      <c r="M151" s="103"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" s="11">
+        <v>15030.77</v>
+      </c>
+      <c r="D152" s="41">
+        <f t="shared" si="19"/>
+        <v>0.12135438768504184</v>
+      </c>
+      <c r="E152" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B152,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G152" s="11">
+        <f>_xlfn.XLOOKUP(A152,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>123858.48</v>
+      </c>
+      <c r="H152" s="1">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="I152" s="92">
+        <f>H152*D152</f>
+        <v>4.1260491812914222E-4</v>
+      </c>
+      <c r="K152" s="101"/>
+      <c r="L152" s="102"/>
+      <c r="M152" s="103"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" s="11">
+        <v>6822.74</v>
+      </c>
+      <c r="D153" s="41">
+        <f t="shared" si="19"/>
+        <v>5.5084964711338294E-2</v>
+      </c>
+      <c r="E153" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B153,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Previdência e Seguros</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G153" s="11">
+        <f>_xlfn.XLOOKUP(A153,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>123858.48</v>
+      </c>
+      <c r="H153" s="1">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I153" s="92">
+        <f t="shared" ref="I153:I160" si="20">H153*D153</f>
+        <v>3.0296730591236062E-4</v>
+      </c>
+      <c r="K153" s="101"/>
+      <c r="L153" s="102"/>
+      <c r="M153" s="103"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A154" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C154" s="11">
+        <v>17466.68</v>
+      </c>
+      <c r="D154" s="41">
+        <f t="shared" si="19"/>
+        <v>0.14102126878999324</v>
+      </c>
+      <c r="E154" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B154,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Intermediários Financeiros</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G154" s="11">
+        <f>_xlfn.XLOOKUP(A154,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>123858.48</v>
+      </c>
+      <c r="H154" s="1">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="I154" s="92">
+        <f t="shared" si="20"/>
+        <v>-5.2177869452297502E-4</v>
+      </c>
+      <c r="K154" s="101"/>
+      <c r="L154" s="102"/>
+      <c r="M154" s="103"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A155" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" s="11">
+        <v>11332.8</v>
+      </c>
+      <c r="D155" s="41">
+        <f t="shared" si="19"/>
+        <v>9.1497974139517935E-2</v>
+      </c>
+      <c r="E155" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B155,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G155" s="11">
+        <f>_xlfn.XLOOKUP(A155,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>123858.48</v>
+      </c>
+      <c r="H155" s="1">
+        <v>-2E-3</v>
+      </c>
+      <c r="I155" s="92">
+        <f t="shared" si="20"/>
+        <v>-1.8299594827903587E-4</v>
+      </c>
+      <c r="K155" s="101"/>
+      <c r="L155" s="102"/>
+      <c r="M155" s="103"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A156" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="11">
+        <v>16433.13</v>
+      </c>
+      <c r="D156" s="41">
+        <f t="shared" si="19"/>
+        <v>0.13267666452874283</v>
+      </c>
+      <c r="E156" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B156,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Energia Elétrica</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G156" s="11">
+        <f>_xlfn.XLOOKUP(A156,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>123858.48</v>
+      </c>
+      <c r="H156" s="1">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="I156" s="92">
+        <f t="shared" si="20"/>
+        <v>-5.0417132520922271E-4</v>
+      </c>
+      <c r="K156" s="101"/>
+      <c r="L156" s="102"/>
+      <c r="M156" s="103"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A157" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C157" s="11">
+        <v>6803.9</v>
+      </c>
+      <c r="D157" s="41">
+        <f t="shared" si="19"/>
+        <v>5.4932855626841214E-2</v>
+      </c>
+      <c r="E157" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B157,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G157" s="11">
+        <f>_xlfn.XLOOKUP(A157,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>123858.48</v>
+      </c>
+      <c r="H157" s="1">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="I157" s="92">
+        <f t="shared" si="20"/>
+        <v>2.9663742038494255E-4</v>
+      </c>
+      <c r="K157" s="101"/>
+      <c r="L157" s="102"/>
+      <c r="M157" s="103"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" s="11">
+        <v>15474.74</v>
+      </c>
+      <c r="D158" s="41">
+        <f>C158/G158</f>
+        <v>0.12493888185936078</v>
+      </c>
+      <c r="E158" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B158,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Petróleo, Gás e Biocombustíveis</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G158" s="11">
+        <f>_xlfn.XLOOKUP(A158,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>123858.48</v>
+      </c>
+      <c r="H158" s="1">
+        <v>-1.8E-3</v>
+      </c>
+      <c r="I158" s="92">
+        <f t="shared" si="20"/>
+        <v>-2.2488998734684939E-4</v>
+      </c>
+      <c r="K158" s="101"/>
+      <c r="L158" s="102"/>
+      <c r="M158" s="103"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" s="11">
+        <v>6577.56</v>
+      </c>
+      <c r="D159" s="41">
+        <f t="shared" ref="D159:D161" si="21">C159/G159</f>
+        <v>5.3105447442920346E-2</v>
+      </c>
+      <c r="E159" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B159,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Fundos de índice</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G159" s="11">
+        <f>_xlfn.XLOOKUP(A159,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>123858.48</v>
+      </c>
+      <c r="H159" s="1">
+        <v>1.17E-2</v>
+      </c>
+      <c r="I159" s="92">
+        <f t="shared" si="20"/>
+        <v>6.2133373508216805E-4</v>
+      </c>
+      <c r="K159" s="101"/>
+      <c r="L159" s="102"/>
+      <c r="M159" s="103"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A160" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C160" s="11">
+        <v>13502.25</v>
+      </c>
+      <c r="D160" s="41">
+        <f t="shared" si="21"/>
+        <v>0.10901352898889119</v>
+      </c>
+      <c r="E160" s="10" t="str">
+        <f>_xlfn.XLOOKUP(B160,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Mineração</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G160" s="11">
+        <f>_xlfn.XLOOKUP(A160,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>123858.48</v>
+      </c>
+      <c r="H160" s="1">
+        <v>-4.8999999999999998E-3</v>
+      </c>
+      <c r="I160" s="92">
+        <f t="shared" si="20"/>
+        <v>-5.3416629204556686E-4</v>
+      </c>
+      <c r="K160" s="101"/>
+      <c r="L160" s="101"/>
+      <c r="M160" s="103"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A161" s="9">
+        <v>45786</v>
+      </c>
+      <c r="B161" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" s="14">
+        <v>13475.24</v>
+      </c>
+      <c r="D161" s="42">
+        <f t="shared" si="21"/>
+        <v>0.10879545752539511</v>
+      </c>
+      <c r="E161" s="13" t="str">
+        <f>_xlfn.XLOOKUP(B161,Cadastro_Acoes!A:A,Cadastro_Acoes!C:C)</f>
+        <v>Caixa</v>
+      </c>
+      <c r="F161" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G161" s="14">
+        <f>_xlfn.XLOOKUP(A161,Historico_Cota!A:A,Historico_Cota!C:C)</f>
+        <v>123858.48</v>
+      </c>
+      <c r="K161" s="101"/>
+      <c r="L161" s="101"/>
+      <c r="M161" s="103"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="K162" s="101"/>
+      <c r="L162" s="101"/>
+      <c r="M162" s="103"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G45" xr:uid="{C9E8ED7A-067E-430E-AA1E-91607D7381E6}"/>
@@ -26306,11 +30766,489 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE41B25-6C8F-F748-8CCA-6626CB143EAE}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="3"/>
+    <col min="10" max="10" width="10.83203125" style="92"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="47">
+        <v>45786</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3">
+        <v>14796.289988</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2/G2</f>
+        <v>0.11863602370915019</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="3">
+        <v>124720.04308130557</v>
+      </c>
+      <c r="H2" s="3">
+        <v>509</v>
+      </c>
+      <c r="I2" s="3">
+        <f>C2/H2</f>
+        <v>29.069331999999999</v>
+      </c>
+      <c r="J2" s="94">
+        <v>0.08</v>
+      </c>
+      <c r="K2" s="3">
+        <f>G2*J2/I2</f>
+        <v>343.23469994097036</v>
+      </c>
+      <c r="L2" s="3">
+        <f>K2-H2</f>
+        <v>-165.76530005902964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="47">
+        <v>45786</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6751.783504</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D11" si="0">C3/G3</f>
+        <v>5.4135512923119189E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="3">
+        <v>124720.04308130557</v>
+      </c>
+      <c r="H3" s="3">
+        <v>178</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I10" si="1">C3/H3</f>
+        <v>37.931367999999999</v>
+      </c>
+      <c r="J3" s="93">
+        <v>5.4135512923119189E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K10" si="2">G3*J3/I3</f>
+        <v>178</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L10" si="3">K3-H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="47">
+        <v>45786</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3">
+        <v>17012.546320000001</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13640587270250895</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="3">
+        <v>124720.04308130557</v>
+      </c>
+      <c r="H4" s="3">
+        <v>428</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="1"/>
+        <v>39.748940000000005</v>
+      </c>
+      <c r="J4" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="2"/>
+        <v>313.76948185613395</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="3"/>
+        <v>-114.23051814386605</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="47">
+        <v>45786</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3">
+        <v>11272.73616</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>9.0384319003572272E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="3">
+        <v>124720.04308130557</v>
+      </c>
+      <c r="H5" s="3">
+        <v>288</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>39.141445000000004</v>
+      </c>
+      <c r="J5" s="93">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="2"/>
+        <v>288.04996582395012</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>4.9965823950117283E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="47">
+        <v>45786</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3">
+        <v>16300.021647000001</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13069288018425348</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="3">
+        <v>124720.04308130557</v>
+      </c>
+      <c r="H6" s="3">
+        <v>343</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>47.521929000000007</v>
+      </c>
+      <c r="J6" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" si="2"/>
+        <v>262.44734947797588</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="3"/>
+        <v>-80.552650522024123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="47">
+        <v>45786</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7071.9736600000006</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6702783973460853E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="3">
+        <v>124720.04308130557</v>
+      </c>
+      <c r="H7" s="3">
+        <v>19</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>372.20914000000005</v>
+      </c>
+      <c r="J7" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="2"/>
+        <v>33.508054928824571</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="3"/>
+        <v>14.508054928824571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="47">
+        <v>45786</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3">
+        <v>16271.689110000001</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13046571110781618</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3">
+        <v>124720.04308130557</v>
+      </c>
+      <c r="H8" s="3">
+        <v>422</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>38.558505000000004</v>
+      </c>
+      <c r="J8" s="95">
+        <v>0.13046571110781618</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="2"/>
+        <v>422</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="47">
+        <v>45786</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6930.7749720000011</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5570658899482553E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="3">
+        <v>124720.04308130557</v>
+      </c>
+      <c r="H9" s="3">
+        <v>453</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>15.299724000000003</v>
+      </c>
+      <c r="J9" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="3">
+        <f t="shared" si="2"/>
+        <v>815.1783854486888</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="3"/>
+        <v>362.1783854486888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="47">
+        <v>45786</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3">
+        <v>13841.156474999998</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11097780383203432</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="3">
+        <v>124720.04308130557</v>
+      </c>
+      <c r="H10" s="3">
+        <v>255</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>54.279044999999989</v>
+      </c>
+      <c r="J10" s="95">
+        <v>0.12</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="2"/>
+        <v>275.73081231913108</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="3"/>
+        <v>20.730812319131076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="47">
+        <v>45786</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3">
+        <v>13475.24</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10804390110108789</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3">
+        <v>124720.04308130557</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" s="97">
+        <f>SUM(J2:J10)</f>
+        <v>0.87500122403093528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D12" s="96">
+        <f>SUM(D2:D10)</f>
+        <v>0.88397156633539797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5410629D-6DE0-46FD-B578-14B10353174E}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26620,9 +31558,9 @@
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
         <v>1.3270379410804889E-2</v>
       </c>
-      <c r="F8" s="49" t="str">
+      <c r="F8" s="91">
         <f>_xlfn.XLOOKUP(F6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
-        <v>-</v>
+        <v>3.3201877204618979E-2</v>
       </c>
       <c r="G8" s="49" t="str">
         <f>_xlfn.XLOOKUP(G6,Historico_Cota!$I:$I,Historico_Cota!$J:$J,"-",,-1)</f>
@@ -26654,7 +31592,7 @@
       </c>
       <c r="N8" s="49" cm="1">
         <f t="array" ref="N8">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B8:M8,B8:M8&lt;&gt;"-"))))-1</f>
-        <v>6.8031929241102684E-2</v>
+        <v>0.10349259420637802</v>
       </c>
       <c r="O8" s="1"/>
       <c r="R8" s="3"/>
@@ -26679,9 +31617,9 @@
         <f>_xlfn.XLOOKUP(E6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
         <v>3.6903116843236328E-2</v>
       </c>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="49">
         <f>_xlfn.XLOOKUP(F6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
-        <v>-</v>
+        <v>2.8844943620573327E-2</v>
       </c>
       <c r="G9" s="49" t="str">
         <f>_xlfn.XLOOKUP(G6,Historico_Cota!$I:$I,Historico_Cota!$K:$K,"-",,-1)</f>
@@ -26713,16 +31651,17 @@
       </c>
       <c r="N9" s="49" cm="1">
         <f t="array" ref="N9">EXP(SUM(LN(1+_xlfn._xlws.FILTER(B9:M9,B9:M9&lt;&gt;"-"))))-1</f>
-        <v>0.12291013692708064</v>
+        <v>0.15530041651771254</v>
       </c>
       <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="49">
-        <f t="shared" ref="B10:N10" si="14">IFERROR((1+B8)/(1+B9),"-")</f>
+        <f t="shared" ref="B10:O10" si="14">IFERROR((1+B8)/(1+B9),"-")</f>
         <v>0.98711490530285706</v>
       </c>
       <c r="C10" s="49">
@@ -26737,9 +31676,9 @@
         <f t="shared" si="14"/>
         <v>0.97720834565105819</v>
       </c>
-      <c r="F10" s="49" t="str">
+      <c r="F10" s="49">
         <f t="shared" si="14"/>
-        <v>-</v>
+        <v>1.0042347815490187</v>
       </c>
       <c r="G10" s="49" t="str">
         <f t="shared" si="14"/>
@@ -26771,10 +31710,10 @@
       </c>
       <c r="N10" s="49">
         <f t="shared" si="14"/>
-        <v>0.95112858466470351</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="49"/>
+        <v>0.95515640644578592</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="64"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -26949,6 +31888,7 @@
         <v>1.0018422218384024</v>
       </c>
       <c r="O13" s="1"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
@@ -26957,13 +31897,40 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D15" s="1"/>
+    </row>
+    <row r="21" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1E5C71-1434-4F31-9D11-DB10380ACD99}">
   <dimension ref="A1:O27"/>
   <sheetViews>
@@ -27006,7 +31973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B7B42C-3F61-4C41-BD0C-574980AB3ECA}">
   <dimension ref="A1:D12"/>
   <sheetViews>
